--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6084789</v>
+        <v>6091189</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,40 +1153,40 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
         <v>1.825</v>
@@ -1195,34 +1195,34 @@
         <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6091189</v>
+        <v>6084789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,40 +1242,40 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1.825</v>
@@ -1284,34 +1284,34 @@
         <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5200545</v>
+        <v>5200546</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,76 +2132,76 @@
         <v>44947.5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
+        <v>3.6</v>
+      </c>
+      <c r="L19">
+        <v>3.5</v>
+      </c>
+      <c r="M19">
         <v>1.909</v>
       </c>
-      <c r="L19">
-        <v>3.3</v>
-      </c>
-      <c r="M19">
-        <v>3.6</v>
-      </c>
       <c r="N19">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
+        <v>0.95</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>0.45</v>
+      </c>
+      <c r="AC19">
         <v>-0.5</v>
-      </c>
-      <c r="AA19">
-        <v>0.5</v>
-      </c>
-      <c r="AB19">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5200546</v>
+        <v>5200545</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,76 +2221,76 @@
         <v>44947.5</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
+        <v>1.909</v>
+      </c>
+      <c r="L20">
+        <v>3.3</v>
+      </c>
+      <c r="M20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
-      <c r="M20">
-        <v>1.909</v>
-      </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
+        <v>2.025</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.3</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-0.5</v>
+      </c>
+      <c r="AA20">
         <v>0.5</v>
       </c>
-      <c r="R20">
-        <v>1.95</v>
-      </c>
-      <c r="S20">
-        <v>1.85</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
-      <c r="W20">
-        <v>2.75</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.95</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5200395</v>
+        <v>5200397</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,49 +2310,49 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
+        <v>2.375</v>
+      </c>
+      <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>2.55</v>
+      </c>
+      <c r="N21">
+        <v>2.875</v>
+      </c>
+      <c r="O21">
+        <v>3.3</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
         <v>1.8</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>3.6</v>
-      </c>
-      <c r="N21">
-        <v>1.666</v>
-      </c>
-      <c r="O21">
-        <v>3.75</v>
-      </c>
-      <c r="P21">
-        <v>4.5</v>
-      </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2361,19 +2361,19 @@
         <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5200397</v>
+        <v>5200395</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,49 +2399,49 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N22">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2450,19 +2450,19 @@
         <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6450219</v>
+        <v>6457400</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,49 +7739,49 @@
         <v>45023.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N82">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
         <v>1.85</v>
@@ -7793,22 +7793,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6457130</v>
+        <v>6457398</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O83">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6457398</v>
+        <v>6457130</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
+        <v>-0.25</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>1.975</v>
+      </c>
+      <c r="T84">
+        <v>1.75</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
+        <v>2.025</v>
+      </c>
+      <c r="W84">
+        <v>1.05</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0.825</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>0.3875</v>
+      </c>
+      <c r="AC84">
         <v>-0.5</v>
-      </c>
-      <c r="R84">
-        <v>2</v>
-      </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.8</v>
-      </c>
-      <c r="V84">
-        <v>2</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>2.25</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.8</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6457400</v>
+        <v>6450219</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,49 +8006,49 @@
         <v>45023.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
         <v>1.85</v>
@@ -8060,22 +8060,22 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6457937</v>
+        <v>6457036</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6457036</v>
+        <v>6457937</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6472454</v>
+        <v>6471670</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N90">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O90">
         <v>3.75</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6471670</v>
+        <v>6472454</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O91">
         <v>3.75</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6471914</v>
+        <v>6471672</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,73 +9519,73 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
+        <v>2.45</v>
+      </c>
+      <c r="L102">
+        <v>3.1</v>
+      </c>
+      <c r="M102">
         <v>2.6</v>
       </c>
-      <c r="L102">
-        <v>3.3</v>
-      </c>
-      <c r="M102">
-        <v>2.375</v>
-      </c>
       <c r="N102">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y102">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6471672</v>
+        <v>6471914</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,73 +9697,73 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6840427</v>
+        <v>6840426</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>11</v>
+        <v>1.571</v>
       </c>
       <c r="L119">
+        <v>4.2</v>
+      </c>
+      <c r="M119">
+        <v>4.5</v>
+      </c>
+      <c r="N119">
+        <v>1.444</v>
+      </c>
+      <c r="O119">
+        <v>4.333</v>
+      </c>
+      <c r="P119">
         <v>6</v>
       </c>
-      <c r="M119">
-        <v>1.2</v>
-      </c>
-      <c r="N119">
-        <v>11</v>
-      </c>
-      <c r="O119">
-        <v>5</v>
-      </c>
-      <c r="P119">
-        <v>1.222</v>
-      </c>
       <c r="Q119">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6840426</v>
+        <v>6840281</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K120">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="O120">
+        <v>3.75</v>
+      </c>
+      <c r="P120">
         <v>4.333</v>
       </c>
-      <c r="P120">
-        <v>6</v>
-      </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
         <v>1.85</v>
       </c>
-      <c r="S120">
-        <v>1.95</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
       <c r="AB120">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840281</v>
+        <v>6840427</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,55 +11210,55 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>44</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="N121">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11267,19 +11267,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.333</v>
+        <v>0.222</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840430</v>
+        <v>6840304</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,58 +11299,58 @@
         <v>45153.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="L122">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>8.5</v>
+        <v>1.666</v>
       </c>
       <c r="N122">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q122">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.25</v>
+        <v>3.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,16 +11359,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6840304</v>
+        <v>6840430</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,58 +11566,58 @@
         <v>45153.65625</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
       </c>
       <c r="K125">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M125">
-        <v>1.666</v>
+        <v>8.5</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P125">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>3.2</v>
+        <v>0.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11626,16 +11626,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840437</v>
+        <v>6839248</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143">
+        <v>1.2</v>
+      </c>
+      <c r="L143">
+        <v>6.5</v>
+      </c>
+      <c r="M143">
+        <v>9.5</v>
+      </c>
+      <c r="N143">
+        <v>1.222</v>
+      </c>
+      <c r="O143">
+        <v>6.5</v>
+      </c>
+      <c r="P143">
+        <v>8</v>
+      </c>
+      <c r="Q143">
+        <v>-1.75</v>
+      </c>
+      <c r="R143">
+        <v>1.9</v>
+      </c>
+      <c r="S143">
+        <v>1.9</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="J143" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143">
-        <v>3.1</v>
-      </c>
-      <c r="L143">
-        <v>3.4</v>
-      </c>
-      <c r="M143">
-        <v>2.1</v>
-      </c>
-      <c r="N143">
-        <v>3.6</v>
-      </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>1.85</v>
-      </c>
-      <c r="Q143">
-        <v>0.5</v>
-      </c>
-      <c r="R143">
-        <v>1.925</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6839248</v>
+        <v>6840437</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="L144">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="N144">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6840450</v>
+        <v>6840316</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16016,58 +16016,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>42</v>
       </c>
       <c r="K175">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L175">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="M175">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N175">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
         <v>1.825</v>
       </c>
-      <c r="V175">
-        <v>1.975</v>
-      </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16076,13 +16076,13 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6840316</v>
+        <v>6840450</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,58 +16194,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>42</v>
       </c>
       <c r="K177">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L177">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="M177">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="N177">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="O177">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P177">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="V177">
-        <v>1.825</v>
-      </c>
       <c r="W177">
-        <v>0.2849999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16254,13 +16254,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6840319</v>
+        <v>6840457</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,76 +16817,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>0</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K184">
+        <v>1.222</v>
+      </c>
+      <c r="L184">
+        <v>6</v>
+      </c>
+      <c r="M184">
+        <v>10</v>
+      </c>
+      <c r="N184">
+        <v>1.25</v>
+      </c>
+      <c r="O184">
+        <v>5.5</v>
+      </c>
+      <c r="P184">
+        <v>10</v>
+      </c>
+      <c r="Q184">
+        <v>-1.75</v>
+      </c>
+      <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
+        <v>1.825</v>
+      </c>
+      <c r="T184">
         <v>3</v>
       </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.2</v>
-      </c>
-      <c r="N184">
-        <v>2.75</v>
-      </c>
-      <c r="O184">
-        <v>3.25</v>
-      </c>
-      <c r="P184">
-        <v>2.4</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>2.05</v>
-      </c>
-      <c r="S184">
-        <v>1.75</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA184">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6840457</v>
+        <v>6840319</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,76 +16906,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>44</v>
+      </c>
+      <c r="K185">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.2</v>
+      </c>
+      <c r="N185">
+        <v>2.75</v>
+      </c>
+      <c r="O185">
+        <v>3.25</v>
+      </c>
+      <c r="P185">
+        <v>2.4</v>
+      </c>
+      <c r="Q185">
         <v>0</v>
       </c>
-      <c r="J185" t="s">
-        <v>42</v>
-      </c>
-      <c r="K185">
-        <v>1.222</v>
-      </c>
-      <c r="L185">
-        <v>6</v>
-      </c>
-      <c r="M185">
-        <v>10</v>
-      </c>
-      <c r="N185">
-        <v>1.25</v>
-      </c>
-      <c r="O185">
-        <v>5.5</v>
-      </c>
-      <c r="P185">
-        <v>10</v>
-      </c>
-      <c r="Q185">
-        <v>-1.75</v>
-      </c>
       <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>1.75</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
         <v>1.975</v>
       </c>
-      <c r="S185">
+      <c r="V185">
         <v>1.825</v>
       </c>
-      <c r="T185">
-        <v>3</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
-      <c r="V185">
-        <v>1.95</v>
-      </c>
       <c r="W185">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z185">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6839240</v>
+        <v>6837585</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,40 +17351,40 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K190">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="L190">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M190">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N190">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q190">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
         <v>1.925</v>
@@ -17393,34 +17393,34 @@
         <v>1.875</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6837585</v>
+        <v>6840320</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,10 +17440,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17455,40 +17455,40 @@
         <v>43</v>
       </c>
       <c r="K191">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L191">
         <v>3.5</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O191">
         <v>3.5</v>
       </c>
       <c r="P191">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
+        <v>1.875</v>
+      </c>
+      <c r="S191">
         <v>1.925</v>
       </c>
-      <c r="S191">
-        <v>1.875</v>
-      </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17500,16 +17500,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.4375</v>
+      </c>
+      <c r="AA191">
         <v>-0.5</v>
       </c>
-      <c r="AA191">
-        <v>0.4375</v>
-      </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840320</v>
+        <v>6840458</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
         <v>3.5</v>
       </c>
       <c r="M192">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O192">
         <v>3.5</v>
       </c>
       <c r="P192">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z192">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC192">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840458</v>
+        <v>6840459</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,56 +17618,56 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>44</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L193">
         <v>3.5</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N193">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.875</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.825</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.975</v>
       </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.85</v>
-      </c>
-      <c r="V193">
-        <v>1.95</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17675,16 +17675,16 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6840459</v>
+        <v>6839240</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,40 +17707,40 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H194">
+        <v>5</v>
+      </c>
+      <c r="I194">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>2</v>
-      </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>3.1</v>
+        <v>1.142</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="M194">
-        <v>2.05</v>
+        <v>11</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P194">
-        <v>1.85</v>
+        <v>15</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R194">
         <v>1.925</v>
@@ -17749,31 +17749,31 @@
         <v>1.875</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6840463</v>
+        <v>6840462</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45241.5</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L202">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P202">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R202">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U202">
+        <v>1.925</v>
+      </c>
+      <c r="V202">
         <v>1.875</v>
       </c>
-      <c r="V202">
-        <v>1.925</v>
-      </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.875</v>
-      </c>
-      <c r="AC202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6840462</v>
+        <v>6840324</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,76 +18508,76 @@
         <v>45241.5</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
         <v>1</v>
       </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
       <c r="J203" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="L203">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N203">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="Q203">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6840324</v>
+        <v>6839238</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,56 +18597,56 @@
         <v>45241.5</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>44</v>
       </c>
       <c r="K204">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="N204">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="O204">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P204">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R204">
+        <v>1.775</v>
+      </c>
+      <c r="S204">
+        <v>2.025</v>
+      </c>
+      <c r="T204">
+        <v>3</v>
+      </c>
+      <c r="U204">
         <v>1.85</v>
       </c>
-      <c r="S204">
+      <c r="V204">
         <v>1.95</v>
       </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.975</v>
-      </c>
-      <c r="V204">
-        <v>1.825</v>
-      </c>
       <c r="W204">
         <v>-1</v>
       </c>
@@ -18654,19 +18654,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA204">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6839238</v>
+        <v>6840463</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,55 +18686,55 @@
         <v>45241.5</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
         <v>44</v>
       </c>
       <c r="K205">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="N205">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O205">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Q205">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S205">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18743,19 +18743,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.3999999999999999</v>
+        <v>2</v>
       </c>
       <c r="Z205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6839233</v>
+        <v>6840476</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,56 +21267,56 @@
         <v>45276.5</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
         <v>44</v>
       </c>
       <c r="K234">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L234">
         <v>5</v>
       </c>
       <c r="M234">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="N234">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O234">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P234">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q234">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R234">
+        <v>2.025</v>
+      </c>
+      <c r="S234">
+        <v>1.775</v>
+      </c>
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.8</v>
       </c>
-      <c r="S234">
-        <v>2</v>
-      </c>
-      <c r="T234">
-        <v>3</v>
-      </c>
-      <c r="U234">
-        <v>1.95</v>
-      </c>
-      <c r="V234">
-        <v>1.85</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
@@ -21324,19 +21324,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6840336</v>
+        <v>6839233</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,56 +21356,56 @@
         <v>45276.5</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J235" t="s">
         <v>44</v>
       </c>
       <c r="K235">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M235">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N235">
+        <v>6.5</v>
+      </c>
+      <c r="O235">
+        <v>5</v>
+      </c>
+      <c r="P235">
+        <v>1.363</v>
+      </c>
+      <c r="Q235">
+        <v>1.5</v>
+      </c>
+      <c r="R235">
         <v>1.8</v>
       </c>
-      <c r="O235">
-        <v>3.8</v>
-      </c>
-      <c r="P235">
-        <v>3.75</v>
-      </c>
-      <c r="Q235">
-        <v>-0.5</v>
-      </c>
-      <c r="R235">
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>3</v>
+      </c>
+      <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
         <v>1.85</v>
       </c>
-      <c r="S235">
-        <v>1.95</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>1.825</v>
-      </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
         <v>-1</v>
       </c>
@@ -21413,16 +21413,16 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
+        <v>1</v>
+      </c>
+      <c r="AB235">
         <v>0.95</v>
-      </c>
-      <c r="AB235">
-        <v>0.825</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6840476</v>
+        <v>6840336</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,55 +21445,55 @@
         <v>45276.5</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
         <v>44</v>
       </c>
       <c r="K236">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M236">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="O236">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P236">
-        <v>1.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21502,19 +21502,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.45</v>
+        <v>2.75</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6840477</v>
+        <v>6837593</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21801,56 +21801,56 @@
         <v>45283.5</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H240">
         <v>1</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>44</v>
       </c>
       <c r="K240">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M240">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="Q240">
         <v>0.5</v>
       </c>
       <c r="R240">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U240">
+        <v>1.975</v>
+      </c>
+      <c r="V240">
         <v>1.825</v>
       </c>
-      <c r="V240">
-        <v>1.975</v>
-      </c>
       <c r="W240">
         <v>-1</v>
       </c>
@@ -21858,19 +21858,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
+        <v>0.833</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z240">
-        <v>-1</v>
-      </c>
-      <c r="AA240">
-        <v>0.925</v>
-      </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21878,7 +21878,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6840338</v>
+        <v>6840477</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21890,76 +21890,76 @@
         <v>45283.5</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K241">
-        <v>1.153</v>
+        <v>3.6</v>
       </c>
       <c r="L241">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="N241">
-        <v>1.142</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="Q241">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21967,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6837593</v>
+        <v>6840338</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,76 +21979,76 @@
         <v>45283.5</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K242">
-        <v>4.5</v>
+        <v>1.153</v>
       </c>
       <c r="L242">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M242">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="N242">
+        <v>1.142</v>
+      </c>
+      <c r="O242">
+        <v>7</v>
+      </c>
+      <c r="P242">
+        <v>15</v>
+      </c>
+      <c r="Q242">
+        <v>-2.25</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.8</v>
+      </c>
+      <c r="T242">
         <v>3.25</v>
       </c>
-      <c r="O242">
-        <v>3.8</v>
-      </c>
-      <c r="P242">
-        <v>1.833</v>
-      </c>
-      <c r="Q242">
-        <v>0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.95</v>
-      </c>
-      <c r="S242">
-        <v>1.85</v>
-      </c>
-      <c r="T242">
-        <v>3</v>
-      </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22234,7 +22234,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6839231</v>
+        <v>6840339</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,76 +22246,76 @@
         <v>45286.5</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K245">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M245">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="N245">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P245">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="Q245">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z245">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6840339</v>
+        <v>6839231</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22335,76 +22335,76 @@
         <v>45286.5</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
         <v>1</v>
       </c>
-      <c r="I246">
-        <v>2</v>
-      </c>
       <c r="J246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K246">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="L246">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M246">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N246">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q246">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6840294</v>
+        <v>6840293</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23848,13 +23848,13 @@
         <v>45311.5</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23863,43 +23863,43 @@
         <v>42</v>
       </c>
       <c r="K263">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="N263">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P263">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R263">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T263">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>0.571</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23908,16 +23908,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23925,7 +23925,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6840293</v>
+        <v>6840294</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23937,13 +23937,13 @@
         <v>45311.5</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -23952,43 +23952,43 @@
         <v>42</v>
       </c>
       <c r="K264">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="L264">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="N264">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="O264">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q264">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S264">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>0.1659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -23997,16 +23997,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -25376,31 +25376,31 @@
         <v>1.5</v>
       </c>
       <c r="N280">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="O280">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P280">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q280">
         <v>1</v>
       </c>
       <c r="R280">
+        <v>1.875</v>
+      </c>
+      <c r="S280">
         <v>1.925</v>
       </c>
-      <c r="S280">
-        <v>1.875</v>
-      </c>
       <c r="T280">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>7</v>
       </c>
       <c r="O281">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P281">
         <v>1.4</v>
@@ -25462,19 +25462,19 @@
         <v>1.25</v>
       </c>
       <c r="R281">
+        <v>1.85</v>
+      </c>
+      <c r="S281">
         <v>1.95</v>
-      </c>
-      <c r="S281">
-        <v>1.85</v>
       </c>
       <c r="T281">
         <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25530,25 +25530,25 @@
         <v>3.6</v>
       </c>
       <c r="P282">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q282">
         <v>0</v>
       </c>
       <c r="R282">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
         <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V282">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25604,7 +25604,7 @@
         <v>4.2</v>
       </c>
       <c r="P283">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q283">
         <v>-1</v>
@@ -25619,10 +25619,10 @@
         <v>3</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>7</v>
       </c>
       <c r="P284">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q284">
         <v>-2.25</v>
       </c>
       <c r="R284">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T284">
         <v>3.5</v>
       </c>
       <c r="U284">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W284">
         <v>0</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC284"/>
+  <dimension ref="A1:AC279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6091189</v>
+        <v>6084789</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,40 +1153,40 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1.825</v>
@@ -1195,34 +1195,34 @@
         <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6084789</v>
+        <v>6091189</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,40 +1242,40 @@
         <v>44936.69791666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
         <v>1.825</v>
@@ -1284,34 +1284,34 @@
         <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5200546</v>
+        <v>5200545</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,76 +2132,76 @@
         <v>44947.5</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
+        <v>1.909</v>
+      </c>
+      <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
         <v>3.6</v>
       </c>
-      <c r="L19">
-        <v>3.5</v>
-      </c>
-      <c r="M19">
-        <v>1.909</v>
-      </c>
       <c r="N19">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>1.775</v>
+      </c>
+      <c r="V19">
+        <v>2.025</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>2.3</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>-0.5</v>
+      </c>
+      <c r="AA19">
         <v>0.5</v>
       </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>2.75</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.95</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5200545</v>
+        <v>5200546</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,76 +2221,76 @@
         <v>44947.5</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
+        <v>3.6</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
         <v>1.909</v>
       </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>3.6</v>
-      </c>
       <c r="N20">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
+        <v>0.95</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>0.45</v>
+      </c>
+      <c r="AC20">
         <v>-0.5</v>
-      </c>
-      <c r="AA20">
-        <v>0.5</v>
-      </c>
-      <c r="AB20">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5200397</v>
+        <v>5200395</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,49 +2310,49 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2361,19 +2361,19 @@
         <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5200395</v>
+        <v>5200397</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,49 +2399,49 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
+        <v>2.375</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>2.55</v>
+      </c>
+      <c r="N22">
+        <v>2.875</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
+        <v>2.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
         <v>1.8</v>
       </c>
-      <c r="L22">
-        <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>3.6</v>
-      </c>
-      <c r="N22">
-        <v>1.666</v>
-      </c>
-      <c r="O22">
-        <v>3.75</v>
-      </c>
-      <c r="P22">
-        <v>4.5</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>1.875</v>
-      </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2450,19 +2450,19 @@
         <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X22">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5200558</v>
+        <v>5200402</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5200402</v>
+        <v>5200401</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
-        <v>1.65</v>
+        <v>1.222</v>
       </c>
       <c r="N43">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P43">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5200401</v>
+        <v>5200558</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,76 +4357,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6457400</v>
+        <v>6450219</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,49 +7739,49 @@
         <v>45023.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="L82">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
         <v>1.85</v>
@@ -7793,22 +7793,22 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6457398</v>
+        <v>6457130</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>1.75</v>
+      </c>
+      <c r="U83">
+        <v>1.775</v>
+      </c>
+      <c r="V83">
+        <v>2.025</v>
+      </c>
+      <c r="W83">
+        <v>1.05</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.825</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>0.3875</v>
+      </c>
+      <c r="AC83">
         <v>-0.5</v>
-      </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.8</v>
-      </c>
-      <c r="V83">
-        <v>2</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>2.25</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.8</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
-      <c r="AC83">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6457130</v>
+        <v>6457398</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P84">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6450219</v>
+        <v>6457400</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,49 +8006,49 @@
         <v>45023.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
         <v>1.85</v>
@@ -8060,22 +8060,22 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6457036</v>
+        <v>6457937</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6457937</v>
+        <v>6457036</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6471670</v>
+        <v>6472454</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N90">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O90">
         <v>3.75</v>
       </c>
       <c r="P90">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6472454</v>
+        <v>6471670</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45027.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N91">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O91">
         <v>3.75</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6471672</v>
+        <v>6471914</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,73 +9519,73 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N102">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6471914</v>
+        <v>6471672</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,73 +9697,73 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
+        <v>2.45</v>
+      </c>
+      <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
         <v>2.6</v>
       </c>
-      <c r="L104">
-        <v>3.3</v>
-      </c>
-      <c r="M104">
-        <v>2.375</v>
-      </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6840426</v>
+        <v>6840427</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>1.571</v>
+        <v>11</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="O119">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P119">
-        <v>6</v>
+        <v>1.222</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6840281</v>
+        <v>6840426</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
         <v>1.95</v>
       </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840427</v>
+        <v>6840281</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,56 +11210,56 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>44</v>
       </c>
       <c r="K121">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.85</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>1.875</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.925</v>
       </c>
-      <c r="T121">
-        <v>3</v>
-      </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
@@ -11267,19 +11267,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.222</v>
+        <v>3.333</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840304</v>
+        <v>6840430</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,58 +11299,58 @@
         <v>45153.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="M122">
-        <v>1.666</v>
+        <v>8.5</v>
       </c>
       <c r="N122">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P122">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>3.2</v>
+        <v>0.25</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11359,16 +11359,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6840430</v>
+        <v>6840304</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,58 +11566,58 @@
         <v>45153.65625</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="L125">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>8.5</v>
+        <v>1.666</v>
       </c>
       <c r="N125">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.25</v>
+        <v>3.2</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11626,16 +11626,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6840306</v>
+        <v>6839250</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,55 +12100,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>44</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6839250</v>
+        <v>6840306</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,55 +12189,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>44</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6839248</v>
+        <v>6840437</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="L143">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="N143">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6840437</v>
+        <v>6839248</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>43</v>
+      </c>
+      <c r="K144">
+        <v>1.2</v>
+      </c>
+      <c r="L144">
+        <v>6.5</v>
+      </c>
+      <c r="M144">
+        <v>9.5</v>
+      </c>
+      <c r="N144">
+        <v>1.222</v>
+      </c>
+      <c r="O144">
+        <v>6.5</v>
+      </c>
+      <c r="P144">
+        <v>8</v>
+      </c>
+      <c r="Q144">
+        <v>-1.75</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>44</v>
-      </c>
-      <c r="K144">
-        <v>3.1</v>
-      </c>
-      <c r="L144">
-        <v>3.4</v>
-      </c>
-      <c r="M144">
-        <v>2.1</v>
-      </c>
-      <c r="N144">
-        <v>3.6</v>
-      </c>
-      <c r="O144">
-        <v>3.6</v>
-      </c>
-      <c r="P144">
-        <v>1.85</v>
-      </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.925</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7122710</v>
+        <v>7122709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,13 +15037,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15052,43 +15052,43 @@
         <v>42</v>
       </c>
       <c r="K164">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O164">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P164">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,7 +15097,7 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
         <v>-1</v>
@@ -15106,7 +15106,7 @@
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7122709</v>
+        <v>7122710</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,13 +15126,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15141,43 +15141,43 @@
         <v>42</v>
       </c>
       <c r="K165">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N165">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P165">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,7 +15186,7 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
         <v>-1</v>
@@ -15195,7 +15195,7 @@
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -20187,7 +20187,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6840334</v>
+        <v>6840333</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,49 +20199,49 @@
         <v>45262.5</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K222">
+        <v>5.5</v>
+      </c>
+      <c r="L222">
+        <v>4.75</v>
+      </c>
+      <c r="M222">
+        <v>1.444</v>
+      </c>
+      <c r="N222">
+        <v>5.5</v>
+      </c>
+      <c r="O222">
+        <v>4.75</v>
+      </c>
+      <c r="P222">
+        <v>1.45</v>
+      </c>
+      <c r="Q222">
+        <v>1.25</v>
+      </c>
+      <c r="R222">
+        <v>1.775</v>
+      </c>
+      <c r="S222">
+        <v>2.025</v>
+      </c>
+      <c r="T222">
         <v>3</v>
-      </c>
-      <c r="L222">
-        <v>3.5</v>
-      </c>
-      <c r="M222">
-        <v>2.1</v>
-      </c>
-      <c r="N222">
-        <v>2.7</v>
-      </c>
-      <c r="O222">
-        <v>3.3</v>
-      </c>
-      <c r="P222">
-        <v>2.4</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>2</v>
-      </c>
-      <c r="S222">
-        <v>1.8</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
       </c>
       <c r="U222">
         <v>1.875</v>
@@ -20253,22 +20253,22 @@
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20276,7 +20276,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6840333</v>
+        <v>6839235</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,49 +20288,49 @@
         <v>45262.5</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K223">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="O223">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
         <v>1.875</v>
@@ -20342,16 +20342,16 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB223">
         <v>0.875</v>
@@ -20365,7 +20365,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6839235</v>
+        <v>6840334</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,49 +20377,49 @@
         <v>45262.5</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N224">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
         <v>1.875</v>
@@ -20431,22 +20431,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6840476</v>
+        <v>6839233</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,76 +21267,76 @@
         <v>45276.5</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J234" t="s">
         <v>44</v>
       </c>
       <c r="K234">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L234">
         <v>5</v>
       </c>
       <c r="M234">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N234">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O234">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P234">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q234">
+        <v>1.5</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>3</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
+        <v>1.85</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>0.363</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
         <v>1</v>
       </c>
-      <c r="R234">
-        <v>2.025</v>
-      </c>
-      <c r="S234">
-        <v>1.775</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>2</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>0.45</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
-      <c r="AA234">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC234">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6839233</v>
+        <v>6840336</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,55 +21356,55 @@
         <v>45276.5</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
         <v>44</v>
       </c>
       <c r="K235">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="L235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N235">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O235">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P235">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q235">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -21413,16 +21413,16 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.363</v>
+        <v>2.75</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6840336</v>
+        <v>6840476</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,55 +21445,55 @@
         <v>45276.5</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>44</v>
       </c>
       <c r="K236">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M236">
+        <v>1.333</v>
+      </c>
+      <c r="N236">
+        <v>6</v>
+      </c>
+      <c r="O236">
         <v>4.2</v>
       </c>
-      <c r="N236">
-        <v>1.8</v>
-      </c>
-      <c r="O236">
-        <v>3.8</v>
-      </c>
       <c r="P236">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
         <v>-1</v>
@@ -21502,19 +21502,19 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6837593</v>
+        <v>6840338</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21801,76 +21801,76 @@
         <v>45283.5</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K240">
-        <v>4.5</v>
+        <v>1.153</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M240">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="N240">
+        <v>1.142</v>
+      </c>
+      <c r="O240">
+        <v>7</v>
+      </c>
+      <c r="P240">
+        <v>15</v>
+      </c>
+      <c r="Q240">
+        <v>-2.25</v>
+      </c>
+      <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>1.8</v>
+      </c>
+      <c r="T240">
         <v>3.25</v>
       </c>
-      <c r="O240">
-        <v>3.8</v>
-      </c>
-      <c r="P240">
-        <v>1.833</v>
-      </c>
-      <c r="Q240">
-        <v>0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.95</v>
-      </c>
-      <c r="S240">
-        <v>1.85</v>
-      </c>
-      <c r="T240">
-        <v>3</v>
-      </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21967,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6840338</v>
+        <v>6837593</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,76 +21979,76 @@
         <v>45283.5</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
+      </c>
+      <c r="K242">
+        <v>4.5</v>
+      </c>
+      <c r="L242">
+        <v>4.2</v>
+      </c>
+      <c r="M242">
+        <v>1.533</v>
+      </c>
+      <c r="N242">
+        <v>3.25</v>
+      </c>
+      <c r="O242">
+        <v>3.8</v>
+      </c>
+      <c r="P242">
+        <v>1.833</v>
+      </c>
+      <c r="Q242">
+        <v>0.5</v>
+      </c>
+      <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>1.85</v>
+      </c>
+      <c r="T242">
+        <v>3</v>
+      </c>
+      <c r="U242">
+        <v>1.975</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>0.833</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB242">
         <v>0</v>
       </c>
-      <c r="J242" t="s">
-        <v>42</v>
-      </c>
-      <c r="K242">
-        <v>1.153</v>
-      </c>
-      <c r="L242">
-        <v>6</v>
-      </c>
-      <c r="M242">
-        <v>12</v>
-      </c>
-      <c r="N242">
-        <v>1.142</v>
-      </c>
-      <c r="O242">
-        <v>7</v>
-      </c>
-      <c r="P242">
-        <v>15</v>
-      </c>
-      <c r="Q242">
-        <v>-2.25</v>
-      </c>
-      <c r="R242">
-        <v>2</v>
-      </c>
-      <c r="S242">
-        <v>1.8</v>
-      </c>
-      <c r="T242">
-        <v>3.25</v>
-      </c>
-      <c r="U242">
-        <v>2</v>
-      </c>
-      <c r="V242">
-        <v>1.8</v>
-      </c>
-      <c r="W242">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
-      <c r="Z242">
-        <v>-0.5</v>
-      </c>
-      <c r="AA242">
-        <v>0.4</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
       <c r="AC242">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22412,7 +22412,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6840480</v>
+        <v>6840289</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22424,13 +22424,13 @@
         <v>45286.5</v>
       </c>
       <c r="F247" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -22439,43 +22439,43 @@
         <v>42</v>
       </c>
       <c r="K247">
+        <v>4.333</v>
+      </c>
+      <c r="L247">
+        <v>3.75</v>
+      </c>
+      <c r="M247">
+        <v>1.666</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247">
+        <v>3.6</v>
+      </c>
+      <c r="P247">
+        <v>1.8</v>
+      </c>
+      <c r="Q247">
+        <v>0.5</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>1.8</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
         <v>1.95</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>3.5</v>
-      </c>
-      <c r="N247">
-        <v>1.666</v>
-      </c>
-      <c r="O247">
-        <v>3.8</v>
-      </c>
-      <c r="P247">
-        <v>4.333</v>
-      </c>
-      <c r="Q247">
-        <v>-0.75</v>
-      </c>
-      <c r="R247">
-        <v>1.85</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
-      </c>
-      <c r="U247">
-        <v>1.975</v>
-      </c>
-      <c r="V247">
-        <v>1.825</v>
-      </c>
       <c r="W247">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22484,16 +22484,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6840289</v>
+        <v>6840480</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22513,13 +22513,13 @@
         <v>45286.5</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -22528,43 +22528,43 @@
         <v>42</v>
       </c>
       <c r="K248">
+        <v>1.95</v>
+      </c>
+      <c r="L248">
+        <v>3.4</v>
+      </c>
+      <c r="M248">
+        <v>3.5</v>
+      </c>
+      <c r="N248">
+        <v>1.666</v>
+      </c>
+      <c r="O248">
+        <v>3.8</v>
+      </c>
+      <c r="P248">
         <v>4.333</v>
       </c>
-      <c r="L248">
-        <v>3.75</v>
-      </c>
-      <c r="M248">
-        <v>1.666</v>
-      </c>
-      <c r="N248">
-        <v>4</v>
-      </c>
-      <c r="O248">
-        <v>3.6</v>
-      </c>
-      <c r="P248">
-        <v>1.8</v>
-      </c>
       <c r="Q248">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22573,16 +22573,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6840293</v>
+        <v>6840294</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23848,13 +23848,13 @@
         <v>45311.5</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23863,43 +23863,43 @@
         <v>42</v>
       </c>
       <c r="K263">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="L263">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="N263">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="O263">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Q263">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S263">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>0.1659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23908,16 +23908,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23925,7 +23925,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6840294</v>
+        <v>6840293</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23937,13 +23937,13 @@
         <v>45311.5</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -23952,43 +23952,43 @@
         <v>42</v>
       </c>
       <c r="K264">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M264">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="N264">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P264">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R264">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T264">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>0.571</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -23997,16 +23997,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC264">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24993,7 +24993,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6840496</v>
+        <v>6840497</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25005,10 +25005,10 @@
         <v>45332.5</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -25020,58 +25020,58 @@
         <v>43</v>
       </c>
       <c r="K276">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M276">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N276">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P276">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R276">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB276">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25082,7 +25082,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6840497</v>
+        <v>6840496</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25094,10 +25094,10 @@
         <v>45332.5</v>
       </c>
       <c r="F277" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H277">
         <v>2</v>
@@ -25109,58 +25109,58 @@
         <v>43</v>
       </c>
       <c r="K277">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L277">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M277">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N277">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P277">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q277">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T277">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA277">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -25342,376 +25342,6 @@
       </c>
       <c r="AC279">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:29">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>6839225</v>
-      </c>
-      <c r="C280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D280" t="s">
-        <v>28</v>
-      </c>
-      <c r="E280" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F280" t="s">
-        <v>41</v>
-      </c>
-      <c r="G280" t="s">
-        <v>36</v>
-      </c>
-      <c r="K280">
-        <v>5.25</v>
-      </c>
-      <c r="L280">
-        <v>4</v>
-      </c>
-      <c r="M280">
-        <v>1.5</v>
-      </c>
-      <c r="N280">
-        <v>5.5</v>
-      </c>
-      <c r="O280">
-        <v>3.8</v>
-      </c>
-      <c r="P280">
-        <v>1.533</v>
-      </c>
-      <c r="Q280">
-        <v>1</v>
-      </c>
-      <c r="R280">
-        <v>1.875</v>
-      </c>
-      <c r="S280">
-        <v>1.925</v>
-      </c>
-      <c r="T280">
-        <v>2.75</v>
-      </c>
-      <c r="U280">
-        <v>1.85</v>
-      </c>
-      <c r="V280">
-        <v>1.95</v>
-      </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-      <c r="X280">
-        <v>0</v>
-      </c>
-      <c r="Y280">
-        <v>0</v>
-      </c>
-      <c r="Z280">
-        <v>0</v>
-      </c>
-      <c r="AA280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:29">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>6840298</v>
-      </c>
-      <c r="C281" t="s">
-        <v>28</v>
-      </c>
-      <c r="D281" t="s">
-        <v>28</v>
-      </c>
-      <c r="E281" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F281" t="s">
-        <v>31</v>
-      </c>
-      <c r="G281" t="s">
-        <v>39</v>
-      </c>
-      <c r="K281">
-        <v>9.5</v>
-      </c>
-      <c r="L281">
-        <v>5</v>
-      </c>
-      <c r="M281">
-        <v>1.285</v>
-      </c>
-      <c r="N281">
-        <v>7</v>
-      </c>
-      <c r="O281">
-        <v>4.2</v>
-      </c>
-      <c r="P281">
-        <v>1.4</v>
-      </c>
-      <c r="Q281">
-        <v>1.25</v>
-      </c>
-      <c r="R281">
-        <v>1.85</v>
-      </c>
-      <c r="S281">
-        <v>1.95</v>
-      </c>
-      <c r="T281">
-        <v>2.5</v>
-      </c>
-      <c r="U281">
-        <v>1.95</v>
-      </c>
-      <c r="V281">
-        <v>1.85</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-      <c r="Y281">
-        <v>0</v>
-      </c>
-      <c r="Z281">
-        <v>0</v>
-      </c>
-      <c r="AA281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:29">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>6840299</v>
-      </c>
-      <c r="C282" t="s">
-        <v>28</v>
-      </c>
-      <c r="D282" t="s">
-        <v>28</v>
-      </c>
-      <c r="E282" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F282" t="s">
-        <v>32</v>
-      </c>
-      <c r="G282" t="s">
-        <v>40</v>
-      </c>
-      <c r="K282">
-        <v>2.4</v>
-      </c>
-      <c r="L282">
-        <v>3.6</v>
-      </c>
-      <c r="M282">
-        <v>2.5</v>
-      </c>
-      <c r="N282">
-        <v>2.375</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>2.6</v>
-      </c>
-      <c r="Q282">
-        <v>0</v>
-      </c>
-      <c r="R282">
-        <v>1.775</v>
-      </c>
-      <c r="S282">
-        <v>2.025</v>
-      </c>
-      <c r="T282">
-        <v>2.75</v>
-      </c>
-      <c r="U282">
-        <v>1.825</v>
-      </c>
-      <c r="V282">
-        <v>1.975</v>
-      </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-      <c r="X282">
-        <v>0</v>
-      </c>
-      <c r="Y282">
-        <v>0</v>
-      </c>
-      <c r="Z282">
-        <v>0</v>
-      </c>
-      <c r="AA282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:29">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>6840498</v>
-      </c>
-      <c r="C283" t="s">
-        <v>28</v>
-      </c>
-      <c r="D283" t="s">
-        <v>28</v>
-      </c>
-      <c r="E283" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F283" t="s">
-        <v>29</v>
-      </c>
-      <c r="G283" t="s">
-        <v>34</v>
-      </c>
-      <c r="K283">
-        <v>1.4</v>
-      </c>
-      <c r="L283">
-        <v>4.5</v>
-      </c>
-      <c r="M283">
-        <v>6.5</v>
-      </c>
-      <c r="N283">
-        <v>1.5</v>
-      </c>
-      <c r="O283">
-        <v>4.2</v>
-      </c>
-      <c r="P283">
-        <v>5.75</v>
-      </c>
-      <c r="Q283">
-        <v>-1</v>
-      </c>
-      <c r="R283">
-        <v>1.8</v>
-      </c>
-      <c r="S283">
-        <v>2</v>
-      </c>
-      <c r="T283">
-        <v>3</v>
-      </c>
-      <c r="U283">
-        <v>2</v>
-      </c>
-      <c r="V283">
-        <v>1.8</v>
-      </c>
-      <c r="W283">
-        <v>0</v>
-      </c>
-      <c r="X283">
-        <v>0</v>
-      </c>
-      <c r="Y283">
-        <v>0</v>
-      </c>
-      <c r="Z283">
-        <v>0</v>
-      </c>
-      <c r="AA283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:29">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>6840500</v>
-      </c>
-      <c r="C284" t="s">
-        <v>28</v>
-      </c>
-      <c r="D284" t="s">
-        <v>28</v>
-      </c>
-      <c r="E284" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F284" t="s">
-        <v>38</v>
-      </c>
-      <c r="G284" t="s">
-        <v>35</v>
-      </c>
-      <c r="K284">
-        <v>1.125</v>
-      </c>
-      <c r="L284">
-        <v>8</v>
-      </c>
-      <c r="M284">
-        <v>15</v>
-      </c>
-      <c r="N284">
-        <v>1.142</v>
-      </c>
-      <c r="O284">
-        <v>7</v>
-      </c>
-      <c r="P284">
-        <v>13</v>
-      </c>
-      <c r="Q284">
-        <v>-2.25</v>
-      </c>
-      <c r="R284">
-        <v>1.95</v>
-      </c>
-      <c r="S284">
-        <v>1.85</v>
-      </c>
-      <c r="T284">
-        <v>3.5</v>
-      </c>
-      <c r="U284">
-        <v>1.925</v>
-      </c>
-      <c r="V284">
-        <v>1.875</v>
-      </c>
-      <c r="W284">
-        <v>0</v>
-      </c>
-      <c r="X284">
-        <v>0</v>
-      </c>
-      <c r="Y284">
-        <v>0</v>
-      </c>
-      <c r="Z284">
-        <v>0</v>
-      </c>
-      <c r="AA284">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -106,10 +106,10 @@
     <t>Portadown</t>
   </si>
   <si>
-    <t>Ballymena Utd</t>
+    <t>Carrick Rangers</t>
   </si>
   <si>
-    <t>Carrick Rangers</t>
+    <t>Ballymena Utd</t>
   </si>
   <si>
     <t>Linfield</t>
@@ -133,10 +133,10 @@
     <t>Glentoran</t>
   </si>
   <si>
-    <t>Dungannon Swifts</t>
+    <t>Larne FC</t>
   </si>
   <si>
-    <t>Larne FC</t>
+    <t>Dungannon Swifts</t>
   </si>
   <si>
     <t>Loughgall</t>
@@ -145,10 +145,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5200391</v>
+        <v>5200381</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>4</v>
       </c>
       <c r="M3">
+        <v>1.533</v>
+      </c>
+      <c r="N3">
+        <v>5.25</v>
+      </c>
+      <c r="O3">
+        <v>4.2</v>
+      </c>
+      <c r="P3">
         <v>1.45</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>4.333</v>
-      </c>
-      <c r="P3">
-        <v>1.4</v>
       </c>
       <c r="Q3">
         <v>1.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5200381</v>
+        <v>5200391</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
       <c r="M4">
-        <v>1.533</v>
+        <v>1.45</v>
       </c>
       <c r="N4">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q4">
         <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>3.2</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>2.75</v>
@@ -1331,7 +1331,7 @@
         <v>44939.69791666666</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1432,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>3.8</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>1.2</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.166</v>
@@ -1687,10 +1687,10 @@
         <v>44940.5</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>1.444</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>2.3</v>
@@ -1868,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>1.25</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5200393</v>
+        <v>5200279</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,76 +1954,76 @@
         <v>44947.5</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y17">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.925</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5200546</v>
+        <v>5200393</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,76 +2043,76 @@
         <v>44947.5</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5200279</v>
+        <v>5200546</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,73 +2135,73 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
         <v>3.5</v>
       </c>
       <c r="M19">
+        <v>1.909</v>
+      </c>
+      <c r="N19">
         <v>3.75</v>
       </c>
-      <c r="N19">
+      <c r="O19">
+        <v>3.5</v>
+      </c>
+      <c r="P19">
         <v>1.85</v>
       </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>3.75</v>
-      </c>
       <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>1.85</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.9</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
+        <v>2.75</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.95</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
+      <c r="AB19">
+        <v>0.45</v>
+      </c>
+      <c r="AC19">
         <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>1.875</v>
-      </c>
-      <c r="V19">
-        <v>1.925</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.3</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.875</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5200397</v>
+        <v>5200548</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,58 +2310,58 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>1.875</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2370,16 +2370,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>1.181</v>
@@ -2577,7 +2577,7 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2666,7 +2666,7 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.111</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5200548</v>
+        <v>5200397</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,58 +2755,58 @@
         <v>44950.69791666666</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.3999999999999999</v>
+        <v>1.875</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2815,16 +2815,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2832,7 +2832,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5200399</v>
+        <v>5200552</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2844,55 +2844,55 @@
         <v>44954.5</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>5.5</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1.5</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>3.6</v>
+      </c>
+      <c r="P27">
+        <v>1.5</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27">
-        <v>11</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
-      </c>
-      <c r="M27">
-        <v>1.181</v>
-      </c>
-      <c r="N27">
-        <v>17</v>
-      </c>
-      <c r="O27">
-        <v>6.5</v>
-      </c>
-      <c r="P27">
-        <v>1.125</v>
-      </c>
-      <c r="Q27">
-        <v>2.25</v>
-      </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2901,16 +2901,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5200552</v>
+        <v>5200551</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,73 +2933,73 @@
         <v>44954.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
         <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="L28">
+        <v>4.2</v>
+      </c>
+      <c r="M28">
+        <v>7.5</v>
+      </c>
+      <c r="N28">
+        <v>1.4</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
       <c r="P28">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5200551</v>
+        <v>5200398</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,76 +3022,76 @@
         <v>44954.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5200398</v>
+        <v>5200399</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44954.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>1.181</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>17</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Z30">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3378,7 +3378,7 @@
         <v>44967.69791666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3470,7 +3470,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3648,7 +3648,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>1.125</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>1.95</v>
@@ -3823,7 +3823,7 @@
         <v>44968.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5200561</v>
+        <v>5200560</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,58 +3912,58 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M39">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="N39">
-        <v>2.8</v>
+        <v>1.166</v>
       </c>
       <c r="O39">
+        <v>6.5</v>
+      </c>
+      <c r="P39">
+        <v>13</v>
+      </c>
+      <c r="Q39">
+        <v>-2</v>
+      </c>
+      <c r="R39">
+        <v>1.925</v>
+      </c>
+      <c r="S39">
+        <v>1.875</v>
+      </c>
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="P39">
-        <v>2.3</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.75</v>
-      </c>
-      <c r="S39">
-        <v>2.05</v>
-      </c>
-      <c r="T39">
-        <v>2.25</v>
-      </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>1.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,16 +3972,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5200560</v>
+        <v>5200558</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,10 +4001,10 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4013,46 +4013,46 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.1659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,16 +4061,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5200559</v>
+        <v>5200402</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.142</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>1.65</v>
       </c>
       <c r="N41">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>15</v>
+        <v>1.666</v>
       </c>
       <c r="Q41">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
+        <v>1.9</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
         <v>1.875</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.925</v>
       </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>0.875</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-0.5</v>
-      </c>
       <c r="AC41">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4167,7 +4167,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5200558</v>
+        <v>5200401</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4179,76 +4179,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M42">
-        <v>2.9</v>
+        <v>1.222</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>1.166</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4256,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5200401</v>
+        <v>5200561</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,76 +4268,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>0</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>44</v>
       </c>
       <c r="K43">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="L43">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="N43">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="O43">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5200402</v>
+        <v>5200559</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,76 +4357,76 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>1.142</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>1.65</v>
+        <v>12</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>1.666</v>
+        <v>15</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X44">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>44974.69791666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -4458,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4538,7 +4538,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>1.95</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>1.833</v>
@@ -4713,7 +4713,7 @@
         <v>44975.5</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>1.666</v>
@@ -4805,7 +4805,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>1.2</v>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>4.2</v>
@@ -4980,10 +4980,10 @@
         <v>44978.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>6.5</v>
@@ -5072,7 +5072,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>2.45</v>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>2.25</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5200570</v>
+        <v>5200567</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,76 +5336,76 @@
         <v>44982.5</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5200567</v>
+        <v>5200568</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5428,73 +5428,73 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P56">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q56">
         <v>1.25</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.675</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z56">
-        <v>0.7749999999999999</v>
+        <v>0.3375</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5200568</v>
+        <v>5200570</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,55 +5514,55 @@
         <v>44982.5</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L57">
         <v>4</v>
       </c>
       <c r="M57">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="N57">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.675</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2.15</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5571,19 +5571,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="Z57">
-        <v>0.3375</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>2.4</v>
@@ -5784,7 +5784,7 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.9</v>
@@ -5870,7 +5870,7 @@
         <v>44992.69791666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -5882,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>4.333</v>
@@ -5959,7 +5959,7 @@
         <v>44992.69791666666</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>1.363</v>
@@ -6137,10 +6137,10 @@
         <v>44996.5</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>2.375</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.333</v>
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.8</v>
@@ -6496,7 +6496,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>1.222</v>
@@ -6582,10 +6582,10 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.2</v>
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5202953</v>
+        <v>5202952</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,55 +6671,55 @@
         <v>45003.5</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>1.55</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>7.5</v>
       </c>
       <c r="O70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>19</v>
+        <v>1.4</v>
       </c>
       <c r="Q70">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R70">
+        <v>1.85</v>
+      </c>
+      <c r="S70">
         <v>1.95</v>
       </c>
-      <c r="S70">
-        <v>1.85</v>
-      </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6728,19 +6728,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>18</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>3.8</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>1.142</v>
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5202952</v>
+        <v>5202953</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45003.5</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74">
+        <v>1.166</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>13</v>
+      </c>
+      <c r="N74">
+        <v>1.125</v>
+      </c>
+      <c r="O74">
+        <v>7</v>
+      </c>
+      <c r="P74">
+        <v>19</v>
+      </c>
+      <c r="Q74">
+        <v>-2.25</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>1.775</v>
+      </c>
+      <c r="V74">
+        <v>2.025</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>18</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74" t="s">
-        <v>44</v>
-      </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-      <c r="L74">
-        <v>3.9</v>
-      </c>
-      <c r="M74">
-        <v>1.55</v>
-      </c>
-      <c r="N74">
-        <v>7.5</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
-      <c r="P74">
-        <v>1.4</v>
-      </c>
-      <c r="Q74">
-        <v>1.25</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
-      <c r="AA74">
-        <v>0.95</v>
-      </c>
-      <c r="AB74">
-        <v>0.875</v>
-      </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>45009.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7128,7 +7128,7 @@
         <v>5</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>11</v>
@@ -7217,7 +7217,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>7.5</v>
@@ -7297,7 +7297,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>1.333</v>
@@ -7386,7 +7386,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>1.125</v>
@@ -7561,7 +7561,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>35</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2.7</v>
@@ -7650,7 +7650,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>1.666</v>
@@ -7920,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8006,7 +8006,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8018,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.666</v>
@@ -8098,7 +8098,7 @@
         <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -8196,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>3.3</v>
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.85</v>
@@ -8454,7 +8454,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8540,10 +8540,10 @@
         <v>45027.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8721,7 +8721,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>2.875</v>
@@ -8819,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>1.85</v>
@@ -8985,10 +8985,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.909</v>
@@ -9077,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.7</v>
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>3.6</v>
@@ -9252,7 +9252,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -9341,7 +9341,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>2.6</v>
@@ -9519,7 +9519,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>29</v>
@@ -9531,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.75</v>
@@ -9700,7 +9700,7 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>3.6</v>
@@ -9875,7 +9875,7 @@
         <v>45045.5625</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>2.375</v>
@@ -10142,10 +10142,10 @@
         <v>45045.5625</v>
       </c>
       <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
         <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>2.5</v>
@@ -10243,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>3.1</v>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>1.8</v>
@@ -10412,7 +10412,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.363</v>
@@ -10510,7 +10510,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10599,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>6</v>
@@ -10676,10 +10676,10 @@
         <v>45145.65625</v>
       </c>
       <c r="F115" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" t="s">
         <v>40</v>
-      </c>
-      <c r="G115" t="s">
-        <v>39</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -10765,7 +10765,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -10777,7 +10777,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>5.5</v>
@@ -10866,7 +10866,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10946,7 +10946,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10955,7 +10955,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.8</v>
@@ -11032,7 +11032,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>11</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>1.571</v>
@@ -11210,7 +11210,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11222,7 +11222,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>2.2</v>
@@ -11311,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>4.5</v>
@@ -11388,7 +11388,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>36</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>4.333</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>1.2</v>
@@ -11566,10 +11566,10 @@
         <v>45153.65625</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.222</v>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>5.75</v>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.25</v>
@@ -11833,7 +11833,7 @@
         <v>45156.65625</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>6.5</v>
@@ -11925,7 +11925,7 @@
         <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12100,7 +12100,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>2.3</v>
@@ -12192,7 +12192,7 @@
         <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>1.4</v>
@@ -12281,7 +12281,7 @@
         <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>9</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>1.333</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12456,7 +12456,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>36</v>
@@ -12634,7 +12634,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12646,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>6.5</v>
@@ -12726,7 +12726,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12824,7 +12824,7 @@
         <v>4</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>7</v>
@@ -12904,7 +12904,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,10 +13079,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13091,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -13168,7 +13168,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>34</v>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
         <v>1.166</v>
@@ -13269,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13349,7 +13349,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13536,7 +13536,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>3.1</v>
@@ -13613,10 +13613,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
         <v>31</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13702,7 +13702,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>35</v>
@@ -13714,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>3</v>
@@ -13803,7 +13803,7 @@
         <v>4</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>8</v>
@@ -13880,7 +13880,7 @@
         <v>45184.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13969,7 +13969,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -13981,7 +13981,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>2.3</v>
@@ -14070,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>1.333</v>
@@ -14150,7 +14150,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>2</v>
@@ -14239,7 +14239,7 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>1.85</v>
@@ -14426,7 +14426,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>1.666</v>
@@ -14503,10 +14503,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>1.25</v>
@@ -14595,7 +14595,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14693,7 +14693,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>6.5</v>
@@ -14770,7 +14770,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14782,7 +14782,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>6</v>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>1.363</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7122710</v>
+        <v>7122709</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,58 +14948,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K163">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O163">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P163">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T163">
         <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15008,7 +15008,7 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15017,7 +15017,7 @@
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7122709</v>
+        <v>7122710</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,58 +15037,58 @@
         <v>45195.65625</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="N164">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O164">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,7 +15097,7 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
         <v>-1</v>
@@ -15106,7 +15106,7 @@
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>1.8</v>
@@ -15215,7 +15215,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>38</v>
@@ -15227,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.75</v>
@@ -15292,7 +15292,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6840315</v>
+        <v>6839244</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15304,40 +15304,40 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167">
-        <v>1.1</v>
+        <v>1.333</v>
       </c>
       <c r="L167">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M167">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N167">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="O167">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="P167">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15346,7 +15346,7 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U167">
         <v>1.875</v>
@@ -15355,25 +15355,25 @@
         <v>1.925</v>
       </c>
       <c r="W167">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6840447</v>
+        <v>6840446</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,56 +15393,56 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>1.952</v>
+        <v>2.625</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N168">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O168">
         <v>3.5</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>2</v>
+      </c>
+      <c r="T168">
+        <v>2.75</v>
+      </c>
+      <c r="U168">
         <v>1.95</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.85</v>
       </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
         <v>-1</v>
       </c>
@@ -15450,19 +15450,19 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6840446</v>
+        <v>6840447</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,55 +15482,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
-        <v>2.625</v>
+        <v>1.952</v>
       </c>
       <c r="L169">
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N169">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
         <v>3.5</v>
       </c>
       <c r="P169">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15539,19 +15539,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6839244</v>
+        <v>6840315</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,40 +15571,40 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>1.333</v>
+        <v>1.1</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M170">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N170">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P170">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Q170">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R170">
         <v>1.85</v>
@@ -15613,7 +15613,7 @@
         <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
         <v>1.875</v>
@@ -15622,25 +15622,25 @@
         <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>5.5</v>
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6840451</v>
+        <v>6837583</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,19 +15749,19 @@
         <v>45205.65625</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.8</v>
@@ -15773,52 +15773,52 @@
         <v>3.5</v>
       </c>
       <c r="N172">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X172">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6837583</v>
+        <v>6840451</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,19 +15838,19 @@
         <v>45205.65625</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173">
         <v>1.8</v>
@@ -15862,52 +15862,52 @@
         <v>3.5</v>
       </c>
       <c r="N173">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T173">
         <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16028,7 +16028,7 @@
         <v>4</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.15</v>
@@ -16108,7 +16108,7 @@
         <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H176">
         <v>5</v>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>1.25</v>
@@ -16206,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>1.5</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6840452</v>
+        <v>6839242</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,58 +16283,58 @@
         <v>45212.65625</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="L178">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N178">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P178">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
-        <v>0.1659999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16343,16 +16343,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16372,7 +16372,7 @@
         <v>45212.65625</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16384,7 +16384,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>8</v>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>4.75</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6839242</v>
+        <v>6840453</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="L181">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M181">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="N181">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="O181">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>9.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q181">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6840453</v>
+        <v>6840452</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,76 +16639,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K182">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="L182">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="M182">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="N182">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P182">
-        <v>1.363</v>
+        <v>12</v>
       </c>
       <c r="Q182">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16740,7 +16740,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>5</v>
@@ -16817,10 +16817,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>1.222</v>
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>3</v>
@@ -16995,7 +16995,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17007,7 +17007,7 @@
         <v>4</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>6</v>
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>1.3</v>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>1.7</v>
@@ -17262,7 +17262,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>36</v>
@@ -17274,7 +17274,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K189">
         <v>4.75</v>
@@ -17351,10 +17351,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17452,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>1.142</v>
@@ -17618,7 +17618,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
         <v>35</v>
@@ -17630,7 +17630,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2.1</v>
@@ -17719,7 +17719,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>3.1</v>
@@ -17799,7 +17799,7 @@
         <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17808,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>10</v>
@@ -17885,7 +17885,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -17897,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17986,7 +17986,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>12</v>
@@ -18066,7 +18066,7 @@
         <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>1.3</v>
@@ -18155,7 +18155,7 @@
         <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>5</v>
@@ -18164,7 +18164,7 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
         <v>1.95</v>
@@ -18253,7 +18253,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>1.6</v>
@@ -18333,7 +18333,7 @@
         <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>2.1</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6840462</v>
+        <v>6840463</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45241.5</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J202" t="s">
         <v>43</v>
       </c>
       <c r="K202">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="N202">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="O202">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q202">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S202">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T202">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="V202">
-        <v>1.875</v>
-      </c>
       <c r="W202">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18508,7 +18508,7 @@
         <v>45241.5</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>35</v>
@@ -18520,7 +18520,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>2.75</v>
@@ -18609,7 +18609,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>6</v>
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6840463</v>
+        <v>6840462</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45241.5</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>44</v>
       </c>
       <c r="K205">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L205">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M205">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R205">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U205">
+        <v>1.925</v>
+      </c>
+      <c r="V205">
         <v>1.875</v>
       </c>
-      <c r="V205">
-        <v>1.925</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>1.05</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>0.875</v>
-      </c>
-      <c r="AC205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18787,7 +18787,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.909</v>
@@ -18953,7 +18953,7 @@
         <v>45247.70833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>36</v>
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K208">
         <v>1.4</v>
@@ -19042,7 +19042,7 @@
         <v>45248.5</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>34</v>
@@ -19054,7 +19054,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>1.8</v>
@@ -19143,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K210">
         <v>2.05</v>
@@ -19223,7 +19223,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>5</v>
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K211">
         <v>1.166</v>
@@ -19309,7 +19309,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>33</v>
@@ -19321,7 +19321,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>5.25</v>
@@ -19398,7 +19398,7 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
         <v>38</v>
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -19499,7 +19499,7 @@
         <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.25</v>
@@ -19579,7 +19579,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K215">
         <v>1.142</v>
@@ -19668,7 +19668,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K217">
         <v>2.25</v>
@@ -19846,7 +19846,7 @@
         <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19855,7 +19855,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K218">
         <v>3.25</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K219">
         <v>3.2</v>
@@ -20110,7 +20110,7 @@
         <v>45262.5</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
         <v>33</v>
@@ -20122,7 +20122,7 @@
         <v>4</v>
       </c>
       <c r="J221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K221">
         <v>5.5</v>
@@ -20199,7 +20199,7 @@
         <v>45262.5</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
         <v>41</v>
@@ -20288,10 +20288,10 @@
         <v>45262.5</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G225" t="s">
         <v>35</v>
@@ -20478,7 +20478,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K225">
         <v>1.25</v>
@@ -20555,7 +20555,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
         <v>37</v>
@@ -20567,7 +20567,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K226">
         <v>5</v>
@@ -20647,7 +20647,7 @@
         <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6840473</v>
+        <v>6839234</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,49 +20822,49 @@
         <v>45269.5</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K229">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="L229">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="M229">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="N229">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O229">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Q229">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
         <v>1.9</v>
@@ -20873,7 +20873,7 @@
         <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20882,10 +20882,10 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB229">
         <v>0.8999999999999999</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6839234</v>
+        <v>6840473</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,49 +20911,49 @@
         <v>45269.5</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
         <v>3</v>
       </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="L230">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M230">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P230">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
         <v>1.9</v>
@@ -20962,7 +20962,7 @@
         <v>1.9</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20971,10 +20971,10 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
         <v>0.8999999999999999</v>
@@ -21003,7 +21003,7 @@
         <v>37</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21012,7 +21012,7 @@
         <v>3</v>
       </c>
       <c r="J231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K231">
         <v>3.1</v>
@@ -21089,10 +21089,10 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F232" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" t="s">
         <v>30</v>
-      </c>
-      <c r="G232" t="s">
-        <v>31</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21101,7 +21101,7 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K232">
         <v>3.4</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K233">
         <v>7.5</v>
@@ -21270,7 +21270,7 @@
         <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21279,7 +21279,7 @@
         <v>3</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K234">
         <v>1.65</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6837592</v>
+        <v>6839233</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,40 +21356,40 @@
         <v>45276.5</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J235" t="s">
         <v>43</v>
       </c>
       <c r="K235">
-        <v>1.181</v>
+        <v>6.5</v>
       </c>
       <c r="L235">
+        <v>5</v>
+      </c>
+      <c r="M235">
+        <v>1.363</v>
+      </c>
+      <c r="N235">
         <v>6.5</v>
       </c>
-      <c r="M235">
-        <v>11</v>
-      </c>
-      <c r="N235">
-        <v>1.166</v>
-      </c>
       <c r="O235">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P235">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="Q235">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R235">
         <v>1.8</v>
@@ -21398,22 +21398,22 @@
         <v>2</v>
       </c>
       <c r="T235">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
         <v>1.85</v>
       </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
       <c r="W235">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z235">
         <v>-1</v>
@@ -21422,10 +21422,10 @@
         <v>1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6839233</v>
+        <v>6837592</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,40 +21445,40 @@
         <v>45276.5</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>44</v>
       </c>
       <c r="K236">
+        <v>1.181</v>
+      </c>
+      <c r="L236">
         <v>6.5</v>
       </c>
-      <c r="L236">
-        <v>5</v>
-      </c>
       <c r="M236">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="N236">
+        <v>1.166</v>
+      </c>
+      <c r="O236">
         <v>6.5</v>
       </c>
-      <c r="O236">
-        <v>5</v>
-      </c>
       <c r="P236">
-        <v>1.363</v>
+        <v>12</v>
       </c>
       <c r="Q236">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R236">
         <v>1.8</v>
@@ -21487,22 +21487,22 @@
         <v>2</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
         <v>1.95</v>
       </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
@@ -21511,10 +21511,10 @@
         <v>1</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.95</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6840478</v>
+        <v>6840479</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21534,13 +21534,13 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -21549,61 +21549,61 @@
         <v>43</v>
       </c>
       <c r="K237">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L237">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N237">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="O237">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q237">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21611,7 +21611,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,76 +21623,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
         <v>1</v>
       </c>
-      <c r="I238">
+      <c r="J238" t="s">
+        <v>44</v>
+      </c>
+      <c r="K238">
+        <v>1.4</v>
+      </c>
+      <c r="L238">
+        <v>4.5</v>
+      </c>
+      <c r="M238">
+        <v>5.75</v>
+      </c>
+      <c r="N238">
+        <v>1.333</v>
+      </c>
+      <c r="O238">
+        <v>5</v>
+      </c>
+      <c r="P238">
+        <v>6.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.5</v>
+      </c>
+      <c r="R238">
+        <v>1.925</v>
+      </c>
+      <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
+        <v>1.85</v>
+      </c>
+      <c r="V238">
+        <v>1.95</v>
+      </c>
+      <c r="W238">
+        <v>0.333</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>-1</v>
+      </c>
+      <c r="AA238">
+        <v>0.875</v>
+      </c>
+      <c r="AB238">
         <v>0</v>
       </c>
-      <c r="J238" t="s">
-        <v>43</v>
-      </c>
-      <c r="K238">
-        <v>1.181</v>
-      </c>
-      <c r="L238">
-        <v>5.5</v>
-      </c>
-      <c r="M238">
-        <v>12</v>
-      </c>
-      <c r="N238">
-        <v>1.142</v>
-      </c>
-      <c r="O238">
-        <v>7</v>
-      </c>
-      <c r="P238">
-        <v>15</v>
-      </c>
-      <c r="Q238">
-        <v>-2</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>3.25</v>
-      </c>
-      <c r="U238">
-        <v>1.9</v>
-      </c>
-      <c r="V238">
-        <v>1.9</v>
-      </c>
-      <c r="W238">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X238">
-        <v>-1</v>
-      </c>
-      <c r="Y238">
-        <v>-1</v>
-      </c>
-      <c r="Z238">
-        <v>-1</v>
-      </c>
-      <c r="AA238">
-        <v>1</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6840479</v>
+        <v>6839232</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21712,76 +21712,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
         <v>0</v>
-      </c>
-      <c r="I239">
-        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>44</v>
       </c>
       <c r="K239">
+        <v>1.181</v>
+      </c>
+      <c r="L239">
+        <v>5.5</v>
+      </c>
+      <c r="M239">
+        <v>12</v>
+      </c>
+      <c r="N239">
+        <v>1.142</v>
+      </c>
+      <c r="O239">
+        <v>7</v>
+      </c>
+      <c r="P239">
+        <v>15</v>
+      </c>
+      <c r="Q239">
+        <v>-2</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
         <v>3.25</v>
       </c>
-      <c r="L239">
-        <v>3.6</v>
-      </c>
-      <c r="M239">
-        <v>1.85</v>
-      </c>
-      <c r="N239">
-        <v>3.2</v>
-      </c>
-      <c r="O239">
-        <v>3.6</v>
-      </c>
-      <c r="P239">
-        <v>1.909</v>
-      </c>
-      <c r="Q239">
-        <v>0.5</v>
-      </c>
-      <c r="R239">
-        <v>1.825</v>
-      </c>
-      <c r="S239">
-        <v>1.975</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
       <c r="U239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21801,7 +21801,7 @@
         <v>45283.5</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
         <v>38</v>
@@ -21813,7 +21813,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K240">
         <v>4.5</v>
@@ -21878,7 +21878,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6840338</v>
+        <v>6840477</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21890,76 +21890,76 @@
         <v>45283.5</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J241" t="s">
         <v>43</v>
       </c>
       <c r="K241">
-        <v>1.153</v>
+        <v>3.6</v>
       </c>
       <c r="L241">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="N241">
-        <v>1.142</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>15</v>
+        <v>1.85</v>
       </c>
       <c r="Q241">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21967,7 +21967,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6840477</v>
+        <v>6840338</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,76 +21979,76 @@
         <v>45283.5</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>44</v>
       </c>
       <c r="K242">
-        <v>3.6</v>
+        <v>1.153</v>
       </c>
       <c r="L242">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M242">
+        <v>12</v>
+      </c>
+      <c r="N242">
+        <v>1.142</v>
+      </c>
+      <c r="O242">
+        <v>7</v>
+      </c>
+      <c r="P242">
+        <v>15</v>
+      </c>
+      <c r="Q242">
+        <v>-2.25</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
         <v>1.8</v>
       </c>
-      <c r="N242">
-        <v>3.4</v>
-      </c>
-      <c r="O242">
-        <v>3.5</v>
-      </c>
-      <c r="P242">
-        <v>1.85</v>
-      </c>
-      <c r="Q242">
-        <v>0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.875</v>
-      </c>
-      <c r="S242">
-        <v>1.925</v>
-      </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U242">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22056,7 +22056,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6840482</v>
+        <v>6840481</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22068,76 +22068,76 @@
         <v>45286.5</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
         <v>0</v>
-      </c>
-      <c r="I243">
-        <v>4</v>
       </c>
       <c r="J243" t="s">
         <v>44</v>
       </c>
       <c r="K243">
+        <v>1.6</v>
+      </c>
+      <c r="L243">
         <v>4</v>
       </c>
-      <c r="L243">
+      <c r="M243">
+        <v>4.5</v>
+      </c>
+      <c r="N243">
+        <v>1.8</v>
+      </c>
+      <c r="O243">
+        <v>3.75</v>
+      </c>
+      <c r="P243">
         <v>3.6</v>
       </c>
-      <c r="M243">
-        <v>1.75</v>
-      </c>
-      <c r="N243">
-        <v>3.8</v>
-      </c>
-      <c r="O243">
-        <v>3.5</v>
-      </c>
-      <c r="P243">
-        <v>1.833</v>
-      </c>
       <c r="Q243">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22145,7 +22145,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6840481</v>
+        <v>6840482</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22157,76 +22157,76 @@
         <v>45286.5</v>
       </c>
       <c r="F244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J244" t="s">
         <v>43</v>
       </c>
       <c r="K244">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O244">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
         <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z244">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC244">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22234,7 +22234,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6840480</v>
+        <v>6840289</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,58 +22246,58 @@
         <v>45286.5</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K245">
+        <v>4.333</v>
+      </c>
+      <c r="L245">
+        <v>3.75</v>
+      </c>
+      <c r="M245">
+        <v>1.666</v>
+      </c>
+      <c r="N245">
+        <v>4</v>
+      </c>
+      <c r="O245">
+        <v>3.6</v>
+      </c>
+      <c r="P245">
+        <v>1.8</v>
+      </c>
+      <c r="Q245">
+        <v>0.5</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>1.8</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>1.85</v>
+      </c>
+      <c r="V245">
         <v>1.95</v>
       </c>
-      <c r="L245">
-        <v>3.4</v>
-      </c>
-      <c r="M245">
-        <v>3.5</v>
-      </c>
-      <c r="N245">
-        <v>1.666</v>
-      </c>
-      <c r="O245">
-        <v>3.8</v>
-      </c>
-      <c r="P245">
-        <v>4.333</v>
-      </c>
-      <c r="Q245">
-        <v>-0.75</v>
-      </c>
-      <c r="R245">
-        <v>1.85</v>
-      </c>
-      <c r="S245">
-        <v>1.95</v>
-      </c>
-      <c r="T245">
-        <v>2.75</v>
-      </c>
-      <c r="U245">
-        <v>1.975</v>
-      </c>
-      <c r="V245">
-        <v>1.825</v>
-      </c>
       <c r="W245">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22306,16 +22306,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22335,10 +22335,10 @@
         <v>45286.5</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -22347,7 +22347,7 @@
         <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K246">
         <v>5.75</v>
@@ -22412,7 +22412,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6840289</v>
+        <v>6840480</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22424,58 +22424,58 @@
         <v>45286.5</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K247">
+        <v>1.95</v>
+      </c>
+      <c r="L247">
+        <v>3.4</v>
+      </c>
+      <c r="M247">
+        <v>3.5</v>
+      </c>
+      <c r="N247">
+        <v>1.666</v>
+      </c>
+      <c r="O247">
+        <v>3.8</v>
+      </c>
+      <c r="P247">
         <v>4.333</v>
       </c>
-      <c r="L247">
-        <v>3.75</v>
-      </c>
-      <c r="M247">
-        <v>1.666</v>
-      </c>
-      <c r="N247">
-        <v>4</v>
-      </c>
-      <c r="O247">
-        <v>3.6</v>
-      </c>
-      <c r="P247">
-        <v>1.8</v>
-      </c>
       <c r="Q247">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22484,16 +22484,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>41</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22525,7 +22525,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K248">
         <v>3.2</v>
@@ -22590,7 +22590,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6839230</v>
+        <v>6840290</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22602,76 +22602,76 @@
         <v>45290.5</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>42</v>
+      </c>
+      <c r="K249">
+        <v>2.4</v>
+      </c>
+      <c r="L249">
+        <v>3.1</v>
+      </c>
+      <c r="M249">
+        <v>2.8</v>
+      </c>
+      <c r="N249">
+        <v>2.25</v>
+      </c>
+      <c r="O249">
         <v>3</v>
       </c>
-      <c r="J249" t="s">
-        <v>44</v>
-      </c>
-      <c r="K249">
-        <v>1.45</v>
-      </c>
-      <c r="L249">
-        <v>4.333</v>
-      </c>
-      <c r="M249">
-        <v>5.75</v>
-      </c>
-      <c r="N249">
-        <v>1.533</v>
-      </c>
-      <c r="O249">
-        <v>4.2</v>
-      </c>
       <c r="P249">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q249">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.925</v>
+      </c>
+      <c r="S249">
         <v>1.875</v>
       </c>
-      <c r="S249">
-        <v>1.925</v>
-      </c>
       <c r="T249">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y249">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA249">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB249">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6840484</v>
+        <v>6839230</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45290.5</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K250">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="L250">
+        <v>4.333</v>
+      </c>
+      <c r="M250">
+        <v>5.75</v>
+      </c>
+      <c r="N250">
+        <v>1.533</v>
+      </c>
+      <c r="O250">
+        <v>4.2</v>
+      </c>
+      <c r="P250">
         <v>5</v>
       </c>
-      <c r="M250">
-        <v>7.5</v>
-      </c>
-      <c r="N250">
-        <v>1.571</v>
-      </c>
-      <c r="O250">
+      <c r="Q250">
+        <v>-1</v>
+      </c>
+      <c r="R250">
+        <v>1.875</v>
+      </c>
+      <c r="S250">
+        <v>1.925</v>
+      </c>
+      <c r="T250">
+        <v>3</v>
+      </c>
+      <c r="U250">
+        <v>1.975</v>
+      </c>
+      <c r="V250">
+        <v>1.825</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
         <v>4</v>
       </c>
-      <c r="P250">
-        <v>5.25</v>
-      </c>
-      <c r="Q250">
-        <v>-1</v>
-      </c>
-      <c r="R250">
-        <v>2</v>
-      </c>
-      <c r="S250">
-        <v>1.8</v>
-      </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
-      <c r="V250">
-        <v>1.9</v>
-      </c>
-      <c r="W250">
-        <v>-1</v>
-      </c>
-      <c r="X250">
-        <v>-1</v>
-      </c>
-      <c r="Y250">
-        <v>4.25</v>
-      </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6840340</v>
+        <v>6840484</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45290.5</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H251">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>43</v>
       </c>
       <c r="K251">
+        <v>1.333</v>
+      </c>
+      <c r="L251">
+        <v>5</v>
+      </c>
+      <c r="M251">
+        <v>7.5</v>
+      </c>
+      <c r="N251">
         <v>1.571</v>
       </c>
-      <c r="L251">
-        <v>4.333</v>
-      </c>
-      <c r="M251">
-        <v>4.5</v>
-      </c>
-      <c r="N251">
-        <v>1.533</v>
-      </c>
       <c r="O251">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P251">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q251">
         <v>-1</v>
       </c>
       <c r="R251">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22857,7 +22857,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6840290</v>
+        <v>6840340</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22872,73 +22872,73 @@
         <v>40</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L252">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M252">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N252">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X252">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA252">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22961,7 +22961,7 @@
         <v>37</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -22970,7 +22970,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K253">
         <v>1.444</v>
@@ -23059,7 +23059,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K254">
         <v>3.5</v>
@@ -23139,7 +23139,7 @@
         <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K255">
         <v>3.75</v>
@@ -23213,7 +23213,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6840486</v>
+        <v>6840291</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,73 +23225,73 @@
         <v>45304.5</v>
       </c>
       <c r="F256" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I256">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>44</v>
       </c>
       <c r="K256">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N256">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P256">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23302,7 +23302,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6840487</v>
+        <v>6840486</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23317,37 +23317,37 @@
         <v>31</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K257">
+        <v>2.4</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.5</v>
+      </c>
+      <c r="N257">
+        <v>2.8</v>
+      </c>
+      <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
         <v>2.25</v>
       </c>
-      <c r="L257">
-        <v>3.5</v>
-      </c>
-      <c r="M257">
-        <v>2.6</v>
-      </c>
-      <c r="N257">
-        <v>2.4</v>
-      </c>
-      <c r="O257">
-        <v>3.5</v>
-      </c>
-      <c r="P257">
-        <v>2.55</v>
-      </c>
       <c r="Q257">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
         <v>1.8</v>
@@ -23356,13 +23356,13 @@
         <v>2</v>
       </c>
       <c r="T257">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23371,7 +23371,7 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z257">
         <v>-1</v>
@@ -23380,10 +23380,10 @@
         <v>1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23391,7 +23391,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6840292</v>
+        <v>6840487</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23403,76 +23403,76 @@
         <v>45304.5</v>
       </c>
       <c r="F258" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>43</v>
+      </c>
+      <c r="K258">
+        <v>2.25</v>
+      </c>
+      <c r="L258">
+        <v>3.5</v>
+      </c>
+      <c r="M258">
+        <v>2.6</v>
+      </c>
+      <c r="N258">
+        <v>2.4</v>
+      </c>
+      <c r="O258">
+        <v>3.5</v>
+      </c>
+      <c r="P258">
+        <v>2.55</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.8</v>
+      </c>
+      <c r="S258">
+        <v>2</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>1.9</v>
+      </c>
+      <c r="V258">
+        <v>1.9</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>1.55</v>
+      </c>
+      <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
         <v>1</v>
       </c>
-      <c r="I258">
-        <v>2</v>
-      </c>
-      <c r="J258" t="s">
-        <v>44</v>
-      </c>
-      <c r="K258">
-        <v>7.5</v>
-      </c>
-      <c r="L258">
-        <v>5.5</v>
-      </c>
-      <c r="M258">
-        <v>1.25</v>
-      </c>
-      <c r="N258">
-        <v>11</v>
-      </c>
-      <c r="O258">
-        <v>6</v>
-      </c>
-      <c r="P258">
-        <v>1.181</v>
-      </c>
-      <c r="Q258">
-        <v>1.75</v>
-      </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
-      <c r="S258">
-        <v>1.8</v>
-      </c>
-      <c r="T258">
-        <v>3</v>
-      </c>
-      <c r="U258">
-        <v>1.775</v>
-      </c>
-      <c r="V258">
-        <v>2.025</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
-        <v>0.181</v>
-      </c>
-      <c r="Z258">
-        <v>1</v>
-      </c>
-      <c r="AA258">
-        <v>-1</v>
-      </c>
       <c r="AB258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23480,7 +23480,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6839229</v>
+        <v>6840292</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23492,10 +23492,10 @@
         <v>45304.5</v>
       </c>
       <c r="F259" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -23504,34 +23504,34 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K259">
+        <v>7.5</v>
+      </c>
+      <c r="L259">
+        <v>5.5</v>
+      </c>
+      <c r="M259">
+        <v>1.25</v>
+      </c>
+      <c r="N259">
+        <v>11</v>
+      </c>
+      <c r="O259">
         <v>6</v>
       </c>
-      <c r="L259">
-        <v>5</v>
-      </c>
-      <c r="M259">
-        <v>1.333</v>
-      </c>
-      <c r="N259">
-        <v>9.5</v>
-      </c>
-      <c r="O259">
-        <v>6.5</v>
-      </c>
       <c r="P259">
-        <v>1.2</v>
+        <v>1.181</v>
       </c>
       <c r="Q259">
         <v>1.75</v>
       </c>
       <c r="R259">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
         <v>3</v>
@@ -23549,10 +23549,10 @@
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0.2</v>
+        <v>0.181</v>
       </c>
       <c r="Z259">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA259">
         <v>-1</v>
@@ -23569,7 +23569,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6840291</v>
+        <v>6839229</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23581,76 +23581,76 @@
         <v>45304.5</v>
       </c>
       <c r="F260" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H260">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
         <v>43</v>
       </c>
       <c r="K260">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L260">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M260">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="N260">
-        <v>1.45</v>
+        <v>9.5</v>
       </c>
       <c r="O260">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P260">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="Q260">
-        <v>-1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R260">
+        <v>1.975</v>
+      </c>
+      <c r="S260">
+        <v>1.825</v>
+      </c>
+      <c r="T260">
+        <v>3</v>
+      </c>
+      <c r="U260">
+        <v>1.775</v>
+      </c>
+      <c r="V260">
         <v>2.025</v>
       </c>
-      <c r="S260">
-        <v>1.775</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.9</v>
-      </c>
-      <c r="V260">
-        <v>1.9</v>
-      </c>
       <c r="W260">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z260">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA260">
         <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23673,7 +23673,7 @@
         <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>3</v>
@@ -23682,7 +23682,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K261">
         <v>1.125</v>
@@ -23771,7 +23771,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K262">
         <v>1.571</v>
@@ -23851,7 +23851,7 @@
         <v>36</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -23860,7 +23860,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K263">
         <v>1.8</v>
@@ -23937,10 +23937,10 @@
         <v>45311.5</v>
       </c>
       <c r="F264" t="s">
+        <v>40</v>
+      </c>
+      <c r="G264" t="s">
         <v>39</v>
-      </c>
-      <c r="G264" t="s">
-        <v>40</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K264">
         <v>5</v>
@@ -24026,7 +24026,7 @@
         <v>45317.69791666666</v>
       </c>
       <c r="F265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G265" t="s">
         <v>33</v>
@@ -24038,7 +24038,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K265">
         <v>5.5</v>
@@ -24115,7 +24115,7 @@
         <v>45317.70833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G266" t="s">
         <v>34</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K266">
         <v>1.111</v>
@@ -24216,7 +24216,7 @@
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K267">
         <v>2.8</v>
@@ -24296,7 +24296,7 @@
         <v>32</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -24305,7 +24305,7 @@
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K268">
         <v>1.2</v>
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K269">
         <v>2.15</v>
@@ -24471,7 +24471,7 @@
         <v>45318.5</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
         <v>41</v>
@@ -24483,7 +24483,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K270">
         <v>2.5</v>
@@ -24649,7 +24649,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G272" t="s">
         <v>41</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K272">
         <v>1.181</v>
@@ -24741,7 +24741,7 @@
         <v>34</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24839,7 +24839,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K274">
         <v>1.444</v>
@@ -24919,7 +24919,7 @@
         <v>38</v>
       </c>
       <c r="G275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25094,7 +25094,7 @@
         <v>45332.5</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
         <v>37</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K279">
         <v>4.333</v>
@@ -25373,7 +25373,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K280">
         <v>5.25</v>
@@ -25438,7 +25438,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6840298</v>
+        <v>6840299</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25456,7 +25456,7 @@
         <v>40</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -25465,61 +25465,61 @@
         <v>44</v>
       </c>
       <c r="K281">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="L281">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="N281">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O281">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
+        <v>2.45</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.925</v>
+      </c>
+      <c r="T281">
+        <v>2.75</v>
+      </c>
+      <c r="U281">
+        <v>1.85</v>
+      </c>
+      <c r="V281">
+        <v>1.95</v>
+      </c>
+      <c r="W281">
         <v>1.4</v>
       </c>
-      <c r="Q281">
-        <v>1.25</v>
-      </c>
-      <c r="R281">
-        <v>1.85</v>
-      </c>
-      <c r="S281">
-        <v>1.95</v>
-      </c>
-      <c r="T281">
-        <v>2.5</v>
-      </c>
-      <c r="U281">
-        <v>1.95</v>
-      </c>
-      <c r="V281">
-        <v>1.85</v>
-      </c>
-      <c r="W281">
-        <v>-1</v>
-      </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
+        <v>0.875</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
         <v>0.425</v>
       </c>
-      <c r="AA281">
+      <c r="AC281">
         <v>-0.5</v>
-      </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
-      <c r="AC281">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25527,7 +25527,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6840299</v>
+        <v>6840298</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25545,7 +25545,7 @@
         <v>39</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -25554,61 +25554,61 @@
         <v>43</v>
       </c>
       <c r="K282">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M282">
+        <v>1.285</v>
+      </c>
+      <c r="N282">
+        <v>7</v>
+      </c>
+      <c r="O282">
+        <v>4.2</v>
+      </c>
+      <c r="P282">
+        <v>1.4</v>
+      </c>
+      <c r="Q282">
+        <v>1.25</v>
+      </c>
+      <c r="R282">
+        <v>1.85</v>
+      </c>
+      <c r="S282">
+        <v>1.95</v>
+      </c>
+      <c r="T282">
         <v>2.5</v>
       </c>
-      <c r="N282">
-        <v>2.4</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>2.45</v>
-      </c>
-      <c r="Q282">
-        <v>0</v>
-      </c>
-      <c r="R282">
-        <v>1.875</v>
-      </c>
-      <c r="S282">
-        <v>1.925</v>
-      </c>
-      <c r="T282">
-        <v>2.75</v>
-      </c>
       <c r="U282">
+        <v>1.95</v>
+      </c>
+      <c r="V282">
         <v>1.85</v>
       </c>
-      <c r="V282">
-        <v>1.95</v>
-      </c>
       <c r="W282">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z282">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB282">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K283">
         <v>1.4</v>
@@ -25729,7 +25729,7 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K284">
         <v>1.125</v>
@@ -25818,7 +25818,7 @@
         <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K285">
         <v>2.4</v>
@@ -25895,7 +25895,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G286" t="s">
         <v>38</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K286">
         <v>1.85</v>
@@ -25987,7 +25987,7 @@
         <v>41</v>
       </c>
       <c r="G287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K287">
         <v>3.4</v>
@@ -26005,25 +26005,25 @@
         <v>3.4</v>
       </c>
       <c r="P287">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q287">
         <v>0</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
         <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V287">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>-0.75</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T288">
         <v>2.75</v>
@@ -26132,7 +26132,7 @@
         <v>45346.5</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G289" t="s">
         <v>33</v>
@@ -26147,22 +26147,22 @@
         <v>1.5</v>
       </c>
       <c r="N289">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O289">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P289">
+        <v>2.15</v>
+      </c>
+      <c r="Q289">
+        <v>0.25</v>
+      </c>
+      <c r="R289">
         <v>1.85</v>
       </c>
-      <c r="Q289">
-        <v>0.5</v>
-      </c>
-      <c r="R289">
-        <v>1.9</v>
-      </c>
       <c r="S289">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T289">
         <v>3</v>
@@ -26209,7 +26209,7 @@
         <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K290">
         <v>1.25</v>
@@ -26233,19 +26233,19 @@
         <v>-1.75</v>
       </c>
       <c r="R290">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T290">
         <v>3</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26295,22 +26295,22 @@
         <v>1.571</v>
       </c>
       <c r="N291">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O291">
         <v>4</v>
       </c>
       <c r="P291">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="Q291">
         <v>1</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
         <v>2.75</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -22857,7 +22857,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6840290</v>
+        <v>6840340</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22869,76 +22869,76 @@
         <v>45290.5</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K252">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L252">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M252">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N252">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P252">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X252">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA252">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22946,7 +22946,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6840340</v>
+        <v>6840290</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22958,76 +22958,76 @@
         <v>45290.5</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G253" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H253">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K253">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L253">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N253">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O253">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P253">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S253">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T253">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W253">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC253">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="254" spans="1:29">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -133,10 +133,10 @@
     <t>Carrick Rangers</t>
   </si>
   <si>
-    <t>Linfield</t>
+    <t>Crusaders</t>
   </si>
   <si>
-    <t>Crusaders</t>
+    <t>Linfield</t>
   </si>
   <si>
     <t>H</t>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6840429</v>
+        <v>6839251</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.222</v>
+        <v>5.75</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="O12">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6840428</v>
+        <v>6840304</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,49 +1595,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="N13">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.85</v>
@@ -1646,25 +1646,25 @@
         <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6840304</v>
+        <v>6840305</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45153.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1699,34 +1699,34 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M14">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>1.166</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.85</v>
@@ -1735,7 +1735,7 @@
         <v>1.95</v>
       </c>
       <c r="W14">
-        <v>3.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,10 +1744,10 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6839251</v>
+        <v>6840429</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>5.75</v>
+        <v>1.222</v>
       </c>
       <c r="L15">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="N15">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>0.4</v>
+      </c>
+      <c r="AC15">
         <v>-0.5</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6840305</v>
+        <v>6840428</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="L17">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N17">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="Q17">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -2002,25 +2002,25 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2043,7 +2043,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6839250</v>
+        <v>6840433</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L19">
+        <v>3.5</v>
+      </c>
+      <c r="M19">
+        <v>2.25</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
         <v>3.6</v>
       </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.25</v>
-      </c>
-      <c r="O19">
-        <v>3.5</v>
-      </c>
       <c r="P19">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6840306</v>
+        <v>6840432</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6840432</v>
+        <v>6839250</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>1.75</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.85</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6840433</v>
+        <v>6840306</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
+        <v>1.727</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
+        <v>1.65</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>4.2</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
         <v>2.75</v>
       </c>
-      <c r="L22">
-        <v>3.5</v>
-      </c>
-      <c r="M22">
-        <v>2.25</v>
-      </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>1.909</v>
-      </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.85</v>
-      </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2574,7 +2574,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6840307</v>
+        <v>6837577</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M25">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="N25">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6837577</v>
+        <v>6840307</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="L27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="Q27">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3022,7 +3022,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3464,7 +3464,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6840437</v>
+        <v>6840310</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,73 +3642,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P36">
-        <v>1.85</v>
+        <v>12</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6840310</v>
+        <v>6840437</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,73 +3731,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="Q37">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>45187.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840445</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z47">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6840444</v>
+        <v>6840445</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q49">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
         <v>1.975</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.825</v>
       </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.9</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
       <c r="W49">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.3875</v>
+      </c>
+      <c r="AA49">
+        <v>-0.5</v>
+      </c>
+      <c r="AB49">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>30</v>
@@ -5155,10 +5155,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
         <v>39</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6837582</v>
+        <v>6840446</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,49 +5422,49 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
         <v>1.95</v>
@@ -5473,25 +5473,25 @@
         <v>1.85</v>
       </c>
       <c r="W56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839244</v>
+        <v>6840315</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,40 +5511,40 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.333</v>
+        <v>1.1</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N57">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="O57">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P57">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R57">
         <v>1.85</v>
@@ -5553,7 +5553,7 @@
         <v>1.95</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
         <v>1.875</v>
@@ -5562,25 +5562,25 @@
         <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X57">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6840315</v>
+        <v>6839244</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.1</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="O58">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="P58">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="Q58">
-        <v>-2.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
         <v>1.85</v>
@@ -5642,7 +5642,7 @@
         <v>1.95</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>1.875</v>
@@ -5651,25 +5651,25 @@
         <v>1.925</v>
       </c>
       <c r="W58">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6840446</v>
+        <v>6837582</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,49 +5689,49 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P59">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
         <v>1.95</v>
@@ -5740,25 +5740,25 @@
         <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -6048,7 +6048,7 @@
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840318</v>
+        <v>6840454</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,46 +6579,46 @@
         <v>45212.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>42</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
         <v>1.533</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P69">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
         <v>3</v>
@@ -6636,13 +6636,13 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.5329999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6839242</v>
+        <v>6840317</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="L70">
         <v>4.75</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="N70">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>9.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q70">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6840454</v>
+        <v>6840452</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="N71">
-        <v>7.5</v>
+        <v>1.166</v>
       </c>
       <c r="O71">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P71">
-        <v>1.285</v>
+        <v>12</v>
       </c>
       <c r="Q71">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R71">
+        <v>1.85</v>
+      </c>
+      <c r="S71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
       <c r="T71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.95</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840317</v>
+        <v>6839242</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="L72">
         <v>4.75</v>
       </c>
       <c r="M72">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="N72">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>1.285</v>
+        <v>9.5</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
         <v>1.775</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>2.025</v>
       </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>1.8</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840452</v>
+        <v>6840318</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>1.533</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>1.533</v>
+      </c>
+      <c r="Q73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>1.222</v>
-      </c>
-      <c r="L73">
-        <v>5.25</v>
-      </c>
-      <c r="M73">
-        <v>10</v>
-      </c>
-      <c r="N73">
-        <v>1.166</v>
-      </c>
-      <c r="O73">
-        <v>6</v>
-      </c>
-      <c r="P73">
-        <v>12</v>
-      </c>
-      <c r="Q73">
-        <v>-2</v>
-      </c>
       <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
         <v>1.85</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.875</v>
-      </c>
       <c r="W73">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.95</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
-      <c r="AC73">
-        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6840319</v>
+        <v>6840457</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
+        <v>1.222</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>1.25</v>
+      </c>
+      <c r="O74">
+        <v>5.5</v>
+      </c>
+      <c r="P74">
+        <v>10</v>
+      </c>
+      <c r="Q74">
+        <v>-1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.2</v>
-      </c>
-      <c r="N74">
-        <v>2.75</v>
-      </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>2.4</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>2.05</v>
-      </c>
-      <c r="S74">
-        <v>1.75</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6840457</v>
+        <v>6840319</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>2.2</v>
+      </c>
+      <c r="N75">
+        <v>2.75</v>
+      </c>
+      <c r="O75">
+        <v>3.25</v>
+      </c>
+      <c r="P75">
+        <v>2.4</v>
+      </c>
+      <c r="Q75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75">
-        <v>1.222</v>
-      </c>
-      <c r="L75">
-        <v>6</v>
-      </c>
-      <c r="M75">
-        <v>10</v>
-      </c>
-      <c r="N75">
-        <v>1.25</v>
-      </c>
-      <c r="O75">
-        <v>5.5</v>
-      </c>
-      <c r="P75">
-        <v>10</v>
-      </c>
-      <c r="Q75">
-        <v>-1.75</v>
-      </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.75</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6840456</v>
+        <v>6837584</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L76">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M76">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="N76">
+        <v>1.3</v>
+      </c>
+      <c r="O76">
         <v>5.5</v>
       </c>
-      <c r="O76">
-        <v>4.75</v>
-      </c>
       <c r="P76">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R76">
         <v>1.85</v>
@@ -7247,28 +7247,28 @@
         <v>3</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6837584</v>
+        <v>6840456</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,40 +7469,40 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="L79">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="M79">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="N79">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="O79">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P79">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R79">
         <v>1.85</v>
@@ -7514,28 +7514,28 @@
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6840458</v>
+        <v>6837585</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,22 +7647,22 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L81">
         <v>3.5</v>
@@ -7671,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O81">
         <v>3.5</v>
@@ -7683,40 +7683,40 @@
         <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6840320</v>
+        <v>6840458</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O82">
         <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z82">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6839240</v>
+        <v>6840320</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="N83">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="O83">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q83">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
         <v>1.925</v>
       </c>
-      <c r="S83">
-        <v>1.875</v>
-      </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6837585</v>
+        <v>6839240</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,37 +7917,37 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N84">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R84">
         <v>1.925</v>
@@ -7956,34 +7956,34 @@
         <v>1.875</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6840323</v>
+        <v>6840322</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,55 +8270,55 @@
         <v>45234.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>42</v>
       </c>
       <c r="K88">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="L88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>13</v>
+        <v>1.65</v>
       </c>
       <c r="O88">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8327,19 +8327,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6840460</v>
+        <v>6840323</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45234.5</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M89">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P89">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6837586</v>
+        <v>6840460</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,40 +8448,40 @@
         <v>45234.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N90">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
         <v>1.85</v>
@@ -8490,7 +8490,7 @@
         <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
         <v>1.8</v>
@@ -8499,25 +8499,25 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6840322</v>
+        <v>6837586</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,49 +8537,49 @@
         <v>45234.5</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
         <v>1.8</v>
@@ -8594,19 +8594,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6840462</v>
+        <v>6840324</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45241.5</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>1.142</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N93">
-        <v>1.142</v>
+        <v>2.9</v>
       </c>
       <c r="O93">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6840324</v>
+        <v>6840462</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45241.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M95">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N95">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6840332</v>
+        <v>6837589</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
+        <v>3.4</v>
+      </c>
+      <c r="P103">
         <v>3.6</v>
       </c>
-      <c r="P103">
-        <v>1.833</v>
-      </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6837589</v>
+        <v>6840332</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N104">
+        <v>3.75</v>
+      </c>
+      <c r="O104">
+        <v>3.6</v>
+      </c>
+      <c r="P104">
+        <v>1.833</v>
+      </c>
+      <c r="Q104">
+        <v>0.5</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="O104">
-        <v>3.4</v>
-      </c>
-      <c r="P104">
-        <v>3.6</v>
-      </c>
-      <c r="Q104">
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>0.833</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.8</v>
+      </c>
+      <c r="AB104">
+        <v>0.475</v>
+      </c>
+      <c r="AC104">
         <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.95</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6840331</v>
+        <v>6840467</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45255.5</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N105">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>45255.5</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>34</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6840467</v>
+        <v>6840331</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45255.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107">
+        <v>1.5</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>1.6</v>
+      </c>
+      <c r="O107">
+        <v>4</v>
+      </c>
+      <c r="P107">
+        <v>4.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.825</v>
+      </c>
+      <c r="V107">
+        <v>1.975</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>41</v>
-      </c>
-      <c r="K107">
-        <v>2.25</v>
-      </c>
-      <c r="L107">
-        <v>3.25</v>
-      </c>
-      <c r="M107">
-        <v>2.75</v>
-      </c>
-      <c r="N107">
-        <v>2.1</v>
-      </c>
-      <c r="O107">
-        <v>3.25</v>
-      </c>
-      <c r="P107">
-        <v>3.3</v>
-      </c>
-      <c r="Q107">
-        <v>-0.25</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.875</v>
-      </c>
-      <c r="V107">
-        <v>1.925</v>
-      </c>
-      <c r="W107">
-        <v>1.1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6839235</v>
+        <v>6840334</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,49 +10228,49 @@
         <v>45262.5</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N110">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
         <v>1.875</v>
@@ -10282,22 +10282,22 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6840471</v>
+        <v>6840333</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45262.5</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>1.444</v>
       </c>
       <c r="N111">
+        <v>5.5</v>
+      </c>
+      <c r="O111">
+        <v>4.75</v>
+      </c>
+      <c r="P111">
+        <v>1.45</v>
+      </c>
+      <c r="Q111">
         <v>1.25</v>
       </c>
-      <c r="O111">
-        <v>6</v>
-      </c>
-      <c r="P111">
-        <v>9</v>
-      </c>
-      <c r="Q111">
-        <v>-1.75</v>
-      </c>
       <c r="R111">
+        <v>1.775</v>
+      </c>
+      <c r="S111">
+        <v>2.025</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.925</v>
       </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>3.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
+        <v>1.025</v>
+      </c>
+      <c r="AB111">
         <v>0.875</v>
       </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
       <c r="AC111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6840333</v>
+        <v>6840471</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45262.5</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="L112">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P112">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="Q112">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y112">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6840334</v>
+        <v>6839235</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,49 +10495,49 @@
         <v>45262.5</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
+        <v>3.6</v>
+      </c>
+      <c r="M113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>2.1</v>
-      </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
         <v>1.875</v>
@@ -10549,22 +10549,22 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>45269.5</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6839234</v>
+        <v>6837591</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,61 +11029,61 @@
         <v>45269.5</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11092,10 +11092,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6837591</v>
+        <v>6839234</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,61 +11118,61 @@
         <v>45269.5</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11181,10 +11181,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11207,7 +11207,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
         <v>32</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839233</v>
+        <v>6840336</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,55 +11474,55 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
       </c>
       <c r="K124">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11531,16 +11531,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.363</v>
+        <v>2.75</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6840336</v>
+        <v>6840476</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,55 +11563,55 @@
         <v>45276.5</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
       </c>
       <c r="K125">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M125">
+        <v>1.333</v>
+      </c>
+      <c r="N125">
+        <v>6</v>
+      </c>
+      <c r="O125">
         <v>4.2</v>
       </c>
-      <c r="N125">
-        <v>1.8</v>
-      </c>
-      <c r="O125">
-        <v>3.8</v>
-      </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11620,19 +11620,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6840476</v>
+        <v>6839233</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,76 +11652,76 @@
         <v>45276.5</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>42</v>
       </c>
       <c r="K126">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
         <v>5</v>
       </c>
       <c r="M126">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N126">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q126">
+        <v>1.5</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
+        <v>1.85</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.363</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>1</v>
       </c>
-      <c r="R126">
-        <v>2.025</v>
-      </c>
-      <c r="S126">
-        <v>1.775</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.8</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>0.45</v>
-      </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
-      <c r="AA126">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6840478</v>
+        <v>6839232</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,58 +11741,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>41</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M127">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="N127">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11804,13 +11804,13 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,58 +11919,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>41</v>
       </c>
       <c r="K129">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="N129">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="O129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Q129">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11982,13 +11982,13 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6840339</v>
+        <v>6840482</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,55 +12275,55 @@
         <v>45286.5</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="N133">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q133">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12332,16 +12332,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Z133">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6840480</v>
+        <v>6840481</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,40 +12364,40 @@
         <v>45286.5</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>41</v>
       </c>
       <c r="K134">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
         <v>1.85</v>
@@ -12406,16 +12406,16 @@
         <v>1.95</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12424,16 +12424,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6840481</v>
+        <v>6840289</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,46 +12453,46 @@
         <v>45286.5</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>41</v>
       </c>
       <c r="K135">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="L135">
+        <v>3.75</v>
+      </c>
+      <c r="M135">
+        <v>1.666</v>
+      </c>
+      <c r="N135">
         <v>4</v>
       </c>
-      <c r="M135">
-        <v>4.5</v>
-      </c>
-      <c r="N135">
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
         <v>1.8</v>
       </c>
-      <c r="O135">
-        <v>3.75</v>
-      </c>
-      <c r="P135">
-        <v>3.6</v>
-      </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12504,7 +12504,7 @@
         <v>1.95</v>
       </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12513,16 +12513,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>1</v>
+      </c>
+      <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840482</v>
+        <v>6840339</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,55 +12542,55 @@
         <v>45286.5</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>42</v>
       </c>
       <c r="K136">
+        <v>5.75</v>
+      </c>
+      <c r="L136">
+        <v>4.333</v>
+      </c>
+      <c r="M136">
+        <v>1.444</v>
+      </c>
+      <c r="N136">
+        <v>8</v>
+      </c>
+      <c r="O136">
         <v>4</v>
       </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>1.75</v>
-      </c>
-      <c r="N136">
-        <v>3.8</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
       <c r="P136">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12599,16 +12599,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6840289</v>
+        <v>6840480</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,13 +12631,13 @@
         <v>45286.5</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12646,43 +12646,43 @@
         <v>41</v>
       </c>
       <c r="K137">
+        <v>1.95</v>
+      </c>
+      <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>1.666</v>
+      </c>
+      <c r="O137">
+        <v>3.8</v>
+      </c>
+      <c r="P137">
         <v>4.333</v>
       </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>1.666</v>
-      </c>
-      <c r="N137">
-        <v>4</v>
-      </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>1.8</v>
-      </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12691,16 +12691,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840340</v>
+        <v>6840483</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,13 +12987,13 @@
         <v>45290.5</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>1.975</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>3.25</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.825</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840483</v>
+        <v>6840484</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45290.5</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840484</v>
+        <v>6840340</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,76 +13165,76 @@
         <v>45290.5</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H143">
+        <v>5</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
+        <v>4.333</v>
+      </c>
+      <c r="M143">
+        <v>4.5</v>
+      </c>
+      <c r="N143">
+        <v>1.533</v>
+      </c>
+      <c r="O143">
+        <v>4.333</v>
+      </c>
+      <c r="P143">
         <v>5</v>
       </c>
-      <c r="M143">
-        <v>7.5</v>
-      </c>
-      <c r="N143">
-        <v>1.571</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <v>5.25</v>
-      </c>
       <c r="Q143">
         <v>-1</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,10 +13254,10 @@
         <v>45293.69791666666</v>
       </c>
       <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
         <v>40</v>
-      </c>
-      <c r="G144" t="s">
-        <v>39</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>45303.69791666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6839229</v>
+        <v>6840291</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,76 +13432,76 @@
         <v>45304.5</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K146">
+        <v>1.363</v>
+      </c>
+      <c r="L146">
+        <v>4.75</v>
+      </c>
+      <c r="M146">
         <v>6</v>
       </c>
-      <c r="L146">
+      <c r="N146">
+        <v>1.45</v>
+      </c>
+      <c r="O146">
+        <v>4.75</v>
+      </c>
+      <c r="P146">
         <v>5</v>
       </c>
-      <c r="M146">
-        <v>1.333</v>
-      </c>
-      <c r="N146">
-        <v>9.5</v>
-      </c>
-      <c r="O146">
-        <v>6.5</v>
-      </c>
-      <c r="P146">
-        <v>1.2</v>
-      </c>
       <c r="Q146">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6840291</v>
+        <v>6840292</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,76 +13699,76 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>42</v>
+      </c>
+      <c r="K149">
+        <v>7.5</v>
+      </c>
+      <c r="L149">
+        <v>5.5</v>
+      </c>
+      <c r="M149">
+        <v>1.25</v>
+      </c>
+      <c r="N149">
+        <v>11</v>
+      </c>
+      <c r="O149">
         <v>6</v>
       </c>
-      <c r="I149">
+      <c r="P149">
+        <v>1.181</v>
+      </c>
+      <c r="Q149">
+        <v>1.75</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
+        <v>1.775</v>
+      </c>
+      <c r="V149">
+        <v>2.025</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>0.181</v>
+      </c>
+      <c r="Z149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>0</v>
       </c>
-      <c r="J149" t="s">
-        <v>41</v>
-      </c>
-      <c r="K149">
-        <v>1.363</v>
-      </c>
-      <c r="L149">
-        <v>4.75</v>
-      </c>
-      <c r="M149">
-        <v>6</v>
-      </c>
-      <c r="N149">
-        <v>1.45</v>
-      </c>
-      <c r="O149">
-        <v>4.75</v>
-      </c>
-      <c r="P149">
-        <v>5</v>
-      </c>
-      <c r="Q149">
-        <v>-1.25</v>
-      </c>
-      <c r="R149">
-        <v>2.025</v>
-      </c>
-      <c r="S149">
-        <v>1.775</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>0.45</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>1.025</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840292</v>
+        <v>6839229</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,10 +13788,10 @@
         <v>45304.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13803,31 +13803,31 @@
         <v>42</v>
       </c>
       <c r="K150">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="N150">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>1.181</v>
+        <v>1.2</v>
       </c>
       <c r="Q150">
         <v>1.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T150">
         <v>3</v>
@@ -13845,10 +13845,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.181</v>
+        <v>0.2</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -14055,10 +14055,10 @@
         <v>45311.5</v>
       </c>
       <c r="F153" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" t="s">
         <v>39</v>
-      </c>
-      <c r="G153" t="s">
-        <v>40</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6840493</v>
+        <v>6840950</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,76 @@
         <v>45318.5</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K157">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N157">
+        <v>2.5</v>
+      </c>
+      <c r="O157">
+        <v>3.3</v>
+      </c>
+      <c r="P157">
+        <v>2.4</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
         <v>1.85</v>
       </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
-      <c r="P157">
-        <v>3.3</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
         <v>1.975</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.825</v>
       </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>1.85</v>
-      </c>
       <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>1.4</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
+      <c r="AB157">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6839227</v>
+        <v>6840494</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,49 +14500,49 @@
         <v>45318.5</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>42</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P158">
+        <v>5.75</v>
+      </c>
+      <c r="Q158">
+        <v>-1.25</v>
+      </c>
+      <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
         <v>3.25</v>
-      </c>
-      <c r="Q158">
-        <v>-0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.975</v>
@@ -14557,19 +14557,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6840950</v>
+        <v>6840493</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45318.5</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L159">
         <v>3.4</v>
       </c>
       <c r="M159">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
         <v>3.3</v>
       </c>
-      <c r="P159">
-        <v>2.4</v>
-      </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
         <v>1.95</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>1.85</v>
       </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.825</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB159">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6840494</v>
+        <v>6839227</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,49 +14678,49 @@
         <v>45318.5</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
         <v>1</v>
-      </c>
-      <c r="I160">
-        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="L160">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
         <v>1.975</v>
@@ -14735,19 +14735,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6840497</v>
+        <v>6840296</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,10 +15123,10 @@
         <v>45332.5</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15138,58 +15138,58 @@
         <v>43</v>
       </c>
       <c r="K165">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6840496</v>
+        <v>6840497</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,10 +15212,10 @@
         <v>45332.5</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15227,58 +15227,58 @@
         <v>43</v>
       </c>
       <c r="K166">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N166">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15289,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6840296</v>
+        <v>6840496</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15301,7 +15301,7 @@
         <v>45332.5</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>40</v>
@@ -15316,58 +15316,58 @@
         <v>43</v>
       </c>
       <c r="K167">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
+        <v>1.875</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
         <v>1.9</v>
       </c>
-      <c r="S167">
+      <c r="V167">
         <v>1.9</v>
       </c>
-      <c r="T167">
-        <v>2.5</v>
-      </c>
-      <c r="U167">
-        <v>1.825</v>
-      </c>
-      <c r="V167">
-        <v>1.975</v>
-      </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15482,7 +15482,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6840498</v>
+        <v>6840299</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,59 +15568,59 @@
         <v>45339.5</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>41</v>
       </c>
       <c r="K170">
+        <v>2.4</v>
+      </c>
+      <c r="L170">
+        <v>3.6</v>
+      </c>
+      <c r="M170">
+        <v>2.5</v>
+      </c>
+      <c r="N170">
+        <v>2.4</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>2.45</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
+        <v>1.95</v>
+      </c>
+      <c r="W170">
         <v>1.4</v>
       </c>
-      <c r="L170">
-        <v>4.5</v>
-      </c>
-      <c r="M170">
-        <v>6.5</v>
-      </c>
-      <c r="N170">
-        <v>1.5</v>
-      </c>
-      <c r="O170">
-        <v>4.2</v>
-      </c>
-      <c r="P170">
-        <v>5.75</v>
-      </c>
-      <c r="Q170">
-        <v>-1</v>
-      </c>
-      <c r="R170">
-        <v>1.8</v>
-      </c>
-      <c r="S170">
-        <v>2</v>
-      </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
-      <c r="V170">
-        <v>1.85</v>
-      </c>
-      <c r="W170">
-        <v>0.5</v>
-      </c>
       <c r="X170">
         <v>-1</v>
       </c>
@@ -15628,16 +15628,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15734,7 +15734,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6840299</v>
+        <v>6840298</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15746,76 +15746,76 @@
         <v>45339.5</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M172">
+        <v>1.285</v>
+      </c>
+      <c r="N172">
+        <v>7</v>
+      </c>
+      <c r="O172">
+        <v>4.2</v>
+      </c>
+      <c r="P172">
+        <v>1.4</v>
+      </c>
+      <c r="Q172">
+        <v>1.25</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>1.95</v>
+      </c>
+      <c r="T172">
         <v>2.5</v>
       </c>
-      <c r="N172">
-        <v>2.4</v>
-      </c>
-      <c r="O172">
-        <v>3.6</v>
-      </c>
-      <c r="P172">
-        <v>2.45</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>1.875</v>
-      </c>
-      <c r="S172">
-        <v>1.925</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
       <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>1.85</v>
       </c>
-      <c r="V172">
-        <v>1.95</v>
-      </c>
       <c r="W172">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z172">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15823,7 +15823,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6839225</v>
+        <v>6840498</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15835,40 +15835,40 @@
         <v>45339.5</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K173">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
+        <v>6.5</v>
+      </c>
+      <c r="N173">
         <v>1.5</v>
       </c>
-      <c r="N173">
-        <v>5</v>
-      </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R173">
         <v>1.8</v>
@@ -15877,34 +15877,34 @@
         <v>2</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15912,7 +15912,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6840298</v>
+        <v>6839225</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15924,10 +15924,10 @@
         <v>45339.5</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -15939,40 +15939,40 @@
         <v>42</v>
       </c>
       <c r="K174">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>1.5</v>
+      </c>
+      <c r="N174">
         <v>5</v>
       </c>
-      <c r="M174">
-        <v>1.285</v>
-      </c>
-      <c r="N174">
-        <v>7</v>
-      </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q174">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15981,19 +15981,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z174">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16016,7 +16016,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6840300</v>
+        <v>6839224</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,76 +16191,76 @@
         <v>45346.5</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177" t="s">
+        <v>43</v>
+      </c>
+      <c r="K177">
+        <v>3.4</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>1.95</v>
+      </c>
+      <c r="N177">
+        <v>2.45</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
+        <v>2.5</v>
+      </c>
+      <c r="Q177">
         <v>0</v>
       </c>
-      <c r="J177" t="s">
-        <v>41</v>
-      </c>
-      <c r="K177">
-        <v>1.55</v>
-      </c>
-      <c r="L177">
-        <v>4</v>
-      </c>
-      <c r="M177">
-        <v>5</v>
-      </c>
-      <c r="N177">
-        <v>1.6</v>
-      </c>
-      <c r="O177">
-        <v>3.8</v>
-      </c>
-      <c r="P177">
-        <v>4.75</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6839224</v>
+        <v>6840300</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,76 +16280,76 @@
         <v>45346.5</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X178">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6840502</v>
+        <v>6840503</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,76 +16458,76 @@
         <v>45346.5</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K180">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="N180">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q180">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z180">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6840503</v>
+        <v>6840502</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,76 +16547,76 @@
         <v>45346.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K181">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M181">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="N181">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P181">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q181">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -115,10 +115,10 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Ballymena Utd</t>
+    <t>Loughgall</t>
   </si>
   <si>
-    <t>Loughgall</t>
+    <t>Ballymena Utd</t>
   </si>
   <si>
     <t>Glentoran</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6840425</v>
+        <v>6839252</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -987,40 +987,40 @@
         <v>42</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>1.727</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>1.5</v>
-      </c>
-      <c r="N6">
-        <v>5.25</v>
-      </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1029,16 +1029,16 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
         <v>-0.5</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6839252</v>
+        <v>6840425</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1076,40 +1076,40 @@
         <v>42</v>
       </c>
       <c r="K7">
+        <v>5.5</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
       <c r="M7">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
+        <v>5.25</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
       <c r="P7">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1118,16 +1118,16 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
@@ -1595,7 +1595,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1954,7 +1954,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2040,7 +2040,7 @@
         <v>45156.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -2399,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2841,7 +2841,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6840435</v>
+        <v>6840308</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>1.363</v>
+      </c>
+      <c r="N28">
+        <v>8.5</v>
+      </c>
+      <c r="O28">
+        <v>4.75</v>
+      </c>
+      <c r="P28">
+        <v>1.285</v>
+      </c>
+      <c r="Q28">
+        <v>1.5</v>
+      </c>
+      <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.825</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28">
-        <v>1.25</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1.166</v>
-      </c>
-      <c r="O28">
-        <v>8.5</v>
-      </c>
-      <c r="P28">
-        <v>13</v>
-      </c>
-      <c r="Q28">
-        <v>-2</v>
-      </c>
-      <c r="R28">
-        <v>1.775</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
-      </c>
-      <c r="T28">
-        <v>3.25</v>
-      </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6840308</v>
+        <v>6840435</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
+        <v>1.25</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
         <v>7</v>
       </c>
-      <c r="L29">
-        <v>4.5</v>
-      </c>
-      <c r="M29">
-        <v>1.363</v>
-      </c>
       <c r="N29">
+        <v>1.166</v>
+      </c>
+      <c r="O29">
         <v>8.5</v>
       </c>
-      <c r="O29">
-        <v>4.75</v>
-      </c>
       <c r="P29">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Y29">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3556,7 +3556,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
         <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -4977,7 +4977,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -5155,7 +5155,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5425,7 +5425,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6840316</v>
+        <v>6839243</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L66">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O66">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q66">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
         <v>1.95</v>
@@ -6354,31 +6354,31 @@
         <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6839243</v>
+        <v>6840316</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,40 +6401,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M67">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="N67">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P67">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R67">
         <v>1.95</v>
@@ -6443,31 +6443,31 @@
         <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6671,7 +6671,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6840457</v>
+        <v>6840319</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>2.2</v>
+      </c>
+      <c r="N74">
+        <v>2.75</v>
+      </c>
+      <c r="O74">
+        <v>3.25</v>
+      </c>
+      <c r="P74">
+        <v>2.4</v>
+      </c>
+      <c r="Q74">
         <v>0</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>1.222</v>
-      </c>
-      <c r="L74">
-        <v>6</v>
-      </c>
-      <c r="M74">
-        <v>10</v>
-      </c>
-      <c r="N74">
-        <v>1.25</v>
-      </c>
-      <c r="O74">
-        <v>5.5</v>
-      </c>
-      <c r="P74">
-        <v>10</v>
-      </c>
-      <c r="Q74">
-        <v>-1.75</v>
-      </c>
       <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>1.75</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.975</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="T74">
-        <v>3</v>
-      </c>
-      <c r="U74">
-        <v>1.85</v>
-      </c>
-      <c r="V74">
-        <v>1.95</v>
-      </c>
       <c r="W74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6840319</v>
+        <v>6840457</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
+        <v>1.222</v>
+      </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
+      <c r="M75">
+        <v>10</v>
+      </c>
+      <c r="N75">
+        <v>1.25</v>
+      </c>
+      <c r="O75">
+        <v>5.5</v>
+      </c>
+      <c r="P75">
+        <v>10</v>
+      </c>
+      <c r="Q75">
+        <v>-1.75</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.825</v>
+      </c>
+      <c r="T75">
         <v>3</v>
       </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
-      <c r="M75">
-        <v>2.2</v>
-      </c>
-      <c r="N75">
-        <v>2.75</v>
-      </c>
-      <c r="O75">
-        <v>3.25</v>
-      </c>
-      <c r="P75">
-        <v>2.4</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>2.05</v>
-      </c>
-      <c r="S75">
-        <v>1.75</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -7380,7 +7380,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -7558,7 +7558,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>38</v>
@@ -7828,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>5</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6840323</v>
+        <v>6840460</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45234.5</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="N87">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6840460</v>
+        <v>6840323</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P88">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>1.875</v>
+      </c>
+      <c r="T88">
+        <v>3.25</v>
+      </c>
+      <c r="U88">
+        <v>1.95</v>
+      </c>
+      <c r="V88">
         <v>1.85</v>
       </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.8</v>
-      </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,10 +8359,10 @@
         <v>45234.5</v>
       </c>
       <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
         <v>34</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -8626,7 +8626,7 @@
         <v>45241.5</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>40</v>
@@ -8715,7 +8715,7 @@
         <v>45241.5</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>31</v>
@@ -9341,7 +9341,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>5</v>
@@ -9430,7 +9430,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6840332</v>
+        <v>6837589</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
+        <v>3.4</v>
+      </c>
+      <c r="P103">
         <v>3.6</v>
       </c>
-      <c r="P103">
-        <v>1.833</v>
-      </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6837589</v>
+        <v>6840332</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N104">
+        <v>3.75</v>
+      </c>
+      <c r="O104">
+        <v>3.6</v>
+      </c>
+      <c r="P104">
+        <v>1.833</v>
+      </c>
+      <c r="Q104">
+        <v>0.5</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
         <v>1.85</v>
       </c>
-      <c r="O104">
-        <v>3.4</v>
-      </c>
-      <c r="P104">
-        <v>3.6</v>
-      </c>
-      <c r="Q104">
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>0.833</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.8</v>
+      </c>
+      <c r="AB104">
+        <v>0.475</v>
+      </c>
+      <c r="AC104">
         <v>-0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.95</v>
-      </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>0.95</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10050,7 +10050,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10228,7 +10228,7 @@
         <v>45262.5</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10320,7 +10320,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6840335</v>
+        <v>6840472</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L115">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6840472</v>
+        <v>6840335</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M116">
-        <v>10</v>
+        <v>1.533</v>
       </c>
       <c r="N116">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6840473</v>
+        <v>6839234</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,49 +10940,49 @@
         <v>45269.5</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>41</v>
       </c>
       <c r="K118">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="L118">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O118">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Q118">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
         <v>1.9</v>
@@ -10991,7 +10991,7 @@
         <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11000,10 +11000,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB118">
         <v>0.8999999999999999</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6837591</v>
+        <v>6840473</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,73 +11029,73 @@
         <v>45269.5</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.142</v>
       </c>
       <c r="L119">
+        <v>7.5</v>
+      </c>
+      <c r="M119">
+        <v>13</v>
+      </c>
+      <c r="N119">
+        <v>1.222</v>
+      </c>
+      <c r="O119">
+        <v>5.75</v>
+      </c>
+      <c r="P119">
+        <v>10</v>
+      </c>
+      <c r="Q119">
+        <v>-1.75</v>
+      </c>
+      <c r="R119">
+        <v>1.925</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
         <v>3.25</v>
       </c>
-      <c r="M119">
-        <v>3.5</v>
-      </c>
-      <c r="N119">
-        <v>2.3</v>
-      </c>
-      <c r="O119">
-        <v>3.1</v>
-      </c>
-      <c r="P119">
-        <v>3.2</v>
-      </c>
-      <c r="Q119">
-        <v>-0.25</v>
-      </c>
-      <c r="R119">
-        <v>1.95</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6839234</v>
+        <v>6837591</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,61 +11118,61 @@
         <v>45269.5</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11181,10 +11181,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,49 +11207,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
         <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11264,19 +11264,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
+        <v>0.8</v>
+      </c>
+      <c r="AB121">
         <v>1.025</v>
       </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
       <c r="AC121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N122">
         <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
         <v>2.025</v>
@@ -11353,19 +11353,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>45276.5</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6840479</v>
+        <v>6840478</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,76 +11741,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
+        <v>5.75</v>
+      </c>
+      <c r="N127">
+        <v>1.333</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>6.5</v>
+      </c>
+      <c r="Q127">
+        <v>-1.5</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
+        <v>3</v>
+      </c>
+      <c r="U127">
         <v>1.85</v>
       </c>
-      <c r="N127">
-        <v>3.2</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
-      <c r="P127">
-        <v>1.909</v>
-      </c>
-      <c r="Q127">
-        <v>0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.825</v>
-      </c>
-      <c r="S127">
-        <v>1.975</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840478</v>
+        <v>6839232</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,58 +11830,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>41</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M128">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="N128">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11893,13 +11893,13 @@
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6839232</v>
+        <v>6840479</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>1</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q129">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
         <v>1.8</v>
       </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12364,7 +12364,7 @@
         <v>45286.5</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -12453,7 +12453,7 @@
         <v>45286.5</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6840340</v>
+        <v>6840483</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,13 +12809,13 @@
         <v>45290.5</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12824,43 +12824,43 @@
         <v>41</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
+        <v>2.75</v>
+      </c>
+      <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="S139">
-        <v>1.95</v>
-      </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>1.975</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12869,16 +12869,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>0.825</v>
+      </c>
+      <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
-      <c r="AB139">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6840290</v>
+        <v>6840340</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,76 +12898,76 @@
         <v>45290.5</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840484</v>
+        <v>6840290</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45290.5</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840483</v>
+        <v>6840484</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45290.5</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13168,7 +13168,7 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6840486</v>
+        <v>6840292</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,55 +13521,55 @@
         <v>45304.5</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>42</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="N147">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P147">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
         <v>1.8</v>
       </c>
-      <c r="S147">
-        <v>2</v>
-      </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13578,19 +13578,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840292</v>
+        <v>6840486</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,76 +13788,76 @@
         <v>45304.5</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J150" t="s">
         <v>42</v>
       </c>
       <c r="K150">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="L150">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
+        <v>2.5</v>
+      </c>
+      <c r="N150">
+        <v>2.8</v>
+      </c>
+      <c r="O150">
+        <v>3.4</v>
+      </c>
+      <c r="P150">
+        <v>2.25</v>
+      </c>
+      <c r="Q150">
+        <v>0.25</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
+        <v>1.8</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
         <v>1.25</v>
       </c>
-      <c r="N150">
-        <v>11</v>
-      </c>
-      <c r="O150">
-        <v>6</v>
-      </c>
-      <c r="P150">
-        <v>1.181</v>
-      </c>
-      <c r="Q150">
-        <v>1.75</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>1.8</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.775</v>
-      </c>
-      <c r="V150">
-        <v>2.025</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>0.181</v>
-      </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
         <v>1</v>
       </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
       <c r="AB150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6840489</v>
+        <v>6840293</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14055,76 +14055,76 @@
         <v>45311.5</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>2</v>
-      </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M153">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="N153">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6840293</v>
+        <v>6840489</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14144,76 +14144,76 @@
         <v>45311.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="O154">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="Q154">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
+        <v>1.825</v>
+      </c>
+      <c r="S154">
+        <v>1.975</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
         <v>1.875</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.925</v>
       </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>1.85</v>
-      </c>
-      <c r="V154">
-        <v>1.95</v>
-      </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14678,10 +14678,10 @@
         <v>45318.5</v>
       </c>
       <c r="F160" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" t="s">
         <v>33</v>
-      </c>
-      <c r="G160" t="s">
-        <v>34</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14859,7 +14859,7 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14948,7 +14948,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15390,7 +15390,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>30</v>
@@ -15568,7 +15568,7 @@
         <v>45339.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15746,7 +15746,7 @@
         <v>45339.5</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -16369,7 +16369,7 @@
         <v>45346.5</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>36</v>
@@ -16461,7 +16461,7 @@
         <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16817,7 +16817,7 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6840955</v>
+        <v>6840952</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,40 +16903,40 @@
         <v>45360.5</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>4</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
       <c r="J185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K185">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N185">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R185">
         <v>1.775</v>
@@ -16945,31 +16945,31 @@
         <v>2.025</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z185">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -16980,7 +16980,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6840954</v>
+        <v>6840955</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,76 +16992,76 @@
         <v>45360.5</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K186">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="L186">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X186">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17069,7 +17069,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6840952</v>
+        <v>6840954</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17081,76 +17081,76 @@
         <v>45360.5</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K187">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N187">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y187">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>45367.5</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>37</v>
@@ -17348,7 +17348,7 @@
         <v>45367.5</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17885,7 +17885,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -17974,7 +17974,7 @@
         <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6839251</v>
+        <v>6840304</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,49 +1595,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="N13">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O13">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
         <v>1.925</v>
       </c>
-      <c r="S13">
-        <v>1.875</v>
-      </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.85</v>
@@ -1646,19 +1646,19 @@
         <v>1.95</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6840304</v>
+        <v>6840305</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45153.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1699,34 +1699,34 @@
         <v>41</v>
       </c>
       <c r="K14">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M14">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>1.166</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.85</v>
@@ -1735,7 +1735,7 @@
         <v>1.95</v>
       </c>
       <c r="W14">
-        <v>3.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,10 +1744,10 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6840305</v>
+        <v>6840428</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,49 +1773,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="L15">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N15">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="Q15">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.85</v>
@@ -1824,25 +1824,25 @@
         <v>1.95</v>
       </c>
       <c r="W15">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6840428</v>
+        <v>6840429</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,73 +1862,73 @@
         <v>45153.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="N16">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="O16">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
         <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AC16">
         <v>-0.5</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6840429</v>
+        <v>6839251</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45153.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.222</v>
+        <v>5.75</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M17">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="N17">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="O17">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="Q17">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6839245</v>
+        <v>6840314</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,10 +4888,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4903,19 +4903,19 @@
         <v>42</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N50">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P50">
         <v>1.4</v>
@@ -4924,19 +4924,19 @@
         <v>1.25</v>
       </c>
       <c r="R50">
+        <v>1.85</v>
+      </c>
+      <c r="S50">
+        <v>1.95</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
         <v>1.975</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>1.875</v>
-      </c>
-      <c r="V50">
-        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4951,13 +4951,13 @@
         <v>-1</v>
       </c>
       <c r="AA50">
+        <v>0.95</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.825</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6840314</v>
+        <v>6840443</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P51">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q51">
-        <v>1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6840443</v>
+        <v>6839245</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,46 +5066,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M52">
+        <v>1.4</v>
+      </c>
+      <c r="N52">
         <v>6.5</v>
       </c>
-      <c r="N52">
-        <v>1.3</v>
-      </c>
       <c r="O52">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P52">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>3</v>
@@ -5117,19 +5117,19 @@
         <v>1.925</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6839243</v>
+        <v>6840316</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,40 +6312,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M66">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P66">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
         <v>1.95</v>
@@ -6354,31 +6354,31 @@
         <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6840316</v>
+        <v>6839243</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,40 +6401,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="L67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q67">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.95</v>
@@ -6443,31 +6443,31 @@
         <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB67">
         <v>0.95</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6840319</v>
+        <v>6840457</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
+        <v>1.222</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>1.25</v>
+      </c>
+      <c r="O74">
+        <v>5.5</v>
+      </c>
+      <c r="P74">
+        <v>10</v>
+      </c>
+      <c r="Q74">
+        <v>-1.75</v>
+      </c>
+      <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
         <v>3</v>
       </c>
-      <c r="L74">
-        <v>3.4</v>
-      </c>
-      <c r="M74">
-        <v>2.2</v>
-      </c>
-      <c r="N74">
-        <v>2.75</v>
-      </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>2.4</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>2.05</v>
-      </c>
-      <c r="S74">
-        <v>1.75</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6840457</v>
+        <v>6840319</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>2.2</v>
+      </c>
+      <c r="N75">
+        <v>2.75</v>
+      </c>
+      <c r="O75">
+        <v>3.25</v>
+      </c>
+      <c r="P75">
+        <v>2.4</v>
+      </c>
+      <c r="Q75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75">
-        <v>1.222</v>
-      </c>
-      <c r="L75">
-        <v>6</v>
-      </c>
-      <c r="M75">
-        <v>10</v>
-      </c>
-      <c r="N75">
-        <v>1.25</v>
-      </c>
-      <c r="O75">
-        <v>5.5</v>
-      </c>
-      <c r="P75">
-        <v>10</v>
-      </c>
-      <c r="Q75">
-        <v>-1.75</v>
-      </c>
       <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>1.75</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6840470</v>
+        <v>6839235</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45262.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="N110">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O110">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.95</v>
+      </c>
+      <c r="AB110">
         <v>0.875</v>
       </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6839235</v>
+        <v>6840333</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,49 +10317,49 @@
         <v>45262.5</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.875</v>
@@ -10371,16 +10371,16 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
         <v>0.875</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6840333</v>
+        <v>6840334</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,49 +10406,49 @@
         <v>45262.5</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q112">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
         <v>1.875</v>
@@ -10460,22 +10460,22 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y112">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6840334</v>
+        <v>6840470</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45262.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M113">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="N113">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P113">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.3</v>
+        <v>4.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6839234</v>
+        <v>6840473</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,49 +10940,49 @@
         <v>45269.5</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
         <v>3</v>
-      </c>
-      <c r="I118">
-        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>41</v>
       </c>
       <c r="K118">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="L118">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M118">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="N118">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
         <v>1.9</v>
@@ -10991,7 +10991,7 @@
         <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11000,10 +11000,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
         <v>0.8999999999999999</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6840473</v>
+        <v>6837591</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,73 +11029,73 @@
         <v>45269.5</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>1.142</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="O119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6837591</v>
+        <v>6839234</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,61 +11118,61 @@
         <v>45269.5</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11181,10 +11181,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,49 +11207,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N121">
         <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11264,19 +11264,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N122">
         <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>2.025</v>
@@ -11353,19 +11353,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
+        <v>0.8</v>
+      </c>
+      <c r="AB122">
         <v>1.025</v>
       </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6837592</v>
+        <v>6839233</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,40 +11563,40 @@
         <v>45276.5</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>1.181</v>
+        <v>6.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>1.363</v>
+      </c>
+      <c r="N125">
         <v>6.5</v>
       </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1.166</v>
-      </c>
       <c r="O125">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="Q125">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="R125">
         <v>1.8</v>
@@ -11605,22 +11605,22 @@
         <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.85</v>
       </c>
-      <c r="V125">
-        <v>1.95</v>
-      </c>
       <c r="W125">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z125">
         <v>-1</v>
@@ -11629,10 +11629,10 @@
         <v>1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6839233</v>
+        <v>6837592</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,40 +11652,40 @@
         <v>45276.5</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
+        <v>1.181</v>
+      </c>
+      <c r="L126">
         <v>6.5</v>
       </c>
-      <c r="L126">
-        <v>5</v>
-      </c>
       <c r="M126">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="N126">
+        <v>1.166</v>
+      </c>
+      <c r="O126">
         <v>6.5</v>
       </c>
-      <c r="O126">
-        <v>5</v>
-      </c>
       <c r="P126">
-        <v>1.363</v>
+        <v>12</v>
       </c>
       <c r="Q126">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="R126">
         <v>1.8</v>
@@ -11694,22 +11694,22 @@
         <v>2</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.85</v>
+      </c>
+      <c r="V126">
         <v>1.95</v>
       </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11718,10 +11718,10 @@
         <v>1</v>
       </c>
       <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.95</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6840483</v>
+        <v>6840290</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12809,76 +12809,76 @@
         <v>45290.5</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K139">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N139">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840290</v>
+        <v>6840484</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45290.5</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L141">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840484</v>
+        <v>6840483</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45290.5</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N142">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6840291</v>
+        <v>6839229</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,76 +13610,76 @@
         <v>45304.5</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>42</v>
+      </c>
+      <c r="K148">
         <v>6</v>
       </c>
-      <c r="I148">
+      <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
+        <v>1.333</v>
+      </c>
+      <c r="N148">
+        <v>9.5</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>1.2</v>
+      </c>
+      <c r="Q148">
+        <v>1.75</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
+        <v>1.775</v>
+      </c>
+      <c r="V148">
+        <v>2.025</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.2</v>
+      </c>
+      <c r="Z148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
         <v>0</v>
       </c>
-      <c r="J148" t="s">
-        <v>41</v>
-      </c>
-      <c r="K148">
-        <v>1.363</v>
-      </c>
-      <c r="L148">
-        <v>4.75</v>
-      </c>
-      <c r="M148">
-        <v>6</v>
-      </c>
-      <c r="N148">
-        <v>1.45</v>
-      </c>
-      <c r="O148">
-        <v>4.75</v>
-      </c>
-      <c r="P148">
-        <v>5</v>
-      </c>
-      <c r="Q148">
-        <v>-1.25</v>
-      </c>
-      <c r="R148">
-        <v>2.025</v>
-      </c>
-      <c r="S148">
-        <v>1.775</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.9</v>
-      </c>
-      <c r="W148">
-        <v>0.45</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>1.025</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6839229</v>
+        <v>6840486</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,55 +13699,55 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J149" t="s">
         <v>42</v>
       </c>
       <c r="K149">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N149">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q149">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13756,19 +13756,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840486</v>
+        <v>6840291</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,73 +13788,73 @@
         <v>45304.5</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K150">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N150">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6840331</v>
+        <v>6840469</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45255.5</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N105">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6840467</v>
+        <v>6840331</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45255.5</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106">
+        <v>1.5</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>1.6</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4.5</v>
+      </c>
+      <c r="Q106">
+        <v>-1</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.8</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
+        <v>1.825</v>
+      </c>
+      <c r="V106">
+        <v>1.975</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>41</v>
-      </c>
-      <c r="K106">
-        <v>2.25</v>
-      </c>
-      <c r="L106">
-        <v>3.25</v>
-      </c>
-      <c r="M106">
-        <v>2.75</v>
-      </c>
-      <c r="N106">
-        <v>2.1</v>
-      </c>
-      <c r="O106">
-        <v>3.25</v>
-      </c>
-      <c r="P106">
-        <v>3.3</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
-      <c r="T106">
-        <v>2.5</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
-      <c r="V106">
-        <v>1.925</v>
-      </c>
-      <c r="W106">
-        <v>1.1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6840469</v>
+        <v>6840467</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45255.5</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9976,44 +9976,44 @@
         <v>41</v>
       </c>
       <c r="K107">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="L107">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
+        <v>3.25</v>
+      </c>
+      <c r="P107">
+        <v>3.3</v>
+      </c>
+      <c r="Q107">
+        <v>-0.25</v>
+      </c>
+      <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
+        <v>1.975</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
         <v>1.1</v>
       </c>
-      <c r="O107">
-        <v>8.5</v>
-      </c>
-      <c r="P107">
-        <v>21</v>
-      </c>
-      <c r="Q107">
-        <v>-2.5</v>
-      </c>
-      <c r="R107">
-        <v>1.875</v>
-      </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
-      <c r="T107">
-        <v>3.5</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
-      <c r="W107">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="X107">
         <v>-1</v>
       </c>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.825</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.875</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,49 +11207,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N121">
         <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11264,19 +11264,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N122">
         <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>2.025</v>
@@ -11353,19 +11353,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
+        <v>0.8</v>
+      </c>
+      <c r="AB122">
         <v>1.025</v>
       </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6839226</v>
+        <v>6840297</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,61 +14856,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162">
+        <v>2.625</v>
+      </c>
+      <c r="L162">
+        <v>3.3</v>
+      </c>
+      <c r="M162">
+        <v>2.45</v>
+      </c>
+      <c r="N162">
+        <v>2.75</v>
+      </c>
+      <c r="O162">
+        <v>3.3</v>
+      </c>
+      <c r="P162">
+        <v>2.375</v>
+      </c>
+      <c r="Q162">
         <v>0</v>
       </c>
-      <c r="J162" t="s">
-        <v>41</v>
-      </c>
-      <c r="K162">
-        <v>1.181</v>
-      </c>
-      <c r="L162">
-        <v>6.5</v>
-      </c>
-      <c r="M162">
-        <v>11</v>
-      </c>
-      <c r="N162">
-        <v>1.181</v>
-      </c>
-      <c r="O162">
-        <v>6.5</v>
-      </c>
-      <c r="P162">
-        <v>11</v>
-      </c>
-      <c r="Q162">
-        <v>-2</v>
-      </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14922,10 +14922,10 @@
         <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6840297</v>
+        <v>6839226</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,61 +14945,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L163">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M163">
-        <v>2.45</v>
+        <v>11</v>
       </c>
       <c r="N163">
-        <v>2.75</v>
+        <v>1.181</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P163">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15011,10 +15011,10 @@
         <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6840298</v>
+        <v>6839225</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,10 +15568,10 @@
         <v>45339.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15583,40 +15583,40 @@
         <v>42</v>
       </c>
       <c r="K170">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.5</v>
+      </c>
+      <c r="N170">
         <v>5</v>
       </c>
-      <c r="M170">
-        <v>1.285</v>
-      </c>
-      <c r="N170">
-        <v>7</v>
-      </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15625,19 +15625,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15645,7 +15645,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6839225</v>
+        <v>6840298</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15657,10 +15657,10 @@
         <v>45339.5</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15672,40 +15672,40 @@
         <v>42</v>
       </c>
       <c r="K171">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15714,19 +15714,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -17336,7 +17336,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6841445</v>
+        <v>6840961</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17348,76 +17348,76 @@
         <v>45367.5</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K190">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L190">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M190">
+        <v>1.4</v>
+      </c>
+      <c r="N190">
         <v>4.2</v>
       </c>
-      <c r="N190">
-        <v>1.8</v>
-      </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17425,7 +17425,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840958</v>
+        <v>6841445</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17437,76 +17437,76 @@
         <v>45367.5</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M191">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N191">
+        <v>1.8</v>
+      </c>
+      <c r="O191">
         <v>3.6</v>
       </c>
-      <c r="O191">
-        <v>3.5</v>
-      </c>
       <c r="P191">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
         <v>1.975</v>
       </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
+        <v>0.8</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840961</v>
+        <v>6840958</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,55 +17526,55 @@
         <v>45367.5</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>42</v>
       </c>
       <c r="K192">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="Q192">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17583,19 +17583,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6840469</v>
+        <v>6840331</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45255.5</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105">
+        <v>1.5</v>
+      </c>
+      <c r="L105">
         <v>4</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>41</v>
-      </c>
-      <c r="K105">
-        <v>1.142</v>
-      </c>
-      <c r="L105">
-        <v>7.5</v>
-      </c>
       <c r="M105">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O105">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="Q105">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6840331</v>
+        <v>6840467</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45255.5</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6840467</v>
+        <v>6840469</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,13 +9961,13 @@
         <v>45255.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9976,43 +9976,43 @@
         <v>41</v>
       </c>
       <c r="K107">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="P107">
-        <v>3.3</v>
+        <v>21</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,49 +11207,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
         <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11264,19 +11264,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
+        <v>0.8</v>
+      </c>
+      <c r="AB121">
         <v>1.025</v>
       </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
       <c r="AC121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N122">
         <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
         <v>2.025</v>
@@ -11353,19 +11353,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6840297</v>
+        <v>6839226</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,61 +14856,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K162">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L162">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M162">
-        <v>2.45</v>
+        <v>11</v>
       </c>
       <c r="N162">
-        <v>2.75</v>
+        <v>1.181</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P162">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14922,10 +14922,10 @@
         <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6839226</v>
+        <v>6840297</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,61 +14945,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>43</v>
+      </c>
+      <c r="K163">
+        <v>2.625</v>
+      </c>
+      <c r="L163">
+        <v>3.3</v>
+      </c>
+      <c r="M163">
+        <v>2.45</v>
+      </c>
+      <c r="N163">
+        <v>2.75</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
+        <v>2.375</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
       </c>
-      <c r="J163" t="s">
-        <v>41</v>
-      </c>
-      <c r="K163">
-        <v>1.181</v>
-      </c>
-      <c r="L163">
-        <v>6.5</v>
-      </c>
-      <c r="M163">
-        <v>11</v>
-      </c>
-      <c r="N163">
-        <v>1.181</v>
-      </c>
-      <c r="O163">
-        <v>6.5</v>
-      </c>
-      <c r="P163">
-        <v>11</v>
-      </c>
-      <c r="Q163">
-        <v>-2</v>
-      </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W163">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15011,10 +15011,10 @@
         <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15556,7 +15556,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6839225</v>
+        <v>6840298</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15568,10 +15568,10 @@
         <v>45339.5</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15583,40 +15583,40 @@
         <v>42</v>
       </c>
       <c r="K170">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M170">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15625,19 +15625,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15645,7 +15645,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6840298</v>
+        <v>6839225</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15657,10 +15657,10 @@
         <v>45339.5</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15672,40 +15672,40 @@
         <v>42</v>
       </c>
       <c r="K171">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1.5</v>
+      </c>
+      <c r="N171">
         <v>5</v>
       </c>
-      <c r="M171">
-        <v>1.285</v>
-      </c>
-      <c r="N171">
-        <v>7</v>
-      </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q171">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15714,19 +15714,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -17336,7 +17336,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6840961</v>
+        <v>6841445</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17348,76 +17348,76 @@
         <v>45367.5</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K190">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="N190">
+        <v>1.8</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
         <v>4.2</v>
       </c>
-      <c r="O190">
-        <v>4</v>
-      </c>
-      <c r="P190">
-        <v>1.65</v>
-      </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y190">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17425,7 +17425,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6841445</v>
+        <v>6840958</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17437,76 +17437,76 @@
         <v>45367.5</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K191">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
         <v>1.825</v>
       </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840958</v>
+        <v>6840961</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,55 +17526,55 @@
         <v>45367.5</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
         <v>42</v>
       </c>
       <c r="K192">
+        <v>7</v>
+      </c>
+      <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>1.4</v>
+      </c>
+      <c r="N192">
+        <v>4.2</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
+        <v>1.65</v>
+      </c>
+      <c r="Q192">
+        <v>0.75</v>
+      </c>
+      <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
         <v>3</v>
       </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>2.2</v>
-      </c>
-      <c r="N192">
-        <v>3.6</v>
-      </c>
-      <c r="O192">
-        <v>3.5</v>
-      </c>
-      <c r="P192">
-        <v>1.95</v>
-      </c>
-      <c r="Q192">
-        <v>0.5</v>
-      </c>
-      <c r="R192">
-        <v>1.825</v>
-      </c>
-      <c r="S192">
-        <v>1.975</v>
-      </c>
-      <c r="T192">
-        <v>2.5</v>
-      </c>
       <c r="U192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17583,19 +17583,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.95</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -106,10 +106,10 @@
     <t>Coleraine</t>
   </si>
   <si>
-    <t>Newry City</t>
+    <t>Glenavon</t>
   </si>
   <si>
-    <t>Glenavon</t>
+    <t>Newry City</t>
   </si>
   <si>
     <t>Larne FC</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6839253</v>
+        <v>6837574</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,52 +708,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6837574</v>
+        <v>6839253</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,52 +797,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,19 +851,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>45153.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1598,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2307,10 +2307,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3556,7 +3556,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -3642,7 +3642,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3912,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3998,7 +3998,7 @@
         <v>45178.5625</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4357,7 +4357,7 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4443,7 +4443,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -5069,7 +5069,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7122709</v>
+        <v>7122708</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,13 +5244,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5259,43 +5259,43 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,16 +5304,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7122708</v>
+        <v>7122709</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,13 +5333,13 @@
         <v>45195.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5348,43 +5348,43 @@
         <v>41</v>
       </c>
       <c r="K55">
+        <v>2.25</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>2.4</v>
+      </c>
+      <c r="N55">
         <v>1.8</v>
       </c>
-      <c r="L55">
-        <v>3.6</v>
-      </c>
-      <c r="M55">
-        <v>3.8</v>
-      </c>
-      <c r="N55">
-        <v>1.85</v>
-      </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
         <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6837582</v>
+        <v>6839244</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="O56">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P56">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>3</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839244</v>
+        <v>6837582</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="N57">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="O57">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P57">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>3</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X57">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -5867,7 +5867,7 @@
         <v>45199.5625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -6137,7 +6137,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -6226,7 +6226,7 @@
         <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6839242</v>
+        <v>6840454</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.25</v>
+        <v>4.75</v>
       </c>
       <c r="L68">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="N68">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="O68">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P68">
-        <v>9.5</v>
+        <v>1.285</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840317</v>
+        <v>6840453</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L69">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="N69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="Q69">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R69">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y69">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6840453</v>
+        <v>6840318</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840318</v>
+        <v>6840317</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,13 +6846,13 @@
         <v>45212.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6861,40 +6861,40 @@
         <v>42</v>
       </c>
       <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>4.75</v>
+      </c>
+      <c r="M72">
+        <v>1.285</v>
+      </c>
+      <c r="N72">
+        <v>8</v>
+      </c>
+      <c r="O72">
         <v>5</v>
       </c>
-      <c r="L72">
-        <v>4</v>
-      </c>
-      <c r="M72">
-        <v>1.533</v>
-      </c>
-      <c r="N72">
-        <v>5</v>
-      </c>
-      <c r="O72">
-        <v>4</v>
-      </c>
       <c r="P72">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6903,19 +6903,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.5329999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840454</v>
+        <v>6839242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
+        <v>1.25</v>
+      </c>
+      <c r="L73">
         <v>4.75</v>
       </c>
-      <c r="L73">
-        <v>4.2</v>
-      </c>
       <c r="M73">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="N73">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="O73">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>1.285</v>
+        <v>9.5</v>
       </c>
       <c r="Q73">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7472,7 +7472,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7650,7 +7650,7 @@
         <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>45227.5625</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -8270,7 +8270,7 @@
         <v>45234.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>36</v>
@@ -8537,7 +8537,7 @@
         <v>45234.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8718,7 +8718,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6837588</v>
+        <v>6839237</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,13 +9249,13 @@
         <v>45248.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -9264,43 +9264,43 @@
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="L99">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>1.166</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q99">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.1659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9309,16 +9309,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839237</v>
+        <v>6837588</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,13 +9338,13 @@
         <v>45248.5</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9353,43 +9353,43 @@
         <v>41</v>
       </c>
       <c r="K100">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>1.166</v>
+      </c>
+      <c r="O100">
+        <v>6.5</v>
+      </c>
+      <c r="P100">
+        <v>11</v>
+      </c>
+      <c r="Q100">
+        <v>-2</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
         <v>3</v>
       </c>
-      <c r="N100">
-        <v>1.65</v>
-      </c>
-      <c r="O100">
-        <v>3.75</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0.6499999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9694,10 +9694,10 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>45262.5</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10498,7 +10498,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6840472</v>
+        <v>6840335</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M115">
-        <v>10</v>
+        <v>1.533</v>
       </c>
       <c r="N115">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O115">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6840335</v>
+        <v>6840472</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L116">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M116">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>45268.70833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>34</v>
@@ -11388,7 +11388,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839233</v>
+        <v>6840336</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,55 +11474,55 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
       </c>
       <c r="K124">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11531,16 +11531,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.363</v>
+        <v>2.75</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6840336</v>
+        <v>6840476</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,55 +11563,55 @@
         <v>45276.5</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>42</v>
       </c>
       <c r="K125">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M125">
+        <v>1.333</v>
+      </c>
+      <c r="N125">
+        <v>6</v>
+      </c>
+      <c r="O125">
         <v>4.2</v>
       </c>
-      <c r="N125">
-        <v>1.8</v>
-      </c>
-      <c r="O125">
-        <v>3.8</v>
-      </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T125">
         <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11620,19 +11620,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11640,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6840476</v>
+        <v>6839233</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11652,76 +11652,76 @@
         <v>45276.5</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>42</v>
       </c>
       <c r="K126">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
         <v>5</v>
       </c>
       <c r="M126">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="N126">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q126">
+        <v>1.5</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
+        <v>1.85</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.363</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>1</v>
       </c>
-      <c r="R126">
-        <v>2.025</v>
-      </c>
-      <c r="S126">
-        <v>1.775</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.8</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>0.45</v>
-      </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
-      <c r="AA126">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840479</v>
+        <v>6840478</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
+        <v>5.75</v>
+      </c>
+      <c r="N128">
+        <v>1.333</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>6.5</v>
+      </c>
+      <c r="Q128">
+        <v>-1.5</v>
+      </c>
+      <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
         <v>1.85</v>
       </c>
-      <c r="N128">
-        <v>3.2</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>1.909</v>
-      </c>
-      <c r="Q128">
-        <v>0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.825</v>
-      </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6840478</v>
+        <v>6840479</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>45283.5</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>40</v>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6840339</v>
+        <v>6840481</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,76 +12364,76 @@
         <v>45286.5</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K134">
-        <v>5.75</v>
+        <v>1.6</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="N134">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
         <v>1.95</v>
       </c>
-      <c r="V134">
-        <v>1.85</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.95</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840480</v>
+        <v>6840339</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45286.5</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K136">
+        <v>5.75</v>
+      </c>
+      <c r="L136">
+        <v>4.333</v>
+      </c>
+      <c r="M136">
+        <v>1.444</v>
+      </c>
+      <c r="N136">
+        <v>8</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>1.4</v>
+      </c>
+      <c r="Q136">
+        <v>1.25</v>
+      </c>
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
         <v>1.95</v>
       </c>
-      <c r="L136">
-        <v>3.4</v>
-      </c>
-      <c r="M136">
-        <v>3.5</v>
-      </c>
-      <c r="N136">
-        <v>1.666</v>
-      </c>
-      <c r="O136">
-        <v>3.8</v>
-      </c>
-      <c r="P136">
-        <v>4.333</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
-      <c r="R136">
+      <c r="V136">
         <v>1.85</v>
       </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z136">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA136">
         <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6840481</v>
+        <v>6840480</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,40 +12631,40 @@
         <v>45286.5</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>41</v>
       </c>
       <c r="K137">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
         <v>1.85</v>
@@ -12673,16 +12673,16 @@
         <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12691,16 +12691,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,10 +12720,10 @@
         <v>45286.5</v>
       </c>
       <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
         <v>30</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12809,7 +12809,7 @@
         <v>45290.5</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -12901,7 +12901,7 @@
         <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>5</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840483</v>
+        <v>6840290</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,76 +12987,76 @@
         <v>45290.5</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840290</v>
+        <v>6839230</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,76 +13076,76 @@
         <v>45290.5</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M142">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>5</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
+        <v>1.925</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.925</v>
-      </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6839230</v>
+        <v>6840483</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,76 +13165,76 @@
         <v>45290.5</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K143">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M143">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13699,7 +13699,7 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>37</v>
@@ -14325,7 +14325,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6840493</v>
+        <v>6839227</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,76 +14411,76 @@
         <v>45318.5</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K157">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
         <v>1.975</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.825</v>
       </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>1.85</v>
-      </c>
       <c r="W157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6840494</v>
+        <v>6840493</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45318.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K158">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="L158">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N158">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
+        <v>1.975</v>
+      </c>
+      <c r="S158">
         <v>1.825</v>
       </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6840950</v>
+        <v>6840494</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,10 +14589,10 @@
         <v>45318.5</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14604,34 +14604,34 @@
         <v>42</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M159">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P159">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
         <v>1.975</v>
@@ -14646,19 +14646,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6839227</v>
+        <v>6840950</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,46 +14678,46 @@
         <v>45318.5</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
+        <v>2.8</v>
+      </c>
+      <c r="L160">
+        <v>3.4</v>
+      </c>
+      <c r="M160">
+        <v>2.15</v>
+      </c>
+      <c r="N160">
         <v>2.5</v>
       </c>
-      <c r="L160">
-        <v>3.2</v>
-      </c>
-      <c r="M160">
-        <v>2.5</v>
-      </c>
-      <c r="N160">
-        <v>2</v>
-      </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>2.5</v>
@@ -14735,19 +14735,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6840297</v>
+        <v>6839226</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,61 +14856,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K162">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L162">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M162">
-        <v>2.45</v>
+        <v>11</v>
       </c>
       <c r="N162">
-        <v>2.75</v>
+        <v>1.181</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P162">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -14922,10 +14922,10 @@
         <v>-0</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6839226</v>
+        <v>6840297</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,61 +14945,61 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>43</v>
+      </c>
+      <c r="K163">
+        <v>2.625</v>
+      </c>
+      <c r="L163">
+        <v>3.3</v>
+      </c>
+      <c r="M163">
+        <v>2.45</v>
+      </c>
+      <c r="N163">
+        <v>2.75</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
+        <v>2.375</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
       </c>
-      <c r="J163" t="s">
-        <v>41</v>
-      </c>
-      <c r="K163">
-        <v>1.181</v>
-      </c>
-      <c r="L163">
-        <v>6.5</v>
-      </c>
-      <c r="M163">
-        <v>11</v>
-      </c>
-      <c r="N163">
-        <v>1.181</v>
-      </c>
-      <c r="O163">
-        <v>6.5</v>
-      </c>
-      <c r="P163">
-        <v>11</v>
-      </c>
-      <c r="Q163">
-        <v>-2</v>
-      </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W163">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15011,10 +15011,10 @@
         <v>-0</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6840497</v>
+        <v>6840496</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,10 +15123,10 @@
         <v>45332.5</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15138,58 +15138,58 @@
         <v>43</v>
       </c>
       <c r="K165">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6840496</v>
+        <v>6840497</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,10 +15212,10 @@
         <v>45332.5</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15227,58 +15227,58 @@
         <v>43</v>
       </c>
       <c r="K166">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N166">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15393,7 +15393,7 @@
         <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>37</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>4</v>
@@ -15927,7 +15927,7 @@
         <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>8</v>
@@ -16191,7 +16191,7 @@
         <v>45346.5</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -16461,7 +16461,7 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16636,7 +16636,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>35</v>
@@ -16903,7 +16903,7 @@
         <v>45360.5</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -16995,7 +16995,7 @@
         <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6840958</v>
+        <v>6841446</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,40 +17170,40 @@
         <v>45367.5</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K188">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="N188">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
         <v>1.825</v>
@@ -17212,34 +17212,34 @@
         <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
         <v>1.975</v>
       </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6841446</v>
+        <v>6840958</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,40 +17259,40 @@
         <v>45367.5</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K189">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
         <v>1.825</v>
@@ -17301,34 +17301,34 @@
         <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
+        <v>1.975</v>
+      </c>
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
       <c r="W189">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.825</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>0.825</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>6</v>
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6841445</v>
+        <v>6840961</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,76 +17526,76 @@
         <v>45367.5</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M192">
+        <v>1.4</v>
+      </c>
+      <c r="N192">
         <v>4.2</v>
       </c>
-      <c r="N192">
-        <v>1.8</v>
-      </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P192">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q192">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U192">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840961</v>
+        <v>6841445</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,76 +17615,76 @@
         <v>45367.5</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="N193">
+        <v>1.8</v>
+      </c>
+      <c r="O193">
+        <v>3.6</v>
+      </c>
+      <c r="P193">
         <v>4.2</v>
       </c>
-      <c r="O193">
-        <v>4</v>
-      </c>
-      <c r="P193">
-        <v>1.65</v>
-      </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y193">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>45374.5</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>33</v>
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6841452</v>
+        <v>6841451</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45374.5</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="L196">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M196">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="N196">
-        <v>9</v>
+        <v>1.222</v>
       </c>
       <c r="O196">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P196">
-        <v>1.222</v>
+        <v>9.5</v>
       </c>
       <c r="Q196">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
         <v>3</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6841451</v>
+        <v>6841452</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45374.5</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K197">
+        <v>7.5</v>
+      </c>
+      <c r="L197">
+        <v>5</v>
+      </c>
+      <c r="M197">
+        <v>1.285</v>
+      </c>
+      <c r="N197">
+        <v>9</v>
+      </c>
+      <c r="O197">
+        <v>5.75</v>
+      </c>
+      <c r="P197">
         <v>1.222</v>
       </c>
-      <c r="L197">
-        <v>5.5</v>
-      </c>
-      <c r="M197">
-        <v>9</v>
-      </c>
-      <c r="N197">
-        <v>1.222</v>
-      </c>
-      <c r="O197">
-        <v>5.5</v>
-      </c>
-      <c r="P197">
-        <v>9.5</v>
-      </c>
       <c r="Q197">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
         <v>3</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>0.222</v>
       </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:29">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840445</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,73 +4621,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z47">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,73 +4710,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6840444</v>
+        <v>6840445</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45191.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N49">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q49">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
         <v>1.975</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.825</v>
       </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>1.9</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
       <c r="W49">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.3875</v>
+      </c>
+      <c r="AA49">
+        <v>-0.5</v>
+      </c>
+      <c r="AB49">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6840452</v>
+        <v>6840317</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
+      <c r="L70">
+        <v>4.75</v>
+      </c>
+      <c r="M70">
+        <v>1.285</v>
+      </c>
+      <c r="N70">
+        <v>8</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+      <c r="P70">
+        <v>1.285</v>
+      </c>
+      <c r="Q70">
+        <v>1.75</v>
+      </c>
+      <c r="R70">
+        <v>1.775</v>
+      </c>
+      <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>1.8</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z70">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70">
-        <v>1.222</v>
-      </c>
-      <c r="L70">
-        <v>5.25</v>
-      </c>
-      <c r="M70">
-        <v>10</v>
-      </c>
-      <c r="N70">
-        <v>1.166</v>
-      </c>
-      <c r="O70">
-        <v>6</v>
-      </c>
-      <c r="P70">
-        <v>12</v>
-      </c>
-      <c r="Q70">
-        <v>-2</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.875</v>
-      </c>
-      <c r="W70">
-        <v>0.1659999999999999</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>0.95</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6839242</v>
+        <v>6840452</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,13 +6757,13 @@
         <v>45212.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6772,43 +6772,43 @@
         <v>41</v>
       </c>
       <c r="K71">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="L71">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N71">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P71">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Q71">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U71">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>0.25</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840317</v>
+        <v>6840318</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,13 +6846,13 @@
         <v>45212.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6861,40 +6861,40 @@
         <v>42</v>
       </c>
       <c r="K72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L72">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="N72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="Q72">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>3</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6903,19 +6903,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.2849999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840318</v>
+        <v>6839242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M73">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P73">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,49 +11207,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>42</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N121">
         <v>3.5</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>2.025</v>
@@ -11264,19 +11264,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,49 +11296,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
         <v>42</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N122">
         <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>2.025</v>
@@ -11353,19 +11353,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
+        <v>0.8</v>
+      </c>
+      <c r="AB122">
         <v>1.025</v>
       </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
       <c r="AC122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6840292</v>
+        <v>6840486</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,76 +13610,76 @@
         <v>45304.5</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J148" t="s">
         <v>42</v>
       </c>
       <c r="K148">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
+        <v>2.5</v>
+      </c>
+      <c r="N148">
+        <v>2.8</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>2.25</v>
+      </c>
+      <c r="Q148">
+        <v>0.25</v>
+      </c>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>1.8</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>1.25</v>
       </c>
-      <c r="N148">
-        <v>11</v>
-      </c>
-      <c r="O148">
-        <v>6</v>
-      </c>
-      <c r="P148">
-        <v>1.181</v>
-      </c>
-      <c r="Q148">
-        <v>1.75</v>
-      </c>
-      <c r="R148">
-        <v>2</v>
-      </c>
-      <c r="S148">
-        <v>1.8</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.775</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>0.181</v>
-      </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>1</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6840486</v>
+        <v>6840487</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,40 +13699,40 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>42</v>
       </c>
       <c r="K149">
+        <v>2.25</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>2.6</v>
+      </c>
+      <c r="N149">
         <v>2.4</v>
       </c>
-      <c r="L149">
-        <v>3.4</v>
-      </c>
-      <c r="M149">
-        <v>2.5</v>
-      </c>
-      <c r="N149">
-        <v>2.8</v>
-      </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.8</v>
@@ -13741,13 +13741,13 @@
         <v>2</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13756,7 +13756,7 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z149">
         <v>-1</v>
@@ -13765,10 +13765,10 @@
         <v>1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840487</v>
+        <v>6840292</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,13 +13788,13 @@
         <v>45304.5</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>2</v>
@@ -13803,61 +13803,61 @@
         <v>42</v>
       </c>
       <c r="K150">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M150">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="N150">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P150">
-        <v>2.55</v>
+        <v>1.181</v>
       </c>
       <c r="Q150">
+        <v>1.75</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>3</v>
+      </c>
+      <c r="U150">
+        <v>1.775</v>
+      </c>
+      <c r="V150">
+        <v>2.025</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.181</v>
+      </c>
+      <c r="Z150">
+        <v>1</v>
+      </c>
+      <c r="AA150">
+        <v>-1</v>
+      </c>
+      <c r="AB150">
         <v>0</v>
       </c>
-      <c r="R150">
-        <v>1.8</v>
-      </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
-      <c r="V150">
-        <v>1.9</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>1.55</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
-      <c r="AA150">
-        <v>1</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6840490</v>
+        <v>6840293</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,76 +13877,76 @@
         <v>45311.5</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K151">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M151">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="N151">
-        <v>6</v>
+        <v>1.166</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P151">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="Q151">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6840293</v>
+        <v>6840490</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,76 +13966,76 @@
         <v>45311.5</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K152">
-        <v>1.125</v>
+        <v>5</v>
       </c>
       <c r="L152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="N152">
-        <v>1.166</v>
+        <v>6</v>
       </c>
       <c r="O152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>13</v>
+        <v>1.444</v>
       </c>
       <c r="Q152">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7933423</v>
+        <v>7933422</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,49 +18060,49 @@
         <v>45384.65625</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
         <v>42</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M198">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="N198">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P198">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S198">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.9</v>
@@ -18117,19 +18117,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA198">
+        <v>-0</v>
+      </c>
+      <c r="AB198">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB198">
-        <v>-0.5</v>
-      </c>
       <c r="AC198">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7933422</v>
+        <v>7933423</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,49 +18149,49 @@
         <v>45384.65625</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>42</v>
       </c>
       <c r="K199">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N199">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q199">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
         <v>1.9</v>
@@ -18206,19 +18206,19 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8048790</v>
+        <v>8048785</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,40 +18238,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M200">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N200">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
         <v>1.85</v>
@@ -18280,31 +18280,31 @@
         <v>1.95</v>
       </c>
       <c r="T200">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8048785</v>
+        <v>8048786</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,40 +18327,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M201">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P201">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
         <v>1.85</v>
@@ -18372,31 +18372,31 @@
         <v>2.75</v>
       </c>
       <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
         <v>1.825</v>
       </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z201">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.825</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18404,7 +18404,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>8048786</v>
+        <v>8048794</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18416,46 +18416,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J202" t="s">
         <v>42</v>
       </c>
       <c r="K202">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L202">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N202">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O202">
         <v>3.75</v>
       </c>
       <c r="P202">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
         <v>1.85</v>
-      </c>
-      <c r="S202">
-        <v>1.95</v>
       </c>
       <c r="T202">
         <v>2.75</v>
@@ -18473,19 +18473,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8048794</v>
+        <v>8048792</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,73 +18505,73 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>41</v>
+      </c>
+      <c r="K203">
+        <v>1.4</v>
+      </c>
+      <c r="L203">
+        <v>4.5</v>
+      </c>
+      <c r="M203">
+        <v>7</v>
+      </c>
+      <c r="N203">
+        <v>1.4</v>
+      </c>
+      <c r="O203">
+        <v>4.5</v>
+      </c>
+      <c r="P203">
+        <v>7</v>
+      </c>
+      <c r="Q203">
+        <v>-1.25</v>
+      </c>
+      <c r="R203">
+        <v>1.875</v>
+      </c>
+      <c r="S203">
+        <v>1.925</v>
+      </c>
+      <c r="T203">
         <v>3</v>
       </c>
-      <c r="J203" t="s">
-        <v>42</v>
-      </c>
-      <c r="K203">
-        <v>1.95</v>
-      </c>
-      <c r="L203">
-        <v>3.75</v>
-      </c>
-      <c r="M203">
-        <v>3.4</v>
-      </c>
-      <c r="N203">
-        <v>1.95</v>
-      </c>
-      <c r="O203">
-        <v>3.75</v>
-      </c>
-      <c r="P203">
-        <v>3.4</v>
-      </c>
-      <c r="Q203">
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>1.975</v>
+      </c>
+      <c r="W203">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
         <v>-0.5</v>
       </c>
-      <c r="R203">
-        <v>1.95</v>
-      </c>
-      <c r="S203">
-        <v>1.85</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>1.825</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>2.4</v>
-      </c>
-      <c r="Z203">
-        <v>-1</v>
-      </c>
       <c r="AA203">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB203">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8048792</v>
+        <v>8048790</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,10 +18594,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18609,43 +18609,43 @@
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18654,13 +18654,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA204">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -19169,19 +19169,19 @@
         <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
         <v>0</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Loughgall</t>
-  </si>
-  <si>
     <t>Glentoran</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
+  </si>
+  <si>
+    <t>Loughgall</t>
   </si>
   <si>
     <t>Cliftonville</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6839252</v>
+        <v>6837575</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -987,40 +987,40 @@
         <v>42</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1029,19 +1029,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6837575</v>
+        <v>6840425</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1076,34 +1076,34 @@
         <v>42</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>1.925</v>
@@ -1118,19 +1118,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6839252</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1165,40 +1165,40 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L8">
+        <v>3.75</v>
+      </c>
+      <c r="M8">
+        <v>1.727</v>
+      </c>
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>1.5</v>
-      </c>
-      <c r="N8">
-        <v>5.25</v>
-      </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1207,16 +1207,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB8">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
@@ -1687,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6839251</v>
+        <v>6840304</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="N16">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
         <v>1.925</v>
       </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.85</v>
@@ -1913,19 +1913,19 @@
         <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6840304</v>
+        <v>6839251</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,49 +1951,49 @@
         <v>45153.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
         <v>1.875</v>
       </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.85</v>
@@ -2002,19 +2002,19 @@
         <v>1.95</v>
       </c>
       <c r="W17">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>45156.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6839250</v>
+        <v>6840433</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L19">
+        <v>3.5</v>
+      </c>
+      <c r="M19">
+        <v>2.25</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
         <v>3.6</v>
       </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.25</v>
-      </c>
-      <c r="O19">
-        <v>3.5</v>
-      </c>
       <c r="P19">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
         <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6840433</v>
+        <v>6840432</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,40 +2218,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R20">
         <v>1.85</v>
@@ -2260,19 +2260,19 @@
         <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2284,10 +2284,10 @@
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6840432</v>
+        <v>6840306</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>1.727</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.5</v>
-      </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
         <v>4.2</v>
       </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6840306</v>
+        <v>6839250</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,55 +2396,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>42</v>
       </c>
       <c r="K22">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2453,16 +2453,16 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6973551</v>
+        <v>6978093</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,58 +2485,58 @@
         <v>45160.65625</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W23">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2545,13 +2545,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6978093</v>
+        <v>6973551</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45160.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,13 +2634,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2752,7 +2752,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2841,10 +2841,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>45167.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4176,7 +4176,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4265,10 +4265,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
         <v>35</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
@@ -4888,7 +4888,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -5066,7 +5066,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -5244,7 +5244,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5425,7 +5425,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6223,7 +6223,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>38</v>
@@ -6401,7 +6401,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6840318</v>
+        <v>6840452</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M68">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="N68">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840452</v>
+        <v>6840318</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45212.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>1.533</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>1.533</v>
+      </c>
+      <c r="Q69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69">
-        <v>1.222</v>
-      </c>
-      <c r="L69">
-        <v>5.25</v>
-      </c>
-      <c r="M69">
-        <v>10</v>
-      </c>
-      <c r="N69">
-        <v>1.166</v>
-      </c>
-      <c r="O69">
-        <v>6</v>
-      </c>
-      <c r="P69">
-        <v>12</v>
-      </c>
-      <c r="Q69">
-        <v>-2</v>
-      </c>
       <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
         <v>1.85</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="T69">
-        <v>3.25</v>
-      </c>
-      <c r="U69">
-        <v>1.925</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.95</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6757,10 +6757,10 @@
         <v>45212.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>6</v>
@@ -7202,7 +7202,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7291,7 +7291,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7380,7 +7380,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7736,7 +7736,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7828,7 +7828,7 @@
         <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>5</v>
@@ -7917,7 +7917,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6840460</v>
+        <v>6837586</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,40 +8181,40 @@
         <v>45234.5</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M87">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P87">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
         <v>1.85</v>
@@ -8223,7 +8223,7 @@
         <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U87">
         <v>1.8</v>
@@ -8232,25 +8232,25 @@
         <v>2</v>
       </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8258,7 +8258,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6839239</v>
+        <v>6840460</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8270,76 +8270,76 @@
         <v>45234.5</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>41</v>
       </c>
       <c r="K88">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>2.1</v>
+      </c>
+      <c r="O88">
         <v>3.6</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
-      </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.875</v>
-      </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W88">
+        <v>1.1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>1</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.875</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6840322</v>
+        <v>6839239</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,76 +8359,76 @@
         <v>45234.5</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6840323</v>
+        <v>6840322</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,55 +8448,55 @@
         <v>45234.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>42</v>
       </c>
       <c r="K90">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="L90">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>13</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8505,19 +8505,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837586</v>
+        <v>6840323</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,13 +8537,13 @@
         <v>45234.5</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -8552,41 +8552,41 @@
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="M91">
-        <v>8.5</v>
+        <v>1.2</v>
       </c>
       <c r="N91">
-        <v>1.333</v>
+        <v>13</v>
       </c>
       <c r="O91">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P91">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.85</v>
       </c>
-      <c r="S91">
-        <v>1.95</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
-      <c r="V91">
-        <v>2</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
@@ -8594,19 +8594,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>45241.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6840462</v>
+        <v>6840463</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45241.5</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K93">
+        <v>2.25</v>
+      </c>
+      <c r="L93">
+        <v>3.5</v>
+      </c>
+      <c r="M93">
+        <v>2.875</v>
+      </c>
+      <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
+        <v>3.5</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
         <v>0</v>
       </c>
-      <c r="J93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K93">
-        <v>1.142</v>
-      </c>
-      <c r="L93">
-        <v>7</v>
-      </c>
-      <c r="M93">
-        <v>13</v>
-      </c>
-      <c r="N93">
-        <v>1.142</v>
-      </c>
-      <c r="O93">
-        <v>7</v>
-      </c>
-      <c r="P93">
-        <v>13</v>
-      </c>
-      <c r="Q93">
-        <v>-2.25</v>
-      </c>
       <c r="R93">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6839238</v>
+        <v>6840462</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45241.5</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>6</v>
+        <v>1.142</v>
       </c>
       <c r="L94">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M94">
-        <v>1.444</v>
+        <v>13</v>
       </c>
       <c r="N94">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P94">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="Q94">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6840463</v>
+        <v>6839238</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45241.5</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
       </c>
       <c r="K95">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
+        <v>1.4</v>
+      </c>
+      <c r="Q95">
+        <v>1.25</v>
+      </c>
+      <c r="R95">
+        <v>1.775</v>
+      </c>
+      <c r="S95">
+        <v>2.025</v>
+      </c>
+      <c r="T95">
         <v>3</v>
       </c>
-      <c r="Q95">
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z95">
+        <v>0.3875</v>
+      </c>
+      <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
         <v>0</v>
       </c>
-      <c r="R95">
-        <v>1.75</v>
-      </c>
-      <c r="S95">
-        <v>2.05</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.875</v>
-      </c>
-      <c r="V95">
-        <v>1.925</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>2</v>
-      </c>
-      <c r="Z95">
-        <v>-1</v>
-      </c>
-      <c r="AA95">
-        <v>1.05</v>
-      </c>
-      <c r="AB95">
-        <v>0.875</v>
-      </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>45248.5</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>34</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9341,7 +9341,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6837589</v>
+        <v>6840332</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L103">
         <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>3.6</v>
+      </c>
+      <c r="P103">
+        <v>1.833</v>
+      </c>
+      <c r="Q103">
+        <v>0.5</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="O103">
-        <v>3.4</v>
-      </c>
-      <c r="P103">
-        <v>3.6</v>
-      </c>
-      <c r="Q103">
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.833</v>
+      </c>
+      <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
+        <v>0.8</v>
+      </c>
+      <c r="AB103">
+        <v>0.475</v>
+      </c>
+      <c r="AC103">
         <v>-0.5</v>
-      </c>
-      <c r="R103">
-        <v>1.95</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.95</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6840332</v>
+        <v>6837589</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45254.69791666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
+        <v>3.4</v>
+      </c>
+      <c r="P104">
         <v>3.6</v>
       </c>
-      <c r="P104">
-        <v>1.833</v>
-      </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10050,7 +10050,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10139,7 +10139,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>40</v>
@@ -10228,7 +10228,7 @@
         <v>45262.5</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10587,7 +10587,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10854,7 +10854,7 @@
         <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10943,7 +10943,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11032,7 +11032,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11296,7 +11296,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11385,7 +11385,7 @@
         <v>45276.5</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>36</v>
@@ -11474,7 +11474,7 @@
         <v>45276.5</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6839232</v>
+        <v>6840479</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,76 +11741,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>12</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>1.142</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
+        <v>1.825</v>
+      </c>
+      <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
         <v>1.8</v>
       </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
-      <c r="T127">
-        <v>3.25</v>
-      </c>
-      <c r="U127">
-        <v>1.9</v>
-      </c>
-      <c r="V127">
-        <v>1.9</v>
-      </c>
       <c r="W127">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840479</v>
+        <v>6839232</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>0</v>
       </c>
-      <c r="I128">
+      <c r="J128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128">
+        <v>1.181</v>
+      </c>
+      <c r="L128">
+        <v>5.5</v>
+      </c>
+      <c r="M128">
+        <v>12</v>
+      </c>
+      <c r="N128">
+        <v>1.142</v>
+      </c>
+      <c r="O128">
+        <v>7</v>
+      </c>
+      <c r="P128">
+        <v>15</v>
+      </c>
+      <c r="Q128">
+        <v>-2</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
+        <v>1.9</v>
+      </c>
+      <c r="V128">
+        <v>1.9</v>
+      </c>
+      <c r="W128">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>1</v>
       </c>
-      <c r="J128" t="s">
-        <v>42</v>
-      </c>
-      <c r="K128">
-        <v>3.25</v>
-      </c>
-      <c r="L128">
-        <v>3.6</v>
-      </c>
-      <c r="M128">
-        <v>1.85</v>
-      </c>
-      <c r="N128">
-        <v>3.2</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>1.909</v>
-      </c>
-      <c r="Q128">
-        <v>0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.825</v>
-      </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
-      <c r="V128">
-        <v>1.8</v>
-      </c>
-      <c r="W128">
-        <v>-1</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>0.909</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6837593</v>
+        <v>6840338</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45283.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.153</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M131">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="N131">
+        <v>1.142</v>
+      </c>
+      <c r="O131">
+        <v>7</v>
+      </c>
+      <c r="P131">
+        <v>15</v>
+      </c>
+      <c r="Q131">
+        <v>-2.25</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.8</v>
+      </c>
+      <c r="T131">
         <v>3.25</v>
       </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
-      <c r="P131">
-        <v>1.833</v>
-      </c>
-      <c r="Q131">
-        <v>0.5</v>
-      </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6840338</v>
+        <v>6837593</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45283.5</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" t="s">
+        <v>42</v>
+      </c>
+      <c r="K132">
+        <v>4.5</v>
+      </c>
+      <c r="L132">
+        <v>4.2</v>
+      </c>
+      <c r="M132">
+        <v>1.533</v>
+      </c>
+      <c r="N132">
+        <v>3.25</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>1.833</v>
+      </c>
+      <c r="Q132">
+        <v>0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
+        <v>1.85</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>1.975</v>
+      </c>
+      <c r="V132">
+        <v>1.825</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>0.833</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB132">
         <v>0</v>
       </c>
-      <c r="J132" t="s">
-        <v>41</v>
-      </c>
-      <c r="K132">
-        <v>1.153</v>
-      </c>
-      <c r="L132">
-        <v>6</v>
-      </c>
-      <c r="M132">
-        <v>12</v>
-      </c>
-      <c r="N132">
-        <v>1.142</v>
-      </c>
-      <c r="O132">
-        <v>7</v>
-      </c>
-      <c r="P132">
-        <v>15</v>
-      </c>
-      <c r="Q132">
-        <v>-2.25</v>
-      </c>
-      <c r="R132">
-        <v>2</v>
-      </c>
-      <c r="S132">
-        <v>1.8</v>
-      </c>
-      <c r="T132">
-        <v>3.25</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.8</v>
-      </c>
-      <c r="W132">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
-      <c r="Z132">
-        <v>-0.5</v>
-      </c>
-      <c r="AA132">
-        <v>0.4</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>45286.5</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
@@ -12545,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>45286.5</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12990,7 +12990,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>45304.5</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -13521,7 +13521,7 @@
         <v>45304.5</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>40</v>
@@ -13699,7 +13699,7 @@
         <v>45304.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
         <v>37</v>
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6840489</v>
+        <v>6840490</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,10 +13877,10 @@
         <v>45311.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13892,40 +13892,40 @@
         <v>42</v>
       </c>
       <c r="K151">
+        <v>5</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>1.5</v>
+      </c>
+      <c r="N151">
+        <v>6</v>
+      </c>
+      <c r="O151">
+        <v>4</v>
+      </c>
+      <c r="P151">
+        <v>1.444</v>
+      </c>
+      <c r="Q151">
+        <v>1.25</v>
+      </c>
+      <c r="R151">
         <v>1.8</v>
       </c>
-      <c r="L151">
-        <v>3.6</v>
-      </c>
-      <c r="M151">
-        <v>3.6</v>
-      </c>
-      <c r="N151">
-        <v>1.727</v>
-      </c>
-      <c r="O151">
-        <v>3.75</v>
-      </c>
-      <c r="P151">
-        <v>3.75</v>
-      </c>
-      <c r="Q151">
-        <v>-0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.825</v>
-      </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13934,19 +13934,19 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2.75</v>
+        <v>0.444</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13954,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6840490</v>
+        <v>6840489</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13966,10 +13966,10 @@
         <v>45311.5</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -13981,40 +13981,40 @@
         <v>42</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14023,19 +14023,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14414,7 +14414,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14500,10 +14500,10 @@
         <v>45318.5</v>
       </c>
       <c r="F158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" t="s">
         <v>35</v>
-      </c>
-      <c r="G158" t="s">
-        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14767,7 +14767,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
@@ -14859,7 +14859,7 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14948,7 +14948,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15301,7 +15301,7 @@
         <v>45332.5</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>38</v>
@@ -15390,7 +15390,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>30</v>
@@ -15568,7 +15568,7 @@
         <v>45339.5</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>30</v>
@@ -15835,7 +15835,7 @@
         <v>45339.5</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15924,7 +15924,7 @@
         <v>45339.5</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>32</v>
@@ -16105,7 +16105,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16194,7 +16194,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16369,7 +16369,7 @@
         <v>45346.5</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>38</v>
@@ -16639,7 +16639,7 @@
         <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16725,10 +16725,10 @@
         <v>45360.5</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16903,7 +16903,7 @@
         <v>45360.5</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -17336,7 +17336,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6840961</v>
+        <v>6840960</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17348,73 +17348,73 @@
         <v>45367.5</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K190">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="M190">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="N190">
-        <v>4.2</v>
+        <v>1.125</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P190">
-        <v>1.65</v>
+        <v>13</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>3.75</v>
+      </c>
+      <c r="U190">
         <v>1.95</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.85</v>
       </c>
-      <c r="T190">
-        <v>3</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17425,7 +17425,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840960</v>
+        <v>6840961</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17437,73 +17437,73 @@
         <v>45367.5</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K191">
-        <v>1.142</v>
+        <v>7</v>
       </c>
       <c r="L191">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="M191">
-        <v>13</v>
+        <v>1.4</v>
       </c>
       <c r="N191">
-        <v>1.125</v>
+        <v>4.2</v>
       </c>
       <c r="O191">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>13</v>
+        <v>1.65</v>
       </c>
       <c r="Q191">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z191">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17529,7 +17529,7 @@
         <v>37</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17615,7 +17615,7 @@
         <v>45367.5</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
         <v>38</v>
@@ -17796,7 +17796,7 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17882,10 +17882,10 @@
         <v>45374.5</v>
       </c>
       <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
         <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18416,10 +18416,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18683,7 +18683,7 @@
         <v>45388.5625</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18953,7 +18953,7 @@
         <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19039,7 +19039,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>31</v>
@@ -19131,7 +19131,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19484,7 +19484,7 @@
         <v>45398.65625</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -19665,7 +19665,7 @@
         <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -19751,7 +19751,7 @@
         <v>45398.65625</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
         <v>31</v>
@@ -19828,7 +19828,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8048815</v>
+        <v>8048814</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19837,49 +19837,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45402.45833333334</v>
+        <v>45404.65625</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K218">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N218">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19894,376 +19894,6 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>8048808</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F219" t="s">
-        <v>37</v>
-      </c>
-      <c r="G219" t="s">
-        <v>31</v>
-      </c>
-      <c r="K219">
-        <v>1.8</v>
-      </c>
-      <c r="L219">
-        <v>3.6</v>
-      </c>
-      <c r="M219">
-        <v>3.8</v>
-      </c>
-      <c r="N219">
-        <v>1.85</v>
-      </c>
-      <c r="O219">
-        <v>3.6</v>
-      </c>
-      <c r="P219">
-        <v>3.6</v>
-      </c>
-      <c r="Q219">
-        <v>-0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.9</v>
-      </c>
-      <c r="S219">
-        <v>1.9</v>
-      </c>
-      <c r="T219">
-        <v>2.75</v>
-      </c>
-      <c r="U219">
-        <v>1.775</v>
-      </c>
-      <c r="V219">
-        <v>2.025</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>8048807</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F220" t="s">
-        <v>38</v>
-      </c>
-      <c r="G220" t="s">
-        <v>33</v>
-      </c>
-      <c r="K220">
-        <v>2</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>3.2</v>
-      </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>3.2</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>2</v>
-      </c>
-      <c r="S220">
-        <v>1.8</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.875</v>
-      </c>
-      <c r="V220">
-        <v>1.925</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>8048796</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F221" t="s">
-        <v>29</v>
-      </c>
-      <c r="G221" t="s">
-        <v>39</v>
-      </c>
-      <c r="K221">
-        <v>2.8</v>
-      </c>
-      <c r="L221">
-        <v>3.8</v>
-      </c>
-      <c r="M221">
-        <v>2.1</v>
-      </c>
-      <c r="N221">
-        <v>3</v>
-      </c>
-      <c r="O221">
-        <v>3.6</v>
-      </c>
-      <c r="P221">
-        <v>2.05</v>
-      </c>
-      <c r="Q221">
-        <v>0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.975</v>
-      </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
-      <c r="U221">
-        <v>1.8</v>
-      </c>
-      <c r="V221">
-        <v>2</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>8048795</v>
-      </c>
-      <c r="C222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F222" t="s">
-        <v>36</v>
-      </c>
-      <c r="G222" t="s">
-        <v>34</v>
-      </c>
-      <c r="K222">
-        <v>2.2</v>
-      </c>
-      <c r="L222">
-        <v>3.75</v>
-      </c>
-      <c r="M222">
-        <v>2.55</v>
-      </c>
-      <c r="N222">
-        <v>2.3</v>
-      </c>
-      <c r="O222">
-        <v>3.75</v>
-      </c>
-      <c r="P222">
-        <v>2.4</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.875</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.85</v>
-      </c>
-      <c r="V222">
-        <v>1.95</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-      <c r="AA222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>8048814</v>
-      </c>
-      <c r="C223" t="s">
-        <v>28</v>
-      </c>
-      <c r="D223" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="2">
-        <v>45404.65625</v>
-      </c>
-      <c r="F223" t="s">
-        <v>40</v>
-      </c>
-      <c r="G223" t="s">
-        <v>32</v>
-      </c>
-      <c r="K223">
-        <v>2.45</v>
-      </c>
-      <c r="L223">
-        <v>3.3</v>
-      </c>
-      <c r="M223">
-        <v>2.625</v>
-      </c>
-      <c r="N223">
-        <v>2.3</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>2.8</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>2.025</v>
-      </c>
-      <c r="S223">
-        <v>1.775</v>
-      </c>
-      <c r="T223">
-        <v>2.5</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
-      <c r="V223">
-        <v>1.9</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-      <c r="AA223">
         <v>0</v>
       </c>
     </row>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -112,13 +112,13 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Glentoran</t>
-  </si>
-  <si>
     <t>Loughgall</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
+  </si>
+  <si>
+    <t>Glentoran</t>
   </si>
   <si>
     <t>Carrick Rangers</t>
@@ -610,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -954,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -966,40 +966,40 @@
         <v>41</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
         <v>-1</v>
@@ -1008,19 +1008,19 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6839252</v>
+        <v>6840425</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,40 +1052,40 @@
         <v>41</v>
       </c>
       <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7">
-        <v>3.75</v>
-      </c>
       <c r="L7">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
+        <v>5.25</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7">
-        <v>3.75</v>
-      </c>
       <c r="O7">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="P7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
         <v>2.75</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1094,16 +1094,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB7">
         <v>-0.5</v>
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6837575</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1126,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,34 +1138,34 @@
         <v>41</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M8">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
         <v>1.925</v>
@@ -1180,19 +1180,19 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1642,7 +1642,7 @@
         <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1897,10 +1897,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -2244,7 +2244,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -3101,7 +3101,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
@@ -3273,7 +3273,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
@@ -3362,7 +3362,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3792,7 +3792,7 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
@@ -4133,10 +4133,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -4735,7 +4735,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -4907,7 +4907,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
         <v>38</v>
@@ -5079,7 +5079,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
@@ -5426,7 +5426,7 @@
         <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5598,7 +5598,7 @@
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5770,7 +5770,7 @@
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -6197,7 +6197,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -6544,7 +6544,7 @@
         <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6713,10 +6713,10 @@
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
       </c>
       <c r="G73">
         <v>6</v>
@@ -6971,7 +6971,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
         <v>29</v>
@@ -7057,7 +7057,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
@@ -7229,7 +7229,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
         <v>28</v>
@@ -7318,7 +7318,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -7404,7 +7404,7 @@
         <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -7917,10 +7917,10 @@
         <v>45234.5</v>
       </c>
       <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
         <v>33</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -8003,7 +8003,7 @@
         <v>45234.5</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -8347,7 +8347,7 @@
         <v>45241.5</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
         <v>29</v>
@@ -8605,7 +8605,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
         <v>39</v>
@@ -8780,7 +8780,7 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9035,10 +9035,10 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9382,7 +9382,7 @@
         <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9554,7 +9554,7 @@
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9723,7 +9723,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>36</v>
@@ -9809,7 +9809,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>38</v>
@@ -10067,7 +10067,7 @@
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
         <v>31</v>
@@ -10242,7 +10242,7 @@
         <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10500,7 +10500,7 @@
         <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10672,7 +10672,7 @@
         <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10841,7 +10841,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
@@ -11185,7 +11185,7 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
         <v>37</v>
@@ -11271,7 +11271,7 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
         <v>30</v>
@@ -11360,7 +11360,7 @@
         <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11704,7 +11704,7 @@
         <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11959,7 +11959,7 @@
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
         <v>36</v>
@@ -12131,7 +12131,7 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
         <v>28</v>
@@ -12220,7 +12220,7 @@
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12564,7 +12564,7 @@
         <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12650,7 +12650,7 @@
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
         <v>28</v>
@@ -13249,7 +13249,7 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
         <v>38</v>
@@ -13335,7 +13335,7 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
         <v>36</v>
@@ -13424,7 +13424,7 @@
         <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13937,10 +13937,10 @@
         <v>45318.5</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -14198,7 +14198,7 @@
         <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14281,7 +14281,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
         <v>37</v>
@@ -14370,7 +14370,7 @@
         <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14456,7 +14456,7 @@
         <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14625,7 +14625,7 @@
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
         <v>35</v>
@@ -14883,7 +14883,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
         <v>30</v>
@@ -15055,7 +15055,7 @@
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
         <v>31</v>
@@ -15227,7 +15227,7 @@
         <v>45339.5</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
         <v>30</v>
@@ -15399,7 +15399,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
         <v>39</v>
@@ -15574,7 +15574,7 @@
         <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15657,7 +15657,7 @@
         <v>45346.5</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
         <v>35</v>
@@ -15918,7 +15918,7 @@
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -16090,7 +16090,7 @@
         <v>29</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16259,10 +16259,10 @@
         <v>45360.5</v>
       </c>
       <c r="E184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" t="s">
         <v>32</v>
-      </c>
-      <c r="F184" t="s">
-        <v>33</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16345,7 +16345,7 @@
         <v>45360.5</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F185" t="s">
         <v>39</v>
@@ -16606,7 +16606,7 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16689,7 +16689,7 @@
         <v>45367.5</v>
       </c>
       <c r="E189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
         <v>35</v>
@@ -16947,7 +16947,7 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
         <v>37</v>
@@ -17205,10 +17205,10 @@
         <v>45374.5</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17294,7 +17294,7 @@
         <v>29</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17807,10 +17807,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E202" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" t="s">
         <v>33</v>
-      </c>
-      <c r="F202" t="s">
-        <v>34</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -18065,7 +18065,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
         <v>38</v>
@@ -18240,7 +18240,7 @@
         <v>28</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18326,7 +18326,7 @@
         <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18495,7 +18495,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F210" t="s">
         <v>29</v>
@@ -18744,7 +18744,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048793</v>
+        <v>8048813</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18753,76 +18753,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F213" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J213">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="K213">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L213">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="M213">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="N213">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>9</v>
+        <v>1.615</v>
       </c>
       <c r="P213">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T213">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
         <v>-1</v>
       </c>
       <c r="W213">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z213">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA213">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18830,7 +18830,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048803</v>
+        <v>8048806</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18839,76 +18839,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K214">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L214">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="M214">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N214">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O214">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="P214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
         <v>2.75</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18928,7 +18928,7 @@
         <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -19002,7 +19002,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048806</v>
+        <v>8048803</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19011,76 +19011,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" t="s">
+        <v>40</v>
+      </c>
+      <c r="J216">
         <v>3</v>
       </c>
-      <c r="I216" t="s">
-        <v>41</v>
-      </c>
-      <c r="J216">
-        <v>4</v>
-      </c>
       <c r="K216">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L216">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="M216">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O216">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="P216">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
         <v>2.75</v>
       </c>
       <c r="T216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19088,7 +19088,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8048813</v>
+        <v>8048793</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19097,76 +19097,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J217">
+        <v>1.4</v>
+      </c>
+      <c r="K217">
+        <v>4.333</v>
+      </c>
+      <c r="L217">
+        <v>6.5</v>
+      </c>
+      <c r="M217">
+        <v>1.333</v>
+      </c>
+      <c r="N217">
+        <v>5.25</v>
+      </c>
+      <c r="O217">
+        <v>9</v>
+      </c>
+      <c r="P217">
+        <v>-1.5</v>
+      </c>
+      <c r="Q217">
+        <v>1.9</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
         <v>3</v>
       </c>
-      <c r="K217">
-        <v>3.6</v>
-      </c>
-      <c r="L217">
-        <v>2.05</v>
-      </c>
-      <c r="M217">
-        <v>4.5</v>
-      </c>
-      <c r="N217">
-        <v>4</v>
-      </c>
-      <c r="O217">
-        <v>1.615</v>
-      </c>
-      <c r="P217">
-        <v>0.75</v>
-      </c>
-      <c r="Q217">
+      <c r="T217">
+        <v>1.775</v>
+      </c>
+      <c r="U217">
         <v>2.025</v>
       </c>
-      <c r="R217">
-        <v>1.775</v>
-      </c>
-      <c r="S217">
-        <v>2.75</v>
-      </c>
-      <c r="T217">
-        <v>1.85</v>
-      </c>
-      <c r="U217">
-        <v>1.95</v>
-      </c>
       <c r="V217">
         <v>-1</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X217">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA217">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19174,7 +19174,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8048815</v>
+        <v>8048807</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19183,58 +19183,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
         <v>40</v>
       </c>
       <c r="J218">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K218">
         <v>3.6</v>
       </c>
       <c r="L218">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M218">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N218">
         <v>3.6</v>
       </c>
       <c r="O218">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V218">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19243,13 +19243,13 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB218">
         <v>-1</v>
@@ -19260,7 +19260,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8048808</v>
+        <v>8048815</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19269,13 +19269,13 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -19290,37 +19290,37 @@
         <v>3.6</v>
       </c>
       <c r="L219">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N219">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P219">
         <v>-0.75</v>
       </c>
       <c r="Q219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19329,16 +19329,16 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19346,7 +19346,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8048807</v>
+        <v>8048808</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19355,58 +19355,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="s">
         <v>40</v>
       </c>
       <c r="J220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K220">
         <v>3.6</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N220">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q220">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T220">
+        <v>2</v>
+      </c>
+      <c r="U220">
         <v>1.8</v>
       </c>
-      <c r="U220">
-        <v>2</v>
-      </c>
       <c r="V220">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -19415,16 +19415,16 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
         <v>0.8</v>
-      </c>
-      <c r="AB220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19530,7 +19530,7 @@
         <v>37</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19690,7 +19690,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8048809</v>
+        <v>8048810</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19699,76 +19699,76 @@
         <v>45409.5625</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224" t="s">
+        <v>41</v>
+      </c>
+      <c r="J224">
+        <v>2.3</v>
+      </c>
+      <c r="K224">
+        <v>3.9</v>
+      </c>
+      <c r="L224">
+        <v>2.5</v>
+      </c>
+      <c r="M224">
         <v>3</v>
       </c>
-      <c r="H224">
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224">
+        <v>1.95</v>
+      </c>
+      <c r="P224">
+        <v>0.5</v>
+      </c>
+      <c r="Q224">
+        <v>1.8</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>3</v>
+      </c>
+      <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
+        <v>1.8</v>
+      </c>
+      <c r="V224">
+        <v>-1</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>0.95</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
         <v>0</v>
       </c>
-      <c r="I224" t="s">
-        <v>40</v>
-      </c>
-      <c r="J224">
-        <v>1.5</v>
-      </c>
-      <c r="K224">
-        <v>4.1</v>
-      </c>
-      <c r="L224">
-        <v>5.5</v>
-      </c>
-      <c r="M224">
-        <v>1.125</v>
-      </c>
-      <c r="N224">
-        <v>7</v>
-      </c>
-      <c r="O224">
-        <v>15</v>
-      </c>
-      <c r="P224">
-        <v>-2.25</v>
-      </c>
-      <c r="Q224">
-        <v>1.9</v>
-      </c>
-      <c r="R224">
-        <v>1.9</v>
-      </c>
-      <c r="S224">
-        <v>3.5</v>
-      </c>
-      <c r="T224">
-        <v>1.975</v>
-      </c>
-      <c r="U224">
-        <v>1.825</v>
-      </c>
-      <c r="V224">
-        <v>0.125</v>
-      </c>
-      <c r="W224">
-        <v>-1</v>
-      </c>
-      <c r="X224">
-        <v>-1</v>
-      </c>
-      <c r="Y224">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z224">
-        <v>-1</v>
-      </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
       <c r="AB224">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19776,7 +19776,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8048810</v>
+        <v>8048809</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19785,76 +19785,76 @@
         <v>45409.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J225">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="K225">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L225">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>1.125</v>
       </c>
       <c r="N225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O225">
-        <v>1.95</v>
+        <v>15</v>
       </c>
       <c r="P225">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="Q225">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -20043,7 +20043,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F228" t="s">
         <v>39</v>
@@ -20132,7 +20132,7 @@
         <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G229">
         <v>1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8169642</t>
+  </si>
+  <si>
     <t>Northern Ireland Premier</t>
   </si>
   <si>
@@ -112,13 +115,13 @@
     <t>Larne FC</t>
   </si>
   <si>
+    <t>Glentoran</t>
+  </si>
+  <si>
     <t>Loughgall</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
-  </si>
-  <si>
-    <t>Glentoran</t>
   </si>
   <si>
     <t>Carrick Rangers</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB229"/>
+  <dimension ref="A1:AB230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>6840303</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45142.65625</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>1.363</v>
@@ -687,16 +690,16 @@
         <v>6837574</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -705,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -773,16 +776,16 @@
         <v>6839253</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -791,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -859,16 +862,16 @@
         <v>6931028</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45145.65625</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -877,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>1.09</v>
@@ -942,19 +945,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6839252</v>
+        <v>6837575</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45149.65625</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -963,43 +966,43 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="K6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O6">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
         <v>-1</v>
@@ -1008,19 +1011,19 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1028,19 +1031,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6840425</v>
+        <v>6839252</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45149.65625</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,43 +1052,43 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7">
+        <v>1.727</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>1.5</v>
-      </c>
-      <c r="M7">
-        <v>5.25</v>
-      </c>
       <c r="N7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>2.75</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1094,16 +1097,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
         <v>-0.5</v>
@@ -1114,19 +1117,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6837575</v>
+        <v>6840425</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45149.65625</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,37 +1138,37 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N8">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P8">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
         <v>1.925</v>
@@ -1180,19 +1183,19 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1203,16 +1206,16 @@
         <v>6840281</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1221,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1289,16 +1292,16 @@
         <v>6840427</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>11</v>
@@ -1375,16 +1378,16 @@
         <v>6840426</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.571</v>
@@ -1461,16 +1464,16 @@
         <v>6840304</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>4.333</v>
@@ -1547,16 +1550,16 @@
         <v>6840430</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1565,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.25</v>
@@ -1633,16 +1636,16 @@
         <v>6840429</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.222</v>
@@ -1719,16 +1722,16 @@
         <v>6840428</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1737,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>4.5</v>
@@ -1805,16 +1808,16 @@
         <v>6840305</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1823,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>1.2</v>
@@ -1891,16 +1894,16 @@
         <v>6839251</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1909,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>5.75</v>
@@ -1977,16 +1980,16 @@
         <v>6840431</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>6.5</v>
@@ -2063,16 +2066,16 @@
         <v>6840433</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>2.75</v>
@@ -2149,16 +2152,16 @@
         <v>6840432</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -2167,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2235,16 +2238,16 @@
         <v>6839250</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2253,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2321,16 +2324,16 @@
         <v>6840306</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2339,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1.727</v>
@@ -2407,16 +2410,16 @@
         <v>6973551</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45160.65625</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2425,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2493,16 +2496,16 @@
         <v>6978093</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45160.65625</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -2511,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>1.333</v>
@@ -2579,16 +2582,16 @@
         <v>6837577</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2597,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>6.5</v>
@@ -2665,16 +2668,16 @@
         <v>6839249</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2683,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2751,16 +2754,16 @@
         <v>6840307</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45163.65625</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2769,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>5.25</v>
@@ -2837,16 +2840,16 @@
         <v>6840435</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2855,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>1.25</v>
@@ -2923,16 +2926,16 @@
         <v>6840308</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2941,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>7</v>
@@ -3009,16 +3012,16 @@
         <v>6840434</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45164.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>3.25</v>
@@ -3095,16 +3098,16 @@
         <v>7138561</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3113,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.1</v>
@@ -3181,16 +3184,16 @@
         <v>6840436</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45170.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3199,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -3267,16 +3270,16 @@
         <v>6837578</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3285,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3353,16 +3356,16 @@
         <v>6839248</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3371,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.2</v>
@@ -3439,16 +3442,16 @@
         <v>6840309</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3525,16 +3528,16 @@
         <v>6840310</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3543,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>1.166</v>
@@ -3611,16 +3614,16 @@
         <v>6840437</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3629,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3697,16 +3700,16 @@
         <v>6840439</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45178.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3783,16 +3786,16 @@
         <v>6840311</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45178.45833333334</v>
       </c>
       <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
         <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>33</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3801,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1.909</v>
@@ -3869,16 +3872,16 @@
         <v>7165196</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45178.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3887,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>8</v>
@@ -3955,16 +3958,16 @@
         <v>6840313</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45184.65625</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3973,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>2.25</v>
@@ -4041,16 +4044,16 @@
         <v>6837580</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.2</v>
@@ -4127,16 +4130,16 @@
         <v>6839246</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4145,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2.3</v>
@@ -4213,16 +4216,16 @@
         <v>6840440</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4231,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.333</v>
@@ -4299,16 +4302,16 @@
         <v>6840442</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4317,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4385,16 +4388,16 @@
         <v>7108564</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45187.65625</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4403,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>1.85</v>
@@ -4471,16 +4474,16 @@
         <v>6840445</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4489,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4557,16 +4560,16 @@
         <v>6837581</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4575,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.666</v>
@@ -4643,16 +4646,16 @@
         <v>6840444</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4661,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>1.25</v>
@@ -4729,16 +4732,16 @@
         <v>6840314</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4747,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -4815,16 +4818,16 @@
         <v>6840443</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>1.363</v>
@@ -4901,16 +4904,16 @@
         <v>6839245</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4919,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>6.5</v>
@@ -4987,16 +4990,16 @@
         <v>7122708</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45195.65625</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -5005,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5073,16 +5076,16 @@
         <v>7122710</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
         <v>32</v>
-      </c>
-      <c r="F54" t="s">
-        <v>31</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -5159,16 +5162,16 @@
         <v>7122709</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5177,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2.25</v>
@@ -5245,16 +5248,16 @@
         <v>6840446</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5266,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>2.625</v>
@@ -5331,16 +5334,16 @@
         <v>6840315</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>6</v>
@@ -5349,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>1.1</v>
@@ -5417,16 +5420,16 @@
         <v>6839244</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5435,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>1.333</v>
@@ -5503,16 +5506,16 @@
         <v>6837582</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>4.75</v>
@@ -5589,16 +5592,16 @@
         <v>6840447</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.952</v>
@@ -5675,16 +5678,16 @@
         <v>6840448</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5693,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>5.5</v>
@@ -5761,16 +5764,16 @@
         <v>6837583</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45205.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5779,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5847,16 +5850,16 @@
         <v>6840451</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45205.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5933,16 +5936,16 @@
         <v>6839243</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -5951,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>2.15</v>
@@ -6019,16 +6022,16 @@
         <v>6840316</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
         <v>37</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -6037,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>1.25</v>
@@ -6105,16 +6108,16 @@
         <v>6840450</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6191,16 +6194,16 @@
         <v>6840449</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6209,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -6277,16 +6280,16 @@
         <v>6840454</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>4.75</v>
@@ -6363,16 +6366,16 @@
         <v>6840318</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6381,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6449,16 +6452,16 @@
         <v>6840453</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6467,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>7</v>
@@ -6535,16 +6538,16 @@
         <v>6840452</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>1.222</v>
@@ -6621,16 +6624,16 @@
         <v>6840317</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>8</v>
@@ -6707,16 +6710,16 @@
         <v>6839242</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
-      </c>
-      <c r="F73" t="s">
-        <v>32</v>
       </c>
       <c r="G73">
         <v>6</v>
@@ -6725,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>1.25</v>
@@ -6793,16 +6796,16 @@
         <v>6840457</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45219.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6811,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>1.222</v>
@@ -6879,16 +6882,16 @@
         <v>6840319</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45219.65625</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6897,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>3</v>
@@ -6965,16 +6968,16 @@
         <v>6837584</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>1.3</v>
@@ -7051,16 +7054,16 @@
         <v>6839241</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7069,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7137,16 +7140,16 @@
         <v>6840456</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>6</v>
@@ -7223,16 +7226,16 @@
         <v>6840455</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7241,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>4.75</v>
@@ -7309,16 +7312,16 @@
         <v>6839240</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -7327,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>1.142</v>
@@ -7395,16 +7398,16 @@
         <v>6837585</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7481,16 +7484,16 @@
         <v>6840320</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.375</v>
@@ -7567,16 +7570,16 @@
         <v>6840458</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7585,7 +7588,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7653,16 +7656,16 @@
         <v>6840459</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7671,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>3.1</v>
@@ -7739,16 +7742,16 @@
         <v>6840321</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45227.5625</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7757,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>10</v>
@@ -7825,16 +7828,16 @@
         <v>6840461</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45233.69791666666</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7843,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7911,16 +7914,16 @@
         <v>6839239</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45234.5</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -7929,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.95</v>
@@ -7997,16 +8000,16 @@
         <v>6837586</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45234.5</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8015,7 +8018,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>1.3</v>
@@ -8083,16 +8086,16 @@
         <v>6840322</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45234.5</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8101,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.6</v>
@@ -8169,16 +8172,16 @@
         <v>6840323</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45234.5</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8187,7 +8190,7 @@
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>12</v>
@@ -8255,16 +8258,16 @@
         <v>6840460</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8273,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8341,16 +8344,16 @@
         <v>6840324</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45241.5</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8359,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.75</v>
@@ -8427,16 +8430,16 @@
         <v>6840462</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45241.5</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>1.142</v>
@@ -8513,16 +8516,16 @@
         <v>6840463</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45241.5</v>
       </c>
       <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
         <v>36</v>
-      </c>
-      <c r="F94" t="s">
-        <v>35</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8531,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>2.25</v>
@@ -8599,16 +8602,16 @@
         <v>6839238</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8617,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>6</v>
@@ -8685,16 +8688,16 @@
         <v>6840464</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45241.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>1.909</v>
@@ -8771,16 +8774,16 @@
         <v>7335750</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45243.69791666666</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>3</v>
@@ -8857,16 +8860,16 @@
         <v>6840466</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45247.70833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8875,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.4</v>
@@ -8943,16 +8946,16 @@
         <v>6839237</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8961,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.05</v>
@@ -9029,16 +9032,16 @@
         <v>6837588</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>1.166</v>
@@ -9115,16 +9118,16 @@
         <v>6840326</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9133,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>1.8</v>
@@ -9201,16 +9204,16 @@
         <v>6840465</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45249.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9219,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>5.25</v>
@@ -9287,16 +9290,16 @@
         <v>6840332</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45254.69791666666</v>
       </c>
       <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" t="s">
         <v>30</v>
-      </c>
-      <c r="F103" t="s">
-        <v>29</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9305,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>3.25</v>
@@ -9373,16 +9376,16 @@
         <v>6837589</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45254.69791666666</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9391,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2</v>
@@ -9459,16 +9462,16 @@
         <v>6840331</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45255.5</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>1.5</v>
@@ -9545,16 +9548,16 @@
         <v>6840469</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45255.5</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9563,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.142</v>
@@ -9631,16 +9634,16 @@
         <v>6840467</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45255.5</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9649,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>2.25</v>
@@ -9717,16 +9720,16 @@
         <v>6839236</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9735,7 +9738,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>3.25</v>
@@ -9803,16 +9806,16 @@
         <v>6837590</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>3.2</v>
@@ -9889,16 +9892,16 @@
         <v>6840333</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45262.5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9910,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>5.5</v>
@@ -9975,16 +9978,16 @@
         <v>6840334</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45262.5</v>
       </c>
       <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
         <v>29</v>
-      </c>
-      <c r="F111" t="s">
-        <v>28</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>3</v>
@@ -10061,16 +10064,16 @@
         <v>6840470</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>8.5</v>
@@ -10147,16 +10150,16 @@
         <v>6840471</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45262.5</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.166</v>
@@ -10233,16 +10236,16 @@
         <v>6839235</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45262.5</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10251,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10319,16 +10322,16 @@
         <v>6840472</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45268.69791666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10337,7 +10340,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>1.25</v>
@@ -10405,16 +10408,16 @@
         <v>6840335</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45268.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10423,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>5</v>
@@ -10491,16 +10494,16 @@
         <v>6840474</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45268.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10509,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>2.4</v>
@@ -10577,16 +10580,16 @@
         <v>6837591</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45269.5</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10595,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>2.1</v>
@@ -10663,16 +10666,16 @@
         <v>6839234</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45269.5</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10681,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>1.363</v>
@@ -10749,16 +10752,16 @@
         <v>6840473</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45269.5</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -10767,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>1.142</v>
@@ -10835,16 +10838,16 @@
         <v>6840475</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10853,7 +10856,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>3.4</v>
@@ -10921,16 +10924,16 @@
         <v>6840337</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10939,7 +10942,7 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>3.1</v>
@@ -11007,16 +11010,16 @@
         <v>6840336</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45276.5</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.65</v>
@@ -11093,16 +11096,16 @@
         <v>6840476</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45276.5</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11111,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>7.5</v>
@@ -11179,16 +11182,16 @@
         <v>6839233</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11200,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>6.5</v>
@@ -11265,16 +11268,16 @@
         <v>6837592</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11283,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>1.181</v>
@@ -11351,16 +11354,16 @@
         <v>6839232</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11369,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>1.181</v>
@@ -11437,16 +11440,16 @@
         <v>6840479</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>3.25</v>
@@ -11523,16 +11526,16 @@
         <v>6840478</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45282.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>1.4</v>
@@ -11609,16 +11612,16 @@
         <v>6837593</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45283.5</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>4.5</v>
@@ -11695,16 +11698,16 @@
         <v>6840338</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45283.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>1.153</v>
@@ -11781,16 +11784,16 @@
         <v>6840477</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45283.5</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11799,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>3.6</v>
@@ -11867,16 +11870,16 @@
         <v>6840482</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45286.5</v>
       </c>
       <c r="E133" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" t="s">
         <v>30</v>
-      </c>
-      <c r="F133" t="s">
-        <v>29</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11885,7 +11888,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>4</v>
@@ -11953,16 +11956,16 @@
         <v>6839231</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>3.2</v>
@@ -12039,16 +12042,16 @@
         <v>6840480</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45286.5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12057,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.95</v>
@@ -12125,16 +12128,16 @@
         <v>6840289</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12143,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>4.333</v>
@@ -12211,16 +12214,16 @@
         <v>6840481</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12229,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>1.6</v>
@@ -12297,16 +12300,16 @@
         <v>6840339</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45286.5</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12315,7 +12318,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>5.75</v>
@@ -12383,16 +12386,16 @@
         <v>6840340</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45290.5</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -12401,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
         <v>1.571</v>
@@ -12469,16 +12472,16 @@
         <v>6840290</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45290.5</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>2.4</v>
@@ -12555,16 +12558,16 @@
         <v>6839230</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45290.5</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12573,7 +12576,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>1.45</v>
@@ -12641,16 +12644,16 @@
         <v>6840484</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45290.5</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12659,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12727,16 +12730,16 @@
         <v>6840483</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12745,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12813,16 +12816,16 @@
         <v>7611077</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45293.69791666666</v>
       </c>
       <c r="E144" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" t="s">
         <v>39</v>
-      </c>
-      <c r="F144" t="s">
-        <v>38</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12831,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>3.5</v>
@@ -12899,16 +12902,16 @@
         <v>6840488</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45303.69791666666</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12917,7 +12920,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>3.75</v>
@@ -12985,16 +12988,16 @@
         <v>6840487</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45304.5</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13003,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>2.25</v>
@@ -13071,16 +13074,16 @@
         <v>6840292</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>7.5</v>
@@ -13157,16 +13160,16 @@
         <v>6840291</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>6</v>
@@ -13175,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1.363</v>
@@ -13243,16 +13246,16 @@
         <v>6839229</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13261,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>6</v>
@@ -13329,16 +13332,16 @@
         <v>6840486</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13347,7 +13350,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>2.4</v>
@@ -13415,16 +13418,16 @@
         <v>6840293</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45311.5</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13433,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>1.125</v>
@@ -13501,16 +13504,16 @@
         <v>6840294</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45311.5</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13519,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>1.571</v>
@@ -13587,16 +13590,16 @@
         <v>6840489</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45311.5</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13605,7 +13608,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>1.8</v>
@@ -13673,16 +13676,16 @@
         <v>6840490</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45311.5</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13691,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <v>5</v>
@@ -13759,16 +13762,16 @@
         <v>6840492</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45317.69791666666</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>5.5</v>
@@ -13845,16 +13848,16 @@
         <v>6840295</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45317.70833333334</v>
       </c>
       <c r="E156" t="s">
+        <v>32</v>
+      </c>
+      <c r="F156" t="s">
         <v>31</v>
-      </c>
-      <c r="F156" t="s">
-        <v>30</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13863,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>1.111</v>
@@ -13931,16 +13934,16 @@
         <v>6839227</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45318.5</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13949,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J157">
         <v>2.5</v>
@@ -14017,16 +14020,16 @@
         <v>6840493</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45318.5</v>
       </c>
       <c r="E158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14035,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.15</v>
@@ -14103,16 +14106,16 @@
         <v>6840494</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45318.5</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14121,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1.2</v>
@@ -14189,16 +14192,16 @@
         <v>6840950</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45318.5</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14207,7 +14210,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>2.8</v>
@@ -14275,16 +14278,16 @@
         <v>7768440</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14293,7 +14296,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14361,16 +14364,16 @@
         <v>6840297</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45331.69791666666</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14379,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>2.625</v>
@@ -14447,16 +14450,16 @@
         <v>6839226</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45331.69791666666</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14465,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J163">
         <v>1.181</v>
@@ -14533,16 +14536,16 @@
         <v>6840495</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45332.5</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G164">
         <v>4</v>
@@ -14551,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>1.444</v>
@@ -14619,16 +14622,16 @@
         <v>6840497</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14637,7 +14640,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J165">
         <v>1.363</v>
@@ -14705,16 +14708,16 @@
         <v>6840496</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45332.5</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14723,7 +14726,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>5.25</v>
@@ -14791,16 +14794,16 @@
         <v>6840296</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14809,7 +14812,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>3.1</v>
@@ -14877,16 +14880,16 @@
         <v>7768441</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14895,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>2</v>
@@ -14963,16 +14966,16 @@
         <v>6840499</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45338.69791666666</v>
       </c>
       <c r="E169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -14981,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J169">
         <v>4.333</v>
@@ -15049,16 +15052,16 @@
         <v>6840298</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15067,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J170">
         <v>9.5</v>
@@ -15135,16 +15138,16 @@
         <v>6840299</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45339.5</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15153,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J171">
         <v>2.4</v>
@@ -15221,16 +15224,16 @@
         <v>6840500</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45339.5</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172">
         <v>8</v>
@@ -15239,7 +15242,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J172">
         <v>1.125</v>
@@ -15307,16 +15310,16 @@
         <v>6840498</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45339.5</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -15325,7 +15328,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J173">
         <v>1.4</v>
@@ -15393,16 +15396,16 @@
         <v>6839225</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15411,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J174">
         <v>5.25</v>
@@ -15479,16 +15482,16 @@
         <v>6840953</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15497,7 +15500,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J175">
         <v>2.4</v>
@@ -15565,16 +15568,16 @@
         <v>6840951</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45345.69791666666</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15583,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J176">
         <v>1.85</v>
@@ -15651,16 +15654,16 @@
         <v>6839224</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45346.5</v>
       </c>
       <c r="E177" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -15669,7 +15672,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J177">
         <v>3.4</v>
@@ -15737,16 +15740,16 @@
         <v>6840300</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45346.5</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15755,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J178">
         <v>1.55</v>
@@ -15823,16 +15826,16 @@
         <v>6840501</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45346.5</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15841,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J179">
         <v>5</v>
@@ -15909,16 +15912,16 @@
         <v>6840502</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45346.5</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15927,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J180">
         <v>1.25</v>
@@ -15995,16 +15998,16 @@
         <v>6840503</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45346.5</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16013,7 +16016,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J181">
         <v>4.75</v>
@@ -16081,16 +16084,16 @@
         <v>7847517</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16099,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J182">
         <v>3.8</v>
@@ -16167,16 +16170,16 @@
         <v>6840301</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45360.5</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16185,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16253,16 +16256,16 @@
         <v>6840302</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45360.5</v>
       </c>
       <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
         <v>34</v>
-      </c>
-      <c r="F184" t="s">
-        <v>32</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16271,7 +16274,7 @@
         <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16339,16 +16342,16 @@
         <v>6840952</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45360.5</v>
       </c>
       <c r="E185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -16357,7 +16360,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J185">
         <v>4.75</v>
@@ -16425,16 +16428,16 @@
         <v>6840954</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45360.5</v>
       </c>
       <c r="E186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16443,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J186">
         <v>3.2</v>
@@ -16511,16 +16514,16 @@
         <v>6840955</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45360.5</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>4</v>
@@ -16529,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J187">
         <v>2.25</v>
@@ -16597,16 +16600,16 @@
         <v>6840959</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45367.5</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16615,7 +16618,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J188">
         <v>3.6</v>
@@ -16683,16 +16686,16 @@
         <v>6840958</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45367.5</v>
       </c>
       <c r="E189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16701,7 +16704,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16769,16 +16772,16 @@
         <v>6840960</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45367.5</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190">
         <v>6</v>
@@ -16787,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J190">
         <v>1.142</v>
@@ -16855,16 +16858,16 @@
         <v>6841445</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16873,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J191">
         <v>1.75</v>
@@ -16941,16 +16944,16 @@
         <v>6840961</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16959,7 +16962,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J192">
         <v>7</v>
@@ -17027,16 +17030,16 @@
         <v>6841446</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -17045,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J193">
         <v>1.333</v>
@@ -17113,16 +17116,16 @@
         <v>6841452</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45374.5</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17131,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J194">
         <v>7.5</v>
@@ -17199,16 +17202,16 @@
         <v>6841451</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45374.5</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17217,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J195">
         <v>1.222</v>
@@ -17285,16 +17288,16 @@
         <v>6841450</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45374.5</v>
       </c>
       <c r="E196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17303,7 +17306,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J196">
         <v>1.8</v>
@@ -17371,16 +17374,16 @@
         <v>6841449</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45374.5</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17389,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J197">
         <v>1.85</v>
@@ -17457,16 +17460,16 @@
         <v>7933422</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45384.65625</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17475,7 +17478,7 @@
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J198">
         <v>6.5</v>
@@ -17543,16 +17546,16 @@
         <v>7933423</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45384.65625</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17561,7 +17564,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J199">
         <v>3</v>
@@ -17629,16 +17632,16 @@
         <v>8048786</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17647,7 +17650,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J200">
         <v>1.615</v>
@@ -17715,16 +17718,16 @@
         <v>8048785</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17733,7 +17736,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J201">
         <v>3.3</v>
@@ -17801,16 +17804,16 @@
         <v>8048794</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17819,7 +17822,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17887,16 +17890,16 @@
         <v>8048790</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E203" t="s">
+        <v>37</v>
+      </c>
+      <c r="F203" t="s">
         <v>36</v>
-      </c>
-      <c r="F203" t="s">
-        <v>35</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17905,7 +17908,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J203">
         <v>2.1</v>
@@ -17973,16 +17976,16 @@
         <v>8048792</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -17991,7 +17994,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J204">
         <v>1.4</v>
@@ -18059,16 +18062,16 @@
         <v>8048812</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18077,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J205">
         <v>3</v>
@@ -18145,16 +18148,16 @@
         <v>8048787</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45394.65625</v>
       </c>
       <c r="E206" t="s">
+        <v>40</v>
+      </c>
+      <c r="F206" t="s">
         <v>39</v>
-      </c>
-      <c r="F206" t="s">
-        <v>38</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18163,7 +18166,7 @@
         <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J206">
         <v>2.9</v>
@@ -18228,19 +18231,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8048788</v>
+        <v>8048797</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18249,46 +18252,46 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J207">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="K207">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L207">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M207">
+        <v>1.7</v>
+      </c>
+      <c r="N207">
         <v>3.75</v>
       </c>
-      <c r="N207">
-        <v>3.6</v>
-      </c>
       <c r="O207">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="P207">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R207">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
         <v>2.75</v>
       </c>
       <c r="T207">
+        <v>1.95</v>
+      </c>
+      <c r="U207">
         <v>1.85</v>
       </c>
-      <c r="U207">
-        <v>1.95</v>
-      </c>
       <c r="V207">
-        <v>2.75</v>
+        <v>0.7</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18297,13 +18300,13 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
@@ -18314,16 +18317,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>8048797</v>
+        <v>8048788</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F208" t="s">
         <v>33</v>
@@ -18335,46 +18338,46 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J208">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="K208">
+        <v>3.5</v>
+      </c>
+      <c r="L208">
+        <v>1.95</v>
+      </c>
+      <c r="M208">
         <v>3.75</v>
       </c>
-      <c r="L208">
-        <v>4.2</v>
-      </c>
-      <c r="M208">
-        <v>1.7</v>
-      </c>
       <c r="N208">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="P208">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
         <v>2.75</v>
       </c>
       <c r="T208">
+        <v>1.85</v>
+      </c>
+      <c r="U208">
         <v>1.95</v>
       </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
       <c r="V208">
-        <v>0.7</v>
+        <v>2.75</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18383,13 +18386,13 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
@@ -18400,58 +18403,58 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8048800</v>
+        <v>8048798</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" t="s">
         <v>30</v>
       </c>
-      <c r="F209" t="s">
-        <v>36</v>
-      </c>
       <c r="G209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
         <v>41</v>
       </c>
       <c r="J209">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="K209">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L209">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="M209">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="N209">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O209">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="P209">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T209">
         <v>1.775</v>
@@ -18460,25 +18463,25 @@
         <v>2.025</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18486,58 +18489,58 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>8048798</v>
+        <v>8048800</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>42</v>
+      </c>
+      <c r="J210">
+        <v>4.75</v>
+      </c>
+      <c r="K210">
+        <v>4</v>
+      </c>
+      <c r="L210">
+        <v>1.6</v>
+      </c>
+      <c r="M210">
+        <v>4.5</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210">
+        <v>1.615</v>
+      </c>
+      <c r="P210">
+        <v>0.75</v>
+      </c>
+      <c r="Q210">
+        <v>1.975</v>
+      </c>
+      <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
         <v>3</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210" t="s">
-        <v>40</v>
-      </c>
-      <c r="J210">
-        <v>2.375</v>
-      </c>
-      <c r="K210">
-        <v>3.5</v>
-      </c>
-      <c r="L210">
-        <v>2.625</v>
-      </c>
-      <c r="M210">
-        <v>2.4</v>
-      </c>
-      <c r="N210">
-        <v>3.5</v>
-      </c>
-      <c r="O210">
-        <v>2.6</v>
-      </c>
-      <c r="P210">
-        <v>0</v>
-      </c>
-      <c r="Q210">
-        <v>1.8</v>
-      </c>
-      <c r="R210">
-        <v>2</v>
-      </c>
-      <c r="S210">
-        <v>2.75</v>
       </c>
       <c r="T210">
         <v>1.775</v>
@@ -18546,25 +18549,25 @@
         <v>2.025</v>
       </c>
       <c r="V210">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA210">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18575,16 +18578,16 @@
         <v>8048789</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45395.5625</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G211">
         <v>8</v>
@@ -18593,7 +18596,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J211">
         <v>1.727</v>
@@ -18661,16 +18664,16 @@
         <v>8048791</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18679,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J212">
         <v>2.3</v>
@@ -18747,16 +18750,16 @@
         <v>8048813</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18765,7 +18768,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J213">
         <v>3</v>
@@ -18830,49 +18833,49 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048806</v>
+        <v>8048793</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J214">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="K214">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L214">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="M214">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N214">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O214">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="P214">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q214">
         <v>1.9</v>
@@ -18881,22 +18884,22 @@
         <v>1.9</v>
       </c>
       <c r="S214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
         <v>-1</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X214">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -18905,7 +18908,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -18916,77 +18919,77 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8048805</v>
+        <v>8048803</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J215">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="K215">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L215">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="M215">
+        <v>2.5</v>
+      </c>
+      <c r="N215">
+        <v>3.3</v>
+      </c>
+      <c r="O215">
+        <v>2.6</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
         <v>1.85</v>
       </c>
-      <c r="N215">
-        <v>3.6</v>
-      </c>
-      <c r="O215">
-        <v>3.5</v>
-      </c>
-      <c r="P215">
-        <v>-0.5</v>
-      </c>
-      <c r="Q215">
-        <v>1.875</v>
-      </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
+        <v>1.5</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
         <v>0.8500000000000001</v>
       </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>0.875</v>
-      </c>
       <c r="Z215">
         <v>-1</v>
       </c>
@@ -18994,7 +18997,7 @@
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19002,67 +19005,67 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048803</v>
+        <v>8048805</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J216">
+        <v>1.615</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216">
+        <v>4.333</v>
+      </c>
+      <c r="M216">
+        <v>1.85</v>
+      </c>
+      <c r="N216">
+        <v>3.6</v>
+      </c>
+      <c r="O216">
+        <v>3.5</v>
+      </c>
+      <c r="P216">
+        <v>-0.5</v>
+      </c>
+      <c r="Q216">
+        <v>1.875</v>
+      </c>
+      <c r="R216">
+        <v>1.925</v>
+      </c>
+      <c r="S216">
         <v>3</v>
       </c>
-      <c r="K216">
-        <v>3.4</v>
-      </c>
-      <c r="L216">
-        <v>2.15</v>
-      </c>
-      <c r="M216">
-        <v>2.5</v>
-      </c>
-      <c r="N216">
-        <v>3.3</v>
-      </c>
-      <c r="O216">
-        <v>2.6</v>
-      </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-      <c r="Q216">
-        <v>1.85</v>
-      </c>
-      <c r="R216">
-        <v>1.95</v>
-      </c>
-      <c r="S216">
-        <v>2.75</v>
-      </c>
       <c r="T216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19071,7 +19074,7 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z216">
         <v>-1</v>
@@ -19080,7 +19083,7 @@
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19088,49 +19091,49 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8048793</v>
+        <v>8048806</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I217" t="s">
         <v>42</v>
       </c>
       <c r="J217">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="K217">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L217">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="M217">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N217">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O217">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="P217">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q217">
         <v>1.9</v>
@@ -19139,22 +19142,22 @@
         <v>1.9</v>
       </c>
       <c r="S217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
         <v>-1</v>
       </c>
       <c r="W217">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y217">
         <v>-1</v>
@@ -19163,7 +19166,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA217">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB217">
         <v>-1</v>
@@ -19177,16 +19180,16 @@
         <v>8048807</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19195,7 +19198,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J218">
         <v>2</v>
@@ -19263,16 +19266,16 @@
         <v>8048815</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219">
         <v>4</v>
@@ -19281,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J219">
         <v>1.8</v>
@@ -19349,16 +19352,16 @@
         <v>8048808</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19367,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J220">
         <v>1.8</v>
@@ -19435,16 +19438,16 @@
         <v>8048796</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19453,7 +19456,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J221">
         <v>2.8</v>
@@ -19521,16 +19524,16 @@
         <v>8048795</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19539,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19607,16 +19610,16 @@
         <v>8048814</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45404.65625</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19625,7 +19628,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J223">
         <v>2.45</v>
@@ -19693,16 +19696,16 @@
         <v>8048810</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19711,7 +19714,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19779,16 +19782,16 @@
         <v>8048809</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19797,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J225">
         <v>1.5</v>
@@ -19865,16 +19868,16 @@
         <v>8048804</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" t="s">
         <v>38</v>
-      </c>
-      <c r="F226" t="s">
-        <v>37</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19883,7 +19886,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J226">
         <v>1.666</v>
@@ -19951,16 +19954,16 @@
         <v>8048802</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -19969,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J227">
         <v>1.363</v>
@@ -20037,16 +20040,16 @@
         <v>8048801</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>4</v>
@@ -20055,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J228">
         <v>2.3</v>
@@ -20123,16 +20126,16 @@
         <v>8048811</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45409.5625</v>
       </c>
       <c r="E229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20141,7 +20144,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J229">
         <v>4.2</v>
@@ -20199,6 +20202,71 @@
       </c>
       <c r="AB229">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" s="2">
+        <v>45418.45833333334</v>
+      </c>
+      <c r="E230" t="s">
+        <v>40</v>
+      </c>
+      <c r="F230" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230">
+        <v>1.85</v>
+      </c>
+      <c r="K230">
+        <v>3.5</v>
+      </c>
+      <c r="L230">
+        <v>3.75</v>
+      </c>
+      <c r="M230">
+        <v>1.85</v>
+      </c>
+      <c r="N230">
+        <v>3.5</v>
+      </c>
+      <c r="O230">
+        <v>3.75</v>
+      </c>
+      <c r="P230">
+        <v>-0.5</v>
+      </c>
+      <c r="Q230">
+        <v>1.9</v>
+      </c>
+      <c r="R230">
+        <v>1.9</v>
+      </c>
+      <c r="S230">
+        <v>2.5</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
+        <v>1.8</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -4812,7 +4812,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6839245</v>
+        <v>6840314</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4821,10 +4821,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4836,19 +4836,19 @@
         <v>41</v>
       </c>
       <c r="J51">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N51">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
         <v>1.4</v>
@@ -4857,19 +4857,19 @@
         <v>1.25</v>
       </c>
       <c r="Q51">
+        <v>1.85</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
         <v>1.975</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>3</v>
-      </c>
-      <c r="T51">
-        <v>1.875</v>
-      </c>
-      <c r="U51">
-        <v>1.925</v>
       </c>
       <c r="V51">
         <v>-1</v>
@@ -4884,13 +4884,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>0.95</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
         <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4898,7 +4898,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6840314</v>
+        <v>6839245</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4907,10 +4907,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4922,19 +4922,19 @@
         <v>41</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O52">
         <v>1.4</v>
@@ -4943,19 +4943,19 @@
         <v>1.25</v>
       </c>
       <c r="Q52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
         <v>-1</v>
@@ -4970,13 +4970,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4984,7 +4984,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7122709</v>
+        <v>7122710</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -4993,13 +4993,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5008,43 +5008,43 @@
         <v>40</v>
       </c>
       <c r="J53">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="P53">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
         <v>2.75</v>
       </c>
       <c r="T53">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5053,7 +5053,7 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z53">
         <v>-1</v>
@@ -5062,7 +5062,7 @@
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5070,7 +5070,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7122710</v>
+        <v>7122708</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5079,13 +5079,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5094,43 +5094,43 @@
         <v>40</v>
       </c>
       <c r="J54">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="N54">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O54">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
         <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>5.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5139,16 +5139,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
+        <v>0.875</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5156,7 +5156,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7122708</v>
+        <v>7122709</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5165,13 +5165,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5180,43 +5180,43 @@
         <v>40</v>
       </c>
       <c r="J55">
+        <v>2.25</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>2.4</v>
+      </c>
+      <c r="M55">
         <v>1.8</v>
       </c>
-      <c r="K55">
-        <v>3.6</v>
-      </c>
-      <c r="L55">
-        <v>3.8</v>
-      </c>
-      <c r="M55">
-        <v>1.85</v>
-      </c>
       <c r="N55">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
         <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S55">
         <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5225,16 +5225,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7134,7 +7134,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6837584</v>
+        <v>6840455</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7143,10 +7143,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7158,43 +7158,43 @@
         <v>40</v>
       </c>
       <c r="J78">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="K78">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="L78">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="M78">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="N78">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="P78">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T78">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7203,13 +7203,13 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7220,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6840455</v>
+        <v>6837584</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7229,10 +7229,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7244,43 +7244,43 @@
         <v>40</v>
       </c>
       <c r="J79">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="K79">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="L79">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="N79">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O79">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="P79">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7289,13 +7289,13 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -8940,7 +8940,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6837588</v>
+        <v>6840326</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8949,58 +8949,58 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="s">
         <v>40</v>
       </c>
       <c r="J99">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="K99">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O99">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2.75</v>
+      </c>
+      <c r="T99">
         <v>1.925</v>
       </c>
-      <c r="R99">
+      <c r="U99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.775</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
       <c r="V99">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9009,13 +9009,13 @@
         <v>-1</v>
       </c>
       <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.925</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9026,7 +9026,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839237</v>
+        <v>6837588</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9035,13 +9035,13 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9050,43 +9050,43 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="K100">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="L100">
+        <v>10</v>
+      </c>
+      <c r="M100">
+        <v>1.166</v>
+      </c>
+      <c r="N100">
+        <v>6.5</v>
+      </c>
+      <c r="O100">
+        <v>11</v>
+      </c>
+      <c r="P100">
+        <v>-2</v>
+      </c>
+      <c r="Q100">
+        <v>1.925</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
         <v>3</v>
       </c>
-      <c r="M100">
-        <v>1.65</v>
-      </c>
-      <c r="N100">
-        <v>3.75</v>
-      </c>
-      <c r="O100">
-        <v>4.2</v>
-      </c>
-      <c r="P100">
-        <v>-0.75</v>
-      </c>
-      <c r="Q100">
-        <v>1.9</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>2.75</v>
-      </c>
       <c r="T100">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>0.6499999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9095,16 +9095,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9112,7 +9112,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6840326</v>
+        <v>6839237</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9121,58 +9121,58 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
         <v>40</v>
       </c>
       <c r="J101">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
         <v>-0.75</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
         <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9181,16 +9181,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9456,7 +9456,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6840331</v>
+        <v>6840469</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9465,76 +9465,76 @@
         <v>45255.5</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J105">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M105">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="N105">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="O105">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="P105">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="W105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9542,7 +9542,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6840469</v>
+        <v>6840467</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9551,13 +9551,13 @@
         <v>45255.5</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9566,44 +9566,44 @@
         <v>40</v>
       </c>
       <c r="J106">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="K106">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="L106">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="M106">
+        <v>2.1</v>
+      </c>
+      <c r="N106">
+        <v>3.25</v>
+      </c>
+      <c r="O106">
+        <v>3.3</v>
+      </c>
+      <c r="P106">
+        <v>-0.25</v>
+      </c>
+      <c r="Q106">
+        <v>1.825</v>
+      </c>
+      <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
+        <v>2.5</v>
+      </c>
+      <c r="T106">
+        <v>1.875</v>
+      </c>
+      <c r="U106">
+        <v>1.925</v>
+      </c>
+      <c r="V106">
         <v>1.1</v>
       </c>
-      <c r="N106">
-        <v>8.5</v>
-      </c>
-      <c r="O106">
-        <v>21</v>
-      </c>
-      <c r="P106">
-        <v>-2.5</v>
-      </c>
-      <c r="Q106">
-        <v>1.875</v>
-      </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>3.5</v>
-      </c>
-      <c r="T106">
-        <v>1.95</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
@@ -9611,13 +9611,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
+        <v>0.825</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0.875</v>
-      </c>
-      <c r="Z106">
-        <v>-1</v>
-      </c>
-      <c r="AA106">
-        <v>0.95</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9628,7 +9628,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6840467</v>
+        <v>6840331</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9637,76 +9637,76 @@
         <v>45255.5</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>42</v>
+      </c>
+      <c r="J107">
+        <v>1.5</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+      <c r="M107">
+        <v>1.6</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107">
+        <v>4.5</v>
+      </c>
+      <c r="P107">
+        <v>-1</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2.75</v>
+      </c>
+      <c r="T107">
+        <v>1.825</v>
+      </c>
+      <c r="U107">
+        <v>1.975</v>
+      </c>
+      <c r="V107">
+        <v>-1</v>
+      </c>
+      <c r="W107">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
-        <v>40</v>
-      </c>
-      <c r="J107">
-        <v>2.25</v>
-      </c>
-      <c r="K107">
-        <v>3.25</v>
-      </c>
-      <c r="L107">
-        <v>2.75</v>
-      </c>
-      <c r="M107">
-        <v>2.1</v>
-      </c>
-      <c r="N107">
-        <v>3.25</v>
-      </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
-      <c r="P107">
-        <v>-0.25</v>
-      </c>
-      <c r="Q107">
-        <v>1.825</v>
-      </c>
-      <c r="R107">
-        <v>1.975</v>
-      </c>
-      <c r="S107">
-        <v>2.5</v>
-      </c>
-      <c r="T107">
-        <v>1.875</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
-      <c r="V107">
-        <v>1.1</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -10316,7 +10316,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6840472</v>
+        <v>6840335</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10325,76 +10325,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="L115">
-        <v>10</v>
+        <v>1.533</v>
       </c>
       <c r="M115">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O115">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="P115">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q115">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S115">
         <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y115">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,7 +10402,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6840335</v>
+        <v>6840472</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10411,76 +10411,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K116">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="L116">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="P116">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
         <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10660,7 +10660,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6839234</v>
+        <v>6840473</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10669,49 +10669,49 @@
         <v>45269.5</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
         <v>3</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
       </c>
       <c r="I119" t="s">
         <v>40</v>
       </c>
       <c r="J119">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="K119">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="L119">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="M119">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="O119">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P119">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T119">
         <v>1.9</v>
@@ -10720,7 +10720,7 @@
         <v>1.9</v>
       </c>
       <c r="V119">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10729,10 +10729,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>0.8999999999999999</v>
@@ -10746,7 +10746,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6840473</v>
+        <v>6839234</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10755,49 +10755,49 @@
         <v>45269.5</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
         <v>40</v>
       </c>
       <c r="J120">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="K120">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="L120">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="M120">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="N120">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O120">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P120">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q120">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T120">
         <v>1.9</v>
@@ -10806,7 +10806,7 @@
         <v>1.9</v>
       </c>
       <c r="V120">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -10815,10 +10815,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA120">
         <v>0.8999999999999999</v>
@@ -10832,7 +10832,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10841,49 +10841,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
       </c>
       <c r="J121">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M121">
         <v>3.5</v>
       </c>
       <c r="N121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q121">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T121">
         <v>2.025</v>
@@ -10898,19 +10898,19 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0.8</v>
+      </c>
+      <c r="AA121">
         <v>1.025</v>
       </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
       <c r="AB121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10918,7 +10918,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10927,49 +10927,49 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
         <v>41</v>
       </c>
       <c r="J122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M122">
         <v>3.5</v>
       </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P122">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T122">
         <v>2.025</v>
@@ -10984,19 +10984,19 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11004,7 +11004,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6840336</v>
+        <v>6837592</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11013,76 +11013,76 @@
         <v>45276.5</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J123">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M123">
+        <v>1.166</v>
+      </c>
+      <c r="N123">
+        <v>6.5</v>
+      </c>
+      <c r="O123">
+        <v>12</v>
+      </c>
+      <c r="P123">
+        <v>-2</v>
+      </c>
+      <c r="Q123">
         <v>1.8</v>
       </c>
-      <c r="N123">
-        <v>3.8</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>-0.5</v>
-      </c>
-      <c r="Q123">
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>3.25</v>
+      </c>
+      <c r="T123">
         <v>1.85</v>
       </c>
-      <c r="R123">
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>2.75</v>
-      </c>
-      <c r="T123">
-        <v>1.825</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
       <c r="V123">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
         <v>0.95</v>
-      </c>
-      <c r="AA123">
-        <v>0.825</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11090,7 +11090,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6837592</v>
+        <v>6840476</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11099,76 +11099,76 @@
         <v>45276.5</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>41</v>
+      </c>
+      <c r="J124">
+        <v>7.5</v>
+      </c>
+      <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>1.333</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+      <c r="N124">
+        <v>4.2</v>
+      </c>
+      <c r="O124">
+        <v>1.45</v>
+      </c>
+      <c r="P124">
         <v>1</v>
       </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>40</v>
-      </c>
-      <c r="J124">
-        <v>1.181</v>
-      </c>
-      <c r="K124">
-        <v>6.5</v>
-      </c>
-      <c r="L124">
-        <v>11</v>
-      </c>
-      <c r="M124">
-        <v>1.166</v>
-      </c>
-      <c r="N124">
-        <v>6.5</v>
-      </c>
-      <c r="O124">
-        <v>12</v>
-      </c>
-      <c r="P124">
-        <v>-2</v>
-      </c>
       <c r="Q124">
+        <v>2.025</v>
+      </c>
+      <c r="R124">
+        <v>1.775</v>
+      </c>
+      <c r="S124">
+        <v>2.75</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
-        <v>3.25</v>
-      </c>
-      <c r="T124">
-        <v>1.85</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
       <c r="V124">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11176,7 +11176,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6840476</v>
+        <v>6839233</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11185,76 +11185,76 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
         <v>41</v>
       </c>
       <c r="J125">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="K125">
         <v>5</v>
       </c>
       <c r="L125">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O125">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="P125">
+        <v>1.5</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>1.95</v>
+      </c>
+      <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
+        <v>-1</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>0.363</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1</v>
       </c>
-      <c r="Q125">
-        <v>2.025</v>
-      </c>
-      <c r="R125">
-        <v>1.775</v>
-      </c>
-      <c r="S125">
-        <v>2.75</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>-1</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>0.45</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11262,7 +11262,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6839233</v>
+        <v>6840336</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11271,55 +11271,55 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
         <v>41</v>
       </c>
       <c r="J126">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L126">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="M126">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
         <v>-1</v>
@@ -11328,16 +11328,16 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.363</v>
+        <v>2.75</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -12380,7 +12380,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6840290</v>
+        <v>6839230</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12389,76 +12389,76 @@
         <v>45290.5</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J139">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="L139">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N139">
+        <v>4.2</v>
+      </c>
+      <c r="O139">
+        <v>5</v>
+      </c>
+      <c r="P139">
+        <v>-1</v>
+      </c>
+      <c r="Q139">
+        <v>1.875</v>
+      </c>
+      <c r="R139">
+        <v>1.925</v>
+      </c>
+      <c r="S139">
         <v>3</v>
       </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
-      <c r="P139">
-        <v>-0.25</v>
-      </c>
-      <c r="Q139">
-        <v>1.925</v>
-      </c>
-      <c r="R139">
-        <v>1.875</v>
-      </c>
-      <c r="S139">
-        <v>2.25</v>
-      </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12466,7 +12466,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6839230</v>
+        <v>6840290</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12475,76 +12475,76 @@
         <v>45290.5</v>
       </c>
       <c r="E140" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>42</v>
+      </c>
+      <c r="J140">
+        <v>2.4</v>
+      </c>
+      <c r="K140">
+        <v>3.1</v>
+      </c>
+      <c r="L140">
+        <v>2.8</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
         <v>3</v>
       </c>
-      <c r="I140" t="s">
-        <v>41</v>
-      </c>
-      <c r="J140">
-        <v>1.45</v>
-      </c>
-      <c r="K140">
-        <v>4.333</v>
-      </c>
-      <c r="L140">
-        <v>5.75</v>
-      </c>
-      <c r="M140">
-        <v>1.533</v>
-      </c>
-      <c r="N140">
-        <v>4.2</v>
-      </c>
       <c r="O140">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q140">
+        <v>1.925</v>
+      </c>
+      <c r="R140">
         <v>1.875</v>
       </c>
-      <c r="R140">
-        <v>1.925</v>
-      </c>
       <c r="S140">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X140">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -13498,7 +13498,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6840293</v>
+        <v>6840294</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13507,13 +13507,13 @@
         <v>45311.5</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -13522,43 +13522,43 @@
         <v>40</v>
       </c>
       <c r="J152">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="K152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L152">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="M152">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="N152">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="O152">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P152">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q152">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S152">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>0.1659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -13567,16 +13567,16 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13584,7 +13584,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6840294</v>
+        <v>6840293</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13593,13 +13593,13 @@
         <v>45311.5</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -13608,43 +13608,43 @@
         <v>40</v>
       </c>
       <c r="J153">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L153">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="M153">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="N153">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="O153">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="P153">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q153">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T153">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>0.571</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13653,16 +13653,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -14100,7 +14100,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6840493</v>
+        <v>6840494</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14109,76 +14109,76 @@
         <v>45318.5</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J159">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="M159">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="N159">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P159">
+        <v>-1.25</v>
+      </c>
+      <c r="Q159">
+        <v>1.825</v>
+      </c>
+      <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
+        <v>3.25</v>
+      </c>
+      <c r="T159">
+        <v>1.975</v>
+      </c>
+      <c r="U159">
+        <v>1.825</v>
+      </c>
+      <c r="V159">
+        <v>-1</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>4.75</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA159">
         <v>-0.5</v>
       </c>
-      <c r="Q159">
-        <v>1.975</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>2.75</v>
-      </c>
-      <c r="T159">
-        <v>1.95</v>
-      </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
-      <c r="V159">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W159">
-        <v>-1</v>
-      </c>
-      <c r="X159">
-        <v>-1</v>
-      </c>
-      <c r="Y159">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z159">
-        <v>-1</v>
-      </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14186,7 +14186,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6840494</v>
+        <v>6840493</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14195,76 +14195,76 @@
         <v>45318.5</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J160">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L160">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="M160">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="N160">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O160">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
+        <v>1.975</v>
+      </c>
+      <c r="R160">
         <v>1.825</v>
       </c>
-      <c r="R160">
-        <v>1.975</v>
-      </c>
       <c r="S160">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14616,7 +14616,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6840495</v>
+        <v>6840496</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14625,73 +14625,73 @@
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>42</v>
+      </c>
+      <c r="J165">
+        <v>5.25</v>
+      </c>
+      <c r="K165">
+        <v>4.333</v>
+      </c>
+      <c r="L165">
+        <v>1.45</v>
+      </c>
+      <c r="M165">
+        <v>4.75</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
+        <v>1.533</v>
+      </c>
+      <c r="P165">
         <v>1</v>
       </c>
-      <c r="I165" t="s">
-        <v>40</v>
-      </c>
-      <c r="J165">
-        <v>1.444</v>
-      </c>
-      <c r="K165">
-        <v>4.5</v>
-      </c>
-      <c r="L165">
-        <v>6</v>
-      </c>
-      <c r="M165">
-        <v>1.615</v>
-      </c>
-      <c r="N165">
-        <v>3.8</v>
-      </c>
-      <c r="O165">
-        <v>4.5</v>
-      </c>
-      <c r="P165">
-        <v>-0.75</v>
-      </c>
       <c r="Q165">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
         <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
         <v>-1</v>
@@ -14702,7 +14702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6840496</v>
+        <v>6840497</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14711,10 +14711,10 @@
         <v>45332.5</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14726,58 +14726,58 @@
         <v>42</v>
       </c>
       <c r="J166">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="K166">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="L166">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="N166">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O166">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="P166">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q166">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
         <v>-1</v>
       </c>
       <c r="W166">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
         <v>-1</v>
@@ -14788,7 +14788,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6840497</v>
+        <v>6840495</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
@@ -14797,73 +14797,73 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J167">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="K167">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L167">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M167">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="N167">
+        <v>3.8</v>
+      </c>
+      <c r="O167">
         <v>4.5</v>
       </c>
-      <c r="O167">
-        <v>6.5</v>
-      </c>
       <c r="P167">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q167">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -15820,7 +15820,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6840501</v>
+        <v>6839224</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15829,73 +15829,73 @@
         <v>45346.5</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J179">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K179">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L179">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M179">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N179">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O179">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P179">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
         <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB179">
         <v>-1</v>
@@ -15906,7 +15906,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6839224</v>
+        <v>6840300</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15915,76 +15915,76 @@
         <v>45346.5</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J180">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="K180">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L180">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="N180">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O180">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q180">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S180">
         <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -15992,7 +15992,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6840300</v>
+        <v>6840501</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16001,58 +16001,58 @@
         <v>45346.5</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="s">
         <v>40</v>
       </c>
       <c r="J181">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="K181">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="M181">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="N181">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O181">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="P181">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q181">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
         <v>2.75</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>0.6000000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16061,16 +16061,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16680,7 +16680,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6840960</v>
+        <v>6840959</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16689,76 +16689,76 @@
         <v>45367.5</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>41</v>
+      </c>
+      <c r="J189">
+        <v>3.6</v>
+      </c>
+      <c r="K189">
+        <v>4</v>
+      </c>
+      <c r="L189">
+        <v>1.8</v>
+      </c>
+      <c r="M189">
+        <v>3.3</v>
+      </c>
+      <c r="N189">
+        <v>3.8</v>
+      </c>
+      <c r="O189">
+        <v>1.909</v>
+      </c>
+      <c r="P189">
+        <v>0.5</v>
+      </c>
+      <c r="Q189">
+        <v>1.85</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>3</v>
+      </c>
+      <c r="T189">
+        <v>1.9</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>-1</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>0.909</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.95</v>
+      </c>
+      <c r="AA189">
         <v>0</v>
       </c>
-      <c r="I189" t="s">
-        <v>40</v>
-      </c>
-      <c r="J189">
-        <v>1.142</v>
-      </c>
-      <c r="K189">
-        <v>8.5</v>
-      </c>
-      <c r="L189">
-        <v>13</v>
-      </c>
-      <c r="M189">
-        <v>1.125</v>
-      </c>
-      <c r="N189">
-        <v>8.5</v>
-      </c>
-      <c r="O189">
-        <v>13</v>
-      </c>
-      <c r="P189">
-        <v>-2.25</v>
-      </c>
-      <c r="Q189">
-        <v>1.8</v>
-      </c>
-      <c r="R189">
-        <v>2</v>
-      </c>
-      <c r="S189">
-        <v>3.75</v>
-      </c>
-      <c r="T189">
-        <v>1.95</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>0.125</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>0.8</v>
-      </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
-      <c r="AA189">
-        <v>0.95</v>
-      </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16852,7 +16852,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840959</v>
+        <v>6840960</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16861,76 +16861,76 @@
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G191">
+        <v>6</v>
+      </c>
+      <c r="H191">
         <v>0</v>
       </c>
-      <c r="H191">
-        <v>3</v>
-      </c>
       <c r="I191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J191">
-        <v>3.6</v>
+        <v>1.142</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="L191">
+        <v>13</v>
+      </c>
+      <c r="M191">
+        <v>1.125</v>
+      </c>
+      <c r="N191">
+        <v>8.5</v>
+      </c>
+      <c r="O191">
+        <v>13</v>
+      </c>
+      <c r="P191">
+        <v>-2.25</v>
+      </c>
+      <c r="Q191">
         <v>1.8</v>
       </c>
-      <c r="M191">
-        <v>3.3</v>
-      </c>
-      <c r="N191">
-        <v>3.8</v>
-      </c>
-      <c r="O191">
-        <v>1.909</v>
-      </c>
-      <c r="P191">
-        <v>0.5</v>
-      </c>
-      <c r="Q191">
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>3.75</v>
+      </c>
+      <c r="T191">
+        <v>1.95</v>
+      </c>
+      <c r="U191">
         <v>1.85</v>
       </c>
-      <c r="R191">
-        <v>1.95</v>
-      </c>
-      <c r="S191">
-        <v>3</v>
-      </c>
-      <c r="T191">
-        <v>1.9</v>
-      </c>
-      <c r="U191">
-        <v>1.9</v>
-      </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
         <v>0.95</v>
       </c>
-      <c r="AA191">
-        <v>0</v>
-      </c>
       <c r="AB191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17196,7 +17196,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6841450</v>
+        <v>6841451</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17205,76 +17205,76 @@
         <v>45374.5</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J195">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="K195">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M195">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N195">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P195">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q195">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17282,7 +17282,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6841449</v>
+        <v>6841450</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17291,76 +17291,76 @@
         <v>45374.5</v>
       </c>
       <c r="E196" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J196">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L196">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
         <v>1.8</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
         <v>-0.5</v>
       </c>
       <c r="Q196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T196">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V196">
         <v>-1</v>
       </c>
       <c r="W196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17368,7 +17368,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6841451</v>
+        <v>6841449</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17377,76 +17377,76 @@
         <v>45374.5</v>
       </c>
       <c r="E197" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>42</v>
+      </c>
+      <c r="J197">
+        <v>1.85</v>
+      </c>
+      <c r="K197">
         <v>4</v>
       </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197" t="s">
-        <v>40</v>
-      </c>
-      <c r="J197">
-        <v>1.222</v>
-      </c>
-      <c r="K197">
-        <v>5.5</v>
-      </c>
       <c r="L197">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="M197">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="N197">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O197">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q197">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
         <v>3</v>
       </c>
       <c r="T197">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17454,7 +17454,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7933423</v>
+        <v>7933422</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17463,49 +17463,49 @@
         <v>45384.65625</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198" t="s">
         <v>41</v>
       </c>
       <c r="J198">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="K198">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L198">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N198">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O198">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="P198">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q198">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S198">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T198">
         <v>1.9</v>
@@ -17520,19 +17520,19 @@
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA198">
-        <v>-0.5</v>
-      </c>
       <c r="AB198">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17540,7 +17540,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7933422</v>
+        <v>7933423</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17549,49 +17549,49 @@
         <v>45384.65625</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
         <v>41</v>
       </c>
       <c r="J199">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="K199">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L199">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M199">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="P199">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q199">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R199">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T199">
         <v>1.9</v>
@@ -17606,19 +17606,19 @@
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -18658,7 +18658,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8048793</v>
+        <v>8048791</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18667,76 +18667,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J212">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K212">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L212">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="M212">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="N212">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P212">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U212">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W212">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18744,7 +18744,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048803</v>
+        <v>8048793</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18753,76 +18753,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J213">
+        <v>1.4</v>
+      </c>
+      <c r="K213">
+        <v>4.333</v>
+      </c>
+      <c r="L213">
+        <v>6.5</v>
+      </c>
+      <c r="M213">
+        <v>1.333</v>
+      </c>
+      <c r="N213">
+        <v>5.25</v>
+      </c>
+      <c r="O213">
+        <v>9</v>
+      </c>
+      <c r="P213">
+        <v>-1.5</v>
+      </c>
+      <c r="Q213">
+        <v>1.9</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
         <v>3</v>
       </c>
-      <c r="K213">
-        <v>3.4</v>
-      </c>
-      <c r="L213">
-        <v>2.15</v>
-      </c>
-      <c r="M213">
-        <v>2.5</v>
-      </c>
-      <c r="N213">
-        <v>3.3</v>
-      </c>
-      <c r="O213">
-        <v>2.6</v>
-      </c>
-      <c r="P213">
-        <v>0</v>
-      </c>
-      <c r="Q213">
-        <v>1.85</v>
-      </c>
-      <c r="R213">
-        <v>1.95</v>
-      </c>
-      <c r="S213">
-        <v>2.75</v>
-      </c>
       <c r="T213">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18830,7 +18830,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048813</v>
+        <v>8048803</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18839,76 +18839,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J214">
         <v>3</v>
       </c>
       <c r="K214">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L214">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="M214">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="P214">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
         <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z214">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18916,7 +18916,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8048791</v>
+        <v>8048813</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18925,46 +18925,46 @@
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J215">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K215">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L215">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="M215">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N215">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="P215">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
         <v>2.75</v>
@@ -18976,19 +18976,19 @@
         <v>1.95</v>
       </c>
       <c r="V215">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y215">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA215">
         <v>0.425</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -112,13 +112,13 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Glentoran</t>
+    <t>Ballymena Utd</t>
   </si>
   <si>
     <t>Loughgall</t>
   </si>
   <si>
-    <t>Ballymena Utd</t>
+    <t>Glentoran</t>
   </si>
   <si>
     <t>Dungannon Swifts</t>
@@ -610,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6837575</v>
+        <v>6840425</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -954,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -966,34 +966,34 @@
         <v>41</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N6">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
         <v>1.925</v>
@@ -1008,19 +1008,19 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6837575</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1126,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,34 +1138,34 @@
         <v>41</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M8">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
         <v>1.925</v>
@@ -1180,19 +1180,19 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1728,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -2060,7 +2060,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6840433</v>
+        <v>6839250</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2069,76 +2069,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
+        <v>3.6</v>
+      </c>
+      <c r="L19">
+        <v>2.625</v>
+      </c>
+      <c r="M19">
+        <v>2.25</v>
+      </c>
+      <c r="N19">
         <v>3.5</v>
       </c>
-      <c r="L19">
-        <v>2.25</v>
-      </c>
-      <c r="M19">
-        <v>3.4</v>
-      </c>
-      <c r="N19">
-        <v>3.6</v>
-      </c>
       <c r="O19">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q19">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
         <v>2.5</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2146,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6839250</v>
+        <v>6840306</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2155,55 +2155,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
       </c>
       <c r="J20">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
         <v>-1</v>
@@ -2212,16 +2212,16 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2232,7 +2232,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6840306</v>
+        <v>6840432</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2241,73 +2241,73 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M21">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
         <v>2.75</v>
       </c>
       <c r="T21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6840432</v>
+        <v>6840433</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2327,40 +2327,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J22">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K22">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="M22">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q22">
         <v>1.85</v>
@@ -2369,19 +2369,19 @@
         <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2393,10 +2393,10 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2757,10 +2757,10 @@
         <v>45163.65625</v>
       </c>
       <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -3273,7 +3273,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -3534,7 +3534,7 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3706,7 +3706,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -4219,7 +4219,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
         <v>33</v>
@@ -4563,7 +4563,7 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -4821,7 +4821,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -5254,7 +5254,7 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5770,7 +5770,7 @@
         <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
@@ -6286,7 +6286,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
         <v>33</v>
@@ -6618,7 +6618,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840454</v>
+        <v>6840453</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6627,67 +6627,67 @@
         <v>45212.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="K72">
         <v>4.2</v>
       </c>
       <c r="L72">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="M72">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="P72">
         <v>1.5</v>
       </c>
       <c r="Q72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S72">
         <v>3</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
         <v>-1</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X72">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
         <v>-1</v>
@@ -6696,7 +6696,7 @@
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6704,7 +6704,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840453</v>
+        <v>6840454</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6713,67 +6713,67 @@
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J73">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="K73">
         <v>4.2</v>
       </c>
       <c r="L73">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O73">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="P73">
         <v>1.5</v>
       </c>
       <c r="Q73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>3</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
         <v>-1</v>
       </c>
       <c r="W73">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
         <v>-1</v>
@@ -6782,7 +6782,7 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7057,7 +7057,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
         <v>29</v>
@@ -7134,7 +7134,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6840455</v>
+        <v>6840456</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7143,73 +7143,73 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>4.75</v>
+      </c>
+      <c r="L78">
+        <v>1.4</v>
+      </c>
+      <c r="M78">
+        <v>5.5</v>
+      </c>
+      <c r="N78">
+        <v>4.75</v>
+      </c>
+      <c r="O78">
+        <v>1.444</v>
+      </c>
+      <c r="P78">
+        <v>1.25</v>
+      </c>
+      <c r="Q78">
+        <v>1.85</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
         <v>3</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78">
-        <v>4.75</v>
-      </c>
-      <c r="K78">
-        <v>3.8</v>
-      </c>
-      <c r="L78">
-        <v>1.615</v>
-      </c>
-      <c r="M78">
-        <v>4.5</v>
-      </c>
-      <c r="N78">
-        <v>3.8</v>
-      </c>
-      <c r="O78">
-        <v>1.615</v>
-      </c>
-      <c r="P78">
-        <v>0.75</v>
-      </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2.75</v>
-      </c>
       <c r="T78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7220,7 +7220,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6840456</v>
+        <v>6840455</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7229,73 +7229,73 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
-      <c r="H79">
-        <v>4</v>
-      </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J79">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="K79">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L79">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N79">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O79">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="P79">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7318,7 +7318,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7401,7 +7401,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
@@ -7908,7 +7908,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6840323</v>
+        <v>6840460</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7917,76 +7917,76 @@
         <v>45234.5</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L87">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O87">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7994,7 +7994,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6840460</v>
+        <v>6840323</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8003,76 +8003,76 @@
         <v>45234.5</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J88">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="M88">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="P88">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q88">
+        <v>1.925</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>3.25</v>
+      </c>
+      <c r="T88">
+        <v>1.95</v>
+      </c>
+      <c r="U88">
         <v>1.85</v>
       </c>
-      <c r="R88">
-        <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>2.75</v>
-      </c>
-      <c r="T88">
-        <v>1.8</v>
-      </c>
-      <c r="U88">
-        <v>2</v>
-      </c>
       <c r="V88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6840322</v>
+        <v>6839239</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8089,76 +8089,76 @@
         <v>45234.5</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8166,7 +8166,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6839239</v>
+        <v>6837586</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8175,73 +8175,73 @@
         <v>45234.5</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J90">
+        <v>1.3</v>
+      </c>
+      <c r="K90">
+        <v>5.25</v>
+      </c>
+      <c r="L90">
+        <v>8.5</v>
+      </c>
+      <c r="M90">
+        <v>1.333</v>
+      </c>
+      <c r="N90">
+        <v>5.5</v>
+      </c>
+      <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>-1.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.85</v>
+      </c>
+      <c r="R90">
         <v>1.95</v>
       </c>
-      <c r="K90">
-        <v>3.6</v>
-      </c>
-      <c r="L90">
-        <v>3.6</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>3.5</v>
-      </c>
-      <c r="O90">
-        <v>3.6</v>
-      </c>
-      <c r="P90">
-        <v>-0.5</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-      <c r="R90">
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
         <v>1.8</v>
       </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
-      <c r="T90">
-        <v>1.875</v>
-      </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
         <v>-1</v>
@@ -8252,7 +8252,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837586</v>
+        <v>6840322</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8261,49 +8261,49 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="s">
         <v>41</v>
       </c>
       <c r="J91">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="K91">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="L91">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="N91">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O91">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T91">
         <v>1.8</v>
@@ -8318,19 +8318,19 @@
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8433,7 +8433,7 @@
         <v>45241.5</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
         <v>29</v>
@@ -8780,7 +8780,7 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
         <v>32</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
       </c>
       <c r="G101">
         <v>5</v>
@@ -9382,7 +9382,7 @@
         <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9640,7 +9640,7 @@
         <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9809,7 +9809,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>39</v>
@@ -9972,7 +9972,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6840471</v>
+        <v>6840470</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9981,49 +9981,49 @@
         <v>45262.5</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>42</v>
       </c>
       <c r="J111">
-        <v>1.166</v>
+        <v>8.5</v>
       </c>
       <c r="K111">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L111">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="M111">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="N111">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="O111">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="P111">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q111">
+        <v>1.875</v>
+      </c>
+      <c r="R111">
         <v>1.925</v>
       </c>
-      <c r="R111">
-        <v>1.875</v>
-      </c>
       <c r="S111">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T111">
         <v>1.975</v>
@@ -10035,16 +10035,16 @@
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10058,7 +10058,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6840470</v>
+        <v>6840334</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10067,76 +10067,76 @@
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
         <v>42</v>
       </c>
       <c r="J112">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="K112">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="M112">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="N112">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="P112">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2.5</v>
+      </c>
+      <c r="T112">
         <v>1.875</v>
       </c>
-      <c r="R112">
+      <c r="U112">
         <v>1.925</v>
       </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.975</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>4.25</v>
+        <v>2.3</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10144,7 +10144,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6840334</v>
+        <v>6840333</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10153,49 +10153,49 @@
         <v>45262.5</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J113">
+        <v>5.5</v>
+      </c>
+      <c r="K113">
+        <v>4.75</v>
+      </c>
+      <c r="L113">
+        <v>1.444</v>
+      </c>
+      <c r="M113">
+        <v>5.5</v>
+      </c>
+      <c r="N113">
+        <v>4.75</v>
+      </c>
+      <c r="O113">
+        <v>1.45</v>
+      </c>
+      <c r="P113">
+        <v>1.25</v>
+      </c>
+      <c r="Q113">
+        <v>1.775</v>
+      </c>
+      <c r="R113">
+        <v>2.025</v>
+      </c>
+      <c r="S113">
         <v>3</v>
-      </c>
-      <c r="K113">
-        <v>3.5</v>
-      </c>
-      <c r="L113">
-        <v>2.1</v>
-      </c>
-      <c r="M113">
-        <v>2.7</v>
-      </c>
-      <c r="N113">
-        <v>3.3</v>
-      </c>
-      <c r="O113">
-        <v>2.4</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>2</v>
-      </c>
-      <c r="R113">
-        <v>1.8</v>
-      </c>
-      <c r="S113">
-        <v>2.5</v>
       </c>
       <c r="T113">
         <v>1.875</v>
@@ -10207,22 +10207,22 @@
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10230,7 +10230,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6840333</v>
+        <v>6840471</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10239,76 +10239,76 @@
         <v>45262.5</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J114">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="K114">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="L114">
-        <v>1.444</v>
+        <v>11</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="N114">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O114">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="P114">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q114">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T114">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X114">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,7 +10316,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6840335</v>
+        <v>6840472</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10325,76 +10325,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J115">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="K115">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="L115">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="P115">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
         <v>2.75</v>
       </c>
       <c r="T115">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,7 +10402,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6840472</v>
+        <v>6840335</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10411,76 +10411,76 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="L116">
-        <v>10</v>
+        <v>1.533</v>
       </c>
       <c r="M116">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O116">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="P116">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S116">
         <v>2.75</v>
       </c>
       <c r="T116">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y116">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10500,7 +10500,7 @@
         <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10660,7 +10660,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6840473</v>
+        <v>6837591</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10669,73 +10669,73 @@
         <v>45269.5</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J119">
-        <v>1.142</v>
+        <v>2.1</v>
       </c>
       <c r="K119">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="L119">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T119">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -10746,7 +10746,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6837591</v>
+        <v>6840473</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10755,73 +10755,73 @@
         <v>45269.5</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J120">
-        <v>2.1</v>
+        <v>1.142</v>
       </c>
       <c r="K120">
+        <v>7.5</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+      <c r="M120">
+        <v>1.222</v>
+      </c>
+      <c r="N120">
+        <v>5.75</v>
+      </c>
+      <c r="O120">
+        <v>10</v>
+      </c>
+      <c r="P120">
+        <v>-1.75</v>
+      </c>
+      <c r="Q120">
+        <v>1.925</v>
+      </c>
+      <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
         <v>3.25</v>
       </c>
-      <c r="L120">
-        <v>3.5</v>
-      </c>
-      <c r="M120">
-        <v>2.3</v>
-      </c>
-      <c r="N120">
-        <v>3.1</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>-0.25</v>
-      </c>
-      <c r="Q120">
-        <v>1.95</v>
-      </c>
-      <c r="R120">
-        <v>1.85</v>
-      </c>
-      <c r="S120">
-        <v>2.5</v>
-      </c>
       <c r="T120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U120">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
         <v>-1</v>
@@ -10927,7 +10927,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -11013,7 +11013,7 @@
         <v>45276.5</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
         <v>30</v>
@@ -11348,7 +11348,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6840479</v>
+        <v>6839232</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11357,76 +11357,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
         <v>0</v>
       </c>
-      <c r="H127">
+      <c r="I127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127">
+        <v>1.181</v>
+      </c>
+      <c r="K127">
+        <v>5.5</v>
+      </c>
+      <c r="L127">
+        <v>12</v>
+      </c>
+      <c r="M127">
+        <v>1.142</v>
+      </c>
+      <c r="N127">
+        <v>7</v>
+      </c>
+      <c r="O127">
+        <v>15</v>
+      </c>
+      <c r="P127">
+        <v>-2</v>
+      </c>
+      <c r="Q127">
+        <v>1.8</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>3.25</v>
+      </c>
+      <c r="T127">
+        <v>1.9</v>
+      </c>
+      <c r="U127">
+        <v>1.9</v>
+      </c>
+      <c r="V127">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
         <v>1</v>
       </c>
-      <c r="I127" t="s">
-        <v>41</v>
-      </c>
-      <c r="J127">
-        <v>3.25</v>
-      </c>
-      <c r="K127">
-        <v>3.6</v>
-      </c>
-      <c r="L127">
-        <v>1.85</v>
-      </c>
-      <c r="M127">
-        <v>3.2</v>
-      </c>
-      <c r="N127">
-        <v>3.6</v>
-      </c>
-      <c r="O127">
-        <v>1.909</v>
-      </c>
-      <c r="P127">
-        <v>0.5</v>
-      </c>
-      <c r="Q127">
-        <v>1.825</v>
-      </c>
-      <c r="R127">
-        <v>1.975</v>
-      </c>
-      <c r="S127">
-        <v>2.75</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-      <c r="U127">
-        <v>1.8</v>
-      </c>
-      <c r="V127">
-        <v>-1</v>
-      </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
-      <c r="X127">
-        <v>0.909</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11434,7 +11434,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840478</v>
+        <v>6840479</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11443,76 +11443,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J128">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="M128">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O128">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="P128">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11520,7 +11520,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11529,58 +11529,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
         <v>1</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>40</v>
       </c>
       <c r="J129">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="K129">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="M129">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="N129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O129">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11592,13 +11592,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11618,7 +11618,7 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11704,7 +11704,7 @@
         <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11873,7 +11873,7 @@
         <v>45286.5</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
         <v>28</v>
@@ -12134,7 +12134,7 @@
         <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12650,7 +12650,7 @@
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
         <v>28</v>
@@ -13249,7 +13249,7 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
         <v>35</v>
@@ -13510,7 +13510,7 @@
         <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13940,7 +13940,7 @@
         <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14195,7 +14195,7 @@
         <v>45318.5</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
         <v>33</v>
@@ -14281,7 +14281,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
         <v>36</v>
@@ -14456,7 +14456,7 @@
         <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14797,7 +14797,7 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
         <v>37</v>
@@ -15046,7 +15046,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6839225</v>
+        <v>6840298</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
@@ -15055,10 +15055,10 @@
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15070,40 +15070,40 @@
         <v>41</v>
       </c>
       <c r="J170">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="K170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L170">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N170">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O170">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P170">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Q170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
         <v>-1</v>
@@ -15112,19 +15112,19 @@
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>0.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15132,7 +15132,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6840298</v>
+        <v>6839225</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
@@ -15141,10 +15141,10 @@
         <v>45339.5</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15156,40 +15156,40 @@
         <v>41</v>
       </c>
       <c r="J171">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
+        <v>1.5</v>
+      </c>
+      <c r="M171">
         <v>5</v>
       </c>
-      <c r="L171">
-        <v>1.285</v>
-      </c>
-      <c r="M171">
-        <v>7</v>
-      </c>
       <c r="N171">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O171">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P171">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Q171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
         <v>-1</v>
@@ -15198,19 +15198,19 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Y171">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15313,7 +15313,7 @@
         <v>45339.5</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
         <v>30</v>
@@ -15574,7 +15574,7 @@
         <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15832,7 +15832,7 @@
         <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -16090,7 +16090,7 @@
         <v>29</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16173,7 +16173,7 @@
         <v>45360.5</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
         <v>38</v>
@@ -16259,7 +16259,7 @@
         <v>45360.5</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
         <v>33</v>
@@ -16864,7 +16864,7 @@
         <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16947,7 +16947,7 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
         <v>37</v>
@@ -17119,10 +17119,10 @@
         <v>45374.5</v>
       </c>
       <c r="E194" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" t="s">
         <v>32</v>
-      </c>
-      <c r="F194" t="s">
-        <v>34</v>
       </c>
       <c r="G194">
         <v>4</v>
@@ -17982,7 +17982,7 @@
         <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18065,7 +18065,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
         <v>39</v>
@@ -18228,7 +18228,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8048798</v>
+        <v>8048788</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18237,13 +18237,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18252,43 +18252,43 @@
         <v>40</v>
       </c>
       <c r="J207">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="K207">
         <v>3.5</v>
       </c>
       <c r="L207">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="M207">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O207">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="P207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q207">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
         <v>2.75</v>
       </c>
       <c r="T207">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U207">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18297,16 +18297,16 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18314,7 +18314,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>8048788</v>
+        <v>8048797</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18323,7 +18323,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F208" t="s">
         <v>32</v>
@@ -18338,43 +18338,43 @@
         <v>40</v>
       </c>
       <c r="J208">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="K208">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L208">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M208">
+        <v>1.7</v>
+      </c>
+      <c r="N208">
         <v>3.75</v>
       </c>
-      <c r="N208">
-        <v>3.6</v>
-      </c>
       <c r="O208">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S208">
         <v>2.75</v>
       </c>
       <c r="T208">
+        <v>1.95</v>
+      </c>
+      <c r="U208">
         <v>1.85</v>
       </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
       <c r="V208">
-        <v>2.75</v>
+        <v>0.7</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18383,13 +18383,13 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
@@ -18400,7 +18400,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8048797</v>
+        <v>8048798</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18409,13 +18409,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -18424,43 +18424,43 @@
         <v>40</v>
       </c>
       <c r="J209">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="K209">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L209">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M209">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="N209">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O209">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P209">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q209">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S209">
         <v>2.75</v>
       </c>
       <c r="T209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="W209">
         <v>-1</v>
@@ -18469,16 +18469,16 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18925,7 +18925,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F215" t="s">
         <v>29</v>
@@ -19011,7 +19011,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
         <v>31</v>
@@ -19358,7 +19358,7 @@
         <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19527,7 +19527,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E222" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F222" t="s">
         <v>30</v>
@@ -19788,7 +19788,7 @@
         <v>35</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19871,7 +19871,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E226" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
         <v>38</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -112,13 +112,13 @@
     <t>Larne FC</t>
   </si>
   <si>
+    <t>Ballymena Utd</t>
+  </si>
+  <si>
     <t>Loughgall</t>
   </si>
   <si>
     <t>Glentoran</t>
-  </si>
-  <si>
-    <t>Ballymena Utd</t>
   </si>
   <si>
     <t>Dungannon Swifts</t>
@@ -610,7 +610,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6839252</v>
+        <v>6840425</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -954,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -966,40 +966,40 @@
         <v>41</v>
       </c>
       <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>3.75</v>
-      </c>
       <c r="L6">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
+        <v>5.25</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>3.75</v>
-      </c>
       <c r="O6">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="P6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
         <v>2.75</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
         <v>-1</v>
@@ -1008,16 +1008,16 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
         <v>-0.5</v>
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,40 +1052,40 @@
         <v>41</v>
       </c>
       <c r="J7">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P7">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1094,19 +1094,19 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1114,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6837575</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1126,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1138,34 +1138,34 @@
         <v>41</v>
       </c>
       <c r="J8">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M8">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
         <v>1.925</v>
@@ -1180,19 +1180,19 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1467,10 +1467,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -2244,7 +2244,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -3101,7 +3101,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -3448,7 +3448,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -3706,7 +3706,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4038,7 +4038,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6840442</v>
+        <v>6839246</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4047,76 +4047,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K42">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N42">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P42">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q42">
+        <v>1.975</v>
+      </c>
+      <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
+        <v>2.25</v>
+      </c>
+      <c r="T42">
+        <v>1.85</v>
+      </c>
+      <c r="U42">
         <v>1.95</v>
       </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2.75</v>
-      </c>
-      <c r="T42">
-        <v>1.9</v>
-      </c>
-      <c r="U42">
-        <v>1.9</v>
-      </c>
       <c r="V42">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4124,7 +4124,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6840440</v>
+        <v>6840442</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -4133,13 +4133,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4148,43 +4148,43 @@
         <v>40</v>
       </c>
       <c r="J43">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O43">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>0.333</v>
+        <v>1.3</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4193,16 +4193,16 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4210,7 +4210,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6839246</v>
+        <v>6840440</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4219,73 +4219,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="H44">
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <v>1.333</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>8.5</v>
+      </c>
+      <c r="M44">
+        <v>1.333</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+      <c r="P44">
+        <v>-1.5</v>
+      </c>
+      <c r="Q44">
+        <v>1.925</v>
+      </c>
+      <c r="R44">
+        <v>1.875</v>
+      </c>
+      <c r="S44">
         <v>3</v>
       </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44">
-        <v>2.3</v>
-      </c>
-      <c r="K44">
-        <v>3.1</v>
-      </c>
-      <c r="L44">
-        <v>3.25</v>
-      </c>
-      <c r="M44">
-        <v>2.8</v>
-      </c>
-      <c r="N44">
-        <v>3.2</v>
-      </c>
-      <c r="O44">
-        <v>2.55</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>1.975</v>
-      </c>
-      <c r="R44">
-        <v>1.825</v>
-      </c>
-      <c r="S44">
-        <v>2.25</v>
-      </c>
       <c r="T44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4305,7 +4305,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
         <v>35</v>
@@ -4468,7 +4468,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840445</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4477,73 +4477,73 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L47">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O47">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V47">
         <v>-1</v>
       </c>
       <c r="W47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y47">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -4554,7 +4554,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840445</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4563,73 +4563,73 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="K48">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="M48">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="N48">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O48">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="P48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
         <v>-1</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
         <v>-1</v>
@@ -4735,7 +4735,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -4821,7 +4821,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -5070,7 +5070,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7122710</v>
+        <v>7122709</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5079,13 +5079,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5094,43 +5094,43 @@
         <v>40</v>
       </c>
       <c r="J54">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="M54">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N54">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O54">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5139,7 +5139,7 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z54">
         <v>-1</v>
@@ -5148,7 +5148,7 @@
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5156,7 +5156,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7122709</v>
+        <v>7122710</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5165,13 +5165,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5180,43 +5180,43 @@
         <v>40</v>
       </c>
       <c r="J55">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="M55">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N55">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="P55">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
         <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5225,7 +5225,7 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
         <v>-1</v>
@@ -5234,7 +5234,7 @@
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5242,7 +5242,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6840447</v>
+        <v>6840446</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5251,56 +5251,56 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
         <v>41</v>
       </c>
       <c r="J56">
-        <v>1.952</v>
+        <v>2.625</v>
       </c>
       <c r="K56">
         <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M56">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N56">
         <v>3.5</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="P56">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q56">
+        <v>1.8</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>2.75</v>
+      </c>
+      <c r="T56">
         <v>1.95</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2.5</v>
-      </c>
-      <c r="T56">
-        <v>1.825</v>
-      </c>
-      <c r="U56">
-        <v>1.975</v>
-      </c>
       <c r="V56">
         <v>-1</v>
       </c>
@@ -5308,19 +5308,19 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5340,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5426,7 +5426,7 @@
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5586,7 +5586,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6840446</v>
+        <v>6840447</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5595,55 +5595,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>41</v>
       </c>
       <c r="J60">
-        <v>2.625</v>
+        <v>1.952</v>
       </c>
       <c r="K60">
         <v>3.4</v>
       </c>
       <c r="L60">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N60">
         <v>3.5</v>
       </c>
       <c r="O60">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
         <v>-1</v>
@@ -5652,19 +5652,19 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5758,7 +5758,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6837583</v>
+        <v>6840451</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5767,19 +5767,19 @@
         <v>45205.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.8</v>
@@ -5791,52 +5791,52 @@
         <v>3.5</v>
       </c>
       <c r="M62">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="N62">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
         <v>2.5</v>
       </c>
       <c r="T62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5844,7 +5844,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6840451</v>
+        <v>6837583</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5853,19 +5853,19 @@
         <v>45205.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5877,52 +5877,52 @@
         <v>3.5</v>
       </c>
       <c r="M63">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="N63">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
         <v>2.5</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6111,7 +6111,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
         <v>29</v>
@@ -6197,7 +6197,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6360,7 +6360,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840452</v>
+        <v>6840453</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6369,76 +6369,76 @@
         <v>45212.65625</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J69">
-        <v>1.222</v>
+        <v>7</v>
       </c>
       <c r="K69">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="M69">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O69">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="P69">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="Q69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6446,7 +6446,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6840317</v>
+        <v>6839242</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6455,76 +6455,76 @@
         <v>45212.65625</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="K70">
         <v>4.75</v>
       </c>
       <c r="L70">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O70">
-        <v>1.285</v>
+        <v>9.5</v>
       </c>
       <c r="P70">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q70">
+        <v>1.975</v>
+      </c>
+      <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
         <v>1.775</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <v>2.025</v>
       </c>
-      <c r="S70">
-        <v>3</v>
-      </c>
-      <c r="T70">
-        <v>1.8</v>
-      </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
       <c r="V70">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
         <v>0.7749999999999999</v>
       </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6618,7 +6618,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6839242</v>
+        <v>6840317</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6627,76 +6627,76 @@
         <v>45212.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="K72">
         <v>4.75</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="M72">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="N72">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>9.5</v>
+        <v>1.285</v>
       </c>
       <c r="P72">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q72">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T72">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y72">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6704,7 +6704,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840453</v>
+        <v>6840452</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6713,76 +6713,76 @@
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="K73">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="L73">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>1.166</v>
       </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>1.363</v>
+        <v>12</v>
       </c>
       <c r="P73">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W73">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -7057,7 +7057,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>28</v>
@@ -7143,7 +7143,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>29</v>
@@ -7229,7 +7229,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
@@ -7315,7 +7315,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>35</v>
@@ -7576,7 +7576,7 @@
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7662,7 +7662,7 @@
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>45234.5</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -7994,7 +7994,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6839239</v>
+        <v>6840322</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8003,76 +8003,76 @@
         <v>45234.5</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88">
+        <v>1.6</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
         <v>5</v>
       </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88">
-        <v>1.95</v>
-      </c>
-      <c r="K88">
-        <v>3.6</v>
-      </c>
-      <c r="L88">
-        <v>3.6</v>
-      </c>
       <c r="M88">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
+        <v>2.75</v>
+      </c>
+      <c r="T88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2.5</v>
-      </c>
-      <c r="T88">
-        <v>1.875</v>
-      </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>3.75</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>1</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>1</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.875</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8080,7 +8080,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6840322</v>
+        <v>6839239</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8089,76 +8089,76 @@
         <v>45234.5</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8347,7 +8347,7 @@
         <v>45241.5</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -8605,7 +8605,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
         <v>38</v>
@@ -8780,7 +8780,7 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6840326</v>
+        <v>6839237</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8949,58 +8949,58 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>40</v>
       </c>
       <c r="J99">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K99">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
         <v>-0.75</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
         <v>2.75</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9009,16 +9009,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9026,7 +9026,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839237</v>
+        <v>6840326</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9035,58 +9035,58 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
         <v>40</v>
       </c>
       <c r="J100">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K100">
+        <v>3.8</v>
+      </c>
+      <c r="L100">
         <v>3.4</v>
       </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
       <c r="M100">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
         <v>-0.75</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
         <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9095,16 +9095,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9121,10 +9121,10 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>5</v>
@@ -9296,7 +9296,7 @@
         <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9468,7 +9468,7 @@
         <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9723,7 +9723,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
         <v>35</v>
@@ -9809,7 +9809,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>39</v>
@@ -9886,7 +9886,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6840470</v>
+        <v>6840333</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -9895,76 +9895,76 @@
         <v>45262.5</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J110">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="L110">
+        <v>1.444</v>
+      </c>
+      <c r="M110">
+        <v>5.5</v>
+      </c>
+      <c r="N110">
+        <v>4.75</v>
+      </c>
+      <c r="O110">
+        <v>1.45</v>
+      </c>
+      <c r="P110">
         <v>1.25</v>
       </c>
-      <c r="M110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>5.25</v>
-      </c>
-      <c r="O110">
-        <v>1.3</v>
-      </c>
-      <c r="P110">
-        <v>1.5</v>
-      </c>
       <c r="Q110">
+        <v>1.775</v>
+      </c>
+      <c r="R110">
+        <v>2.025</v>
+      </c>
+      <c r="S110">
+        <v>3</v>
+      </c>
+      <c r="T110">
         <v>1.875</v>
       </c>
-      <c r="R110">
+      <c r="U110">
         <v>1.925</v>
       </c>
-      <c r="S110">
-        <v>2.75</v>
-      </c>
-      <c r="T110">
-        <v>1.975</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
       <c r="V110">
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>1.025</v>
+      </c>
+      <c r="AA110">
         <v>0.875</v>
       </c>
-      <c r="Z110">
-        <v>-1</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9972,7 +9972,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6840333</v>
+        <v>6839235</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9981,49 +9981,49 @@
         <v>45262.5</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J111">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="K111">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L111">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N111">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T111">
         <v>1.875</v>
@@ -10035,16 +10035,16 @@
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
         <v>0.875</v>
@@ -10058,7 +10058,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6839235</v>
+        <v>6840470</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10067,76 +10067,76 @@
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
         <v>42</v>
       </c>
       <c r="J112">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L112">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="M112">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="P112">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
         <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10500,7 +10500,7 @@
         <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10672,7 +10672,7 @@
         <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10927,7 +10927,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
         <v>37</v>
@@ -11013,7 +11013,7 @@
         <v>45276.5</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
         <v>29</v>
@@ -11099,7 +11099,7 @@
         <v>45276.5</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
         <v>36</v>
@@ -11348,7 +11348,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11357,58 +11357,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
         <v>1</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>40</v>
       </c>
       <c r="J127">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="K127">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="M127">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="N127">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O127">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="P127">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11420,13 +11420,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11520,7 +11520,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6840478</v>
+        <v>6839232</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11529,58 +11529,58 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>40</v>
       </c>
       <c r="J129">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L129">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="M129">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="N129">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O129">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="P129">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="Q129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11592,13 +11592,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11704,7 +11704,7 @@
         <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11790,7 +11790,7 @@
         <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11873,7 +11873,7 @@
         <v>45286.5</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
         <v>28</v>
@@ -12048,7 +12048,7 @@
         <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12122,7 +12122,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840480</v>
+        <v>6840339</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12131,76 +12131,76 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J136">
+        <v>5.75</v>
+      </c>
+      <c r="K136">
+        <v>4.333</v>
+      </c>
+      <c r="L136">
+        <v>1.444</v>
+      </c>
+      <c r="M136">
+        <v>8</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136">
+        <v>1.4</v>
+      </c>
+      <c r="P136">
+        <v>1.25</v>
+      </c>
+      <c r="Q136">
+        <v>1.775</v>
+      </c>
+      <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
+        <v>2.5</v>
+      </c>
+      <c r="T136">
         <v>1.95</v>
       </c>
-      <c r="K136">
-        <v>3.4</v>
-      </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
-      <c r="M136">
-        <v>1.666</v>
-      </c>
-      <c r="N136">
-        <v>3.8</v>
-      </c>
-      <c r="O136">
-        <v>4.333</v>
-      </c>
-      <c r="P136">
-        <v>-0.75</v>
-      </c>
-      <c r="Q136">
+      <c r="U136">
         <v>1.85</v>
       </c>
-      <c r="R136">
-        <v>1.95</v>
-      </c>
-      <c r="S136">
-        <v>2.75</v>
-      </c>
-      <c r="T136">
-        <v>1.975</v>
-      </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
       <c r="V136">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y136">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="Z136">
         <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12208,7 +12208,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6840339</v>
+        <v>6839231</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12217,76 +12217,76 @@
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
         <v>1</v>
       </c>
-      <c r="H137">
-        <v>2</v>
-      </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J137">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="K137">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="M137">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O137">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="P137">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q137">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12294,7 +12294,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6839231</v>
+        <v>6840480</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12303,10 +12303,10 @@
         <v>45286.5</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12318,43 +12318,43 @@
         <v>40</v>
       </c>
       <c r="J138">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="K138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O138">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q138">
+        <v>1.85</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>2.75</v>
+      </c>
+      <c r="T138">
         <v>1.975</v>
       </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.825</v>
       </c>
-      <c r="S138">
-        <v>3</v>
-      </c>
-      <c r="T138">
-        <v>1.925</v>
-      </c>
-      <c r="U138">
-        <v>1.875</v>
-      </c>
       <c r="V138">
-        <v>2.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12363,16 +12363,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12380,7 +12380,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6840483</v>
+        <v>6840484</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12389,76 +12389,76 @@
         <v>45290.5</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J139">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="K139">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M139">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="N139">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O139">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P139">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12552,7 +12552,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840290</v>
+        <v>6840483</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12561,76 +12561,76 @@
         <v>45290.5</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J141">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K141">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L141">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W141">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z141">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12650,7 +12650,7 @@
         <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12724,7 +12724,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840484</v>
+        <v>6840290</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12733,76 +12733,76 @@
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J143">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="K143">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="L143">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R143">
+        <v>1.875</v>
+      </c>
+      <c r="S143">
+        <v>2.25</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2.5</v>
-      </c>
-      <c r="T143">
-        <v>1.9</v>
-      </c>
-      <c r="U143">
-        <v>1.9</v>
-      </c>
       <c r="V143">
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12982,7 +12982,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6840292</v>
+        <v>6840486</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -12991,76 +12991,76 @@
         <v>45304.5</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I146" t="s">
         <v>41</v>
       </c>
       <c r="J146">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="K146">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L146">
+        <v>2.5</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>3.4</v>
+      </c>
+      <c r="O146">
+        <v>2.25</v>
+      </c>
+      <c r="P146">
+        <v>0.25</v>
+      </c>
+      <c r="Q146">
+        <v>1.8</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>2.75</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
+        <v>-1</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
         <v>1.25</v>
       </c>
-      <c r="M146">
-        <v>11</v>
-      </c>
-      <c r="N146">
-        <v>6</v>
-      </c>
-      <c r="O146">
-        <v>1.181</v>
-      </c>
-      <c r="P146">
-        <v>1.75</v>
-      </c>
-      <c r="Q146">
-        <v>2</v>
-      </c>
-      <c r="R146">
-        <v>1.8</v>
-      </c>
-      <c r="S146">
-        <v>3</v>
-      </c>
-      <c r="T146">
-        <v>1.775</v>
-      </c>
-      <c r="U146">
-        <v>2.025</v>
-      </c>
-      <c r="V146">
-        <v>-1</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>0.181</v>
-      </c>
       <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>1</v>
       </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13154,7 +13154,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6840486</v>
+        <v>6840292</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13163,55 +13163,55 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
         <v>41</v>
       </c>
       <c r="J148">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="M148">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O148">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="P148">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
         <v>1.8</v>
       </c>
-      <c r="R148">
-        <v>2</v>
-      </c>
       <c r="S148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13220,19 +13220,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13249,7 +13249,7 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
         <v>28</v>
@@ -13335,7 +13335,7 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
         <v>39</v>
@@ -13424,7 +13424,7 @@
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -13584,7 +13584,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6840490</v>
+        <v>6840489</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13593,10 +13593,10 @@
         <v>45311.5</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13608,40 +13608,40 @@
         <v>41</v>
       </c>
       <c r="J153">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K153">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L153">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O153">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
         <v>2.75</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
         <v>-1</v>
@@ -13650,19 +13650,19 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>0.444</v>
+        <v>2.75</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13670,7 +13670,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6840489</v>
+        <v>6840490</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13679,10 +13679,10 @@
         <v>45311.5</v>
       </c>
       <c r="E154" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13694,40 +13694,40 @@
         <v>41</v>
       </c>
       <c r="J154">
+        <v>5</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="L154">
+        <v>1.5</v>
+      </c>
+      <c r="M154">
+        <v>6</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154">
+        <v>1.444</v>
+      </c>
+      <c r="P154">
+        <v>1.25</v>
+      </c>
+      <c r="Q154">
         <v>1.8</v>
       </c>
-      <c r="K154">
-        <v>3.6</v>
-      </c>
-      <c r="L154">
-        <v>3.6</v>
-      </c>
-      <c r="M154">
-        <v>1.727</v>
-      </c>
-      <c r="N154">
-        <v>3.75</v>
-      </c>
-      <c r="O154">
-        <v>3.75</v>
-      </c>
-      <c r="P154">
-        <v>-0.5</v>
-      </c>
-      <c r="Q154">
-        <v>1.825</v>
-      </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S154">
         <v>2.75</v>
       </c>
       <c r="T154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
         <v>-1</v>
@@ -13736,19 +13736,19 @@
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.75</v>
+        <v>0.444</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13928,7 +13928,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6840950</v>
+        <v>6840494</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13937,10 +13937,10 @@
         <v>45318.5</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13952,34 +13952,34 @@
         <v>41</v>
       </c>
       <c r="J157">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="K157">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L157">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="M157">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N157">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O157">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="P157">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T157">
         <v>1.975</v>
@@ -13994,19 +13994,19 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14014,7 +14014,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6840494</v>
+        <v>6840950</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14023,10 +14023,10 @@
         <v>45318.5</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14038,34 +14038,34 @@
         <v>41</v>
       </c>
       <c r="J158">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="K158">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L158">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="M158">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O158">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="P158">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T158">
         <v>1.975</v>
@@ -14080,19 +14080,19 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA158">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA158">
-        <v>-0.5</v>
-      </c>
       <c r="AB158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14109,10 +14109,10 @@
         <v>45318.5</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14281,7 +14281,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
         <v>36</v>
@@ -14370,7 +14370,7 @@
         <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14456,7 +14456,7 @@
         <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14539,7 +14539,7 @@
         <v>45332.5</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
         <v>37</v>
@@ -14883,7 +14883,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
         <v>29</v>
@@ -15141,7 +15141,7 @@
         <v>45339.5</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
         <v>29</v>
@@ -15227,7 +15227,7 @@
         <v>45339.5</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
         <v>31</v>
@@ -15399,7 +15399,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
         <v>38</v>
@@ -15574,7 +15574,7 @@
         <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15829,7 +15829,7 @@
         <v>45346.5</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
         <v>37</v>
@@ -16004,7 +16004,7 @@
         <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16090,7 +16090,7 @@
         <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16345,7 +16345,7 @@
         <v>45360.5</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F185" t="s">
         <v>38</v>
@@ -16431,10 +16431,10 @@
         <v>45360.5</v>
       </c>
       <c r="E186" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" t="s">
         <v>33</v>
-      </c>
-      <c r="F186" t="s">
-        <v>32</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6840958</v>
+        <v>6840960</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -16603,76 +16603,76 @@
         <v>45367.5</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G188">
+        <v>6</v>
+      </c>
+      <c r="H188">
         <v>0</v>
       </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
       <c r="I188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J188">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="L188">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>1.125</v>
       </c>
       <c r="N188">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O188">
+        <v>13</v>
+      </c>
+      <c r="P188">
+        <v>-2.25</v>
+      </c>
+      <c r="Q188">
+        <v>1.8</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
         <v>1.95</v>
       </c>
-      <c r="P188">
-        <v>0.5</v>
-      </c>
-      <c r="Q188">
-        <v>1.825</v>
-      </c>
-      <c r="R188">
-        <v>1.975</v>
-      </c>
-      <c r="S188">
-        <v>2.5</v>
-      </c>
-      <c r="T188">
-        <v>1.975</v>
-      </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>0.8</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
         <v>0.95</v>
       </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
       <c r="AB188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16680,7 +16680,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6840960</v>
+        <v>6840958</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16689,76 +16689,76 @@
         <v>45367.5</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J189">
-        <v>1.142</v>
+        <v>3</v>
       </c>
       <c r="K189">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="M189">
-        <v>1.125</v>
+        <v>3.6</v>
       </c>
       <c r="N189">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O189">
-        <v>13</v>
+        <v>1.95</v>
       </c>
       <c r="P189">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q189">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16778,7 +16778,7 @@
         <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -17033,7 +17033,7 @@
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F193" t="s">
         <v>36</v>
@@ -17208,7 +17208,7 @@
         <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17291,10 +17291,10 @@
         <v>45374.5</v>
       </c>
       <c r="E196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>4</v>
@@ -17635,10 +17635,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E200" t="s">
+        <v>33</v>
+      </c>
+      <c r="F200" t="s">
         <v>32</v>
-      </c>
-      <c r="F200" t="s">
-        <v>34</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17798,7 +17798,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>8048785</v>
+        <v>8048786</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17807,40 +17807,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J202">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="K202">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L202">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="M202">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="N202">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O202">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
         <v>1.85</v>
@@ -17852,31 +17852,31 @@
         <v>2.75</v>
       </c>
       <c r="T202">
+        <v>1.975</v>
+      </c>
+      <c r="U202">
         <v>1.825</v>
       </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
       <c r="V202">
         <v>-1</v>
       </c>
       <c r="W202">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y202">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
         <v>0.825</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17884,7 +17884,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8048786</v>
+        <v>8048790</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17893,40 +17893,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J203">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K203">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L203">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N203">
         <v>3.75</v>
       </c>
       <c r="O203">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q203">
         <v>1.85</v>
@@ -17935,34 +17935,34 @@
         <v>1.95</v>
       </c>
       <c r="S203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -17970,7 +17970,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8048790</v>
+        <v>8048785</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -17979,40 +17979,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J204">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="K204">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="M204">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="N204">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="P204">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q204">
         <v>1.85</v>
@@ -18021,31 +18021,31 @@
         <v>1.95</v>
       </c>
       <c r="S204">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB204">
         <v>-1</v>
@@ -18065,7 +18065,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
         <v>39</v>
@@ -18240,7 +18240,7 @@
         <v>28</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18326,7 +18326,7 @@
         <v>37</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18409,7 +18409,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F209" t="s">
         <v>30</v>
@@ -18839,7 +18839,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F214" t="s">
         <v>30</v>
@@ -18928,7 +18928,7 @@
         <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -19011,7 +19011,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
         <v>31</v>
@@ -19183,7 +19183,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F218" t="s">
         <v>29</v>
@@ -19260,7 +19260,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8048808</v>
+        <v>8048796</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19269,76 +19269,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J219">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K219">
+        <v>3.8</v>
+      </c>
+      <c r="L219">
+        <v>2.1</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
         <v>3.6</v>
       </c>
-      <c r="L219">
-        <v>3.8</v>
-      </c>
-      <c r="M219">
-        <v>1.7</v>
-      </c>
-      <c r="N219">
-        <v>3.75</v>
-      </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P219">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19346,7 +19346,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8048807</v>
+        <v>8048808</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19355,58 +19355,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="s">
         <v>40</v>
       </c>
       <c r="J220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K220">
         <v>3.6</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N220">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q220">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T220">
+        <v>2</v>
+      </c>
+      <c r="U220">
         <v>1.8</v>
       </c>
-      <c r="U220">
-        <v>2</v>
-      </c>
       <c r="V220">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W220">
         <v>-1</v>
@@ -19415,16 +19415,16 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
         <v>0.8</v>
-      </c>
-      <c r="AB220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19432,7 +19432,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8048796</v>
+        <v>8048807</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19441,76 +19441,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J221">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K221">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L221">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N221">
         <v>3.6</v>
       </c>
       <c r="O221">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q221">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19530,7 +19530,7 @@
         <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19785,7 +19785,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F225" t="s">
         <v>38</v>
@@ -19960,7 +19960,7 @@
         <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -20132,7 +20132,7 @@
         <v>29</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G229">
         <v>1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -121,10 +121,10 @@
     <t>Glentoran</t>
   </si>
   <si>
-    <t>Loughgall</t>
+    <t>Ballymena Utd</t>
   </si>
   <si>
-    <t>Ballymena Utd</t>
+    <t>Loughgall</t>
   </si>
   <si>
     <t>Cliftonville</t>
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6839252</v>
+        <v>6840425</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1100,40 +1100,40 @@
         <v>43</v>
       </c>
       <c r="L7">
+        <v>5.5</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>3.75</v>
-      </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
+        <v>5.25</v>
+      </c>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>3.75</v>
-      </c>
       <c r="Q7">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="R7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
         <v>2.75</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1142,16 +1142,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AD7">
         <v>-0.5</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6839252</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1192,40 +1192,40 @@
         <v>43</v>
       </c>
       <c r="L8">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M8">
+        <v>3.75</v>
+      </c>
+      <c r="N8">
+        <v>1.727</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
-      <c r="N8">
-        <v>1.5</v>
-      </c>
-      <c r="O8">
-        <v>5.25</v>
-      </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>2.75</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1234,16 +1234,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AD8">
         <v>-0.5</v>
@@ -1818,7 +1818,7 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1898,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6840428</v>
+        <v>6839251</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1907,40 +1907,40 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>43</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
         <v>5.75</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q16">
         <v>1.4</v>
@@ -1949,10 +1949,10 @@
         <v>1.25</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U16">
         <v>2.75</v>
@@ -1973,16 +1973,16 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB16">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6839251</v>
+        <v>6840428</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1999,40 +1999,40 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
         <v>43</v>
       </c>
       <c r="L17">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O17">
         <v>5.75</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
         <v>1.4</v>
@@ -2041,10 +2041,10 @@
         <v>1.25</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
         <v>2.75</v>
@@ -2065,16 +2065,16 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.425</v>
+      </c>
+      <c r="AD17">
         <v>-0.5</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
-      </c>
-      <c r="AD17">
-        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2091,7 +2091,7 @@
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
@@ -2186,7 +2186,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -2827,7 +2827,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -3566,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6839246</v>
+        <v>6837580</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4483,46 +4483,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L44">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N44">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="O44">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q44">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S44">
         <v>1.975</v>
@@ -4531,22 +4531,22 @@
         <v>1.825</v>
       </c>
       <c r="U44">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4555,10 +4555,10 @@
         <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4566,7 +4566,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6837580</v>
+        <v>6839246</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4575,46 +4575,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L45">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="O45">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="R45">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>1.975</v>
@@ -4623,22 +4623,22 @@
         <v>1.825</v>
       </c>
       <c r="U45">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4647,10 +4647,10 @@
         <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4750,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4759,79 +4759,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L47">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="P47">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="R47">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X47">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4851,79 +4851,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="O48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="P48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="R48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -5035,7 +5035,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
@@ -5127,7 +5127,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
@@ -5311,7 +5311,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
         <v>33</v>
@@ -5682,7 +5682,7 @@
         <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6323,7 +6323,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
         <v>39</v>
@@ -6507,7 +6507,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -6682,7 +6682,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6840317</v>
+        <v>6840318</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6691,13 +6691,13 @@
         <v>45212.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6706,46 +6706,46 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="s">
         <v>43</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N68">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="R68">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U68">
         <v>3</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6754,19 +6754,19 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.2849999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6774,7 +6774,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840318</v>
+        <v>6840452</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6783,82 +6783,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N69">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
         <v>-1</v>
       </c>
       <c r="AD69">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6866,7 +6866,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6840452</v>
+        <v>6840453</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6875,82 +6875,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L70">
-        <v>1.222</v>
+        <v>7</v>
       </c>
       <c r="M70">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O70">
-        <v>1.166</v>
+        <v>7</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q70">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="R70">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X70">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
       </c>
       <c r="AD70">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6958,7 +6958,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6840453</v>
+        <v>6840454</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6967,16 +6967,16 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6985,55 +6985,55 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
         <v>4.2</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O71">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="R71">
         <v>1.5</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7042,7 +7042,7 @@
         <v>-1</v>
       </c>
       <c r="AD71">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7050,7 +7050,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840454</v>
+        <v>6839242</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7059,82 +7059,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L72">
+        <v>1.25</v>
+      </c>
+      <c r="M72">
         <v>4.75</v>
       </c>
-      <c r="M72">
-        <v>4.2</v>
-      </c>
       <c r="N72">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O72">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>1.285</v>
+        <v>9.5</v>
       </c>
       <c r="R72">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U72">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6839242</v>
+        <v>6840317</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7151,82 +7151,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L73">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="M73">
         <v>4.75</v>
       </c>
       <c r="N73">
-        <v>9</v>
+        <v>1.285</v>
       </c>
       <c r="O73">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>9.5</v>
+        <v>1.285</v>
       </c>
       <c r="R73">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7234,7 +7234,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6840319</v>
+        <v>6840457</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7243,82 +7243,82 @@
         <v>45219.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L74">
+        <v>1.222</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
+        <v>10</v>
+      </c>
+      <c r="O74">
+        <v>1.25</v>
+      </c>
+      <c r="P74">
+        <v>5.5</v>
+      </c>
+      <c r="Q74">
+        <v>10</v>
+      </c>
+      <c r="R74">
+        <v>-1.75</v>
+      </c>
+      <c r="S74">
+        <v>1.975</v>
+      </c>
+      <c r="T74">
+        <v>1.825</v>
+      </c>
+      <c r="U74">
         <v>3</v>
       </c>
-      <c r="M74">
-        <v>3.4</v>
-      </c>
-      <c r="N74">
-        <v>2.2</v>
-      </c>
-      <c r="O74">
-        <v>2.75</v>
-      </c>
-      <c r="P74">
-        <v>3.25</v>
-      </c>
-      <c r="Q74">
-        <v>2.4</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>2.05</v>
-      </c>
-      <c r="T74">
-        <v>1.75</v>
-      </c>
-      <c r="U74">
-        <v>2.5</v>
-      </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
         <v>-1</v>
       </c>
       <c r="AD74">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7326,7 +7326,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6840457</v>
+        <v>6840319</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7335,82 +7335,82 @@
         <v>45219.65625</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L75">
-        <v>1.222</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="P75">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q75">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="R75">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S75">
+        <v>2.05</v>
+      </c>
+      <c r="T75">
+        <v>1.75</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>1.825</v>
       </c>
-      <c r="U75">
-        <v>3</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
-      <c r="W75">
-        <v>1.95</v>
-      </c>
       <c r="X75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC75">
         <v>-1</v>
       </c>
       <c r="AD75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7611,7 +7611,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>31</v>
@@ -7703,7 +7703,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
@@ -7890,7 +7890,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7979,7 +7979,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -8807,10 +8807,10 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>36</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -8890,7 +8890,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6840324</v>
+        <v>6840462</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8899,82 +8899,82 @@
         <v>45241.5</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L92">
-        <v>2.75</v>
+        <v>1.142</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="O92">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="P92">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q92">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="R92">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="U92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
       </c>
       <c r="AD92">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -8982,7 +8982,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6839238</v>
+        <v>6840324</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -8994,58 +8994,58 @@
         <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
         <v>43</v>
       </c>
       <c r="L93">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O93">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R93">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -9054,19 +9054,19 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AA93">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9074,7 +9074,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6840463</v>
+        <v>6839238</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9083,19 +9083,19 @@
         <v>45241.5</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -9104,40 +9104,40 @@
         <v>43</v>
       </c>
       <c r="L94">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M94">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="O94">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q94">
+        <v>1.4</v>
+      </c>
+      <c r="R94">
+        <v>1.25</v>
+      </c>
+      <c r="S94">
+        <v>1.775</v>
+      </c>
+      <c r="T94">
+        <v>2.025</v>
+      </c>
+      <c r="U94">
         <v>3</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>1.75</v>
-      </c>
-      <c r="T94">
-        <v>2.05</v>
-      </c>
-      <c r="U94">
-        <v>2.75</v>
-      </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -9146,19 +9146,19 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB94">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD94">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9166,7 +9166,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6840462</v>
+        <v>6840463</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9175,16 +9175,16 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -9193,64 +9193,64 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L95">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="O95">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T95">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="U95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
         <v>1.925</v>
       </c>
-      <c r="W95">
-        <v>1.875</v>
-      </c>
       <c r="X95">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.7250000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9546,7 +9546,7 @@
         <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>5</v>
@@ -9626,7 +9626,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839237</v>
+        <v>6840326</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9635,64 +9635,64 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="s">
         <v>42</v>
       </c>
       <c r="L100">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
         <v>3.4</v>
       </c>
-      <c r="N100">
-        <v>3</v>
-      </c>
       <c r="O100">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="P100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="R100">
         <v>-0.75</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
         <v>2.75</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X100">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9701,16 +9701,16 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9718,7 +9718,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6840326</v>
+        <v>6839237</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9727,64 +9727,64 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
         <v>42</v>
       </c>
       <c r="L101">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M101">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N101">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="R101">
         <v>-0.75</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U101">
         <v>2.75</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X101">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9793,16 +9793,16 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9902,7 +9902,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6837589</v>
+        <v>6840332</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9911,82 +9911,82 @@
         <v>45254.69791666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
         <v>3.25</v>
       </c>
       <c r="N103">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O103">
+        <v>3.75</v>
+      </c>
+      <c r="P103">
+        <v>3.6</v>
+      </c>
+      <c r="Q103">
+        <v>1.833</v>
+      </c>
+      <c r="R103">
+        <v>0.5</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>1.8</v>
+      </c>
+      <c r="U103">
+        <v>2.75</v>
+      </c>
+      <c r="V103">
+        <v>1.95</v>
+      </c>
+      <c r="W103">
         <v>1.85</v>
       </c>
-      <c r="P103">
-        <v>3.4</v>
-      </c>
-      <c r="Q103">
-        <v>3.6</v>
-      </c>
-      <c r="R103">
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.833</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>0.8</v>
+      </c>
+      <c r="AC103">
+        <v>0.475</v>
+      </c>
+      <c r="AD103">
         <v>-0.5</v>
-      </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>1.85</v>
-      </c>
-      <c r="U103">
-        <v>2.25</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>1.825</v>
-      </c>
-      <c r="X103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
-      <c r="AA103">
-        <v>0.95</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -9994,7 +9994,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6840332</v>
+        <v>6837589</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10003,82 +10003,82 @@
         <v>45254.69791666666</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="M104">
         <v>3.25</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="P104">
+        <v>3.4</v>
+      </c>
+      <c r="Q104">
         <v>3.6</v>
       </c>
-      <c r="Q104">
-        <v>1.833</v>
-      </c>
       <c r="R104">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10098,7 +10098,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -10371,7 +10371,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>38</v>
@@ -10638,7 +10638,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6839235</v>
+        <v>6840334</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10647,19 +10647,19 @@
         <v>45262.5</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -10668,34 +10668,34 @@
         <v>44</v>
       </c>
       <c r="L111">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N111">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="P111">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="R111">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V111">
         <v>1.875</v>
@@ -10707,22 +10707,22 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10730,7 +10730,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6840334</v>
+        <v>6839235</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10739,19 +10739,19 @@
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -10760,34 +10760,34 @@
         <v>44</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M112">
+        <v>3.6</v>
+      </c>
+      <c r="N112">
         <v>3.5</v>
       </c>
-      <c r="N112">
-        <v>2.1</v>
-      </c>
       <c r="O112">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P112">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q112">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V112">
         <v>1.875</v>
@@ -10799,22 +10799,22 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10923,7 +10923,7 @@
         <v>45262.5</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
         <v>33</v>
@@ -11202,7 +11202,7 @@
         <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11386,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11659,7 +11659,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
         <v>39</v>
@@ -11834,7 +11834,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839233</v>
+        <v>6840336</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11843,61 +11843,61 @@
         <v>45276.5</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
         <v>43</v>
       </c>
       <c r="L124">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>4.2</v>
       </c>
       <c r="O124">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="R124">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11906,16 +11906,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.363</v>
+        <v>2.75</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD124">
         <v>-1</v>
@@ -11926,7 +11926,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6837592</v>
+        <v>6839233</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11935,46 +11935,46 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L125">
-        <v>1.181</v>
+        <v>6.5</v>
       </c>
       <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.363</v>
+      </c>
+      <c r="O125">
         <v>6.5</v>
       </c>
-      <c r="N125">
-        <v>11</v>
-      </c>
-      <c r="O125">
-        <v>1.166</v>
-      </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>12</v>
+        <v>1.363</v>
       </c>
       <c r="R125">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="S125">
         <v>1.8</v>
@@ -11983,22 +11983,22 @@
         <v>2</v>
       </c>
       <c r="U125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V125">
+        <v>1.95</v>
+      </c>
+      <c r="W125">
         <v>1.85</v>
       </c>
-      <c r="W125">
-        <v>1.95</v>
-      </c>
       <c r="X125">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -12007,10 +12007,10 @@
         <v>1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12018,7 +12018,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6840336</v>
+        <v>6837592</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12027,82 +12027,82 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L126">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N126">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="O126">
+        <v>1.166</v>
+      </c>
+      <c r="P126">
+        <v>6.5</v>
+      </c>
+      <c r="Q126">
+        <v>12</v>
+      </c>
+      <c r="R126">
+        <v>-2</v>
+      </c>
+      <c r="S126">
         <v>1.8</v>
       </c>
-      <c r="P126">
-        <v>3.8</v>
-      </c>
-      <c r="Q126">
-        <v>3.75</v>
-      </c>
-      <c r="R126">
-        <v>-0.5</v>
-      </c>
-      <c r="S126">
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="T126">
+      <c r="W126">
         <v>1.95</v>
       </c>
-      <c r="U126">
-        <v>2.75</v>
-      </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
-      <c r="W126">
-        <v>1.975</v>
-      </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
+        <v>1</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
+      </c>
+      <c r="AD126">
         <v>0.95</v>
-      </c>
-      <c r="AC126">
-        <v>0.825</v>
-      </c>
-      <c r="AD126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12214,7 +12214,7 @@
         <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12386,7 +12386,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6840477</v>
+        <v>6840338</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12395,82 +12395,82 @@
         <v>45283.5</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>1.153</v>
       </c>
       <c r="M130">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N130">
+        <v>12</v>
+      </c>
+      <c r="O130">
+        <v>1.142</v>
+      </c>
+      <c r="P130">
+        <v>7</v>
+      </c>
+      <c r="Q130">
+        <v>15</v>
+      </c>
+      <c r="R130">
+        <v>-2.25</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
         <v>1.8</v>
       </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>3.5</v>
-      </c>
-      <c r="Q130">
-        <v>1.85</v>
-      </c>
-      <c r="R130">
-        <v>0.5</v>
-      </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
-      <c r="T130">
-        <v>1.925</v>
-      </c>
       <c r="U130">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12478,7 +12478,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6840338</v>
+        <v>6837593</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12487,16 +12487,16 @@
         <v>45283.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12505,64 +12505,64 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L131">
-        <v>1.153</v>
+        <v>4.5</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="O131">
-        <v>1.142</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>15</v>
+        <v>1.833</v>
       </c>
       <c r="R131">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X131">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD131">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12570,7 +12570,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6837593</v>
+        <v>6840477</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12579,62 +12579,62 @@
         <v>45283.5</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
         <v>43</v>
       </c>
       <c r="L132">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N132">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q132">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="R132">
         <v>0.5</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U132">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V132">
+        <v>1.825</v>
+      </c>
+      <c r="W132">
         <v>1.975</v>
       </c>
-      <c r="W132">
-        <v>1.825</v>
-      </c>
       <c r="X132">
         <v>-1</v>
       </c>
@@ -12642,19 +12642,19 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12846,7 +12846,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6840482</v>
+        <v>6839231</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12855,46 +12855,46 @@
         <v>45286.5</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
         <v>3.6</v>
       </c>
       <c r="N135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="R135">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S135">
         <v>1.975</v>
@@ -12903,34 +12903,34 @@
         <v>1.825</v>
       </c>
       <c r="U135">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD135">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6839231</v>
+        <v>6840481</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,64 +12947,64 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="s">
         <v>42</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>4.5</v>
+      </c>
+      <c r="O136">
+        <v>1.8</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
         <v>3.6</v>
       </c>
-      <c r="N136">
-        <v>2</v>
-      </c>
-      <c r="O136">
-        <v>3.1</v>
-      </c>
-      <c r="P136">
-        <v>3.6</v>
-      </c>
-      <c r="Q136">
-        <v>2.05</v>
-      </c>
       <c r="R136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X136">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13013,16 +13013,16 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13030,7 +13030,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6840481</v>
+        <v>6840482</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13039,82 +13039,82 @@
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L137">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q137">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R137">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13131,7 +13131,7 @@
         <v>45286.5</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
         <v>30</v>
@@ -13226,7 +13226,7 @@
         <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -13594,7 +13594,7 @@
         <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13867,7 +13867,7 @@
         <v>45304.5</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
         <v>41</v>
@@ -14235,7 +14235,7 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
         <v>38</v>
@@ -14330,7 +14330,7 @@
         <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -15155,10 +15155,10 @@
         <v>45318.5</v>
       </c>
       <c r="E160" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" t="s">
         <v>36</v>
-      </c>
-      <c r="F160" t="s">
-        <v>35</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15342,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15434,7 +15434,7 @@
         <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -15606,7 +15606,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6840496</v>
+        <v>6840495</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15615,79 +15615,79 @@
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L165">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N165">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="R165">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U165">
         <v>2.75</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y165">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.925</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
-      <c r="AC165">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD165">
         <v>-1</v>
@@ -15790,7 +15790,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6840495</v>
+        <v>6840496</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15799,79 +15799,79 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L167">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="M167">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N167">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="R167">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S167">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U167">
         <v>2.75</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X167">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD167">
         <v>-1</v>
@@ -15891,7 +15891,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
         <v>31</v>
@@ -16351,7 +16351,7 @@
         <v>45339.5</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
         <v>33</v>
@@ -16443,7 +16443,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
         <v>40</v>
@@ -16722,7 +16722,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45346.5</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
         <v>39</v>
@@ -17262,7 +17262,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6840952</v>
+        <v>6840302</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17271,61 +17271,61 @@
         <v>45360.5</v>
       </c>
       <c r="E183" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" t="s">
         <v>36</v>
       </c>
-      <c r="F183" t="s">
-        <v>40</v>
-      </c>
       <c r="G183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K183" t="s">
         <v>43</v>
       </c>
       <c r="L183">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N183">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q183">
-        <v>1.571</v>
+        <v>8.5</v>
       </c>
       <c r="R183">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U183">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -17334,19 +17334,19 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.571</v>
+        <v>7.5</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17354,7 +17354,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6840302</v>
+        <v>6840952</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17363,61 +17363,61 @@
         <v>45360.5</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184" t="s">
         <v>43</v>
       </c>
       <c r="L184">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="M184">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="O184">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>8.5</v>
+        <v>1.571</v>
       </c>
       <c r="R184">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T184">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U184">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -17426,19 +17426,19 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>7.5</v>
+        <v>0.571</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17915,7 +17915,7 @@
         <v>45367.5</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F190" t="s">
         <v>37</v>
@@ -17998,7 +17998,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840959</v>
+        <v>6840958</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18007,61 +18007,61 @@
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" t="s">
         <v>43</v>
       </c>
       <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>3.4</v>
+      </c>
+      <c r="N191">
+        <v>2.2</v>
+      </c>
+      <c r="O191">
         <v>3.6</v>
       </c>
-      <c r="M191">
-        <v>4</v>
-      </c>
-      <c r="N191">
-        <v>1.8</v>
-      </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
       <c r="P191">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q191">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="R191">
         <v>0.5</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U191">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -18070,19 +18070,19 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840960</v>
+        <v>6840959</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,82 +18099,82 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G192">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="K192" t="s">
+        <v>43</v>
+      </c>
+      <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
         <v>4</v>
       </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192" t="s">
-        <v>42</v>
-      </c>
-      <c r="L192">
-        <v>1.142</v>
-      </c>
-      <c r="M192">
-        <v>8.5</v>
-      </c>
       <c r="N192">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>1.125</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>13</v>
+        <v>1.909</v>
       </c>
       <c r="R192">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U192">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X192">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18182,7 +18182,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840958</v>
+        <v>6840960</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18191,82 +18191,82 @@
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L193">
-        <v>3</v>
+        <v>1.142</v>
       </c>
       <c r="M193">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N193">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>1.125</v>
       </c>
       <c r="P193">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q193">
+        <v>13</v>
+      </c>
+      <c r="R193">
+        <v>-2.25</v>
+      </c>
+      <c r="S193">
+        <v>1.8</v>
+      </c>
+      <c r="T193">
+        <v>2</v>
+      </c>
+      <c r="U193">
+        <v>3.75</v>
+      </c>
+      <c r="V193">
         <v>1.95</v>
       </c>
-      <c r="R193">
-        <v>0.5</v>
-      </c>
-      <c r="S193">
-        <v>1.825</v>
-      </c>
-      <c r="T193">
-        <v>1.975</v>
-      </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>1.975</v>
-      </c>
       <c r="W193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.8</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
         <v>0.95</v>
       </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
-      </c>
       <c r="AD193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18378,7 +18378,7 @@
         <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6841451</v>
+        <v>6841452</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,82 +18467,82 @@
         <v>45374.5</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L196">
+        <v>7.5</v>
+      </c>
+      <c r="M196">
+        <v>5</v>
+      </c>
+      <c r="N196">
+        <v>1.285</v>
+      </c>
+      <c r="O196">
+        <v>9</v>
+      </c>
+      <c r="P196">
+        <v>5.75</v>
+      </c>
+      <c r="Q196">
         <v>1.222</v>
       </c>
-      <c r="M196">
-        <v>5.5</v>
-      </c>
-      <c r="N196">
-        <v>9</v>
-      </c>
-      <c r="O196">
-        <v>1.222</v>
-      </c>
-      <c r="P196">
-        <v>5.5</v>
-      </c>
-      <c r="Q196">
-        <v>9.5</v>
-      </c>
       <c r="R196">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U196">
         <v>3</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
         <v>0.222</v>
       </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>-1</v>
-      </c>
       <c r="AA196">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD196">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6841452</v>
+        <v>6841451</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,82 +18559,82 @@
         <v>45374.5</v>
       </c>
       <c r="E197" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L197">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N197">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="O197">
-        <v>9</v>
+        <v>1.222</v>
       </c>
       <c r="P197">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q197">
-        <v>1.222</v>
+        <v>9.5</v>
       </c>
       <c r="R197">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U197">
         <v>3</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD197">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18835,10 +18835,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E200" t="s">
+        <v>36</v>
+      </c>
+      <c r="F200" t="s">
         <v>35</v>
-      </c>
-      <c r="F200" t="s">
-        <v>36</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -19482,7 +19482,7 @@
         <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -19654,7 +19654,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8048798</v>
+        <v>8048788</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19663,19 +19663,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -19684,43 +19684,43 @@
         <v>42</v>
       </c>
       <c r="L209">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
         <v>3.5</v>
       </c>
       <c r="N209">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q209">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="R209">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U209">
         <v>2.75</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X209">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y209">
         <v>-1</v>
@@ -19729,16 +19729,16 @@
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AD209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19746,7 +19746,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>8048788</v>
+        <v>8048798</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19755,19 +19755,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -19776,43 +19776,43 @@
         <v>42</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="M210">
         <v>3.5</v>
       </c>
       <c r="N210">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O210">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="P210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q210">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="R210">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U210">
         <v>2.75</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W210">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X210">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
@@ -19821,16 +19821,16 @@
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20031,7 +20031,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F213" t="s">
         <v>32</v>
@@ -20298,7 +20298,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048805</v>
+        <v>8048806</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20307,82 +20307,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L216">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N216">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O216">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="R216">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20390,7 +20390,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8048806</v>
+        <v>8048805</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20399,82 +20399,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>42</v>
+      </c>
+      <c r="L217">
+        <v>1.615</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
+        <v>1.85</v>
+      </c>
+      <c r="P217">
+        <v>3.6</v>
+      </c>
+      <c r="Q217">
+        <v>3.5</v>
+      </c>
+      <c r="R217">
+        <v>-0.5</v>
+      </c>
+      <c r="S217">
+        <v>1.875</v>
+      </c>
+      <c r="T217">
+        <v>1.925</v>
+      </c>
+      <c r="U217">
         <v>3</v>
       </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-      <c r="J217">
-        <v>3</v>
-      </c>
-      <c r="K217" t="s">
-        <v>43</v>
-      </c>
-      <c r="L217">
-        <v>4</v>
-      </c>
-      <c r="M217">
-        <v>3.8</v>
-      </c>
-      <c r="N217">
-        <v>1.727</v>
-      </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
-      <c r="P217">
-        <v>3.8</v>
-      </c>
-      <c r="Q217">
-        <v>1.7</v>
-      </c>
-      <c r="R217">
-        <v>0.75</v>
-      </c>
-      <c r="S217">
+      <c r="V217">
         <v>1.9</v>
       </c>
-      <c r="T217">
+      <c r="W217">
         <v>1.9</v>
       </c>
-      <c r="U217">
-        <v>2.75</v>
-      </c>
-      <c r="V217">
-        <v>1.825</v>
-      </c>
-      <c r="W217">
-        <v>1.975</v>
-      </c>
       <c r="X217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
+      </c>
+      <c r="AD217">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC217">
-        <v>0.825</v>
-      </c>
-      <c r="AD217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20583,7 +20583,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
         <v>31</v>
@@ -20678,7 +20678,7 @@
         <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -21322,7 +21322,7 @@
         <v>38</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -21506,7 +21506,7 @@
         <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G229">
         <v>1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6840429</v>
+        <v>6839251</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1631,82 +1631,82 @@
         <v>45153.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>1.222</v>
+        <v>5.75</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N13">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="O13">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="R13">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U13">
         <v>2.75</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X13">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6840428</v>
+        <v>6840429</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1723,79 +1723,79 @@
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="O14">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="P14">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="R14">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>1.975</v>
       </c>
       <c r="U14">
         <v>2.75</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AD14">
         <v>-0.5</v>
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6840305</v>
+        <v>6840428</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1815,55 +1815,55 @@
         <v>45153.65625</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L15">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="M15">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="R15">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V15">
         <v>1.85</v>
@@ -1872,25 +1872,25 @@
         <v>1.95</v>
       </c>
       <c r="X15">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1898,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6840304</v>
+        <v>6840305</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1907,10 +1907,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1928,34 +1928,34 @@
         <v>42</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N16">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>1.166</v>
       </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="R16">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U16">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V16">
         <v>1.85</v>
@@ -1964,7 +1964,7 @@
         <v>1.95</v>
       </c>
       <c r="X16">
-        <v>3.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -1973,10 +1973,10 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6839251</v>
+        <v>6840304</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1999,55 +1999,55 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O17">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q17">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R17">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
         <v>1.925</v>
       </c>
-      <c r="T17">
-        <v>1.875</v>
-      </c>
       <c r="U17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V17">
         <v>1.85</v>
@@ -2056,19 +2056,19 @@
         <v>1.95</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -13030,7 +13030,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6840482</v>
+        <v>6840481</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13039,82 +13039,82 @@
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>42</v>
+      </c>
+      <c r="L137">
+        <v>1.6</v>
+      </c>
+      <c r="M137">
         <v>4</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>3</v>
-      </c>
-      <c r="K137" t="s">
-        <v>43</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
+      <c r="N137">
+        <v>4.5</v>
+      </c>
+      <c r="O137">
+        <v>1.8</v>
+      </c>
+      <c r="P137">
+        <v>3.75</v>
+      </c>
+      <c r="Q137">
         <v>3.6</v>
       </c>
-      <c r="N137">
-        <v>1.75</v>
-      </c>
-      <c r="O137">
-        <v>3.8</v>
-      </c>
-      <c r="P137">
-        <v>3.5</v>
-      </c>
-      <c r="Q137">
-        <v>1.833</v>
-      </c>
       <c r="R137">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
         <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13122,7 +13122,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6840481</v>
+        <v>6840482</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13131,82 +13131,82 @@
         <v>45286.5</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L138">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R138">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U138">
         <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840958</v>
+        <v>6840959</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,61 +18099,61 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192" t="s">
         <v>43</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="R192">
         <v>0.5</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -18162,19 +18162,19 @@
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.909</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.95</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18182,7 +18182,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840959</v>
+        <v>6840958</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18191,61 +18191,61 @@
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
         <v>43</v>
       </c>
       <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>3.4</v>
+      </c>
+      <c r="N193">
+        <v>2.2</v>
+      </c>
+      <c r="O193">
         <v>3.6</v>
       </c>
-      <c r="M193">
-        <v>4</v>
-      </c>
-      <c r="N193">
-        <v>1.8</v>
-      </c>
-      <c r="O193">
-        <v>3.3</v>
-      </c>
       <c r="P193">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
         <v>0.5</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18254,19 +18254,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:30">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -109,22 +109,22 @@
     <t>Coleraine</t>
   </si>
   <si>
-    <t>Glenavon</t>
+    <t>Newry City</t>
   </si>
   <si>
-    <t>Newry City</t>
+    <t>Glenavon</t>
   </si>
   <si>
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Glentoran</t>
+    <t>Loughgall</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
   </si>
   <si>
-    <t>Loughgall</t>
+    <t>Glentoran</t>
   </si>
   <si>
     <t>Carrick Rangers</t>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6837574</v>
+        <v>6839253</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -720,52 +720,52 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>43</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="P3">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U3">
         <v>2.75</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6839253</v>
+        <v>6837574</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -812,52 +812,52 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
       </c>
       <c r="L4">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O4">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q4">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U4">
         <v>2.75</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,19 +866,19 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,49 +999,49 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
       <c r="L6">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,19 +1050,19 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AD6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6839252</v>
+        <v>6837575</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1183,49 +1183,49 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q8">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1234,19 +1234,19 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1266,7 +1266,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1631,7 +1631,7 @@
         <v>45153.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -1907,10 +1907,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2186,7 +2186,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2275,10 +2275,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2542,7 +2542,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6978093</v>
+        <v>6973551</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2551,19 +2551,19 @@
         <v>45160.65625</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2572,43 +2572,43 @@
         <v>42</v>
       </c>
       <c r="L23">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="R23">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X23">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2617,13 +2617,13 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD23">
         <v>-1</v>
@@ -2634,7 +2634,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6973551</v>
+        <v>6978093</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2643,19 +2643,19 @@
         <v>45160.65625</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2664,43 +2664,43 @@
         <v>42</v>
       </c>
       <c r="L24">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P24">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="R24">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X24">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2709,13 +2709,13 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD24">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3011,7 +3011,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>40</v>
@@ -3287,7 +3287,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -3474,7 +3474,7 @@
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3563,7 +3563,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
         <v>39</v>
@@ -3750,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
@@ -3934,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4115,10 +4115,10 @@
         <v>45178.5625</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4299,7 +4299,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
         <v>37</v>
@@ -4382,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6837580</v>
+        <v>6839246</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4391,46 +4391,46 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L43">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="O43">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="P43">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="R43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>1.975</v>
@@ -4439,22 +4439,22 @@
         <v>1.825</v>
       </c>
       <c r="U43">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4463,10 +4463,10 @@
         <v>0.825</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4474,7 +4474,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6840440</v>
+        <v>6837580</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4483,82 +4483,82 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L44">
-        <v>1.333</v>
+        <v>1.2</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N44">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O44">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R44">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="S44">
+        <v>1.975</v>
+      </c>
+      <c r="T44">
+        <v>1.825</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>1.875</v>
       </c>
-      <c r="U44">
-        <v>3</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44">
-        <v>1.8</v>
-      </c>
       <c r="X44">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4566,7 +4566,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6839246</v>
+        <v>6840440</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4575,79 +4575,79 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45">
+        <v>1.333</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>8.5</v>
+      </c>
+      <c r="O45">
+        <v>1.333</v>
+      </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>-1.5</v>
+      </c>
+      <c r="S45">
+        <v>1.925</v>
+      </c>
+      <c r="T45">
+        <v>1.875</v>
+      </c>
+      <c r="U45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>43</v>
-      </c>
-      <c r="L45">
-        <v>2.3</v>
-      </c>
-      <c r="M45">
-        <v>3.1</v>
-      </c>
-      <c r="N45">
-        <v>3.25</v>
-      </c>
-      <c r="O45">
-        <v>2.8</v>
-      </c>
-      <c r="P45">
-        <v>3.2</v>
-      </c>
-      <c r="Q45">
-        <v>2.55</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>1.975</v>
-      </c>
-      <c r="T45">
-        <v>1.825</v>
-      </c>
-      <c r="U45">
-        <v>2.25</v>
-      </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD45">
         <v>-1</v>
@@ -4759,7 +4759,7 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
         <v>38</v>
@@ -4943,7 +4943,7 @@
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -5038,7 +5038,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5219,7 +5219,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -5394,7 +5394,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7122710</v>
+        <v>7122708</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5403,19 +5403,19 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5424,43 +5424,43 @@
         <v>42</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O54">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="P54">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="R54">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U54">
         <v>2.75</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X54">
-        <v>5.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5469,16 +5469,16 @@
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>0.875</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
-      </c>
       <c r="AD54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5486,7 +5486,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7122708</v>
+        <v>7122710</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5495,19 +5495,19 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5516,61 +5516,61 @@
         <v>42</v>
       </c>
       <c r="L55">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O55">
+        <v>6.5</v>
+      </c>
+      <c r="P55">
+        <v>5.5</v>
+      </c>
+      <c r="Q55">
+        <v>1.285</v>
+      </c>
+      <c r="R55">
+        <v>1.5</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="P55">
-        <v>3.75</v>
-      </c>
-      <c r="Q55">
-        <v>3.6</v>
-      </c>
-      <c r="R55">
-        <v>-0.5</v>
-      </c>
-      <c r="S55">
-        <v>1.875</v>
-      </c>
       <c r="T55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U55">
         <v>2.75</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>0.875</v>
-      </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5590,7 +5590,7 @@
         <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5774,7 +5774,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -6047,7 +6047,7 @@
         <v>45199.5625</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
@@ -6142,7 +6142,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6326,7 +6326,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -6418,7 +6418,7 @@
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6682,7 +6682,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6840454</v>
+        <v>6840317</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6691,16 +6691,16 @@
         <v>45212.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6712,40 +6712,40 @@
         <v>43</v>
       </c>
       <c r="L68">
+        <v>8</v>
+      </c>
+      <c r="M68">
         <v>4.75</v>
       </c>
-      <c r="M68">
-        <v>4.2</v>
-      </c>
       <c r="N68">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O68">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P68">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q68">
         <v>1.285</v>
       </c>
       <c r="R68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U68">
         <v>3</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6757,16 +6757,16 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6774,7 +6774,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6840318</v>
+        <v>6840453</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6783,82 +6783,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U69">
         <v>3</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z69">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
         <v>-1</v>
       </c>
       <c r="AD69">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6875,10 +6875,10 @@
         <v>45212.65625</v>
       </c>
       <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
         <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>36</v>
       </c>
       <c r="G70">
         <v>6</v>
@@ -6958,7 +6958,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6840453</v>
+        <v>6840454</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6967,16 +6967,16 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6985,55 +6985,55 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M71">
         <v>4.2</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O71">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="R71">
         <v>1.5</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
         <v>-1</v>
@@ -7042,7 +7042,7 @@
         <v>-1</v>
       </c>
       <c r="AD71">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7050,7 +7050,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6840452</v>
+        <v>6840318</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7059,82 +7059,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L72">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="M72">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>10</v>
+        <v>1.533</v>
       </c>
       <c r="O72">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="R72">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
+        <v>1.9</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
         <v>1.85</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>1.95</v>
       </c>
-      <c r="U72">
-        <v>3.25</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>1.875</v>
-      </c>
       <c r="X72">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC72">
+        <v>-1</v>
+      </c>
+      <c r="AD72">
         <v>0.95</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
-      </c>
-      <c r="AD72">
-        <v>0.875</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6840317</v>
+        <v>6840452</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7151,82 +7151,82 @@
         <v>45212.65625</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>1.222</v>
       </c>
       <c r="M73">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>1.285</v>
+        <v>10</v>
       </c>
       <c r="O73">
-        <v>8</v>
+        <v>1.166</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q73">
-        <v>1.285</v>
+        <v>12</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="S73">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7510,7 +7510,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6839241</v>
+        <v>6840455</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7519,10 +7519,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -7540,43 +7540,43 @@
         <v>42</v>
       </c>
       <c r="L77">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="M77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N77">
+        <v>1.615</v>
+      </c>
+      <c r="O77">
         <v>4.5</v>
       </c>
-      <c r="O77">
-        <v>1.833</v>
-      </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q77">
-        <v>3.8</v>
+        <v>1.615</v>
       </c>
       <c r="R77">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S77">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V77">
+        <v>2</v>
+      </c>
+      <c r="W77">
         <v>1.8</v>
       </c>
-      <c r="W77">
-        <v>2</v>
-      </c>
       <c r="X77">
-        <v>0.833</v>
+        <v>3.5</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7585,13 +7585,13 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7602,7 +7602,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6840455</v>
+        <v>6839241</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7611,10 +7611,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7632,43 +7632,43 @@
         <v>42</v>
       </c>
       <c r="L78">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="M78">
+        <v>3.6</v>
+      </c>
+      <c r="N78">
+        <v>4.5</v>
+      </c>
+      <c r="O78">
+        <v>1.833</v>
+      </c>
+      <c r="P78">
+        <v>3.6</v>
+      </c>
+      <c r="Q78">
         <v>3.8</v>
       </c>
-      <c r="N78">
-        <v>1.615</v>
-      </c>
-      <c r="O78">
-        <v>4.5</v>
-      </c>
-      <c r="P78">
-        <v>3.8</v>
-      </c>
-      <c r="Q78">
-        <v>1.615</v>
-      </c>
       <c r="R78">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
+        <v>1.975</v>
+      </c>
+      <c r="U78">
+        <v>2.5</v>
+      </c>
+      <c r="V78">
         <v>1.8</v>
       </c>
-      <c r="U78">
-        <v>2.75</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
       <c r="W78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X78">
-        <v>3.5</v>
+        <v>0.833</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7677,13 +7677,13 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD78">
         <v>-1</v>
@@ -7703,10 +7703,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7786,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6839240</v>
+        <v>6837585</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7795,13 +7795,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
         <v>36</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7813,28 +7813,28 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L80">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>1.142</v>
+        <v>2.2</v>
       </c>
       <c r="P80">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R80">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S80">
         <v>1.925</v>
@@ -7843,34 +7843,34 @@
         <v>1.875</v>
       </c>
       <c r="U80">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X80">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -7878,7 +7878,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6837585</v>
+        <v>6839240</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7887,13 +7887,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7905,28 +7905,28 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L81">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="M81">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O81">
-        <v>2.2</v>
+        <v>1.142</v>
       </c>
       <c r="P81">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R81">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S81">
         <v>1.925</v>
@@ -7935,34 +7935,34 @@
         <v>1.875</v>
       </c>
       <c r="U81">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7982,7 +7982,7 @@
         <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>45227.5625</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
         <v>33</v>
@@ -8439,7 +8439,7 @@
         <v>45234.5</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -8531,7 +8531,7 @@
         <v>45234.5</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
         <v>35</v>
@@ -8623,7 +8623,7 @@
         <v>45234.5</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -8807,7 +8807,7 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
         <v>38</v>
@@ -8994,7 +8994,7 @@
         <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
         <v>40</v>
@@ -9362,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
         <v>35</v>
@@ -9635,10 +9635,10 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9730,7 +9730,7 @@
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9911,10 +9911,10 @@
         <v>45254.69791666666</v>
       </c>
       <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" t="s">
         <v>32</v>
-      </c>
-      <c r="F103" t="s">
-        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10006,7 +10006,7 @@
         <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10371,7 +10371,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
         <v>38</v>
@@ -10463,7 +10463,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>41</v>
@@ -10739,7 +10739,7 @@
         <v>45262.5</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
         <v>30</v>
@@ -10834,7 +10834,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10926,7 +10926,7 @@
         <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11110,7 +11110,7 @@
         <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -11199,7 +11199,7 @@
         <v>45268.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
         <v>35</v>
@@ -11294,7 +11294,7 @@
         <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -11386,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11751,10 +11751,10 @@
         <v>45276.5</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11843,7 +11843,7 @@
         <v>45276.5</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>39</v>
@@ -12027,7 +12027,7 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
         <v>41</v>
@@ -12119,7 +12119,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -12202,7 +12202,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840478</v>
+        <v>6839232</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12211,19 +12211,19 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -12232,43 +12232,43 @@
         <v>42</v>
       </c>
       <c r="L128">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N128">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="R128">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12280,13 +12280,13 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12294,7 +12294,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12303,19 +12303,19 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -12324,43 +12324,43 @@
         <v>42</v>
       </c>
       <c r="L129">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="M129">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="O129">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="R129">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X129">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -12372,13 +12372,13 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12395,7 +12395,7 @@
         <v>45283.5</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
         <v>40</v>
@@ -12490,7 +12490,7 @@
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -12662,7 +12662,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6840289</v>
+        <v>6839231</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12671,19 +12671,19 @@
         <v>45286.5</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -12692,43 +12692,43 @@
         <v>42</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N133">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
         <v>3.6</v>
       </c>
       <c r="Q133">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X133">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12737,16 +12737,16 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD133">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12754,7 +12754,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6840480</v>
+        <v>6840289</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12763,64 +12763,64 @@
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="s">
         <v>42</v>
       </c>
       <c r="L134">
+        <v>4.333</v>
+      </c>
+      <c r="M134">
+        <v>3.75</v>
+      </c>
+      <c r="N134">
+        <v>1.666</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>3.6</v>
+      </c>
+      <c r="Q134">
+        <v>1.8</v>
+      </c>
+      <c r="R134">
+        <v>0.5</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1.8</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
         <v>1.95</v>
       </c>
-      <c r="M134">
-        <v>3.4</v>
-      </c>
-      <c r="N134">
-        <v>3.5</v>
-      </c>
-      <c r="O134">
-        <v>1.666</v>
-      </c>
-      <c r="P134">
-        <v>3.8</v>
-      </c>
-      <c r="Q134">
-        <v>4.333</v>
-      </c>
-      <c r="R134">
-        <v>-0.75</v>
-      </c>
-      <c r="S134">
-        <v>1.85</v>
-      </c>
-      <c r="T134">
-        <v>1.95</v>
-      </c>
-      <c r="U134">
-        <v>2.75</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
-      <c r="W134">
-        <v>1.825</v>
-      </c>
       <c r="X134">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y134">
         <v>-1</v>
@@ -12829,16 +12829,16 @@
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12846,7 +12846,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6840481</v>
+        <v>6840339</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12855,82 +12855,82 @@
         <v>45286.5</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L135">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="M135">
+        <v>4.333</v>
+      </c>
+      <c r="N135">
+        <v>1.444</v>
+      </c>
+      <c r="O135">
+        <v>8</v>
+      </c>
+      <c r="P135">
         <v>4</v>
       </c>
-      <c r="N135">
-        <v>4.5</v>
-      </c>
-      <c r="O135">
-        <v>1.8</v>
-      </c>
-      <c r="P135">
-        <v>3.75</v>
-      </c>
       <c r="Q135">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="R135">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U135">
         <v>2.5</v>
       </c>
       <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
         <v>1.85</v>
       </c>
-      <c r="W135">
-        <v>1.95</v>
-      </c>
       <c r="X135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840482</v>
+        <v>6840480</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,82 +12947,82 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O136">
+        <v>1.666</v>
+      </c>
+      <c r="P136">
         <v>3.8</v>
       </c>
-      <c r="P136">
-        <v>3.5</v>
-      </c>
       <c r="Q136">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="R136">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>1.95</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="T136">
+      <c r="W136">
         <v>1.825</v>
       </c>
-      <c r="U136">
-        <v>2.5</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
-      <c r="W136">
-        <v>1.975</v>
-      </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AD136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13030,7 +13030,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6839231</v>
+        <v>6840481</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13039,64 +13039,64 @@
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s">
         <v>36</v>
       </c>
-      <c r="F137" t="s">
-        <v>38</v>
-      </c>
       <c r="G137">
         <v>2</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="s">
         <v>42</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>4.5</v>
+      </c>
+      <c r="O137">
+        <v>1.8</v>
+      </c>
+      <c r="P137">
+        <v>3.75</v>
+      </c>
+      <c r="Q137">
         <v>3.6</v>
       </c>
-      <c r="N137">
-        <v>2</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>3.6</v>
-      </c>
-      <c r="Q137">
-        <v>2.05</v>
-      </c>
       <c r="R137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X137">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y137">
         <v>-1</v>
@@ -13105,16 +13105,16 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13122,7 +13122,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6840339</v>
+        <v>6840482</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13131,61 +13131,61 @@
         <v>45286.5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K138" t="s">
         <v>43</v>
       </c>
       <c r="L138">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N138">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="R138">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U138">
         <v>2.5</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -13194,16 +13194,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="AA138">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD138">
         <v>-1</v>
@@ -13315,7 +13315,7 @@
         <v>45290.5</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
         <v>35</v>
@@ -13398,7 +13398,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6840483</v>
+        <v>6839230</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13407,82 +13407,82 @@
         <v>45290.5</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L141">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N141">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O141">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="P141">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>1.925</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>1.975</v>
+      </c>
+      <c r="W141">
         <v>1.825</v>
       </c>
-      <c r="T141">
-        <v>1.975</v>
-      </c>
-      <c r="U141">
-        <v>2.75</v>
-      </c>
-      <c r="V141">
-        <v>1.95</v>
-      </c>
-      <c r="W141">
-        <v>1.85</v>
-      </c>
       <c r="X141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13502,7 +13502,7 @@
         <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -13582,7 +13582,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6839230</v>
+        <v>6840483</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13591,82 +13591,82 @@
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L143">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O143">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R143">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13870,7 +13870,7 @@
         <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13950,7 +13950,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6840486</v>
+        <v>6840292</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13959,61 +13959,61 @@
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
         <v>43</v>
       </c>
       <c r="L147">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O147">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="P147">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q147">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="R147">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
         <v>1.8</v>
       </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
       <c r="U147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W147">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -14022,19 +14022,19 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD147">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6840292</v>
+        <v>6840291</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14051,82 +14051,82 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L148">
-        <v>7.5</v>
+        <v>1.363</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="O148">
-        <v>11</v>
+        <v>1.45</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>1.181</v>
+        <v>5</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14134,7 +14134,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6840291</v>
+        <v>6840486</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14143,79 +14143,79 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L149">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="M149">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R149">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U149">
         <v>2.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA149">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD149">
         <v>-1</v>
@@ -14235,7 +14235,7 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
         <v>41</v>
@@ -14790,7 +14790,7 @@
         <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6840950</v>
+        <v>6839227</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14879,52 +14879,52 @@
         <v>45318.5</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
         <v>34</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
         <v>43</v>
       </c>
       <c r="L157">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N157">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R157">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U157">
         <v>2.5</v>
@@ -14942,19 +14942,19 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -14962,7 +14962,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6840494</v>
+        <v>6840950</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14971,10 +14971,10 @@
         <v>45318.5</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14986,40 +14986,40 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
         <v>43</v>
       </c>
       <c r="L158">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N158">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="O158">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q158">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="R158">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U158">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V158">
         <v>1.975</v>
@@ -15034,19 +15034,19 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC158">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AC158">
-        <v>-0.5</v>
-      </c>
       <c r="AD158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15054,7 +15054,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6840493</v>
+        <v>6840494</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15063,16 +15063,16 @@
         <v>45318.5</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -15081,64 +15081,64 @@
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L159">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N159">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="O159">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="P159">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="R159">
+        <v>-1.25</v>
+      </c>
+      <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>1.975</v>
+      </c>
+      <c r="U159">
+        <v>3.25</v>
+      </c>
+      <c r="V159">
+        <v>1.975</v>
+      </c>
+      <c r="W159">
+        <v>1.825</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>-1</v>
+      </c>
+      <c r="Z159">
+        <v>4.75</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC159">
         <v>-0.5</v>
       </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
-      <c r="T159">
-        <v>1.825</v>
-      </c>
-      <c r="U159">
-        <v>2.75</v>
-      </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
-      <c r="W159">
-        <v>1.85</v>
-      </c>
-      <c r="X159">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y159">
-        <v>-1</v>
-      </c>
-      <c r="Z159">
-        <v>-1</v>
-      </c>
-      <c r="AA159">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
-      <c r="AC159">
-        <v>-1</v>
-      </c>
       <c r="AD159">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15146,7 +15146,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6839227</v>
+        <v>6840493</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15155,16 +15155,16 @@
         <v>45318.5</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15173,64 +15173,64 @@
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L160">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q160">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
         <v>-1</v>
       </c>
       <c r="AD160">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15247,7 +15247,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
         <v>39</v>
@@ -15342,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15431,7 +15431,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
         <v>35</v>
@@ -15606,7 +15606,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6840496</v>
+        <v>6840495</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15615,79 +15615,79 @@
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L165">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N165">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="R165">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U165">
         <v>2.75</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y165">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
         <v>0.925</v>
-      </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
-      <c r="AC165">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD165">
         <v>-1</v>
@@ -15698,7 +15698,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6840495</v>
+        <v>6840496</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15707,79 +15707,79 @@
         <v>45332.5</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L166">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="M166">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N166">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q166">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="R166">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S166">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U166">
         <v>2.75</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X166">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD166">
         <v>-1</v>
@@ -15799,7 +15799,7 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>37</v>
@@ -15891,10 +15891,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -16075,10 +16075,10 @@
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>8</v>
@@ -16170,7 +16170,7 @@
         <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -16443,7 +16443,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
         <v>40</v>
@@ -16630,7 +16630,7 @@
         <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -16710,7 +16710,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6839224</v>
+        <v>6840503</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16719,82 +16719,82 @@
         <v>45346.5</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N177">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O177">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P177">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U177">
         <v>2.75</v>
       </c>
       <c r="V177">
+        <v>1.825</v>
+      </c>
+      <c r="W177">
         <v>1.975</v>
       </c>
-      <c r="W177">
-        <v>1.825</v>
-      </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC177">
+        <v>-1</v>
+      </c>
+      <c r="AD177">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16802,7 +16802,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6840503</v>
+        <v>6840502</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16811,82 +16811,82 @@
         <v>45346.5</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N178">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="O178">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="R178">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16894,7 +16894,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6840502</v>
+        <v>6840501</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16903,19 +16903,19 @@
         <v>45346.5</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -16924,44 +16924,44 @@
         <v>42</v>
       </c>
       <c r="L179">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="P179">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q179">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="R179">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W179">
+        <v>2.025</v>
+      </c>
+      <c r="X179">
         <v>1.875</v>
       </c>
-      <c r="X179">
-        <v>0.222</v>
-      </c>
       <c r="Y179">
         <v>-1</v>
       </c>
@@ -16969,16 +16969,16 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -16986,7 +16986,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6840501</v>
+        <v>6840300</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -16995,16 +16995,16 @@
         <v>45346.5</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -17016,43 +17016,43 @@
         <v>42</v>
       </c>
       <c r="L180">
+        <v>1.55</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
         <v>5</v>
       </c>
-      <c r="M180">
-        <v>4.333</v>
-      </c>
-      <c r="N180">
-        <v>1.5</v>
-      </c>
       <c r="O180">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="P180">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="R180">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U180">
         <v>2.75</v>
       </c>
       <c r="V180">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X180">
-        <v>1.875</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -17061,16 +17061,16 @@
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17078,7 +17078,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6840300</v>
+        <v>6839224</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17087,82 +17087,82 @@
         <v>45346.5</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K181" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L181">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O181">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q181">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R181">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U181">
         <v>2.75</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X181">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17179,10 +17179,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -17271,7 +17271,7 @@
         <v>45360.5</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
         <v>38</v>
@@ -17547,10 +17547,10 @@
         <v>45360.5</v>
       </c>
       <c r="E186" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" t="s">
         <v>34</v>
-      </c>
-      <c r="F186" t="s">
-        <v>36</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -17642,7 +17642,7 @@
         <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>41</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G190">
         <v>6</v>
@@ -18007,7 +18007,7 @@
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
         <v>39</v>
@@ -18194,7 +18194,7 @@
         <v>33</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -18375,10 +18375,10 @@
         <v>45374.5</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -18467,7 +18467,7 @@
         <v>45374.5</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
         <v>40</v>
@@ -18559,7 +18559,7 @@
         <v>45374.5</v>
       </c>
       <c r="E197" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
         <v>35</v>
@@ -18835,10 +18835,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E200" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" t="s">
         <v>31</v>
-      </c>
-      <c r="F200" t="s">
-        <v>32</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -19203,7 +19203,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F204" t="s">
         <v>35</v>
@@ -19295,7 +19295,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
         <v>41</v>
@@ -19571,10 +19571,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -19663,7 +19663,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F209" t="s">
         <v>38</v>
@@ -19758,7 +19758,7 @@
         <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -19930,7 +19930,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8048806</v>
+        <v>8048805</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19939,82 +19939,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E212" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>42</v>
+      </c>
+      <c r="L212">
+        <v>1.615</v>
+      </c>
+      <c r="M212">
+        <v>4</v>
+      </c>
+      <c r="N212">
+        <v>4.333</v>
+      </c>
+      <c r="O212">
+        <v>1.85</v>
+      </c>
+      <c r="P212">
+        <v>3.6</v>
+      </c>
+      <c r="Q212">
+        <v>3.5</v>
+      </c>
+      <c r="R212">
+        <v>-0.5</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>1.925</v>
+      </c>
+      <c r="U212">
         <v>3</v>
       </c>
-      <c r="I212">
-        <v>1</v>
-      </c>
-      <c r="J212">
-        <v>3</v>
-      </c>
-      <c r="K212" t="s">
-        <v>43</v>
-      </c>
-      <c r="L212">
-        <v>4</v>
-      </c>
-      <c r="M212">
-        <v>3.8</v>
-      </c>
-      <c r="N212">
-        <v>1.727</v>
-      </c>
-      <c r="O212">
-        <v>4.2</v>
-      </c>
-      <c r="P212">
-        <v>3.8</v>
-      </c>
-      <c r="Q212">
-        <v>1.7</v>
-      </c>
-      <c r="R212">
-        <v>0.75</v>
-      </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.9</v>
       </c>
-      <c r="T212">
+      <c r="W212">
         <v>1.9</v>
       </c>
-      <c r="U212">
-        <v>2.75</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
-      <c r="W212">
-        <v>1.975</v>
-      </c>
       <c r="X212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+      <c r="AD212">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC212">
-        <v>0.825</v>
-      </c>
-      <c r="AD212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20022,7 +20022,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048805</v>
+        <v>8048806</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20031,82 +20031,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L213">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N213">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20126,7 +20126,7 @@
         <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -20399,7 +20399,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
         <v>33</v>
@@ -20586,7 +20586,7 @@
         <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -20666,7 +20666,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8048815</v>
+        <v>8048808</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20675,19 +20675,19 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F220" t="s">
         <v>32</v>
       </c>
       <c r="G220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -20702,37 +20702,37 @@
         <v>3.6</v>
       </c>
       <c r="N220">
+        <v>3.8</v>
+      </c>
+      <c r="O220">
+        <v>1.7</v>
+      </c>
+      <c r="P220">
         <v>3.75</v>
       </c>
-      <c r="O220">
-        <v>1.75</v>
-      </c>
-      <c r="P220">
-        <v>3.6</v>
-      </c>
       <c r="Q220">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R220">
         <v>-0.75</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U220">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X220">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20741,16 +20741,16 @@
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20770,7 +20770,7 @@
         <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -20850,7 +20850,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8048808</v>
+        <v>8048815</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20859,19 +20859,19 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
         <v>31</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -20886,37 +20886,37 @@
         <v>3.6</v>
       </c>
       <c r="N222">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O222">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R222">
         <v>-0.75</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U222">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X222">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20925,16 +20925,16 @@
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -21034,7 +21034,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8048801</v>
+        <v>8048811</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21043,79 +21043,79 @@
         <v>45409.5625</v>
       </c>
       <c r="E224" t="s">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
         <v>34</v>
       </c>
-      <c r="F224" t="s">
-        <v>40</v>
-      </c>
       <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
         <v>4</v>
       </c>
-      <c r="H224">
-        <v>0</v>
-      </c>
       <c r="I224">
         <v>1</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L224">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N224">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O224">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="R224">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X224">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD224">
         <v>-1</v>
@@ -21135,7 +21135,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
         <v>37</v>
@@ -21494,7 +21494,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8048811</v>
+        <v>8048801</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21503,79 +21503,79 @@
         <v>45409.5625</v>
       </c>
       <c r="E229" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L229">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="M229">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="P229">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q229">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="R229">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U229">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD229">
         <v>-1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -1530,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6840428</v>
+        <v>6840430</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1539,82 +1539,82 @@
         <v>45153.65625</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <v>5.75</v>
+      </c>
+      <c r="N12">
+        <v>8.5</v>
+      </c>
+      <c r="O12">
+        <v>1.25</v>
+      </c>
+      <c r="P12">
+        <v>5.75</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>-1.75</v>
+      </c>
+      <c r="S12">
+        <v>1.975</v>
+      </c>
+      <c r="T12">
+        <v>1.825</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>1.6</v>
-      </c>
-      <c r="O12">
-        <v>5.75</v>
-      </c>
-      <c r="P12">
-        <v>4.333</v>
-      </c>
-      <c r="Q12">
-        <v>1.4</v>
-      </c>
-      <c r="R12">
-        <v>1.25</v>
-      </c>
-      <c r="S12">
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>1.975</v>
       </c>
-      <c r="U12">
-        <v>2.75</v>
-      </c>
-      <c r="V12">
-        <v>1.85</v>
-      </c>
-      <c r="W12">
-        <v>1.95</v>
-      </c>
       <c r="X12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AD12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1622,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6840429</v>
+        <v>6840428</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1631,79 +1631,79 @@
         <v>45153.65625</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="O13">
-        <v>1.181</v>
+        <v>5.75</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="R13">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S13">
+        <v>1.825</v>
+      </c>
+      <c r="T13">
         <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>1.825</v>
       </c>
       <c r="U13">
         <v>2.75</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X13">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AD13">
         <v>-0.5</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6840430</v>
+        <v>6840429</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1723,46 +1723,46 @@
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
       <c r="L14">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="M14">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O14">
-        <v>1.25</v>
+        <v>1.181</v>
       </c>
       <c r="P14">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R14">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="S14">
         <v>1.975</v>
@@ -1771,16 +1771,16 @@
         <v>1.825</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0.25</v>
+        <v>0.181</v>
       </c>
       <c r="Y14">
         <v>-1</v>
@@ -1789,16 +1789,16 @@
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
+        <v>0.4</v>
+      </c>
+      <c r="AD14">
         <v>-0.5</v>
-      </c>
-      <c r="AC14">
-        <v>0.825</v>
-      </c>
-      <c r="AD14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6840304</v>
+        <v>6840305</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1815,10 +1815,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1836,34 +1836,34 @@
         <v>42</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>9.5</v>
       </c>
       <c r="O15">
-        <v>4.2</v>
+        <v>1.166</v>
       </c>
       <c r="P15">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="R15">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U15">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V15">
         <v>1.85</v>
@@ -1872,7 +1872,7 @@
         <v>1.95</v>
       </c>
       <c r="X15">
-        <v>3.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1881,10 +1881,10 @@
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1898,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6839251</v>
+        <v>6840304</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1907,55 +1907,55 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O16">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R16">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S16">
+        <v>1.875</v>
+      </c>
+      <c r="T16">
         <v>1.925</v>
       </c>
-      <c r="T16">
-        <v>1.875</v>
-      </c>
       <c r="U16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V16">
         <v>1.85</v>
@@ -1964,19 +1964,19 @@
         <v>1.95</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6840305</v>
+        <v>6839251</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1999,55 +1999,55 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L17">
-        <v>1.2</v>
+        <v>5.75</v>
       </c>
       <c r="M17">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N17">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="R17">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U17">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V17">
         <v>1.85</v>
@@ -2056,19 +2056,19 @@
         <v>1.95</v>
       </c>
       <c r="X17">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6840445</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4851,79 +4851,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L48">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="O48">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="P48">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="R48">
+        <v>-1.75</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>1.825</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>1.9</v>
+      </c>
+      <c r="W48">
+        <v>1.9</v>
+      </c>
+      <c r="X48">
         <v>0.25</v>
       </c>
-      <c r="S48">
-        <v>1.775</v>
-      </c>
-      <c r="T48">
-        <v>2.025</v>
-      </c>
-      <c r="U48">
-        <v>2.75</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>1.825</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
       <c r="Y48">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6840444</v>
+        <v>6840445</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4943,79 +4943,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="O49">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="P49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="R49">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
+        <v>1.775</v>
+      </c>
+      <c r="T49">
+        <v>2.025</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
         <v>1.975</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>1.825</v>
       </c>
-      <c r="U49">
-        <v>3</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
-      <c r="W49">
-        <v>1.9</v>
-      </c>
       <c r="X49">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
+        <v>0.3875</v>
+      </c>
+      <c r="AB49">
+        <v>-0.5</v>
+      </c>
+      <c r="AC49">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
-      <c r="AC49">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5578,7 +5578,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6837582</v>
+        <v>6839244</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5587,82 +5587,82 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L56">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="M56">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="P56">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q56">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U56">
         <v>3</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X56">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5670,7 +5670,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839244</v>
+        <v>6840315</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5679,46 +5679,46 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L57">
-        <v>1.333</v>
+        <v>1.1</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O57">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="P57">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q57">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="R57">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S57">
         <v>1.85</v>
@@ -5727,7 +5727,7 @@
         <v>1.95</v>
       </c>
       <c r="U57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V57">
         <v>1.875</v>
@@ -5736,25 +5736,25 @@
         <v>1.925</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Y57">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -5762,7 +5762,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6840315</v>
+        <v>6840446</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5771,79 +5771,79 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L58">
-        <v>1.1</v>
+        <v>2.625</v>
       </c>
       <c r="M58">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N58">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>1.09</v>
+        <v>2.7</v>
       </c>
       <c r="P58">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="R58">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
+        <v>1.8</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
+        <v>2.75</v>
+      </c>
+      <c r="V58">
+        <v>1.95</v>
+      </c>
+      <c r="W58">
         <v>1.85</v>
       </c>
-      <c r="T58">
-        <v>1.95</v>
-      </c>
-      <c r="U58">
-        <v>3.5</v>
-      </c>
-      <c r="V58">
-        <v>1.875</v>
-      </c>
-      <c r="W58">
-        <v>1.925</v>
-      </c>
       <c r="X58">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD58">
         <v>-1</v>
@@ -5854,7 +5854,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6840446</v>
+        <v>6840447</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5863,61 +5863,61 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>43</v>
       </c>
       <c r="L59">
-        <v>2.625</v>
+        <v>1.952</v>
       </c>
       <c r="M59">
         <v>3.4</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O59">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="P59">
         <v>3.5</v>
       </c>
       <c r="Q59">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R59">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5926,19 +5926,19 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5946,7 +5946,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6840447</v>
+        <v>6837582</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5955,13 +5955,13 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5970,67 +5970,67 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L60">
-        <v>1.952</v>
+        <v>4.75</v>
       </c>
       <c r="M60">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N60">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="P60">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q60">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="R60">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S60">
+        <v>1.975</v>
+      </c>
+      <c r="T60">
+        <v>1.825</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>1.85</v>
       </c>
-      <c r="U60">
-        <v>2.5</v>
-      </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
-      <c r="W60">
-        <v>1.975</v>
-      </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6130,7 +6130,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6840451</v>
+        <v>6837583</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6139,25 +6139,25 @@
         <v>45205.65625</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L62">
         <v>1.8</v>
@@ -6169,52 +6169,52 @@
         <v>3.5</v>
       </c>
       <c r="O62">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="P62">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q62">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U62">
         <v>2.5</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y62">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
         <v>-1</v>
       </c>
       <c r="AD62">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6222,7 +6222,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6837583</v>
+        <v>6840451</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6231,25 +6231,25 @@
         <v>45205.65625</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L63">
         <v>1.8</v>
@@ -6261,52 +6261,52 @@
         <v>3.5</v>
       </c>
       <c r="O63">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="P63">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q63">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
         <v>2.5</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X63">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
       </c>
       <c r="AD63">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -9626,7 +9626,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6837588</v>
+        <v>6840326</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9635,64 +9635,64 @@
         <v>45248.5</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="s">
         <v>42</v>
       </c>
       <c r="L100">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="M100">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N100">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="O100">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="P100">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="R100">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1.8</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
         <v>1.925</v>
       </c>
-      <c r="T100">
+      <c r="W100">
         <v>1.875</v>
       </c>
-      <c r="U100">
-        <v>3</v>
-      </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
-      <c r="W100">
-        <v>2.025</v>
-      </c>
       <c r="X100">
-        <v>0.1659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9701,13 +9701,13 @@
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.925</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AD100">
         <v>-1</v>
@@ -9718,7 +9718,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6840326</v>
+        <v>6837588</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9727,64 +9727,64 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>4</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
         <v>42</v>
       </c>
       <c r="L101">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="M101">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N101">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="O101">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q101">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="R101">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X101">
-        <v>0.7270000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9793,13 +9793,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD101">
         <v>-1</v>
@@ -10178,7 +10178,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6840467</v>
+        <v>6840469</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10187,19 +10187,19 @@
         <v>45255.5</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -10208,43 +10208,43 @@
         <v>42</v>
       </c>
       <c r="L106">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="M106">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>11</v>
       </c>
       <c r="O106">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="P106">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q106">
-        <v>3.3</v>
+        <v>21</v>
       </c>
       <c r="R106">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U106">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X106">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -10253,13 +10253,13 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AD106">
         <v>-1</v>
@@ -10270,7 +10270,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6840469</v>
+        <v>6840467</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10279,19 +10279,19 @@
         <v>45255.5</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -10300,44 +10300,44 @@
         <v>42</v>
       </c>
       <c r="L107">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="M107">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="N107">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="O107">
+        <v>2.1</v>
+      </c>
+      <c r="P107">
+        <v>3.25</v>
+      </c>
+      <c r="Q107">
+        <v>3.3</v>
+      </c>
+      <c r="R107">
+        <v>-0.25</v>
+      </c>
+      <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>1.975</v>
+      </c>
+      <c r="U107">
+        <v>2.5</v>
+      </c>
+      <c r="V107">
+        <v>1.875</v>
+      </c>
+      <c r="W107">
+        <v>1.925</v>
+      </c>
+      <c r="X107">
         <v>1.1</v>
       </c>
-      <c r="P107">
-        <v>8.5</v>
-      </c>
-      <c r="Q107">
-        <v>21</v>
-      </c>
-      <c r="R107">
-        <v>-2.5</v>
-      </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
-      <c r="T107">
-        <v>1.925</v>
-      </c>
-      <c r="U107">
-        <v>3.5</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
-      <c r="W107">
-        <v>1.85</v>
-      </c>
-      <c r="X107">
-        <v>0.1000000000000001</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
@@ -10345,13 +10345,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.825</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.875</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.95</v>
       </c>
       <c r="AD107">
         <v>-1</v>
@@ -12202,7 +12202,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6840478</v>
+        <v>6839232</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12211,19 +12211,19 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -12232,43 +12232,43 @@
         <v>42</v>
       </c>
       <c r="L128">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N128">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="O128">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="P128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="R128">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>0.333</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12280,13 +12280,13 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12294,7 +12294,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6839232</v>
+        <v>6840478</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12303,19 +12303,19 @@
         <v>45282.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -12324,43 +12324,43 @@
         <v>42</v>
       </c>
       <c r="L129">
-        <v>1.181</v>
+        <v>1.4</v>
       </c>
       <c r="M129">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="O129">
-        <v>1.142</v>
+        <v>1.333</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="R129">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X129">
-        <v>0.1419999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Y129">
         <v>-1</v>
@@ -12372,13 +12372,13 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -13490,7 +13490,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840483</v>
+        <v>6840340</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13499,19 +13499,19 @@
         <v>45290.5</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -13520,43 +13520,43 @@
         <v>42</v>
       </c>
       <c r="L142">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="M142">
+        <v>4.333</v>
+      </c>
+      <c r="N142">
         <v>4.5</v>
       </c>
-      <c r="N142">
-        <v>6</v>
-      </c>
       <c r="O142">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R142">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
+        <v>1.95</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>1.975</v>
+      </c>
+      <c r="W142">
         <v>1.825</v>
       </c>
-      <c r="T142">
-        <v>1.975</v>
-      </c>
-      <c r="U142">
-        <v>2.75</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
-      <c r="W142">
-        <v>1.85</v>
-      </c>
       <c r="X142">
-        <v>0.6499999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13565,16 +13565,16 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13582,7 +13582,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840340</v>
+        <v>6840483</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13591,19 +13591,19 @@
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -13612,43 +13612,43 @@
         <v>42</v>
       </c>
       <c r="L143">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="O143">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="P143">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R143">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S143">
+        <v>1.825</v>
+      </c>
+      <c r="T143">
+        <v>1.975</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
         <v>1.85</v>
       </c>
-      <c r="T143">
-        <v>1.95</v>
-      </c>
-      <c r="U143">
-        <v>3.25</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
-      <c r="W143">
-        <v>1.825</v>
-      </c>
       <c r="X143">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13657,16 +13657,16 @@
         <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.825</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>-1</v>
+      </c>
+      <c r="AD143">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB143">
-        <v>-1</v>
-      </c>
-      <c r="AC143">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -15330,7 +15330,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6839226</v>
+        <v>6840297</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15339,67 +15339,67 @@
         <v>45331.69791666666</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L162">
-        <v>1.181</v>
+        <v>2.625</v>
       </c>
       <c r="M162">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>11</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
-        <v>1.181</v>
+        <v>2.75</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q162">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="R162">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U162">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X162">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15411,10 +15411,10 @@
         <v>0</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD162">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15422,7 +15422,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6840297</v>
+        <v>6839226</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15431,67 +15431,67 @@
         <v>45331.69791666666</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L163">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N163">
-        <v>2.45</v>
+        <v>11</v>
       </c>
       <c r="O163">
-        <v>2.75</v>
+        <v>1.181</v>
       </c>
       <c r="P163">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q163">
-        <v>2.375</v>
+        <v>11</v>
       </c>
       <c r="R163">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U163">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V163">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15503,10 +15503,10 @@
         <v>0</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -17906,7 +17906,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6840960</v>
+        <v>6840961</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17915,79 +17915,79 @@
         <v>45367.5</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G190">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>43</v>
+      </c>
+      <c r="L190">
+        <v>7</v>
+      </c>
+      <c r="M190">
+        <v>4.5</v>
+      </c>
+      <c r="N190">
+        <v>1.4</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
         <v>4</v>
       </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190" t="s">
-        <v>42</v>
-      </c>
-      <c r="L190">
-        <v>1.142</v>
-      </c>
-      <c r="M190">
-        <v>8.5</v>
-      </c>
-      <c r="N190">
-        <v>13</v>
-      </c>
-      <c r="O190">
-        <v>1.125</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
       <c r="Q190">
-        <v>13</v>
+        <v>1.65</v>
       </c>
       <c r="R190">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U190">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X190">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA190">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD190">
         <v>-1</v>
@@ -17998,7 +17998,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840959</v>
+        <v>6840960</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18007,82 +18007,82 @@
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>1.142</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="N191">
+        <v>13</v>
+      </c>
+      <c r="O191">
+        <v>1.125</v>
+      </c>
+      <c r="P191">
+        <v>8.5</v>
+      </c>
+      <c r="Q191">
+        <v>13</v>
+      </c>
+      <c r="R191">
+        <v>-2.25</v>
+      </c>
+      <c r="S191">
         <v>1.8</v>
       </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>3.8</v>
-      </c>
-      <c r="Q191">
-        <v>1.909</v>
-      </c>
-      <c r="R191">
-        <v>0.5</v>
-      </c>
-      <c r="S191">
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>3.75</v>
+      </c>
+      <c r="V191">
+        <v>1.95</v>
+      </c>
+      <c r="W191">
         <v>1.85</v>
       </c>
-      <c r="T191">
-        <v>1.95</v>
-      </c>
-      <c r="U191">
-        <v>3</v>
-      </c>
-      <c r="V191">
-        <v>1.9</v>
-      </c>
-      <c r="W191">
-        <v>1.9</v>
-      </c>
       <c r="X191">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.95</v>
       </c>
-      <c r="AC191">
-        <v>0</v>
-      </c>
       <c r="AD191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6840958</v>
+        <v>6840959</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,61 +18099,61 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192" t="s">
         <v>43</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="R192">
         <v>0.5</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U192">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -18162,19 +18162,19 @@
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.909</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.95</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD192">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18182,7 +18182,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840961</v>
+        <v>6840958</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18191,19 +18191,19 @@
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -18212,40 +18212,40 @@
         <v>43</v>
       </c>
       <c r="L193">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M193">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N193">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O193">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -18254,19 +18254,19 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18826,7 +18826,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8048792</v>
+        <v>8048790</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18835,10 +18835,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -18847,7 +18847,7 @@
         <v>2</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -18856,43 +18856,43 @@
         <v>42</v>
       </c>
       <c r="L200">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N200">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="O200">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P200">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q200">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="R200">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S200">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U200">
         <v>3</v>
       </c>
       <c r="V200">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X200">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18901,13 +18901,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB200">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD200">
         <v>-1</v>
@@ -18918,7 +18918,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8048794</v>
+        <v>8048792</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18927,79 +18927,79 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>42</v>
+      </c>
+      <c r="L201">
+        <v>1.4</v>
+      </c>
+      <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>7</v>
+      </c>
+      <c r="O201">
+        <v>1.4</v>
+      </c>
+      <c r="P201">
+        <v>4.5</v>
+      </c>
+      <c r="Q201">
+        <v>7</v>
+      </c>
+      <c r="R201">
+        <v>-1.25</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>1.925</v>
+      </c>
+      <c r="U201">
         <v>3</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>2</v>
-      </c>
-      <c r="K201" t="s">
-        <v>43</v>
-      </c>
-      <c r="L201">
-        <v>1.95</v>
-      </c>
-      <c r="M201">
-        <v>3.75</v>
-      </c>
-      <c r="N201">
-        <v>3.4</v>
-      </c>
-      <c r="O201">
-        <v>1.95</v>
-      </c>
-      <c r="P201">
-        <v>3.75</v>
-      </c>
-      <c r="Q201">
-        <v>3.4</v>
-      </c>
-      <c r="R201">
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>1.975</v>
+      </c>
+      <c r="X201">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
         <v>-0.5</v>
       </c>
-      <c r="S201">
-        <v>1.95</v>
-      </c>
-      <c r="T201">
-        <v>1.85</v>
-      </c>
-      <c r="U201">
-        <v>2.75</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
-      <c r="W201">
-        <v>1.825</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
-      <c r="Z201">
-        <v>2.4</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -19010,7 +19010,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>8048790</v>
+        <v>8048794</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19019,79 +19019,79 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
         <v>3</v>
       </c>
-      <c r="H202">
-        <v>2</v>
-      </c>
       <c r="I202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L202">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M202">
         <v>3.75</v>
       </c>
       <c r="N202">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O202">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P202">
         <v>3.75</v>
       </c>
       <c r="Q202">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
         <v>1.85</v>
       </c>
-      <c r="T202">
-        <v>1.95</v>
-      </c>
       <c r="U202">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X202">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB202">
-        <v>-1</v>
-      </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD202">
         <v>-1</v>
@@ -20022,7 +20022,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048805</v>
+        <v>8048806</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20031,82 +20031,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L213">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N213">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="P213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20114,7 +20114,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048806</v>
+        <v>8048803</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20123,82 +20123,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>42</v>
+      </c>
+      <c r="L214">
         <v>3</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>3</v>
-      </c>
-      <c r="K214" t="s">
-        <v>43</v>
-      </c>
-      <c r="L214">
-        <v>4</v>
-      </c>
       <c r="M214">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q214">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="R214">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U214">
         <v>2.75</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20206,7 +20206,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8048803</v>
+        <v>8048793</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20215,82 +20215,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L215">
+        <v>1.4</v>
+      </c>
+      <c r="M215">
+        <v>4.333</v>
+      </c>
+      <c r="N215">
+        <v>6.5</v>
+      </c>
+      <c r="O215">
+        <v>1.333</v>
+      </c>
+      <c r="P215">
+        <v>5.25</v>
+      </c>
+      <c r="Q215">
+        <v>9</v>
+      </c>
+      <c r="R215">
+        <v>-1.5</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>1.9</v>
+      </c>
+      <c r="U215">
         <v>3</v>
       </c>
-      <c r="M215">
-        <v>3.4</v>
-      </c>
-      <c r="N215">
-        <v>2.15</v>
-      </c>
-      <c r="O215">
-        <v>2.5</v>
-      </c>
-      <c r="P215">
-        <v>3.3</v>
-      </c>
-      <c r="Q215">
-        <v>2.6</v>
-      </c>
-      <c r="R215">
-        <v>0</v>
-      </c>
-      <c r="S215">
-        <v>1.85</v>
-      </c>
-      <c r="T215">
-        <v>1.95</v>
-      </c>
-      <c r="U215">
-        <v>2.75</v>
-      </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X215">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20298,7 +20298,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048793</v>
+        <v>8048805</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20307,82 +20307,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>2</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L216">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="M216">
+        <v>4</v>
+      </c>
+      <c r="N216">
         <v>4.333</v>
       </c>
-      <c r="N216">
-        <v>6.5</v>
-      </c>
       <c r="O216">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="P216">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="R216">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U216">
         <v>3</v>
       </c>
       <c r="V216">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y216">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+      <c r="AD216">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC216">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AD216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20666,7 +20666,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8048808</v>
+        <v>8048807</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20675,64 +20675,64 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>2</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" t="s">
         <v>42</v>
       </c>
       <c r="L220">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M220">
         <v>3.6</v>
       </c>
       <c r="N220">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P220">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R220">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T220">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U220">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X220">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20741,16 +20741,16 @@
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20850,7 +20850,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8048807</v>
+        <v>8048808</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20859,64 +20859,64 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E222" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K222" t="s">
         <v>42</v>
       </c>
       <c r="L222">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M222">
         <v>3.6</v>
       </c>
       <c r="N222">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O222">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q222">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R222">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S222">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U222">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
         <v>1.8</v>
       </c>
-      <c r="W222">
-        <v>2</v>
-      </c>
       <c r="X222">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20925,16 +20925,16 @@
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
+        <v>-1</v>
+      </c>
+      <c r="AD222">
         <v>0.8</v>
-      </c>
-      <c r="AD222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:30">

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -118,19 +118,19 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Loughgall</t>
+    <t>Glentoran</t>
   </si>
   <si>
-    <t>Glentoran</t>
+    <t>Loughgall</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
   </si>
   <si>
-    <t>Cliftonville</t>
+    <t>Dungannon Swifts</t>
   </si>
   <si>
-    <t>Dungannon Swifts</t>
+    <t>Cliftonville</t>
   </si>
   <si>
     <t>Carrick Rangers</t>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6839252</v>
+        <v>6837575</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,49 +999,49 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,19 +1050,19 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,49 +1091,49 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1142,19 +1142,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6840426</v>
+        <v>6840427</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1266,79 +1266,79 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>1.222</v>
+      </c>
+      <c r="R9">
+        <v>1.75</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>1.925</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9">
-        <v>1.571</v>
-      </c>
-      <c r="M9">
-        <v>4.2</v>
-      </c>
-      <c r="N9">
-        <v>4.5</v>
-      </c>
-      <c r="O9">
-        <v>1.444</v>
-      </c>
-      <c r="P9">
-        <v>4.333</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>1.95</v>
-      </c>
-      <c r="U9">
-        <v>2.75</v>
-      </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6840427</v>
+        <v>6840426</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1358,79 +1358,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>1.571</v>
       </c>
       <c r="M10">
+        <v>4.2</v>
+      </c>
+      <c r="N10">
+        <v>4.5</v>
+      </c>
+      <c r="O10">
+        <v>1.444</v>
+      </c>
+      <c r="P10">
+        <v>4.333</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>1.2</v>
-      </c>
-      <c r="O10">
-        <v>11</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>1.222</v>
-      </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AD10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1723,10 +1723,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2266,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6839250</v>
+        <v>6840306</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2275,16 +2275,16 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2296,40 +2296,40 @@
         <v>43</v>
       </c>
       <c r="L20">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="O20">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="R20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2338,16 +2338,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD20">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6840306</v>
+        <v>6840432</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2367,79 +2367,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O21">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
         <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD21">
         <v>-1</v>
@@ -2450,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6840432</v>
+        <v>6839250</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2462,76 +2462,76 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N22">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O22">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>1.75</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>1.95</v>
-      </c>
-      <c r="U22">
-        <v>2.75</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
-      <c r="W22">
-        <v>1.95</v>
-      </c>
       <c r="X22">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2646,7 +2646,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -2830,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -3195,7 +3195,7 @@
         <v>45164.5625</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -3287,7 +3287,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
@@ -3382,7 +3382,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3658,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3747,10 +3747,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4391,10 +4391,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840445</v>
+        <v>6840444</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4759,79 +4759,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L47">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="O47">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="P47">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q47">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="R47">
+        <v>-1.75</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>1.825</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>1.9</v>
+      </c>
+      <c r="W47">
+        <v>1.9</v>
+      </c>
+      <c r="X47">
         <v>0.25</v>
       </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
-      <c r="T47">
-        <v>2.025</v>
-      </c>
-      <c r="U47">
-        <v>2.75</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
-      <c r="W47">
-        <v>1.825</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4851,79 +4851,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L48">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O48">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="R48">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X48">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6837581</v>
+        <v>6840445</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4943,13 +4943,13 @@
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4958,64 +4958,64 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="M49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="O49">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="R49">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z49">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5035,7 +5035,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -5130,7 +5130,7 @@
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
@@ -5495,7 +5495,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>33</v>
@@ -5771,10 +5771,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5866,7 +5866,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5955,7 +5955,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
         <v>36</v>
@@ -6234,7 +6234,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6840449</v>
+        <v>6840450</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6323,82 +6323,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R64">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6406,7 +6406,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6840316</v>
+        <v>6840449</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6415,82 +6415,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L65">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N65">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="R65">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U65">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X65">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6498,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6839243</v>
+        <v>6840316</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6507,46 +6507,46 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L66">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="M66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="O66">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="P66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="R66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S66">
         <v>1.95</v>
@@ -6555,31 +6555,31 @@
         <v>1.85</v>
       </c>
       <c r="U66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD66">
         <v>-1</v>
@@ -6590,7 +6590,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6840450</v>
+        <v>6839243</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6599,79 +6599,79 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
         <v>4</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L67">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M67">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O67">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="R67">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U67">
         <v>2.75</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6786,7 +6786,7 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>45212.65625</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
         <v>33</v>
@@ -6967,10 +6967,10 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
         <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
       </c>
       <c r="G71">
         <v>6</v>
@@ -7243,7 +7243,7 @@
         <v>45219.65625</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -7427,7 +7427,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
         <v>32</v>
@@ -7519,7 +7519,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7611,7 +7611,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -7798,7 +7798,7 @@
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7890,7 +7890,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7982,7 +7982,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8074,7 +8074,7 @@
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8442,7 +8442,7 @@
         <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8715,7 +8715,7 @@
         <v>45234.5</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
         <v>36</v>
@@ -8807,7 +8807,7 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -8899,7 +8899,7 @@
         <v>45241.5</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -8991,7 +8991,7 @@
         <v>45241.5</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
         <v>32</v>
@@ -9175,7 +9175,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9362,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>36</v>
@@ -9638,7 +9638,7 @@
         <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>45248.5</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
         <v>32</v>
@@ -9822,7 +9822,7 @@
         <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -10187,7 +10187,7 @@
         <v>45255.5</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
         <v>41</v>
@@ -10371,10 +10371,10 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10463,7 +10463,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
         <v>40</v>
@@ -10558,7 +10558,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10647,10 +10647,10 @@
         <v>45262.5</v>
       </c>
       <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" t="s">
         <v>38</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6840472</v>
+        <v>6840335</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11015,82 +11015,82 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>43</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>4.333</v>
+      </c>
+      <c r="N115">
+        <v>1.533</v>
+      </c>
+      <c r="O115">
         <v>4</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>42</v>
-      </c>
-      <c r="L115">
-        <v>1.25</v>
-      </c>
-      <c r="M115">
-        <v>6</v>
-      </c>
-      <c r="N115">
-        <v>10</v>
-      </c>
-      <c r="O115">
-        <v>1.4</v>
-      </c>
       <c r="P115">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="R115">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U115">
         <v>2.75</v>
       </c>
       <c r="V115">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X115">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA115">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11098,7 +11098,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6840335</v>
+        <v>6840472</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11107,82 +11107,82 @@
         <v>45268.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L116">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="M116">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>10</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="R116">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
         <v>2.75</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11294,7 +11294,7 @@
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -11386,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11475,10 +11475,10 @@
         <v>45269.5</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -11558,7 +11558,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11567,55 +11567,55 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="s">
         <v>43</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
         <v>3.5</v>
       </c>
       <c r="P121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V121">
         <v>2.025</v>
@@ -11630,19 +11630,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
+        <v>0.8</v>
+      </c>
+      <c r="AC121">
         <v>1.025</v>
       </c>
-      <c r="AC121">
-        <v>-1</v>
-      </c>
       <c r="AD121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11650,7 +11650,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11659,55 +11659,55 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="s">
         <v>43</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q122">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R122">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S122">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V122">
         <v>2.025</v>
@@ -11722,19 +11722,19 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11846,7 +11846,7 @@
         <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11935,10 +11935,10 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -12027,7 +12027,7 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
         <v>32</v>
@@ -12122,7 +12122,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12487,7 +12487,7 @@
         <v>45283.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
         <v>36</v>
@@ -12579,10 +12579,10 @@
         <v>45283.5</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12763,10 +12763,10 @@
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12846,7 +12846,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6840482</v>
+        <v>6840481</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12855,82 +12855,82 @@
         <v>45286.5</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>42</v>
+      </c>
+      <c r="L135">
+        <v>1.6</v>
+      </c>
+      <c r="M135">
         <v>4</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>3</v>
-      </c>
-      <c r="K135" t="s">
-        <v>43</v>
-      </c>
-      <c r="L135">
-        <v>4</v>
-      </c>
-      <c r="M135">
+      <c r="N135">
+        <v>4.5</v>
+      </c>
+      <c r="O135">
+        <v>1.8</v>
+      </c>
+      <c r="P135">
+        <v>3.75</v>
+      </c>
+      <c r="Q135">
         <v>3.6</v>
       </c>
-      <c r="N135">
-        <v>1.75</v>
-      </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
-      <c r="P135">
-        <v>3.5</v>
-      </c>
-      <c r="Q135">
-        <v>1.833</v>
-      </c>
       <c r="R135">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
         <v>2.5</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840481</v>
+        <v>6840482</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,82 +12947,82 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L136">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q136">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R136">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U136">
         <v>2.5</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13039,7 +13039,7 @@
         <v>45286.5</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
         <v>41</v>
@@ -13306,7 +13306,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6840340</v>
+        <v>6840290</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13315,82 +13315,82 @@
         <v>45290.5</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>44</v>
+      </c>
+      <c r="L140">
+        <v>2.4</v>
+      </c>
+      <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
+        <v>2.8</v>
+      </c>
+      <c r="O140">
+        <v>2.25</v>
+      </c>
+      <c r="P140">
         <v>3</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140" t="s">
-        <v>42</v>
-      </c>
-      <c r="L140">
-        <v>1.571</v>
-      </c>
-      <c r="M140">
-        <v>4.333</v>
-      </c>
-      <c r="N140">
-        <v>4.5</v>
-      </c>
-      <c r="O140">
-        <v>1.533</v>
-      </c>
-      <c r="P140">
-        <v>4.333</v>
-      </c>
       <c r="Q140">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R140">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X140">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13398,7 +13398,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6839230</v>
+        <v>6840340</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13407,40 +13407,40 @@
         <v>45290.5</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>3</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L141">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="M141">
         <v>4.333</v>
       </c>
       <c r="N141">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
         <v>1.533</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -13449,13 +13449,13 @@
         <v>-1</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V141">
         <v>1.975</v>
@@ -13464,19 +13464,19 @@
         <v>1.825</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
         <v>0.9750000000000001</v>
@@ -13490,7 +13490,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6840483</v>
+        <v>6839230</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13499,82 +13499,82 @@
         <v>45290.5</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L142">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="M142">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O142">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R142">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>1.925</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>1.975</v>
+      </c>
+      <c r="W142">
         <v>1.825</v>
       </c>
-      <c r="T142">
-        <v>1.975</v>
-      </c>
-      <c r="U142">
-        <v>2.75</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
-      <c r="W142">
-        <v>1.85</v>
-      </c>
       <c r="X142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13582,7 +13582,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840290</v>
+        <v>6840483</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13591,82 +13591,82 @@
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L143">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="O143">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R143">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13959,7 +13959,7 @@
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>40</v>
@@ -14051,7 +14051,7 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
         <v>30</v>
@@ -14134,7 +14134,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6840292</v>
+        <v>6840486</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14143,82 +14143,82 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
         <v>37</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K149" t="s">
         <v>43</v>
       </c>
       <c r="L149">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="M149">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
+        <v>2.5</v>
+      </c>
+      <c r="O149">
+        <v>2.8</v>
+      </c>
+      <c r="P149">
+        <v>3.4</v>
+      </c>
+      <c r="Q149">
+        <v>2.25</v>
+      </c>
+      <c r="R149">
+        <v>0.25</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>2.75</v>
+      </c>
+      <c r="V149">
+        <v>2</v>
+      </c>
+      <c r="W149">
+        <v>1.8</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>1.25</v>
       </c>
-      <c r="O149">
-        <v>11</v>
-      </c>
-      <c r="P149">
-        <v>6</v>
-      </c>
-      <c r="Q149">
-        <v>1.181</v>
-      </c>
-      <c r="R149">
-        <v>1.75</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
-      <c r="T149">
-        <v>1.8</v>
-      </c>
-      <c r="U149">
-        <v>3</v>
-      </c>
-      <c r="V149">
-        <v>1.775</v>
-      </c>
-      <c r="W149">
-        <v>2.025</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>0.181</v>
-      </c>
       <c r="AA149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD149">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14226,7 +14226,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840486</v>
+        <v>6840292</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14235,61 +14235,61 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
         <v>38</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>43</v>
       </c>
       <c r="L150">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O150">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q150">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="R150">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
         <v>1.8</v>
       </c>
-      <c r="T150">
-        <v>2</v>
-      </c>
       <c r="U150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -14298,19 +14298,19 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD150">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14327,7 +14327,7 @@
         <v>45311.5</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
         <v>33</v>
@@ -14410,7 +14410,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6840489</v>
+        <v>6840294</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14419,82 +14419,82 @@
         <v>45311.5</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L152">
+        <v>1.571</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>4.333</v>
+      </c>
+      <c r="O152">
+        <v>1.571</v>
+      </c>
+      <c r="P152">
+        <v>3.8</v>
+      </c>
+      <c r="Q152">
+        <v>4.5</v>
+      </c>
+      <c r="R152">
+        <v>-0.75</v>
+      </c>
+      <c r="S152">
+        <v>1.775</v>
+      </c>
+      <c r="T152">
+        <v>2.025</v>
+      </c>
+      <c r="U152">
+        <v>2.25</v>
+      </c>
+      <c r="V152">
         <v>1.8</v>
       </c>
-      <c r="M152">
-        <v>3.6</v>
-      </c>
-      <c r="N152">
-        <v>3.6</v>
-      </c>
-      <c r="O152">
-        <v>1.727</v>
-      </c>
-      <c r="P152">
-        <v>3.75</v>
-      </c>
-      <c r="Q152">
-        <v>3.75</v>
-      </c>
-      <c r="R152">
+      <c r="W152">
+        <v>2</v>
+      </c>
+      <c r="X152">
+        <v>0.571</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.3875</v>
+      </c>
+      <c r="AB152">
         <v>-0.5</v>
       </c>
-      <c r="S152">
-        <v>1.825</v>
-      </c>
-      <c r="T152">
-        <v>1.975</v>
-      </c>
-      <c r="U152">
-        <v>2.75</v>
-      </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
-      <c r="W152">
-        <v>1.925</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
-      <c r="Z152">
-        <v>2.75</v>
-      </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
-      <c r="AB152">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC152">
         <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14502,7 +14502,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6840293</v>
+        <v>6840489</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14511,82 +14511,82 @@
         <v>45311.5</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L153">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="M153">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N153">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
-        <v>1.166</v>
+        <v>1.727</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q153">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="R153">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>1.975</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
         <v>1.875</v>
       </c>
-      <c r="T153">
+      <c r="W153">
         <v>1.925</v>
       </c>
-      <c r="U153">
-        <v>3</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
-      <c r="W153">
-        <v>1.95</v>
-      </c>
       <c r="X153">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14594,7 +14594,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6840294</v>
+        <v>6840293</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14603,13 +14603,13 @@
         <v>45311.5</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14624,43 +14624,43 @@
         <v>42</v>
       </c>
       <c r="L154">
-        <v>1.571</v>
+        <v>1.125</v>
       </c>
       <c r="M154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N154">
-        <v>4.333</v>
+        <v>17</v>
       </c>
       <c r="O154">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="P154">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q154">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="R154">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X154">
-        <v>0.571</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14669,16 +14669,16 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14698,7 +14698,7 @@
         <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -14882,7 +14882,7 @@
         <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -15066,7 +15066,7 @@
         <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -15158,7 +15158,7 @@
         <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15247,10 +15247,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -15342,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15523,7 +15523,7 @@
         <v>45332.5</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
         <v>41</v>
@@ -15615,7 +15615,7 @@
         <v>45332.5</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
         <v>30</v>
@@ -15799,7 +15799,7 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" t="s">
         <v>39</v>
@@ -15891,7 +15891,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
         <v>32</v>
@@ -16066,7 +16066,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6840498</v>
+        <v>6840299</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16075,65 +16075,65 @@
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="s">
         <v>37</v>
       </c>
-      <c r="F170" t="s">
-        <v>31</v>
-      </c>
       <c r="G170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="s">
         <v>42</v>
       </c>
       <c r="L170">
+        <v>2.4</v>
+      </c>
+      <c r="M170">
+        <v>3.6</v>
+      </c>
+      <c r="N170">
+        <v>2.5</v>
+      </c>
+      <c r="O170">
+        <v>2.4</v>
+      </c>
+      <c r="P170">
+        <v>3.6</v>
+      </c>
+      <c r="Q170">
+        <v>2.45</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
+        <v>1.925</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>1.85</v>
+      </c>
+      <c r="W170">
+        <v>1.95</v>
+      </c>
+      <c r="X170">
         <v>1.4</v>
       </c>
-      <c r="M170">
-        <v>4.5</v>
-      </c>
-      <c r="N170">
-        <v>6.5</v>
-      </c>
-      <c r="O170">
-        <v>1.5</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
-      <c r="Q170">
-        <v>5.75</v>
-      </c>
-      <c r="R170">
-        <v>-1</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>3</v>
-      </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
-      <c r="W170">
-        <v>1.85</v>
-      </c>
-      <c r="X170">
-        <v>0.5</v>
-      </c>
       <c r="Y170">
         <v>-1</v>
       </c>
@@ -16141,16 +16141,16 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AD170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16158,7 +16158,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6840298</v>
+        <v>6839225</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16167,10 +16167,10 @@
         <v>45339.5</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -16182,46 +16182,46 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="s">
         <v>43</v>
       </c>
       <c r="L171">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>1.5</v>
+      </c>
+      <c r="O171">
         <v>5</v>
       </c>
-      <c r="N171">
-        <v>1.285</v>
-      </c>
-      <c r="O171">
-        <v>7</v>
-      </c>
       <c r="P171">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q171">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="R171">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -16230,19 +16230,19 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="AA171">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC171">
         <v>-1</v>
       </c>
       <c r="AD171">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16250,7 +16250,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6840299</v>
+        <v>6840298</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16259,82 +16259,82 @@
         <v>45339.5</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L172">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="M172">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N172">
+        <v>1.285</v>
+      </c>
+      <c r="O172">
+        <v>7</v>
+      </c>
+      <c r="P172">
+        <v>4.2</v>
+      </c>
+      <c r="Q172">
+        <v>1.4</v>
+      </c>
+      <c r="R172">
+        <v>1.25</v>
+      </c>
+      <c r="S172">
+        <v>1.85</v>
+      </c>
+      <c r="T172">
+        <v>1.95</v>
+      </c>
+      <c r="U172">
         <v>2.5</v>
       </c>
-      <c r="O172">
-        <v>2.4</v>
-      </c>
-      <c r="P172">
-        <v>3.6</v>
-      </c>
-      <c r="Q172">
-        <v>2.45</v>
-      </c>
-      <c r="R172">
-        <v>0</v>
-      </c>
-      <c r="S172">
-        <v>1.875</v>
-      </c>
-      <c r="T172">
-        <v>1.925</v>
-      </c>
-      <c r="U172">
-        <v>2.75</v>
-      </c>
       <c r="V172">
+        <v>1.95</v>
+      </c>
+      <c r="W172">
         <v>1.85</v>
       </c>
-      <c r="W172">
-        <v>1.95</v>
-      </c>
       <c r="X172">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA172">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD172">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16342,7 +16342,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6839225</v>
+        <v>6840498</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16351,46 +16351,46 @@
         <v>45339.5</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L173">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
+        <v>6.5</v>
+      </c>
+      <c r="O173">
         <v>1.5</v>
       </c>
-      <c r="O173">
-        <v>5</v>
-      </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q173">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="R173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S173">
         <v>1.8</v>
@@ -16399,34 +16399,34 @@
         <v>2</v>
       </c>
       <c r="U173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16443,7 +16443,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
         <v>32</v>
@@ -16535,7 +16535,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
         <v>40</v>
@@ -16630,7 +16630,7 @@
         <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -16719,7 +16719,7 @@
         <v>45346.5</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
         <v>39</v>
@@ -16903,10 +16903,10 @@
         <v>45346.5</v>
       </c>
       <c r="E179" t="s">
+        <v>37</v>
+      </c>
+      <c r="F179" t="s">
         <v>38</v>
-      </c>
-      <c r="F179" t="s">
-        <v>37</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -17182,7 +17182,7 @@
         <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -17366,7 +17366,7 @@
         <v>31</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -17446,7 +17446,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6840302</v>
+        <v>6840301</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17455,62 +17455,62 @@
         <v>45360.5</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K185" t="s">
         <v>43</v>
       </c>
       <c r="L185">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="M185">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O185">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="P185">
+        <v>4</v>
+      </c>
+      <c r="Q185">
         <v>5.75</v>
       </c>
-      <c r="Q185">
-        <v>8.5</v>
-      </c>
       <c r="R185">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="S185">
+        <v>1.775</v>
+      </c>
+      <c r="T185">
+        <v>2.025</v>
+      </c>
+      <c r="U185">
+        <v>3</v>
+      </c>
+      <c r="V185">
+        <v>1.95</v>
+      </c>
+      <c r="W185">
         <v>1.85</v>
       </c>
-      <c r="T185">
-        <v>1.95</v>
-      </c>
-      <c r="U185">
-        <v>3.5</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
-      <c r="W185">
-        <v>1.8</v>
-      </c>
       <c r="X185">
         <v>-1</v>
       </c>
@@ -17518,19 +17518,19 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
         <v>-1</v>
       </c>
       <c r="AD185">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17538,7 +17538,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6840301</v>
+        <v>6840302</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17547,61 +17547,61 @@
         <v>45360.5</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K186" t="s">
         <v>43</v>
       </c>
       <c r="L186">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N186">
+        <v>6</v>
+      </c>
+      <c r="O186">
+        <v>1.222</v>
+      </c>
+      <c r="P186">
         <v>5.75</v>
       </c>
-      <c r="O186">
-        <v>1.45</v>
-      </c>
-      <c r="P186">
-        <v>4</v>
-      </c>
       <c r="Q186">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="R186">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17610,19 +17610,19 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
         <v>-1</v>
       </c>
       <c r="AD186">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17722,7 +17722,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6841446</v>
+        <v>6840960</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17731,64 +17731,64 @@
         <v>45367.5</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G188">
         <v>6</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>42</v>
       </c>
       <c r="L188">
-        <v>1.333</v>
+        <v>1.142</v>
       </c>
       <c r="M188">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="N188">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O188">
-        <v>1.4</v>
+        <v>1.125</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="R188">
-        <v>-1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S188">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X188">
-        <v>0.3999999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17797,13 +17797,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD188">
         <v>-1</v>
@@ -17814,7 +17814,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6840961</v>
+        <v>6841446</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17823,79 +17823,79 @@
         <v>45367.5</v>
       </c>
       <c r="E189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L189">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="M189">
+        <v>5</v>
+      </c>
+      <c r="N189">
+        <v>8</v>
+      </c>
+      <c r="O189">
+        <v>1.4</v>
+      </c>
+      <c r="P189">
         <v>4.5</v>
       </c>
-      <c r="N189">
-        <v>1.4</v>
-      </c>
-      <c r="O189">
-        <v>4.2</v>
-      </c>
-      <c r="P189">
-        <v>4</v>
-      </c>
       <c r="Q189">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="R189">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD189">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6840960</v>
+        <v>6840961</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17915,79 +17915,79 @@
         <v>45367.5</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G190">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>43</v>
+      </c>
+      <c r="L190">
+        <v>7</v>
+      </c>
+      <c r="M190">
+        <v>4.5</v>
+      </c>
+      <c r="N190">
+        <v>1.4</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
         <v>4</v>
       </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190" t="s">
-        <v>42</v>
-      </c>
-      <c r="L190">
-        <v>1.142</v>
-      </c>
-      <c r="M190">
-        <v>8.5</v>
-      </c>
-      <c r="N190">
-        <v>13</v>
-      </c>
-      <c r="O190">
-        <v>1.125</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
       <c r="Q190">
-        <v>13</v>
+        <v>1.65</v>
       </c>
       <c r="R190">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U190">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X190">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA190">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD190">
         <v>-1</v>
@@ -17998,7 +17998,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6840958</v>
+        <v>6840959</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18007,61 +18007,61 @@
         <v>45367.5</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K191" t="s">
         <v>43</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="R191">
         <v>0.5</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U191">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -18070,19 +18070,19 @@
         <v>-1</v>
       </c>
       <c r="Z191">
+        <v>0.909</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
         <v>0.95</v>
       </c>
-      <c r="AA191">
-        <v>-1</v>
-      </c>
-      <c r="AB191">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD191">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6841445</v>
+        <v>6840958</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,16 +18099,16 @@
         <v>45367.5</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -18117,64 +18117,64 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L192">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="M192">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q192">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="R192">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U192">
         <v>2.5</v>
       </c>
       <c r="V192">
+        <v>1.975</v>
+      </c>
+      <c r="W192">
         <v>1.825</v>
       </c>
-      <c r="W192">
-        <v>1.975</v>
-      </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC192">
         <v>-1</v>
       </c>
       <c r="AD192">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18182,7 +18182,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6840959</v>
+        <v>6841445</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18191,82 +18191,82 @@
         <v>45367.5</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L193">
+        <v>1.75</v>
+      </c>
+      <c r="M193">
+        <v>3.75</v>
+      </c>
+      <c r="N193">
+        <v>4.2</v>
+      </c>
+      <c r="O193">
+        <v>1.8</v>
+      </c>
+      <c r="P193">
         <v>3.6</v>
       </c>
-      <c r="M193">
-        <v>4</v>
-      </c>
-      <c r="N193">
+      <c r="Q193">
+        <v>4.2</v>
+      </c>
+      <c r="R193">
+        <v>-0.75</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
         <v>1.8</v>
       </c>
-      <c r="O193">
-        <v>3.3</v>
-      </c>
-      <c r="P193">
-        <v>3.8</v>
-      </c>
-      <c r="Q193">
-        <v>1.909</v>
-      </c>
-      <c r="R193">
-        <v>0.5</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>1.95</v>
-      </c>
       <c r="U193">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18283,7 +18283,7 @@
         <v>45374.5</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
         <v>36</v>
@@ -18470,7 +18470,7 @@
         <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -18562,7 +18562,7 @@
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -18743,7 +18743,7 @@
         <v>45384.65625</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
         <v>33</v>
@@ -18838,7 +18838,7 @@
         <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -18927,7 +18927,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
         <v>39</v>
@@ -19111,7 +19111,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
@@ -19295,7 +19295,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
         <v>40</v>
@@ -19574,7 +19574,7 @@
         <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -19663,7 +19663,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
         <v>31</v>
@@ -19758,7 +19758,7 @@
         <v>32</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -19850,7 +19850,7 @@
         <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G211">
         <v>8</v>
@@ -19930,7 +19930,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8048793</v>
+        <v>8048803</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19939,82 +19939,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E212" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L212">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N212">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="O212">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="R212">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V212">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y212">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20022,7 +20022,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048803</v>
+        <v>8048791</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20031,16 +20031,16 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -20052,43 +20052,43 @@
         <v>42</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M213">
         <v>3.4</v>
       </c>
       <c r="N213">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O213">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="P213">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R213">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U213">
         <v>2.75</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X213">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20097,16 +20097,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD213">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20114,7 +20114,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048791</v>
+        <v>8048793</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20123,82 +20123,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>2</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L214">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="M214">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O214">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="P214">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q214">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="R214">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S214">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W214">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X214">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20206,7 +20206,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8048805</v>
+        <v>8048813</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20215,82 +20215,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>3.6</v>
+      </c>
+      <c r="N215">
+        <v>2.05</v>
+      </c>
+      <c r="O215">
+        <v>4.5</v>
+      </c>
+      <c r="P215">
+        <v>4</v>
+      </c>
+      <c r="Q215">
         <v>1.615</v>
       </c>
-      <c r="M215">
-        <v>4</v>
-      </c>
-      <c r="N215">
-        <v>4.333</v>
-      </c>
-      <c r="O215">
+      <c r="R215">
+        <v>0.75</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
+        <v>1.775</v>
+      </c>
+      <c r="U215">
+        <v>2.75</v>
+      </c>
+      <c r="V215">
         <v>1.85</v>
       </c>
-      <c r="P215">
-        <v>3.6</v>
-      </c>
-      <c r="Q215">
-        <v>3.5</v>
-      </c>
-      <c r="R215">
+      <c r="W215">
+        <v>1.95</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.615</v>
+      </c>
+      <c r="AA215">
         <v>-0.5</v>
       </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>1.925</v>
-      </c>
-      <c r="U215">
-        <v>3</v>
-      </c>
-      <c r="V215">
-        <v>1.9</v>
-      </c>
-      <c r="W215">
-        <v>1.9</v>
-      </c>
-      <c r="X215">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y215">
-        <v>-1</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
-      <c r="AA215">
-        <v>0.875</v>
-      </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20298,7 +20298,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048813</v>
+        <v>8048806</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20307,61 +20307,61 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K216" t="s">
         <v>43</v>
       </c>
       <c r="L216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M216">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O216">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="R216">
         <v>0.75</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U216">
         <v>2.75</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -20370,19 +20370,19 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AD216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20390,7 +20390,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8048806</v>
+        <v>8048805</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20399,82 +20399,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>42</v>
+      </c>
+      <c r="L217">
+        <v>1.615</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>4.333</v>
+      </c>
+      <c r="O217">
+        <v>1.85</v>
+      </c>
+      <c r="P217">
+        <v>3.6</v>
+      </c>
+      <c r="Q217">
+        <v>3.5</v>
+      </c>
+      <c r="R217">
+        <v>-0.5</v>
+      </c>
+      <c r="S217">
+        <v>1.875</v>
+      </c>
+      <c r="T217">
+        <v>1.925</v>
+      </c>
+      <c r="U217">
         <v>3</v>
       </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-      <c r="J217">
-        <v>3</v>
-      </c>
-      <c r="K217" t="s">
-        <v>43</v>
-      </c>
-      <c r="L217">
-        <v>4</v>
-      </c>
-      <c r="M217">
-        <v>3.8</v>
-      </c>
-      <c r="N217">
-        <v>1.727</v>
-      </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
-      <c r="P217">
-        <v>3.8</v>
-      </c>
-      <c r="Q217">
-        <v>1.7</v>
-      </c>
-      <c r="R217">
-        <v>0.75</v>
-      </c>
-      <c r="S217">
+      <c r="V217">
         <v>1.9</v>
       </c>
-      <c r="T217">
+      <c r="W217">
         <v>1.9</v>
       </c>
-      <c r="U217">
-        <v>2.75</v>
-      </c>
-      <c r="V217">
-        <v>1.825</v>
-      </c>
-      <c r="W217">
-        <v>1.975</v>
-      </c>
       <c r="X217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
+      </c>
+      <c r="AD217">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC217">
-        <v>0.825</v>
-      </c>
-      <c r="AD217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20491,10 +20491,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -20678,7 +20678,7 @@
         <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -20767,7 +20767,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
         <v>31</v>
@@ -21138,7 +21138,7 @@
         <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -21227,7 +21227,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
         <v>41</v>
@@ -21411,7 +21411,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
         <v>36</v>
@@ -21506,7 +21506,7 @@
         <v>40</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G229">
         <v>1</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -118,10 +118,10 @@
     <t>Larne FC</t>
   </si>
   <si>
-    <t>Glentoran</t>
+    <t>Loughgall</t>
   </si>
   <si>
-    <t>Loughgall</t>
+    <t>Glentoran</t>
   </si>
   <si>
     <t>Ballymena Utd</t>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,49 +999,49 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
       <c r="L6">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,19 +1050,19 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AD6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6839252</v>
+        <v>6837575</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,49 +1091,49 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q7">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U7">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1142,19 +1142,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1723,10 +1723,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -2830,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
@@ -3658,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -4750,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840444</v>
+        <v>6840445</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4759,79 +4759,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L47">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="O47">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="P47">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q47">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="R47">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S47">
+        <v>1.775</v>
+      </c>
+      <c r="T47">
+        <v>2.025</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>1.825</v>
       </c>
-      <c r="U47">
-        <v>3</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
-      <c r="W47">
-        <v>1.9</v>
-      </c>
       <c r="X47">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>0.3875</v>
+      </c>
+      <c r="AB47">
+        <v>-0.5</v>
+      </c>
+      <c r="AC47">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6837581</v>
+        <v>6840444</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4851,79 +4851,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="O48">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="P48">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="R48">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6840445</v>
+        <v>6837581</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4943,13 +4943,13 @@
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4958,64 +4958,64 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L49">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="M49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P49">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q49">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="R49">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S49">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA49">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5035,7 +5035,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -5495,7 +5495,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>33</v>
@@ -5774,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5866,7 +5866,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -6234,7 +6234,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6840450</v>
+        <v>6840449</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6323,82 +6323,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P64">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="R64">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6406,7 +6406,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6840449</v>
+        <v>6840316</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6415,82 +6415,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="P65">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
+        <v>9.5</v>
+      </c>
+      <c r="R65">
+        <v>-1.75</v>
+      </c>
+      <c r="S65">
+        <v>1.95</v>
+      </c>
+      <c r="T65">
+        <v>1.85</v>
+      </c>
+      <c r="U65">
         <v>3.25</v>
       </c>
-      <c r="R65">
-        <v>-0.25</v>
-      </c>
-      <c r="S65">
-        <v>1.775</v>
-      </c>
-      <c r="T65">
-        <v>2.025</v>
-      </c>
-      <c r="U65">
-        <v>2.5</v>
-      </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6498,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6840316</v>
+        <v>6839243</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6507,46 +6507,46 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L66">
-        <v>1.25</v>
+        <v>2.15</v>
       </c>
       <c r="M66">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N66">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q66">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="R66">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S66">
         <v>1.95</v>
@@ -6555,31 +6555,31 @@
         <v>1.85</v>
       </c>
       <c r="U66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X66">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC66">
         <v>0.95</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD66">
         <v>-1</v>
@@ -6590,7 +6590,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6839243</v>
+        <v>6840450</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6599,79 +6599,79 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L67">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="M67">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="N67">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="O67">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q67">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U67">
         <v>2.75</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6967,10 +6967,10 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
         <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>35</v>
       </c>
       <c r="G71">
         <v>6</v>
@@ -7427,7 +7427,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
         <v>32</v>
@@ -7519,7 +7519,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7890,7 +7890,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7982,7 +7982,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8715,7 +8715,7 @@
         <v>45234.5</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
         <v>36</v>
@@ -8807,7 +8807,7 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -9175,7 +9175,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9362,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
         <v>36</v>
@@ -9638,7 +9638,7 @@
         <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9914,7 +9914,7 @@
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -10371,7 +10371,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -10463,7 +10463,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
         <v>40</v>
@@ -10558,7 +10558,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -11386,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11478,7 +11478,7 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -11558,7 +11558,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6840337</v>
+        <v>6840475</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11567,55 +11567,55 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="s">
         <v>43</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O121">
         <v>3.5</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q121">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V121">
         <v>2.025</v>
@@ -11630,19 +11630,19 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11650,7 +11650,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6840475</v>
+        <v>6840337</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11659,55 +11659,55 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="s">
         <v>43</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
         <v>3.5</v>
       </c>
       <c r="P122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R122">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T122">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V122">
         <v>2.025</v>
@@ -11722,19 +11722,19 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
+        <v>0.8</v>
+      </c>
+      <c r="AC122">
         <v>1.025</v>
       </c>
-      <c r="AC122">
-        <v>-1</v>
-      </c>
       <c r="AD122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11935,7 +11935,7 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12027,7 +12027,7 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
         <v>32</v>
@@ -12122,7 +12122,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12582,7 +12582,7 @@
         <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12763,7 +12763,7 @@
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -12846,7 +12846,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6840481</v>
+        <v>6840482</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12855,82 +12855,82 @@
         <v>45286.5</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L135">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N135">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O135">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R135">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U135">
         <v>2.5</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6840482</v>
+        <v>6840481</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,82 +12947,82 @@
         <v>45286.5</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>42</v>
+      </c>
+      <c r="L136">
+        <v>1.6</v>
+      </c>
+      <c r="M136">
         <v>4</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>3</v>
-      </c>
-      <c r="K136" t="s">
-        <v>43</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="N136">
+        <v>4.5</v>
+      </c>
+      <c r="O136">
+        <v>1.8</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
         <v>3.6</v>
       </c>
-      <c r="N136">
-        <v>1.75</v>
-      </c>
-      <c r="O136">
-        <v>3.8</v>
-      </c>
-      <c r="P136">
-        <v>3.5</v>
-      </c>
-      <c r="Q136">
-        <v>1.833</v>
-      </c>
       <c r="R136">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U136">
         <v>2.5</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13502,7 +13502,7 @@
         <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13959,7 +13959,7 @@
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
         <v>40</v>
@@ -14051,7 +14051,7 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
         <v>30</v>
@@ -14410,7 +14410,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6840294</v>
+        <v>6840489</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14419,82 +14419,82 @@
         <v>45311.5</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L152">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O152">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="P152">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="R152">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X152">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA152">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
       </c>
       <c r="AD152">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14502,7 +14502,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6840489</v>
+        <v>6840293</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14511,82 +14511,82 @@
         <v>45311.5</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L153">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="M153">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N153">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="O153">
-        <v>1.727</v>
+        <v>1.166</v>
       </c>
       <c r="P153">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q153">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="R153">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD153">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14594,7 +14594,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6840293</v>
+        <v>6840294</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14603,13 +14603,13 @@
         <v>45311.5</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14624,43 +14624,43 @@
         <v>42</v>
       </c>
       <c r="L154">
-        <v>1.125</v>
+        <v>1.571</v>
       </c>
       <c r="M154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N154">
-        <v>17</v>
+        <v>4.333</v>
       </c>
       <c r="O154">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q154">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="R154">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X154">
-        <v>0.1659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14669,16 +14669,16 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -15066,7 +15066,7 @@
         <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -15158,7 +15158,7 @@
         <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
         <v>38</v>
@@ -15342,7 +15342,7 @@
         <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15799,7 +15799,7 @@
         <v>45332.5</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
         <v>39</v>
@@ -15891,7 +15891,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
         <v>32</v>
@@ -16066,7 +16066,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6840299</v>
+        <v>6840298</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16075,82 +16075,82 @@
         <v>45339.5</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L170">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="M170">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N170">
+        <v>1.285</v>
+      </c>
+      <c r="O170">
+        <v>7</v>
+      </c>
+      <c r="P170">
+        <v>4.2</v>
+      </c>
+      <c r="Q170">
+        <v>1.4</v>
+      </c>
+      <c r="R170">
+        <v>1.25</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>1.95</v>
+      </c>
+      <c r="U170">
         <v>2.5</v>
       </c>
-      <c r="O170">
-        <v>2.4</v>
-      </c>
-      <c r="P170">
-        <v>3.6</v>
-      </c>
-      <c r="Q170">
-        <v>2.45</v>
-      </c>
-      <c r="R170">
-        <v>0</v>
-      </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>1.925</v>
-      </c>
-      <c r="U170">
-        <v>2.75</v>
-      </c>
       <c r="V170">
+        <v>1.95</v>
+      </c>
+      <c r="W170">
         <v>1.85</v>
       </c>
-      <c r="W170">
-        <v>1.95</v>
-      </c>
       <c r="X170">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD170">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16158,7 +16158,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6839225</v>
+        <v>6840299</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16167,82 +16167,82 @@
         <v>45339.5</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L171">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N171">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O171">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="P171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="R171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U171">
         <v>2.75</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD171">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16250,7 +16250,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6840298</v>
+        <v>6840498</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16259,16 +16259,16 @@
         <v>45339.5</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -16277,37 +16277,37 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L172">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>1.285</v>
+        <v>6.5</v>
       </c>
       <c r="O172">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="P172">
         <v>4.2</v>
       </c>
       <c r="Q172">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="R172">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V172">
         <v>1.95</v>
@@ -16316,25 +16316,25 @@
         <v>1.85</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16342,7 +16342,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6840498</v>
+        <v>6839225</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16351,46 +16351,46 @@
         <v>45339.5</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>43</v>
+      </c>
+      <c r="L173">
+        <v>5.25</v>
+      </c>
+      <c r="M173">
         <v>4</v>
       </c>
-      <c r="H173">
-        <v>2</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>1</v>
-      </c>
-      <c r="K173" t="s">
-        <v>42</v>
-      </c>
-      <c r="L173">
-        <v>1.4</v>
-      </c>
-      <c r="M173">
-        <v>4.5</v>
-      </c>
       <c r="N173">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="O173">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="P173">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q173">
-        <v>5.75</v>
+        <v>1.55</v>
       </c>
       <c r="R173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S173">
         <v>1.8</v>
@@ -16399,34 +16399,34 @@
         <v>2</v>
       </c>
       <c r="U173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X173">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AA173">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16443,7 +16443,7 @@
         <v>45339.5</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
         <v>32</v>
@@ -16630,7 +16630,7 @@
         <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -16719,7 +16719,7 @@
         <v>45346.5</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
         <v>39</v>
@@ -17182,7 +17182,7 @@
         <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -17547,10 +17547,10 @@
         <v>45360.5</v>
       </c>
       <c r="E186" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" t="s">
         <v>34</v>
-      </c>
-      <c r="F186" t="s">
-        <v>35</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -17915,7 +17915,7 @@
         <v>45367.5</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F190" t="s">
         <v>38</v>
@@ -18010,7 +18010,7 @@
         <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -18283,7 +18283,7 @@
         <v>45374.5</v>
       </c>
       <c r="E194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
         <v>36</v>
@@ -18562,7 +18562,7 @@
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -19111,7 +19111,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
@@ -19295,7 +19295,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
         <v>40</v>
@@ -19574,7 +19574,7 @@
         <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -19663,7 +19663,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F209" t="s">
         <v>31</v>
@@ -19930,7 +19930,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8048803</v>
+        <v>8048793</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19939,82 +19939,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L212">
+        <v>1.4</v>
+      </c>
+      <c r="M212">
+        <v>4.333</v>
+      </c>
+      <c r="N212">
+        <v>6.5</v>
+      </c>
+      <c r="O212">
+        <v>1.333</v>
+      </c>
+      <c r="P212">
+        <v>5.25</v>
+      </c>
+      <c r="Q212">
+        <v>9</v>
+      </c>
+      <c r="R212">
+        <v>-1.5</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>1.9</v>
+      </c>
+      <c r="U212">
         <v>3</v>
       </c>
-      <c r="M212">
-        <v>3.4</v>
-      </c>
-      <c r="N212">
-        <v>2.15</v>
-      </c>
-      <c r="O212">
-        <v>2.5</v>
-      </c>
-      <c r="P212">
-        <v>3.3</v>
-      </c>
-      <c r="Q212">
-        <v>2.6</v>
-      </c>
-      <c r="R212">
-        <v>0</v>
-      </c>
-      <c r="S212">
-        <v>1.85</v>
-      </c>
-      <c r="T212">
-        <v>1.95</v>
-      </c>
-      <c r="U212">
-        <v>2.75</v>
-      </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W212">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X212">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20022,7 +20022,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8048791</v>
+        <v>8048803</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20031,16 +20031,16 @@
         <v>45398.65625</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -20052,43 +20052,43 @@
         <v>42</v>
       </c>
       <c r="L213">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M213">
         <v>3.4</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O213">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q213">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
         <v>2.75</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X213">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20097,16 +20097,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD213">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20114,7 +20114,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8048793</v>
+        <v>8048791</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20123,82 +20123,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>2</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L214">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="M214">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="P214">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q214">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="R214">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V214">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y214">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AD214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20206,7 +20206,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8048813</v>
+        <v>8048805</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20215,82 +20215,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E215" t="s">
+        <v>37</v>
+      </c>
+      <c r="F215" t="s">
         <v>34</v>
       </c>
-      <c r="F215" t="s">
-        <v>33</v>
-      </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L215">
+        <v>1.615</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+      <c r="N215">
+        <v>4.333</v>
+      </c>
+      <c r="O215">
+        <v>1.85</v>
+      </c>
+      <c r="P215">
+        <v>3.6</v>
+      </c>
+      <c r="Q215">
+        <v>3.5</v>
+      </c>
+      <c r="R215">
+        <v>-0.5</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
+        <v>1.925</v>
+      </c>
+      <c r="U215">
         <v>3</v>
       </c>
-      <c r="M215">
-        <v>3.6</v>
-      </c>
-      <c r="N215">
-        <v>2.05</v>
-      </c>
-      <c r="O215">
-        <v>4.5</v>
-      </c>
-      <c r="P215">
-        <v>4</v>
-      </c>
-      <c r="Q215">
-        <v>1.615</v>
-      </c>
-      <c r="R215">
-        <v>0.75</v>
-      </c>
-      <c r="S215">
-        <v>2.025</v>
-      </c>
-      <c r="T215">
-        <v>1.775</v>
-      </c>
-      <c r="U215">
-        <v>2.75</v>
-      </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB215">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20298,7 +20298,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8048806</v>
+        <v>8048813</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20307,61 +20307,61 @@
         <v>45398.65625</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K216" t="s">
         <v>43</v>
       </c>
       <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>3.6</v>
+      </c>
+      <c r="N216">
+        <v>2.05</v>
+      </c>
+      <c r="O216">
+        <v>4.5</v>
+      </c>
+      <c r="P216">
         <v>4</v>
       </c>
-      <c r="M216">
-        <v>3.8</v>
-      </c>
-      <c r="N216">
-        <v>1.727</v>
-      </c>
-      <c r="O216">
-        <v>4.2</v>
-      </c>
-      <c r="P216">
-        <v>3.8</v>
-      </c>
       <c r="Q216">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="R216">
         <v>0.75</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U216">
         <v>2.75</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -20370,19 +20370,19 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC216">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20390,7 +20390,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8048805</v>
+        <v>8048806</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20399,82 +20399,82 @@
         <v>45398.65625</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L217">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N217">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O217">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="P217">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="R217">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20494,7 +20494,7 @@
         <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -20678,7 +20678,7 @@
         <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -21138,7 +21138,7 @@
         <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -21227,7 +21227,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
         <v>41</v>

--- a/Northern Ireland Premier/Northern Ireland Premier.xlsx
+++ b/Northern Ireland Premier/Northern Ireland Premier.xlsx
@@ -118,13 +118,13 @@
     <t>Larne FC</t>
   </si>
   <si>
+    <t>Ballymena Utd</t>
+  </si>
+  <si>
     <t>Loughgall</t>
   </si>
   <si>
     <t>Glentoran</t>
-  </si>
-  <si>
-    <t>Ballymena Utd</t>
   </si>
   <si>
     <t>Dungannon Swifts</t>
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6839252</v>
+        <v>6840425</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1008,40 +1008,40 @@
         <v>43</v>
       </c>
       <c r="L6">
+        <v>5.5</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.75</v>
-      </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
+        <v>5.25</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="P6">
-        <v>3.75</v>
-      </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="R6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
         <v>2.75</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,16 +1050,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AD6">
         <v>-0.5</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6837575</v>
+        <v>6839252</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,49 +1091,49 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1142,19 +1142,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6840425</v>
+        <v>6837575</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1186,40 +1186,40 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
       <c r="L8">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q8">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
         <v>1.925</v>
@@ -1234,19 +1234,19 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AD8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1723,10 +1723,10 @@
         <v>45153.65625</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6840428</v>
+        <v>6840429</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1815,79 +1815,79 @@
         <v>45153.65625</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="O15">
-        <v>5.75</v>
+        <v>1.181</v>
       </c>
       <c r="P15">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="R15">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
         <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>1.975</v>
       </c>
       <c r="U15">
         <v>2.75</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AD15">
         <v>-0.5</v>
@@ -1898,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6840305</v>
+        <v>6840428</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1907,55 +1907,55 @@
         <v>45153.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="O16">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="R16">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V16">
         <v>1.85</v>
@@ -1964,25 +1964,25 @@
         <v>1.95</v>
       </c>
       <c r="X16">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD16">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6840429</v>
+        <v>6840305</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1999,13 +1999,13 @@
         <v>45153.65625</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         <v>42</v>
       </c>
       <c r="L17">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N17">
         <v>9.5</v>
       </c>
       <c r="O17">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q17">
         <v>11</v>
@@ -2041,22 +2041,22 @@
         <v>-2</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U17">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X17">
-        <v>0.181</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2065,16 +2065,16 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -2091,7 +2091,7 @@
         <v>45156.65625</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -2266,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6840306</v>
+        <v>6839250</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2275,16 +2275,16 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2296,40 +2296,40 @@
         <v>43</v>
       </c>
       <c r="L20">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="O20">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="R20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2338,16 +2338,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD20">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6840432</v>
+        <v>6840306</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2367,79 +2367,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21">
+        <v>1.727</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21">
-        <v>1.4</v>
-      </c>
-      <c r="M21">
-        <v>4.5</v>
-      </c>
       <c r="N21">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O21">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
         <v>4.2</v>
       </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
       <c r="R21">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U21">
         <v>2.75</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X21">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD21">
         <v>-1</v>
@@ -2450,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6839250</v>
+        <v>6840432</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2459,79 +2459,79 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N22">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O22">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V22">
+        <v>1.85</v>
+      </c>
+      <c r="W22">
         <v>1.95</v>
       </c>
-      <c r="W22">
-        <v>1.85</v>
-      </c>
       <c r="X22">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD22">
         <v>-1</v>
@@ -2735,7 +2735,7 @@
         <v>45163.65625</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -2827,10 +2827,10 @@
         <v>45163.65625</v>
       </c>
       <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>45167.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
@@ -3566,7 +3566,7 @@
         <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -4026,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4299,10 +4299,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -4750,7 +4750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6840445</v>
+        <v>6840444</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4759,79 +4759,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L47">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N47">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="O47">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="P47">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q47">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="R47">
+        <v>-1.75</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>1.825</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>1.9</v>
+      </c>
+      <c r="W47">
+        <v>1.9</v>
+      </c>
+      <c r="X47">
         <v>0.25</v>
       </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
-      <c r="T47">
-        <v>2.025</v>
-      </c>
-      <c r="U47">
-        <v>2.75</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
-      <c r="W47">
-        <v>1.825</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6840444</v>
+        <v>6837581</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4851,79 +4851,79 @@
         <v>45191.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L48">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O48">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="R48">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X48">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6837581</v>
+        <v>6840445</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4943,13 +4943,13 @@
         <v>45191.65625</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4958,64 +4958,64 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="M49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="O49">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="R49">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z49">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5035,7 +5035,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -5127,7 +5127,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>38</v>
@@ -5495,7 +5495,7 @@
         <v>45195.65625</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>33</v>
@@ -5774,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5866,7 +5866,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5958,7 +5958,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6840449</v>
+        <v>6840450</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6323,82 +6323,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P64">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R64">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6406,7 +6406,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6840316</v>
+        <v>6840449</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6415,82 +6415,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L65">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N65">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="R65">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U65">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X65">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6498,7 +6498,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6839243</v>
+        <v>6840316</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6507,46 +6507,46 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L66">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="M66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="O66">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="P66">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="R66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S66">
         <v>1.95</v>
@@ -6555,31 +6555,31 @@
         <v>1.85</v>
       </c>
       <c r="U66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD66">
         <v>-1</v>
@@ -6590,7 +6590,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6840450</v>
+        <v>6839243</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6599,79 +6599,79 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
         <v>4</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L67">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M67">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O67">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="R67">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U67">
         <v>2.75</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X67">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6694,7 +6694,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6967,10 +6967,10 @@
         <v>45212.65625</v>
       </c>
       <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
         <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
       </c>
       <c r="G71">
         <v>6</v>
@@ -7427,7 +7427,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
         <v>32</v>
@@ -7519,7 +7519,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -7703,7 +7703,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
@@ -7890,7 +7890,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7982,7 +7982,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -8715,10 +8715,10 @@
         <v>45234.5</v>
       </c>
       <c r="E90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" t="s">
         <v>34</v>
-      </c>
-      <c r="F90" t="s">
-        <v>36</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -8807,7 +8807,7 @@
         <v>45234.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
@@ -9083,7 +9083,7 @@
         <v>45241.5</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>31</v>
@@ -9175,7 +9175,7 @@
         <v>45241.5</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -9362,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9543,10 +9543,10 @@
         <v>45248.5</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>5</v>
@@ -9638,7 +9638,7 @@
         <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9914,7 +9914,7 @@
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -10098,7 +10098,7 @@
         <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -10371,7 +10371,7 @@
         <v>45255.61458333334</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
         <v>37</v>
@@ -10463,7 +10463,7 @@
         <v>45261.69791666666</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>40</v>
@@ -10558,7 +10558,7 @@
         <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10923,7 +10923,7 @@
         <v>45262.5</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
         <v>33</v>
@@ -11202,7 +11202,7 @@
         <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6840473</v>
+        <v>6839234</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11291,55 +11291,55 @@
         <v>45269.5</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K118" t="s">
         <v>42</v>
       </c>
       <c r="L118">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="M118">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N118">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O118">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="P118">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="R118">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
         <v>1.9</v>
@@ -11348,7 +11348,7 @@
         <v>1.9</v>
       </c>
       <c r="X118">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11357,10 +11357,10 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC118">
         <v>0.8999999999999999</v>
@@ -11374,7 +11374,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6839234</v>
+        <v>6840473</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11383,55 +11383,55 @@
         <v>45269.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
         <v>3</v>
       </c>
-      <c r="H119">
-        <v>2</v>
-      </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="s">
         <v>42</v>
       </c>
       <c r="L119">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="M119">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N119">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O119">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q119">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="R119">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U119">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V119">
         <v>1.9</v>
@@ -11440,7 +11440,7 @@
         <v>1.9</v>
       </c>
       <c r="X119">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11449,10 +11449,10 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>0.8999999999999999</v>
@@ -11478,7 +11478,7 @@
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -11567,7 +11567,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
         <v>39</v>
@@ -11935,7 +11935,7 @@
         <v>45276.5</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12027,7 +12027,7 @@
         <v>45276.5</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
         <v>32</v>
@@ -12122,7 +12122,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12490,7 +12490,7 @@
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12582,7 +12582,7 @@
         <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12671,7 +12671,7 @@
         <v>45286.5</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
         <v>30</v>
@@ -12763,7 +12763,7 @@
         <v>45286.5</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -12950,7 +12950,7 @@
         <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -13226,7 +13226,7 @@
         <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -13490,7 +13490,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6839230</v>
+        <v>6840483</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13499,82 +13499,82 @@
         <v>45290.5</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L142">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="M142">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N142">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O142">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R142">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13582,7 +13582,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6840483</v>
+        <v>6839230</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13591,82 +13591,82 @@
         <v>45290.5</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L143">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="M143">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N143">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O143">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q143">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R143">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>1.925</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143">
+        <v>1.975</v>
+      </c>
+      <c r="W143">
         <v>1.825</v>
       </c>
-      <c r="T143">
-        <v>1.975</v>
-      </c>
-      <c r="U143">
-        <v>2.75</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
-      <c r="W143">
-        <v>1.85</v>
-      </c>
       <c r="X143">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13959,7 +13959,7 @@
         <v>45304.5</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>40</v>
@@ -14051,7 +14051,7 @@
         <v>45304.5</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
         <v>30</v>
@@ -14134,7 +14134,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6840486</v>
+        <v>6840292</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14143,61 +14143,61 @@
         <v>45304.5</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>43</v>
       </c>
       <c r="L149">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N149">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O149">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q149">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="R149">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
         <v>1.8</v>
       </c>
-      <c r="T149">
-        <v>2</v>
-      </c>
       <c r="U149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -14206,19 +14206,19 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD149">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14226,7 +14226,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6840292</v>
+        <v>6840486</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14235,82 +14235,82 @@
         <v>45304.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K150" t="s">
         <v>43</v>
       </c>
       <c r="L150">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="M150">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N150">
+        <v>2.5</v>
+      </c>
+      <c r="O150">
+        <v>2.8</v>
+      </c>
+      <c r="P150">
+        <v>3.4</v>
+      </c>
+      <c r="Q150">
+        <v>2.25</v>
+      </c>
+      <c r="R150">
+        <v>0.25</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>2</v>
+      </c>
+      <c r="W150">
+        <v>1.8</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
   